--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4637200</v>
+        <v>3270100</v>
       </c>
       <c r="E8" s="3">
-        <v>4187000</v>
+        <v>4288200</v>
       </c>
       <c r="F8" s="3">
-        <v>3950600</v>
+        <v>4476400</v>
       </c>
       <c r="G8" s="3">
-        <v>2786800</v>
+        <v>4041800</v>
       </c>
       <c r="H8" s="3">
-        <v>4440700</v>
+        <v>3813700</v>
       </c>
       <c r="I8" s="3">
+        <v>2690200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4286700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4480600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4120800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3872100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3323600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2910600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2797900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2656500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2118400</v>
+        <v>2264400</v>
       </c>
       <c r="E9" s="3">
-        <v>1903800</v>
+        <v>2226600</v>
       </c>
       <c r="F9" s="3">
-        <v>1933900</v>
+        <v>2044900</v>
       </c>
       <c r="G9" s="3">
-        <v>1875200</v>
+        <v>1837800</v>
       </c>
       <c r="H9" s="3">
-        <v>1969300</v>
+        <v>1866900</v>
       </c>
       <c r="I9" s="3">
+        <v>1810200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1901000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2080700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2094300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2102400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1830800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1529400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1339800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1267600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2518800</v>
+        <v>1005700</v>
       </c>
       <c r="E10" s="3">
-        <v>2283200</v>
+        <v>2061600</v>
       </c>
       <c r="F10" s="3">
-        <v>2016700</v>
+        <v>2431500</v>
       </c>
       <c r="G10" s="3">
-        <v>911600</v>
+        <v>2204100</v>
       </c>
       <c r="H10" s="3">
-        <v>2471400</v>
+        <v>1946800</v>
       </c>
       <c r="I10" s="3">
+        <v>880000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2385700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2399900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2026500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1769700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1492900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1381300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1458100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1389000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1052,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1073500</v>
+        <v>1136500</v>
       </c>
       <c r="E15" s="3">
-        <v>983900</v>
+        <v>1126400</v>
       </c>
       <c r="F15" s="3">
-        <v>950800</v>
+        <v>1036300</v>
       </c>
       <c r="G15" s="3">
-        <v>999700</v>
+        <v>949800</v>
       </c>
       <c r="H15" s="3">
-        <v>983100</v>
+        <v>917800</v>
       </c>
       <c r="I15" s="3">
+        <v>965000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K15" s="3">
         <v>956000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>946300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1046400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>945900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>900500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>997900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>959500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3306300</v>
+        <v>3355100</v>
       </c>
       <c r="E17" s="3">
-        <v>2980300</v>
+        <v>3575300</v>
       </c>
       <c r="F17" s="3">
-        <v>3017200</v>
+        <v>3191600</v>
       </c>
       <c r="G17" s="3">
-        <v>2866600</v>
+        <v>2877000</v>
       </c>
       <c r="H17" s="3">
-        <v>2981800</v>
+        <v>2912600</v>
       </c>
       <c r="I17" s="3">
+        <v>2767200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2878400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3261100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3069900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3316900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2948600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2437300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2453000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2352300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1330900</v>
+        <v>-85000</v>
       </c>
       <c r="E18" s="3">
-        <v>1206700</v>
+        <v>712900</v>
       </c>
       <c r="F18" s="3">
-        <v>933500</v>
+        <v>1284800</v>
       </c>
       <c r="G18" s="3">
-        <v>-79800</v>
+        <v>1164900</v>
       </c>
       <c r="H18" s="3">
-        <v>1458900</v>
+        <v>901100</v>
       </c>
       <c r="I18" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1408300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1219500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1050900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>555200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>375100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>473300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>344900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>304200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-130200</v>
+        <v>-812400</v>
       </c>
       <c r="E20" s="3">
-        <v>108400</v>
+        <v>97400</v>
       </c>
       <c r="F20" s="3">
-        <v>128700</v>
+        <v>-125700</v>
       </c>
       <c r="G20" s="3">
-        <v>-417800</v>
+        <v>104600</v>
       </c>
       <c r="H20" s="3">
-        <v>291300</v>
+        <v>124300</v>
       </c>
       <c r="I20" s="3">
+        <v>-403300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>281200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-21100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-249900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>90800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>343100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>494200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>14600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>57600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2274200</v>
+        <v>239100</v>
       </c>
       <c r="E21" s="3">
-        <v>2299000</v>
+        <v>1936600</v>
       </c>
       <c r="F21" s="3">
-        <v>2013000</v>
+        <v>2195300</v>
       </c>
       <c r="G21" s="3">
-        <v>502100</v>
+        <v>2219300</v>
       </c>
       <c r="H21" s="3">
-        <v>2733400</v>
+        <v>1943200</v>
       </c>
       <c r="I21" s="3">
+        <v>484700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2638600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2154500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1747200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1692300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1664100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1868000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1357500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1321400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>173900</v>
+        <v>149700</v>
       </c>
       <c r="E22" s="3">
-        <v>148300</v>
+        <v>212900</v>
       </c>
       <c r="F22" s="3">
-        <v>143800</v>
+        <v>167900</v>
       </c>
       <c r="G22" s="3">
-        <v>179200</v>
+        <v>143200</v>
       </c>
       <c r="H22" s="3">
-        <v>135500</v>
+        <v>138800</v>
       </c>
       <c r="I22" s="3">
+        <v>173000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K22" s="3">
         <v>143000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>143000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>198000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>136200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>107900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>102900</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1026800</v>
+        <v>-1047200</v>
       </c>
       <c r="E23" s="3">
-        <v>1166800</v>
+        <v>597300</v>
       </c>
       <c r="F23" s="3">
-        <v>918400</v>
+        <v>991200</v>
       </c>
       <c r="G23" s="3">
-        <v>-676800</v>
+        <v>1126400</v>
       </c>
       <c r="H23" s="3">
-        <v>1614700</v>
+        <v>886600</v>
       </c>
       <c r="I23" s="3">
+        <v>-653300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1558800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1055400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>657900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>448000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>582000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>859600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>256600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>361800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>253700</v>
+        <v>-115500</v>
       </c>
       <c r="E24" s="3">
-        <v>-964300</v>
+        <v>163500</v>
       </c>
       <c r="F24" s="3">
-        <v>195000</v>
+        <v>244900</v>
       </c>
       <c r="G24" s="3">
-        <v>-92600</v>
+        <v>-930900</v>
       </c>
       <c r="H24" s="3">
-        <v>258200</v>
+        <v>188200</v>
       </c>
       <c r="I24" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>249300</v>
+      </c>
+      <c r="K24" s="3">
         <v>316200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>219100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>153300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>72900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>61800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>68400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-73000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>773100</v>
+        <v>-931600</v>
       </c>
       <c r="E26" s="3">
-        <v>2131100</v>
+        <v>433800</v>
       </c>
       <c r="F26" s="3">
-        <v>723400</v>
+        <v>746300</v>
       </c>
       <c r="G26" s="3">
-        <v>-584200</v>
+        <v>2057300</v>
       </c>
       <c r="H26" s="3">
-        <v>1356500</v>
+        <v>698300</v>
       </c>
       <c r="I26" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K26" s="3">
         <v>739200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>438900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>294700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>509000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>797800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>188200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>434800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>773100</v>
+        <v>-931600</v>
       </c>
       <c r="E27" s="3">
-        <v>2131100</v>
+        <v>433800</v>
       </c>
       <c r="F27" s="3">
-        <v>723400</v>
+        <v>746300</v>
       </c>
       <c r="G27" s="3">
-        <v>-584200</v>
+        <v>2057300</v>
       </c>
       <c r="H27" s="3">
-        <v>1356500</v>
+        <v>698300</v>
       </c>
       <c r="I27" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K27" s="3">
         <v>739200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>438900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>294700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>509000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>797800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>188200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>434800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>130200</v>
+        <v>812400</v>
       </c>
       <c r="E32" s="3">
-        <v>-108400</v>
+        <v>-97400</v>
       </c>
       <c r="F32" s="3">
-        <v>-128700</v>
+        <v>125700</v>
       </c>
       <c r="G32" s="3">
-        <v>417800</v>
+        <v>-104600</v>
       </c>
       <c r="H32" s="3">
-        <v>-291300</v>
+        <v>-124300</v>
       </c>
       <c r="I32" s="3">
+        <v>403300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-281200</v>
+      </c>
+      <c r="K32" s="3">
         <v>21100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>249900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-90800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-343100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-494200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-14600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-57600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>773100</v>
+        <v>-931600</v>
       </c>
       <c r="E33" s="3">
-        <v>2131100</v>
+        <v>433800</v>
       </c>
       <c r="F33" s="3">
-        <v>723400</v>
+        <v>746300</v>
       </c>
       <c r="G33" s="3">
-        <v>-584200</v>
+        <v>2057300</v>
       </c>
       <c r="H33" s="3">
-        <v>1356500</v>
+        <v>698300</v>
       </c>
       <c r="I33" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K33" s="3">
         <v>739200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>438900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>294700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>509000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>797800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>188200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>434800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>773100</v>
+        <v>-931600</v>
       </c>
       <c r="E35" s="3">
-        <v>2131100</v>
+        <v>433800</v>
       </c>
       <c r="F35" s="3">
-        <v>723400</v>
+        <v>746300</v>
       </c>
       <c r="G35" s="3">
-        <v>-584200</v>
+        <v>2057300</v>
       </c>
       <c r="H35" s="3">
-        <v>1356500</v>
+        <v>698300</v>
       </c>
       <c r="I35" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K35" s="3">
         <v>739200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>438900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>294700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>509000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>797800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>188200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>434800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,360 +2138,410 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132500</v>
+        <v>778300</v>
       </c>
       <c r="E41" s="3">
-        <v>299600</v>
+        <v>101000</v>
       </c>
       <c r="F41" s="3">
-        <v>67800</v>
+        <v>127900</v>
       </c>
       <c r="G41" s="3">
-        <v>76000</v>
+        <v>289200</v>
       </c>
       <c r="H41" s="3">
-        <v>222800</v>
+        <v>65400</v>
       </c>
       <c r="I41" s="3">
+        <v>73400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>215100</v>
+      </c>
+      <c r="K41" s="3">
         <v>137000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>114400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>102000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>232200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>14600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>13100</v>
       </c>
       <c r="P41" s="3">
         <v>14600</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>426800</v>
+        <v>161300</v>
       </c>
       <c r="E42" s="3">
-        <v>411800</v>
+        <v>356100</v>
       </c>
       <c r="F42" s="3">
-        <v>413300</v>
+        <v>412000</v>
       </c>
       <c r="G42" s="3">
-        <v>394500</v>
+        <v>397500</v>
       </c>
       <c r="H42" s="3">
-        <v>495300</v>
+        <v>399000</v>
       </c>
       <c r="I42" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>478200</v>
+      </c>
+      <c r="K42" s="3">
         <v>560800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>587900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>664600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>660900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>619200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>626100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>701400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1810500</v>
+        <v>1107500</v>
       </c>
       <c r="E43" s="3">
-        <v>1598900</v>
+        <v>1800700</v>
       </c>
       <c r="F43" s="3">
-        <v>1721600</v>
+        <v>1747700</v>
       </c>
       <c r="G43" s="3">
-        <v>864200</v>
+        <v>1543500</v>
       </c>
       <c r="H43" s="3">
-        <v>1488300</v>
+        <v>1661900</v>
       </c>
       <c r="I43" s="3">
+        <v>834200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1436700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1965500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1656100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2023500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1239100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1637300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1637100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1755400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>866500</v>
+        <v>683100</v>
       </c>
       <c r="E44" s="3">
-        <v>895100</v>
+        <v>837100</v>
       </c>
       <c r="F44" s="3">
-        <v>807000</v>
+        <v>836400</v>
       </c>
       <c r="G44" s="3">
-        <v>718900</v>
+        <v>864000</v>
       </c>
       <c r="H44" s="3">
-        <v>841600</v>
+        <v>779000</v>
       </c>
       <c r="I44" s="3">
+        <v>694000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>812400</v>
+      </c>
+      <c r="K44" s="3">
         <v>783700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>744500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>665300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>652700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>691400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>505500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>529300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>285300</v>
+        <v>310300</v>
       </c>
       <c r="E45" s="3">
-        <v>291300</v>
+        <v>165700</v>
       </c>
       <c r="F45" s="3">
-        <v>199500</v>
+        <v>275400</v>
       </c>
       <c r="G45" s="3">
-        <v>219800</v>
+        <v>281200</v>
       </c>
       <c r="H45" s="3">
-        <v>268000</v>
+        <v>192600</v>
       </c>
       <c r="I45" s="3">
+        <v>212200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K45" s="3">
         <v>297400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>198700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>189000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>282100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>266400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>398700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>331900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3521600</v>
+        <v>3040500</v>
       </c>
       <c r="E46" s="3">
-        <v>3496700</v>
+        <v>3260700</v>
       </c>
       <c r="F46" s="3">
-        <v>3209100</v>
+        <v>3399500</v>
       </c>
       <c r="G46" s="3">
-        <v>2273400</v>
+        <v>3375500</v>
       </c>
       <c r="H46" s="3">
-        <v>3316000</v>
+        <v>3097900</v>
       </c>
       <c r="I46" s="3">
+        <v>2194600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3201100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3744400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3301700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3644400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3066900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3251500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3182000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3331000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>533700</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>588700</v>
+        <v>473800</v>
       </c>
       <c r="F47" s="3">
-        <v>627100</v>
+        <v>515200</v>
       </c>
       <c r="G47" s="3">
-        <v>660900</v>
+        <v>568300</v>
       </c>
       <c r="H47" s="3">
-        <v>650400</v>
+        <v>605300</v>
       </c>
       <c r="I47" s="3">
+        <v>638000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>627900</v>
+      </c>
+      <c r="K47" s="3">
         <v>641400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>627800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>596900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>557400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>519500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>504700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>496300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54609600</v>
+        <v>51326100</v>
       </c>
       <c r="E48" s="3">
-        <v>54936400</v>
+        <v>52620300</v>
       </c>
       <c r="F48" s="3">
-        <v>51462200</v>
+        <v>52716300</v>
       </c>
       <c r="G48" s="3">
-        <v>50584500</v>
+        <v>53031700</v>
       </c>
       <c r="H48" s="3">
-        <v>50960100</v>
+        <v>49678000</v>
       </c>
       <c r="I48" s="3">
+        <v>48830700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>49193300</v>
+      </c>
+      <c r="K48" s="3">
         <v>50788500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50896900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>50458900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>50437300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>49826300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>40562500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>40940500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>453200</v>
+        <v>919300</v>
       </c>
       <c r="E52" s="3">
-        <v>414800</v>
+        <v>414900</v>
       </c>
       <c r="F52" s="3">
-        <v>383900</v>
+        <v>437500</v>
       </c>
       <c r="G52" s="3">
-        <v>350000</v>
+        <v>400400</v>
       </c>
       <c r="H52" s="3">
-        <v>286100</v>
+        <v>370600</v>
       </c>
       <c r="I52" s="3">
+        <v>337900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K52" s="3">
         <v>290600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>288300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>272400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>256800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>276100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>262000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>287300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59118100</v>
+        <v>55285800</v>
       </c>
       <c r="E54" s="3">
-        <v>59436500</v>
+        <v>56769700</v>
       </c>
       <c r="F54" s="3">
-        <v>55682400</v>
+        <v>57068400</v>
       </c>
       <c r="G54" s="3">
-        <v>53868900</v>
+        <v>57375800</v>
       </c>
       <c r="H54" s="3">
-        <v>55212600</v>
+        <v>53751800</v>
       </c>
       <c r="I54" s="3">
+        <v>52001200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>53298400</v>
+      </c>
+      <c r="K54" s="3">
         <v>55464800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>55114800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>54972600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>54318400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>53873400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>44511200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>45055200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>498300</v>
+        <v>582800</v>
       </c>
       <c r="E57" s="3">
-        <v>695600</v>
+        <v>593000</v>
       </c>
       <c r="F57" s="3">
-        <v>586400</v>
+        <v>481100</v>
       </c>
       <c r="G57" s="3">
-        <v>586400</v>
+        <v>671500</v>
       </c>
       <c r="H57" s="3">
-        <v>758800</v>
+        <v>566100</v>
       </c>
       <c r="I57" s="3">
+        <v>566100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>732500</v>
+      </c>
+      <c r="K57" s="3">
         <v>730200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>705400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>576800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>590900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>488200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>415600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>457100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3221900</v>
+        <v>2197500</v>
       </c>
       <c r="E58" s="3">
-        <v>3161700</v>
+        <v>1906800</v>
       </c>
       <c r="F58" s="3">
-        <v>1413700</v>
+        <v>3110200</v>
       </c>
       <c r="G58" s="3">
-        <v>858900</v>
+        <v>3052100</v>
       </c>
       <c r="H58" s="3">
-        <v>376400</v>
+        <v>1364700</v>
       </c>
       <c r="I58" s="3">
+        <v>829200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K58" s="3">
         <v>621800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>484800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1396900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1395400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1448200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2403800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1392000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2192900</v>
+        <v>1800700</v>
       </c>
       <c r="E59" s="3">
-        <v>2089700</v>
+        <v>2323200</v>
       </c>
       <c r="F59" s="3">
-        <v>2223700</v>
+        <v>2116800</v>
       </c>
       <c r="G59" s="3">
-        <v>2139400</v>
+        <v>2017300</v>
       </c>
       <c r="H59" s="3">
-        <v>2473700</v>
+        <v>2146600</v>
       </c>
       <c r="I59" s="3">
+        <v>2065300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2387900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2305000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2067900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2685900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2323400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2111300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1827600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2062700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5913200</v>
+        <v>4581100</v>
       </c>
       <c r="E60" s="3">
-        <v>5947000</v>
+        <v>4823000</v>
       </c>
       <c r="F60" s="3">
-        <v>4223900</v>
+        <v>5708100</v>
       </c>
       <c r="G60" s="3">
-        <v>3584800</v>
+        <v>5740900</v>
       </c>
       <c r="H60" s="3">
-        <v>3608900</v>
+        <v>4077500</v>
       </c>
       <c r="I60" s="3">
+        <v>3460500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3483800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3657100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3258100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4659500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4309700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4047800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4647000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3911800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15104000</v>
+        <v>15557700</v>
       </c>
       <c r="E61" s="3">
-        <v>15945600</v>
+        <v>14824500</v>
       </c>
       <c r="F61" s="3">
-        <v>15583500</v>
+        <v>14580300</v>
       </c>
       <c r="G61" s="3">
-        <v>14665900</v>
+        <v>15392700</v>
       </c>
       <c r="H61" s="3">
-        <v>14478400</v>
+        <v>15043200</v>
       </c>
       <c r="I61" s="3">
+        <v>14157400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>13976400</v>
+      </c>
+      <c r="K61" s="3">
         <v>15485600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16060000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15316600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15662600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15874000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>10121400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11518100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11908400</v>
+        <v>10975900</v>
       </c>
       <c r="E62" s="3">
-        <v>11742800</v>
+        <v>11694600</v>
       </c>
       <c r="F62" s="3">
-        <v>11583900</v>
+        <v>11495500</v>
       </c>
       <c r="G62" s="3">
-        <v>11548600</v>
+        <v>11335600</v>
       </c>
       <c r="H62" s="3">
-        <v>11987400</v>
+        <v>11182300</v>
       </c>
       <c r="I62" s="3">
+        <v>11148200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11571800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11923400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11687800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11440000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11023200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10891500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9479200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9446200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32925500</v>
+        <v>31114700</v>
       </c>
       <c r="E66" s="3">
-        <v>33635400</v>
+        <v>31342100</v>
       </c>
       <c r="F66" s="3">
-        <v>31391300</v>
+        <v>31784000</v>
       </c>
       <c r="G66" s="3">
-        <v>29799200</v>
+        <v>32469200</v>
       </c>
       <c r="H66" s="3">
-        <v>30074700</v>
+        <v>30303000</v>
       </c>
       <c r="I66" s="3">
+        <v>28766000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>29032000</v>
+      </c>
+      <c r="K66" s="3">
         <v>31066100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>31005900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31416100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>30995600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30813300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24247600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>24876100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19107300</v>
+        <v>17022700</v>
       </c>
       <c r="E72" s="3">
-        <v>18764800</v>
+        <v>18475400</v>
       </c>
       <c r="F72" s="3">
-        <v>17202800</v>
+        <v>18444800</v>
       </c>
       <c r="G72" s="3">
-        <v>16959600</v>
+        <v>18114200</v>
       </c>
       <c r="H72" s="3">
-        <v>18091800</v>
+        <v>16606300</v>
       </c>
       <c r="I72" s="3">
+        <v>16371600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17464500</v>
+      </c>
+      <c r="K72" s="3">
         <v>17309700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17152300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16828100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>16783400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16523700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>16490100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>16536900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26192600</v>
+        <v>24171200</v>
       </c>
       <c r="E76" s="3">
-        <v>25801100</v>
+        <v>25427600</v>
       </c>
       <c r="F76" s="3">
-        <v>24291000</v>
+        <v>25284500</v>
       </c>
       <c r="G76" s="3">
-        <v>24069700</v>
+        <v>24906600</v>
       </c>
       <c r="H76" s="3">
-        <v>25137900</v>
+        <v>23448800</v>
       </c>
       <c r="I76" s="3">
+        <v>23235200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24266400</v>
+      </c>
+      <c r="K76" s="3">
         <v>24398700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24108900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>23556500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>23322800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>23060100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>20263600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>20179100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>773100</v>
+        <v>-931600</v>
       </c>
       <c r="E81" s="3">
-        <v>2131100</v>
+        <v>433800</v>
       </c>
       <c r="F81" s="3">
-        <v>723400</v>
+        <v>746300</v>
       </c>
       <c r="G81" s="3">
-        <v>-584200</v>
+        <v>2057300</v>
       </c>
       <c r="H81" s="3">
-        <v>1356500</v>
+        <v>698300</v>
       </c>
       <c r="I81" s="3">
+        <v>-563900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1309500</v>
+      </c>
+      <c r="K81" s="3">
         <v>739200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>438900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>294700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>509000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>797800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>188200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>434800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1073500</v>
+        <v>1136500</v>
       </c>
       <c r="E83" s="3">
-        <v>983900</v>
+        <v>1126400</v>
       </c>
       <c r="F83" s="3">
-        <v>950800</v>
+        <v>1036300</v>
       </c>
       <c r="G83" s="3">
-        <v>999700</v>
+        <v>949800</v>
       </c>
       <c r="H83" s="3">
-        <v>983100</v>
+        <v>917800</v>
       </c>
       <c r="I83" s="3">
+        <v>965000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K83" s="3">
         <v>956000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>946300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1046400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>945900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>900500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>997900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>959500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1895500</v>
+        <v>1253500</v>
       </c>
       <c r="E89" s="3">
-        <v>2153700</v>
+        <v>1783300</v>
       </c>
       <c r="F89" s="3">
-        <v>749800</v>
+        <v>1829800</v>
       </c>
       <c r="G89" s="3">
-        <v>1051600</v>
+        <v>2079100</v>
       </c>
       <c r="H89" s="3">
-        <v>2741700</v>
+        <v>723800</v>
       </c>
       <c r="I89" s="3">
+        <v>1015200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2646600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1967000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1858600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1070200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1876900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1213800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1283700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>964100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-5100</v>
       </c>
       <c r="E91" s="3">
-        <v>-27900</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-24800</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>71500</v>
+        <v>-26900</v>
       </c>
       <c r="H91" s="3">
-        <v>-223600</v>
+        <v>-24000</v>
       </c>
       <c r="I91" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-215800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-42200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-49900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-618400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-493200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-683500</v>
+        <v>-624200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3360500</v>
+        <v>-620600</v>
       </c>
       <c r="F94" s="3">
-        <v>-774600</v>
+        <v>-659800</v>
       </c>
       <c r="G94" s="3">
-        <v>-784400</v>
+        <v>-3243900</v>
       </c>
       <c r="H94" s="3">
-        <v>-952300</v>
+        <v>-747800</v>
       </c>
       <c r="I94" s="3">
+        <v>-757200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-919300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-856700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-799300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-863500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-411000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-336500</v>
+        <v>-322700</v>
       </c>
       <c r="E96" s="3">
-        <v>-338000</v>
+        <v>-322700</v>
       </c>
       <c r="F96" s="3">
-        <v>-303400</v>
+        <v>-324800</v>
       </c>
       <c r="G96" s="3">
-        <v>-305600</v>
+        <v>-326300</v>
       </c>
       <c r="H96" s="3">
-        <v>-307900</v>
+        <v>-292900</v>
       </c>
       <c r="I96" s="3">
+        <v>-295000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-297200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-309400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-252900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-249300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-248600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-227700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-212800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-195100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1379100</v>
+        <v>48000</v>
       </c>
       <c r="E100" s="3">
-        <v>1438600</v>
+        <v>-1189600</v>
       </c>
       <c r="F100" s="3">
-        <v>16600</v>
+        <v>-1331300</v>
       </c>
       <c r="G100" s="3">
-        <v>-414000</v>
+        <v>1388700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1703600</v>
+        <v>16000</v>
       </c>
       <c r="I100" s="3">
+        <v>-399700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1644500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-816800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-401100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-223300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5465500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-418700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-554700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-167100</v>
+        <v>677300</v>
       </c>
       <c r="E102" s="3">
-        <v>231900</v>
+        <v>-26900</v>
       </c>
       <c r="F102" s="3">
-        <v>-8300</v>
+        <v>-161300</v>
       </c>
       <c r="G102" s="3">
-        <v>-146800</v>
+        <v>223800</v>
       </c>
       <c r="H102" s="3">
-        <v>85800</v>
+        <v>-8000</v>
       </c>
       <c r="I102" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-130200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>195000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>23100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3270100</v>
+        <v>2185100</v>
       </c>
       <c r="E8" s="3">
-        <v>4288200</v>
+        <v>3424900</v>
       </c>
       <c r="F8" s="3">
-        <v>4476400</v>
+        <v>4491200</v>
       </c>
       <c r="G8" s="3">
-        <v>4041800</v>
+        <v>4688300</v>
       </c>
       <c r="H8" s="3">
-        <v>3813700</v>
+        <v>4233200</v>
       </c>
       <c r="I8" s="3">
-        <v>2690200</v>
+        <v>3994200</v>
       </c>
       <c r="J8" s="3">
+        <v>2817600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4286700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4480600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4120800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3872100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3323600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2910600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2797900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2656500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2264400</v>
+        <v>1650000</v>
       </c>
       <c r="E9" s="3">
-        <v>2226600</v>
+        <v>2371600</v>
       </c>
       <c r="F9" s="3">
-        <v>2044900</v>
+        <v>2332000</v>
       </c>
       <c r="G9" s="3">
-        <v>1837800</v>
+        <v>2141700</v>
       </c>
       <c r="H9" s="3">
-        <v>1866900</v>
+        <v>1924800</v>
       </c>
       <c r="I9" s="3">
-        <v>1810200</v>
+        <v>1955200</v>
       </c>
       <c r="J9" s="3">
+        <v>1895900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1901000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2080700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2094300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2102400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1830800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1529400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1339800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1267600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1005700</v>
+        <v>535000</v>
       </c>
       <c r="E10" s="3">
-        <v>2061600</v>
+        <v>1053300</v>
       </c>
       <c r="F10" s="3">
-        <v>2431500</v>
+        <v>2159200</v>
       </c>
       <c r="G10" s="3">
-        <v>2204100</v>
+        <v>2546600</v>
       </c>
       <c r="H10" s="3">
-        <v>1946800</v>
+        <v>2308400</v>
       </c>
       <c r="I10" s="3">
-        <v>880000</v>
+        <v>2039000</v>
       </c>
       <c r="J10" s="3">
+        <v>921700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2385700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2399900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2026500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1769700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1492900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1381300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1458100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1389000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1136500</v>
+        <v>1067800</v>
       </c>
       <c r="E15" s="3">
-        <v>1126400</v>
+        <v>1190300</v>
       </c>
       <c r="F15" s="3">
-        <v>1036300</v>
+        <v>1179700</v>
       </c>
       <c r="G15" s="3">
-        <v>949800</v>
+        <v>1085300</v>
       </c>
       <c r="H15" s="3">
-        <v>917800</v>
+        <v>994700</v>
       </c>
       <c r="I15" s="3">
-        <v>965000</v>
+        <v>961300</v>
       </c>
       <c r="J15" s="3">
+        <v>1010700</v>
+      </c>
+      <c r="K15" s="3">
         <v>949100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>956000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>946300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1046400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>945900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>900500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>997900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>959500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3355100</v>
+        <v>2841100</v>
       </c>
       <c r="E17" s="3">
-        <v>3575300</v>
+        <v>3514000</v>
       </c>
       <c r="F17" s="3">
-        <v>3191600</v>
+        <v>3744600</v>
       </c>
       <c r="G17" s="3">
-        <v>2877000</v>
+        <v>3342700</v>
       </c>
       <c r="H17" s="3">
-        <v>2912600</v>
+        <v>3013200</v>
       </c>
       <c r="I17" s="3">
-        <v>2767200</v>
+        <v>3050400</v>
       </c>
       <c r="J17" s="3">
+        <v>2898200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2878400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3261100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3069900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3316900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2948600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2437300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2453000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2352300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-85000</v>
+        <v>-656100</v>
       </c>
       <c r="E18" s="3">
-        <v>712900</v>
+        <v>-89000</v>
       </c>
       <c r="F18" s="3">
-        <v>1284800</v>
+        <v>746600</v>
       </c>
       <c r="G18" s="3">
-        <v>1164900</v>
+        <v>1345600</v>
       </c>
       <c r="H18" s="3">
-        <v>901100</v>
+        <v>1220000</v>
       </c>
       <c r="I18" s="3">
-        <v>-77000</v>
+        <v>943800</v>
       </c>
       <c r="J18" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1408300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1219500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1050900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>555200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>375100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>473300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>344900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>304200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-812400</v>
+        <v>344800</v>
       </c>
       <c r="E20" s="3">
-        <v>97400</v>
+        <v>-850900</v>
       </c>
       <c r="F20" s="3">
-        <v>-125700</v>
+        <v>102000</v>
       </c>
       <c r="G20" s="3">
-        <v>104600</v>
+        <v>-131700</v>
       </c>
       <c r="H20" s="3">
-        <v>124300</v>
+        <v>109600</v>
       </c>
       <c r="I20" s="3">
-        <v>-403300</v>
+        <v>130100</v>
       </c>
       <c r="J20" s="3">
+        <v>-422400</v>
+      </c>
+      <c r="K20" s="3">
         <v>281200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-249900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>343100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>494200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>57600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>239100</v>
+        <v>756500</v>
       </c>
       <c r="E21" s="3">
-        <v>1936600</v>
+        <v>250400</v>
       </c>
       <c r="F21" s="3">
-        <v>2195300</v>
+        <v>2028300</v>
       </c>
       <c r="G21" s="3">
-        <v>2219300</v>
+        <v>2299300</v>
       </c>
       <c r="H21" s="3">
-        <v>1943200</v>
+        <v>2324400</v>
       </c>
       <c r="I21" s="3">
-        <v>484700</v>
+        <v>2035200</v>
       </c>
       <c r="J21" s="3">
+        <v>507600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2638600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2154500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1747200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1692300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1664100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1868000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1357500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1321400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>149700</v>
+        <v>151500</v>
       </c>
       <c r="E22" s="3">
-        <v>212900</v>
+        <v>156800</v>
       </c>
       <c r="F22" s="3">
-        <v>167900</v>
+        <v>223000</v>
       </c>
       <c r="G22" s="3">
-        <v>143200</v>
+        <v>175800</v>
       </c>
       <c r="H22" s="3">
-        <v>138800</v>
+        <v>149900</v>
       </c>
       <c r="I22" s="3">
-        <v>173000</v>
+        <v>145400</v>
       </c>
       <c r="J22" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K22" s="3">
         <v>130800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>143000</v>
       </c>
       <c r="L22" s="3">
         <v>143000</v>
       </c>
       <c r="M22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="N22" s="3">
         <v>198000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>136200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>107900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>102900</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1047200</v>
+        <v>-462700</v>
       </c>
       <c r="E23" s="3">
-        <v>597300</v>
+        <v>-1096700</v>
       </c>
       <c r="F23" s="3">
-        <v>991200</v>
+        <v>625600</v>
       </c>
       <c r="G23" s="3">
-        <v>1126400</v>
+        <v>1038100</v>
       </c>
       <c r="H23" s="3">
-        <v>886600</v>
+        <v>1179700</v>
       </c>
       <c r="I23" s="3">
-        <v>-653300</v>
+        <v>928500</v>
       </c>
       <c r="J23" s="3">
+        <v>-684200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1558800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1055400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>657900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>448000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>582000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>859600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>256600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>361800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-115500</v>
+        <v>-226800</v>
       </c>
       <c r="E24" s="3">
-        <v>163500</v>
+        <v>-121000</v>
       </c>
       <c r="F24" s="3">
-        <v>244900</v>
+        <v>171200</v>
       </c>
       <c r="G24" s="3">
-        <v>-930900</v>
+        <v>256500</v>
       </c>
       <c r="H24" s="3">
-        <v>188200</v>
+        <v>-975000</v>
       </c>
       <c r="I24" s="3">
-        <v>-89400</v>
+        <v>197100</v>
       </c>
       <c r="J24" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="K24" s="3">
         <v>249300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>316200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-73000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-931600</v>
+        <v>-235900</v>
       </c>
       <c r="E26" s="3">
-        <v>433800</v>
+        <v>-975700</v>
       </c>
       <c r="F26" s="3">
-        <v>746300</v>
+        <v>454400</v>
       </c>
       <c r="G26" s="3">
-        <v>2057300</v>
+        <v>781600</v>
       </c>
       <c r="H26" s="3">
-        <v>698300</v>
+        <v>2154600</v>
       </c>
       <c r="I26" s="3">
-        <v>-563900</v>
+        <v>731400</v>
       </c>
       <c r="J26" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1309500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>739200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>438900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>294700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>509000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>797800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>188200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>434800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-931600</v>
+        <v>-235900</v>
       </c>
       <c r="E27" s="3">
-        <v>433800</v>
+        <v>-975700</v>
       </c>
       <c r="F27" s="3">
-        <v>746300</v>
+        <v>454400</v>
       </c>
       <c r="G27" s="3">
-        <v>2057300</v>
+        <v>781600</v>
       </c>
       <c r="H27" s="3">
-        <v>698300</v>
+        <v>2154600</v>
       </c>
       <c r="I27" s="3">
-        <v>-563900</v>
+        <v>731400</v>
       </c>
       <c r="J27" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1309500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>739200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>438900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>294700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>509000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>797800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>188200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>434800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>812400</v>
+        <v>-344800</v>
       </c>
       <c r="E32" s="3">
-        <v>-97400</v>
+        <v>850900</v>
       </c>
       <c r="F32" s="3">
-        <v>125700</v>
+        <v>-102000</v>
       </c>
       <c r="G32" s="3">
-        <v>-104600</v>
+        <v>131700</v>
       </c>
       <c r="H32" s="3">
-        <v>-124300</v>
+        <v>-109600</v>
       </c>
       <c r="I32" s="3">
-        <v>403300</v>
+        <v>-130100</v>
       </c>
       <c r="J32" s="3">
+        <v>422400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-281200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>249900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-343100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-494200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-57600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-931600</v>
+        <v>-235900</v>
       </c>
       <c r="E33" s="3">
-        <v>433800</v>
+        <v>-975700</v>
       </c>
       <c r="F33" s="3">
-        <v>746300</v>
+        <v>454400</v>
       </c>
       <c r="G33" s="3">
-        <v>2057300</v>
+        <v>781600</v>
       </c>
       <c r="H33" s="3">
-        <v>698300</v>
+        <v>2154600</v>
       </c>
       <c r="I33" s="3">
-        <v>-563900</v>
+        <v>731400</v>
       </c>
       <c r="J33" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1309500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>739200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>438900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>294700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>509000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>797800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>188200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>434800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-931600</v>
+        <v>-235900</v>
       </c>
       <c r="E35" s="3">
-        <v>433800</v>
+        <v>-975700</v>
       </c>
       <c r="F35" s="3">
-        <v>746300</v>
+        <v>454400</v>
       </c>
       <c r="G35" s="3">
-        <v>2057300</v>
+        <v>781600</v>
       </c>
       <c r="H35" s="3">
-        <v>698300</v>
+        <v>2154600</v>
       </c>
       <c r="I35" s="3">
-        <v>-563900</v>
+        <v>731400</v>
       </c>
       <c r="J35" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1309500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>739200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>438900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>294700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>509000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>797800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>188200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>434800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,408 +2226,433 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>778300</v>
+        <v>177300</v>
       </c>
       <c r="E41" s="3">
-        <v>101000</v>
+        <v>815100</v>
       </c>
       <c r="F41" s="3">
-        <v>127900</v>
+        <v>105800</v>
       </c>
       <c r="G41" s="3">
-        <v>289200</v>
+        <v>134000</v>
       </c>
       <c r="H41" s="3">
-        <v>65400</v>
+        <v>302900</v>
       </c>
       <c r="I41" s="3">
-        <v>73400</v>
+        <v>68500</v>
       </c>
       <c r="J41" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K41" s="3">
         <v>215100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>102000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>232200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>161300</v>
+        <v>209300</v>
       </c>
       <c r="E42" s="3">
-        <v>356100</v>
+        <v>169000</v>
       </c>
       <c r="F42" s="3">
-        <v>412000</v>
+        <v>372900</v>
       </c>
       <c r="G42" s="3">
-        <v>397500</v>
+        <v>431500</v>
       </c>
       <c r="H42" s="3">
-        <v>399000</v>
+        <v>416300</v>
       </c>
       <c r="I42" s="3">
-        <v>380800</v>
+        <v>417800</v>
       </c>
       <c r="J42" s="3">
+        <v>398800</v>
+      </c>
+      <c r="K42" s="3">
         <v>478200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>560800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>587900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>664600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>660900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>619200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>626100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>701400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1107500</v>
+        <v>1641700</v>
       </c>
       <c r="E43" s="3">
-        <v>1800700</v>
+        <v>1159900</v>
       </c>
       <c r="F43" s="3">
-        <v>1747700</v>
+        <v>1886000</v>
       </c>
       <c r="G43" s="3">
-        <v>1543500</v>
+        <v>1830400</v>
       </c>
       <c r="H43" s="3">
-        <v>1661900</v>
+        <v>1616600</v>
       </c>
       <c r="I43" s="3">
-        <v>834200</v>
+        <v>1740600</v>
       </c>
       <c r="J43" s="3">
+        <v>873700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1436700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1965500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1656100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2023500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1239100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1637300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1637100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1755400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>683100</v>
+        <v>833400</v>
       </c>
       <c r="E44" s="3">
-        <v>837100</v>
+        <v>715400</v>
       </c>
       <c r="F44" s="3">
-        <v>836400</v>
+        <v>876800</v>
       </c>
       <c r="G44" s="3">
-        <v>864000</v>
+        <v>876000</v>
       </c>
       <c r="H44" s="3">
-        <v>779000</v>
+        <v>904900</v>
       </c>
       <c r="I44" s="3">
-        <v>694000</v>
+        <v>815900</v>
       </c>
       <c r="J44" s="3">
+        <v>726800</v>
+      </c>
+      <c r="K44" s="3">
         <v>812400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>783700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>744500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>665300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>652700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>691400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>505500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>529300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310300</v>
+        <v>233700</v>
       </c>
       <c r="E45" s="3">
-        <v>165700</v>
+        <v>325000</v>
       </c>
       <c r="F45" s="3">
-        <v>275400</v>
+        <v>173500</v>
       </c>
       <c r="G45" s="3">
-        <v>281200</v>
+        <v>288500</v>
       </c>
       <c r="H45" s="3">
-        <v>192600</v>
+        <v>294500</v>
       </c>
       <c r="I45" s="3">
-        <v>212200</v>
+        <v>201700</v>
       </c>
       <c r="J45" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K45" s="3">
         <v>258700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>297400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>198700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>189000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>282100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>266400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>398700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>331900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3040500</v>
+        <v>3095400</v>
       </c>
       <c r="E46" s="3">
-        <v>3260700</v>
+        <v>3184400</v>
       </c>
       <c r="F46" s="3">
-        <v>3399500</v>
+        <v>3415000</v>
       </c>
       <c r="G46" s="3">
-        <v>3375500</v>
+        <v>3560400</v>
       </c>
       <c r="H46" s="3">
-        <v>3097900</v>
+        <v>3535300</v>
       </c>
       <c r="I46" s="3">
-        <v>2194600</v>
+        <v>3244500</v>
       </c>
       <c r="J46" s="3">
+        <v>2298500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3201100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3744400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3301700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3644400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3066900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3251500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3182000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3331000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>519800</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>473800</v>
-      </c>
       <c r="F47" s="3">
-        <v>515200</v>
+        <v>496200</v>
       </c>
       <c r="G47" s="3">
-        <v>568300</v>
+        <v>539600</v>
       </c>
       <c r="H47" s="3">
-        <v>605300</v>
+        <v>595200</v>
       </c>
       <c r="I47" s="3">
-        <v>638000</v>
+        <v>634000</v>
       </c>
       <c r="J47" s="3">
+        <v>668200</v>
+      </c>
+      <c r="K47" s="3">
         <v>627900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>641400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>627800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>596900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>557400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>519500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>504700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>496300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51326100</v>
+        <v>52862300</v>
       </c>
       <c r="E48" s="3">
-        <v>52620300</v>
+        <v>53755800</v>
       </c>
       <c r="F48" s="3">
-        <v>52716300</v>
+        <v>55111300</v>
       </c>
       <c r="G48" s="3">
-        <v>53031700</v>
+        <v>55211800</v>
       </c>
       <c r="H48" s="3">
-        <v>49678000</v>
+        <v>55542100</v>
       </c>
       <c r="I48" s="3">
-        <v>48830700</v>
+        <v>52029600</v>
       </c>
       <c r="J48" s="3">
+        <v>51142200</v>
+      </c>
+      <c r="K48" s="3">
         <v>49193300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50788500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50896900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50458900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50437300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49826300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40562500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40940500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>919300</v>
+        <v>410200</v>
       </c>
       <c r="E52" s="3">
-        <v>414900</v>
+        <v>962800</v>
       </c>
       <c r="F52" s="3">
-        <v>437500</v>
+        <v>434600</v>
       </c>
       <c r="G52" s="3">
-        <v>400400</v>
+        <v>458200</v>
       </c>
       <c r="H52" s="3">
-        <v>370600</v>
+        <v>419400</v>
       </c>
       <c r="I52" s="3">
-        <v>337900</v>
+        <v>388200</v>
       </c>
       <c r="J52" s="3">
+        <v>353900</v>
+      </c>
+      <c r="K52" s="3">
         <v>276100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>290600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>288300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>272400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>256800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>276100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>287300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55285800</v>
+        <v>56887700</v>
       </c>
       <c r="E54" s="3">
-        <v>56769700</v>
+        <v>57903000</v>
       </c>
       <c r="F54" s="3">
-        <v>57068400</v>
+        <v>59457100</v>
       </c>
       <c r="G54" s="3">
-        <v>57375800</v>
+        <v>59769900</v>
       </c>
       <c r="H54" s="3">
-        <v>53751800</v>
+        <v>60091900</v>
       </c>
       <c r="I54" s="3">
-        <v>52001200</v>
+        <v>56296300</v>
       </c>
       <c r="J54" s="3">
+        <v>54462800</v>
+      </c>
+      <c r="K54" s="3">
         <v>53298400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55464800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55114800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54972600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54318400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53873400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44511200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45055200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>582800</v>
+        <v>461200</v>
       </c>
       <c r="E57" s="3">
-        <v>593000</v>
+        <v>610400</v>
       </c>
       <c r="F57" s="3">
-        <v>481100</v>
+        <v>621000</v>
       </c>
       <c r="G57" s="3">
-        <v>671500</v>
+        <v>503800</v>
       </c>
       <c r="H57" s="3">
-        <v>566100</v>
+        <v>703200</v>
       </c>
       <c r="I57" s="3">
-        <v>566100</v>
+        <v>592900</v>
       </c>
       <c r="J57" s="3">
+        <v>592900</v>
+      </c>
+      <c r="K57" s="3">
         <v>732500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>730200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>705400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>576800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>590900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>488200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>415600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>457100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2197500</v>
+        <v>1556400</v>
       </c>
       <c r="E58" s="3">
-        <v>1906800</v>
+        <v>2301500</v>
       </c>
       <c r="F58" s="3">
-        <v>3110200</v>
+        <v>1997100</v>
       </c>
       <c r="G58" s="3">
-        <v>3052100</v>
+        <v>3257500</v>
       </c>
       <c r="H58" s="3">
-        <v>1364700</v>
+        <v>3196600</v>
       </c>
       <c r="I58" s="3">
-        <v>829200</v>
+        <v>1429300</v>
       </c>
       <c r="J58" s="3">
+        <v>868400</v>
+      </c>
+      <c r="K58" s="3">
         <v>363300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>621800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>484800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1396900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1395400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1448200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2403800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1392000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800700</v>
+        <v>1724600</v>
       </c>
       <c r="E59" s="3">
-        <v>2323200</v>
+        <v>1886000</v>
       </c>
       <c r="F59" s="3">
-        <v>2116800</v>
+        <v>2433200</v>
       </c>
       <c r="G59" s="3">
-        <v>2017300</v>
+        <v>2217100</v>
       </c>
       <c r="H59" s="3">
-        <v>2146600</v>
+        <v>2112800</v>
       </c>
       <c r="I59" s="3">
-        <v>2065300</v>
+        <v>2248300</v>
       </c>
       <c r="J59" s="3">
+        <v>2163000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2387900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2305000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2067900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2685900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2323400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2111300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1827600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2062700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4581100</v>
+        <v>3742300</v>
       </c>
       <c r="E60" s="3">
-        <v>4823000</v>
+        <v>4797900</v>
       </c>
       <c r="F60" s="3">
-        <v>5708100</v>
+        <v>5051400</v>
       </c>
       <c r="G60" s="3">
-        <v>5740900</v>
+        <v>5978400</v>
       </c>
       <c r="H60" s="3">
-        <v>4077500</v>
+        <v>6012600</v>
       </c>
       <c r="I60" s="3">
-        <v>3460500</v>
+        <v>4270500</v>
       </c>
       <c r="J60" s="3">
+        <v>3624300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3483800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3657100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3258100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4659500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4309700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4047800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4647000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3911800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15557700</v>
+        <v>17247800</v>
       </c>
       <c r="E61" s="3">
-        <v>14824500</v>
+        <v>16294200</v>
       </c>
       <c r="F61" s="3">
-        <v>14580300</v>
+        <v>15526200</v>
       </c>
       <c r="G61" s="3">
-        <v>15392700</v>
+        <v>15270500</v>
       </c>
       <c r="H61" s="3">
-        <v>15043200</v>
+        <v>16121400</v>
       </c>
       <c r="I61" s="3">
-        <v>14157400</v>
+        <v>15755300</v>
       </c>
       <c r="J61" s="3">
+        <v>14827600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13976400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15485600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16060000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15316600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15662600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15874000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10121400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11518100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10975900</v>
+        <v>11289200</v>
       </c>
       <c r="E62" s="3">
-        <v>11694600</v>
+        <v>11495500</v>
       </c>
       <c r="F62" s="3">
-        <v>11495500</v>
+        <v>12248200</v>
       </c>
       <c r="G62" s="3">
-        <v>11335600</v>
+        <v>12039700</v>
       </c>
       <c r="H62" s="3">
-        <v>11182300</v>
+        <v>11872200</v>
       </c>
       <c r="I62" s="3">
-        <v>11148200</v>
+        <v>11711700</v>
       </c>
       <c r="J62" s="3">
+        <v>11675900</v>
+      </c>
+      <c r="K62" s="3">
         <v>11571800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11923400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11687800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11440000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11023200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10891500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9479200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9446200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31114700</v>
+        <v>32279300</v>
       </c>
       <c r="E66" s="3">
-        <v>31342100</v>
+        <v>32587600</v>
       </c>
       <c r="F66" s="3">
-        <v>31784000</v>
+        <v>32825800</v>
       </c>
       <c r="G66" s="3">
-        <v>32469200</v>
+        <v>33288600</v>
       </c>
       <c r="H66" s="3">
-        <v>30303000</v>
+        <v>34006300</v>
       </c>
       <c r="I66" s="3">
-        <v>28766000</v>
+        <v>31737500</v>
       </c>
       <c r="J66" s="3">
+        <v>30127700</v>
+      </c>
+      <c r="K66" s="3">
         <v>29032000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31066100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31005900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31416100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30995600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30813300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24247600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24876100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17022700</v>
+        <v>17211300</v>
       </c>
       <c r="E72" s="3">
-        <v>18475400</v>
+        <v>17828500</v>
       </c>
       <c r="F72" s="3">
-        <v>18444800</v>
+        <v>19350000</v>
       </c>
       <c r="G72" s="3">
-        <v>18114200</v>
+        <v>19318000</v>
       </c>
       <c r="H72" s="3">
-        <v>16606300</v>
+        <v>18971700</v>
       </c>
       <c r="I72" s="3">
-        <v>16371600</v>
+        <v>17392400</v>
       </c>
       <c r="J72" s="3">
+        <v>17146600</v>
+      </c>
+      <c r="K72" s="3">
         <v>17464500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17309700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17152300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16828100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16783400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16523700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16490100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16536900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24171200</v>
+        <v>24608300</v>
       </c>
       <c r="E76" s="3">
-        <v>25427600</v>
+        <v>25315400</v>
       </c>
       <c r="F76" s="3">
-        <v>25284500</v>
+        <v>26631300</v>
       </c>
       <c r="G76" s="3">
-        <v>24906600</v>
+        <v>26481400</v>
       </c>
       <c r="H76" s="3">
-        <v>23448800</v>
+        <v>26085600</v>
       </c>
       <c r="I76" s="3">
-        <v>23235200</v>
+        <v>24558900</v>
       </c>
       <c r="J76" s="3">
+        <v>24335100</v>
+      </c>
+      <c r="K76" s="3">
         <v>24266400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24398700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24108900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23556500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23322800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23060100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20263600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20179100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-931600</v>
+        <v>-235900</v>
       </c>
       <c r="E81" s="3">
-        <v>433800</v>
+        <v>-975700</v>
       </c>
       <c r="F81" s="3">
-        <v>746300</v>
+        <v>454400</v>
       </c>
       <c r="G81" s="3">
-        <v>2057300</v>
+        <v>781600</v>
       </c>
       <c r="H81" s="3">
-        <v>698300</v>
+        <v>2154600</v>
       </c>
       <c r="I81" s="3">
-        <v>-563900</v>
+        <v>731400</v>
       </c>
       <c r="J81" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1309500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>739200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>438900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>294700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>509000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>797800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>188200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>434800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1136500</v>
+        <v>1067800</v>
       </c>
       <c r="E83" s="3">
-        <v>1126400</v>
+        <v>1190300</v>
       </c>
       <c r="F83" s="3">
-        <v>1036300</v>
+        <v>1179700</v>
       </c>
       <c r="G83" s="3">
-        <v>949800</v>
+        <v>1085300</v>
       </c>
       <c r="H83" s="3">
-        <v>917800</v>
+        <v>994700</v>
       </c>
       <c r="I83" s="3">
-        <v>965000</v>
+        <v>961300</v>
       </c>
       <c r="J83" s="3">
+        <v>1010700</v>
+      </c>
+      <c r="K83" s="3">
         <v>949100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>956000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>946300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1046400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>945900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>997900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>959500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1253500</v>
+        <v>-267100</v>
       </c>
       <c r="E89" s="3">
-        <v>1783300</v>
+        <v>1312900</v>
       </c>
       <c r="F89" s="3">
-        <v>1829800</v>
+        <v>1867700</v>
       </c>
       <c r="G89" s="3">
-        <v>2079100</v>
+        <v>1916400</v>
       </c>
       <c r="H89" s="3">
-        <v>723800</v>
+        <v>2177500</v>
       </c>
       <c r="I89" s="3">
-        <v>1015200</v>
+        <v>758000</v>
       </c>
       <c r="J89" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2646600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1967000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1858600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1070200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1876900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1213800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1283700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>964100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5100</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-5300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-26900</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-24000</v>
+        <v>-28200</v>
       </c>
       <c r="I91" s="3">
-        <v>69000</v>
+        <v>-25100</v>
       </c>
       <c r="J91" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-215800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-618400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-493200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-624200</v>
+        <v>-527400</v>
       </c>
       <c r="E94" s="3">
-        <v>-620600</v>
+        <v>-653800</v>
       </c>
       <c r="F94" s="3">
-        <v>-659800</v>
+        <v>-650000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3243900</v>
+        <v>-691100</v>
       </c>
       <c r="H94" s="3">
-        <v>-747800</v>
+        <v>-3397500</v>
       </c>
       <c r="I94" s="3">
-        <v>-757200</v>
+        <v>-783200</v>
       </c>
       <c r="J94" s="3">
+        <v>-793100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-919300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-856700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-799300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-863500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-411000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-322700</v>
+        <v>-382100</v>
       </c>
       <c r="E96" s="3">
-        <v>-322700</v>
+        <v>-337900</v>
       </c>
       <c r="F96" s="3">
-        <v>-324800</v>
+        <v>-337900</v>
       </c>
       <c r="G96" s="3">
-        <v>-326300</v>
+        <v>-340200</v>
       </c>
       <c r="H96" s="3">
-        <v>-292900</v>
+        <v>-341700</v>
       </c>
       <c r="I96" s="3">
-        <v>-295000</v>
+        <v>-306700</v>
       </c>
       <c r="J96" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-297200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-309400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-252900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-249300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-248600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-227700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-212800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-195100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48000</v>
+        <v>156800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1189600</v>
+        <v>50200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1331300</v>
+        <v>-1245900</v>
       </c>
       <c r="G100" s="3">
-        <v>1388700</v>
+        <v>-1394300</v>
       </c>
       <c r="H100" s="3">
-        <v>16000</v>
+        <v>1454400</v>
       </c>
       <c r="I100" s="3">
-        <v>-399700</v>
+        <v>16700</v>
       </c>
       <c r="J100" s="3">
+        <v>-418600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-816800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-401100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-223300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5465500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-418700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-554700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>677300</v>
+        <v>-637800</v>
       </c>
       <c r="E102" s="3">
-        <v>-26900</v>
+        <v>709300</v>
       </c>
       <c r="F102" s="3">
-        <v>-161300</v>
+        <v>-28200</v>
       </c>
       <c r="G102" s="3">
-        <v>223800</v>
+        <v>-169000</v>
       </c>
       <c r="H102" s="3">
-        <v>-8000</v>
+        <v>234400</v>
       </c>
       <c r="I102" s="3">
-        <v>-141700</v>
+        <v>-8400</v>
       </c>
       <c r="J102" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="K102" s="3">
         <v>82800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-130200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>195000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2185100</v>
+        <v>3467300</v>
       </c>
       <c r="E8" s="3">
-        <v>3424900</v>
+        <v>2210200</v>
       </c>
       <c r="F8" s="3">
-        <v>4491200</v>
+        <v>3464200</v>
       </c>
       <c r="G8" s="3">
-        <v>4688300</v>
+        <v>4542700</v>
       </c>
       <c r="H8" s="3">
-        <v>4233200</v>
+        <v>4742100</v>
       </c>
       <c r="I8" s="3">
-        <v>3994200</v>
+        <v>4281700</v>
       </c>
       <c r="J8" s="3">
+        <v>4040000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2817600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4286700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4480600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4120800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3872100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3323600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2910600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2797900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2656500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1650000</v>
+        <v>1959200</v>
       </c>
       <c r="E9" s="3">
-        <v>2371600</v>
+        <v>1669000</v>
       </c>
       <c r="F9" s="3">
-        <v>2332000</v>
+        <v>2398800</v>
       </c>
       <c r="G9" s="3">
-        <v>2141700</v>
+        <v>2358700</v>
       </c>
       <c r="H9" s="3">
-        <v>1924800</v>
+        <v>2166300</v>
       </c>
       <c r="I9" s="3">
-        <v>1955200</v>
+        <v>1946900</v>
       </c>
       <c r="J9" s="3">
+        <v>1977700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1895900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1901000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2080700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2094300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2102400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1830800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1529400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1339800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1267600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>535000</v>
+        <v>1508100</v>
       </c>
       <c r="E10" s="3">
-        <v>1053300</v>
+        <v>541200</v>
       </c>
       <c r="F10" s="3">
-        <v>2159200</v>
+        <v>1065400</v>
       </c>
       <c r="G10" s="3">
-        <v>2546600</v>
+        <v>2184000</v>
       </c>
       <c r="H10" s="3">
-        <v>2308400</v>
+        <v>2575800</v>
       </c>
       <c r="I10" s="3">
-        <v>2039000</v>
+        <v>2334900</v>
       </c>
       <c r="J10" s="3">
+        <v>2062300</v>
+      </c>
+      <c r="K10" s="3">
         <v>921700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2385700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2399900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2026500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1769700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1492900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1381300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1458100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1389000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1067800</v>
+        <v>1127000</v>
       </c>
       <c r="E15" s="3">
-        <v>1190300</v>
+        <v>1080100</v>
       </c>
       <c r="F15" s="3">
-        <v>1179700</v>
+        <v>1204000</v>
       </c>
       <c r="G15" s="3">
-        <v>1085300</v>
+        <v>1193200</v>
       </c>
       <c r="H15" s="3">
-        <v>994700</v>
+        <v>1097800</v>
       </c>
       <c r="I15" s="3">
-        <v>961300</v>
+        <v>1006200</v>
       </c>
       <c r="J15" s="3">
+        <v>972300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1010700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>949100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>956000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>946300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1046400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>945900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>900500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>997900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>959500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2841100</v>
+        <v>3189400</v>
       </c>
       <c r="E17" s="3">
-        <v>3514000</v>
+        <v>2873700</v>
       </c>
       <c r="F17" s="3">
-        <v>3744600</v>
+        <v>3554300</v>
       </c>
       <c r="G17" s="3">
-        <v>3342700</v>
+        <v>3787500</v>
       </c>
       <c r="H17" s="3">
-        <v>3013200</v>
+        <v>3381000</v>
       </c>
       <c r="I17" s="3">
-        <v>3050400</v>
+        <v>3047700</v>
       </c>
       <c r="J17" s="3">
+        <v>3085400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2898200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2878400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3261100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3069900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3316900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2948600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2437300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2453000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2352300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-656100</v>
+        <v>277900</v>
       </c>
       <c r="E18" s="3">
-        <v>-89000</v>
+        <v>-663600</v>
       </c>
       <c r="F18" s="3">
-        <v>746600</v>
+        <v>-90100</v>
       </c>
       <c r="G18" s="3">
-        <v>1345600</v>
+        <v>755200</v>
       </c>
       <c r="H18" s="3">
-        <v>1220000</v>
+        <v>1361000</v>
       </c>
       <c r="I18" s="3">
-        <v>943800</v>
+        <v>1234000</v>
       </c>
       <c r="J18" s="3">
+        <v>954600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-80700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1408300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1219500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1050900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>555200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>375100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>473300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>344900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>304200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>344800</v>
+        <v>177100</v>
       </c>
       <c r="E20" s="3">
-        <v>-850900</v>
+        <v>348700</v>
       </c>
       <c r="F20" s="3">
-        <v>102000</v>
+        <v>-860700</v>
       </c>
       <c r="G20" s="3">
-        <v>-131700</v>
+        <v>103200</v>
       </c>
       <c r="H20" s="3">
-        <v>109600</v>
+        <v>-133200</v>
       </c>
       <c r="I20" s="3">
-        <v>130100</v>
+        <v>110900</v>
       </c>
       <c r="J20" s="3">
+        <v>131600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-422400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>281200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-249900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>343100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>494200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>57600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>756500</v>
+        <v>1582000</v>
       </c>
       <c r="E21" s="3">
-        <v>250400</v>
+        <v>765200</v>
       </c>
       <c r="F21" s="3">
-        <v>2028300</v>
+        <v>253300</v>
       </c>
       <c r="G21" s="3">
-        <v>2299300</v>
+        <v>2051600</v>
       </c>
       <c r="H21" s="3">
-        <v>2324400</v>
+        <v>2325600</v>
       </c>
       <c r="I21" s="3">
-        <v>2035200</v>
+        <v>2351000</v>
       </c>
       <c r="J21" s="3">
+        <v>2058500</v>
+      </c>
+      <c r="K21" s="3">
         <v>507600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2638600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2154500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1747200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1692300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1664100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1868000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1357500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1321400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>151500</v>
+        <v>133900</v>
       </c>
       <c r="E22" s="3">
-        <v>156800</v>
+        <v>153200</v>
       </c>
       <c r="F22" s="3">
-        <v>223000</v>
+        <v>158600</v>
       </c>
       <c r="G22" s="3">
-        <v>175800</v>
+        <v>225600</v>
       </c>
       <c r="H22" s="3">
-        <v>149900</v>
+        <v>177800</v>
       </c>
       <c r="I22" s="3">
-        <v>145400</v>
+        <v>151700</v>
       </c>
       <c r="J22" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K22" s="3">
         <v>181100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>130800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>143000</v>
       </c>
       <c r="M22" s="3">
         <v>143000</v>
       </c>
       <c r="N22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="O22" s="3">
         <v>198000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>136200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>107900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>102900</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-462700</v>
+        <v>321000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1096700</v>
+        <v>-468100</v>
       </c>
       <c r="F23" s="3">
-        <v>625600</v>
+        <v>-1109300</v>
       </c>
       <c r="G23" s="3">
-        <v>1038100</v>
+        <v>632800</v>
       </c>
       <c r="H23" s="3">
-        <v>1179700</v>
+        <v>1050000</v>
       </c>
       <c r="I23" s="3">
-        <v>928500</v>
+        <v>1193200</v>
       </c>
       <c r="J23" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-684200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1558800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1055400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>657900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>448000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>582000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>859600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>256600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>361800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-226800</v>
+        <v>6900</v>
       </c>
       <c r="E24" s="3">
-        <v>-121000</v>
+        <v>-229400</v>
       </c>
       <c r="F24" s="3">
-        <v>171200</v>
+        <v>-122400</v>
       </c>
       <c r="G24" s="3">
-        <v>256500</v>
+        <v>173200</v>
       </c>
       <c r="H24" s="3">
-        <v>-975000</v>
+        <v>259400</v>
       </c>
       <c r="I24" s="3">
-        <v>197100</v>
+        <v>-986100</v>
       </c>
       <c r="J24" s="3">
+        <v>199400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-93600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>249300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>316200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>219100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>153300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-73000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-235900</v>
+        <v>314100</v>
       </c>
       <c r="E26" s="3">
-        <v>-975700</v>
+        <v>-238600</v>
       </c>
       <c r="F26" s="3">
-        <v>454400</v>
+        <v>-986900</v>
       </c>
       <c r="G26" s="3">
-        <v>781600</v>
+        <v>459600</v>
       </c>
       <c r="H26" s="3">
-        <v>2154600</v>
+        <v>790600</v>
       </c>
       <c r="I26" s="3">
-        <v>731400</v>
+        <v>2179400</v>
       </c>
       <c r="J26" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-590600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1309500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>739200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>438900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>294700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>509000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>797800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>188200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>434800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-235900</v>
+        <v>314100</v>
       </c>
       <c r="E27" s="3">
-        <v>-975700</v>
+        <v>-238600</v>
       </c>
       <c r="F27" s="3">
-        <v>454400</v>
+        <v>-986900</v>
       </c>
       <c r="G27" s="3">
-        <v>781600</v>
+        <v>459600</v>
       </c>
       <c r="H27" s="3">
-        <v>2154600</v>
+        <v>790600</v>
       </c>
       <c r="I27" s="3">
-        <v>731400</v>
+        <v>2179400</v>
       </c>
       <c r="J27" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-590600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1309500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>739200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>438900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>294700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>509000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>797800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>188200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>434800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-344800</v>
+        <v>-177100</v>
       </c>
       <c r="E32" s="3">
-        <v>850900</v>
+        <v>-348700</v>
       </c>
       <c r="F32" s="3">
-        <v>-102000</v>
+        <v>860700</v>
       </c>
       <c r="G32" s="3">
-        <v>131700</v>
+        <v>-103200</v>
       </c>
       <c r="H32" s="3">
-        <v>-109600</v>
+        <v>133200</v>
       </c>
       <c r="I32" s="3">
-        <v>-130100</v>
+        <v>-110900</v>
       </c>
       <c r="J32" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="K32" s="3">
         <v>422400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-281200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>249900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-343100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-494200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-57600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-235900</v>
+        <v>314100</v>
       </c>
       <c r="E33" s="3">
-        <v>-975700</v>
+        <v>-238600</v>
       </c>
       <c r="F33" s="3">
-        <v>454400</v>
+        <v>-986900</v>
       </c>
       <c r="G33" s="3">
-        <v>781600</v>
+        <v>459600</v>
       </c>
       <c r="H33" s="3">
-        <v>2154600</v>
+        <v>790600</v>
       </c>
       <c r="I33" s="3">
-        <v>731400</v>
+        <v>2179400</v>
       </c>
       <c r="J33" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-590600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1309500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>739200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>438900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>294700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>509000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>797800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>188200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>434800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-235900</v>
+        <v>314100</v>
       </c>
       <c r="E35" s="3">
-        <v>-975700</v>
+        <v>-238600</v>
       </c>
       <c r="F35" s="3">
-        <v>454400</v>
+        <v>-986900</v>
       </c>
       <c r="G35" s="3">
-        <v>781600</v>
+        <v>459600</v>
       </c>
       <c r="H35" s="3">
-        <v>2154600</v>
+        <v>790600</v>
       </c>
       <c r="I35" s="3">
-        <v>731400</v>
+        <v>2179400</v>
       </c>
       <c r="J35" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-590600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1309500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>739200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>438900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>294700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>509000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>797800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>188200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>434800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,432 +2313,457 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177300</v>
+        <v>134700</v>
       </c>
       <c r="E41" s="3">
-        <v>815100</v>
+        <v>179400</v>
       </c>
       <c r="F41" s="3">
-        <v>105800</v>
+        <v>824500</v>
       </c>
       <c r="G41" s="3">
-        <v>134000</v>
+        <v>107000</v>
       </c>
       <c r="H41" s="3">
-        <v>302900</v>
+        <v>135500</v>
       </c>
       <c r="I41" s="3">
-        <v>68500</v>
+        <v>306400</v>
       </c>
       <c r="J41" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K41" s="3">
         <v>76900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>215100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>114400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>102000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209300</v>
+        <v>209400</v>
       </c>
       <c r="E42" s="3">
-        <v>169000</v>
+        <v>211700</v>
       </c>
       <c r="F42" s="3">
-        <v>372900</v>
+        <v>170900</v>
       </c>
       <c r="G42" s="3">
-        <v>431500</v>
+        <v>377200</v>
       </c>
       <c r="H42" s="3">
-        <v>416300</v>
+        <v>436500</v>
       </c>
       <c r="I42" s="3">
-        <v>417800</v>
+        <v>421100</v>
       </c>
       <c r="J42" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K42" s="3">
         <v>398800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>478200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>560800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>587900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>664600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>660900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>619200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>626100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>701400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1641700</v>
+        <v>1483400</v>
       </c>
       <c r="E43" s="3">
-        <v>1159900</v>
+        <v>1660500</v>
       </c>
       <c r="F43" s="3">
-        <v>1886000</v>
+        <v>1173200</v>
       </c>
       <c r="G43" s="3">
-        <v>1830400</v>
+        <v>1907600</v>
       </c>
       <c r="H43" s="3">
-        <v>1616600</v>
+        <v>1851400</v>
       </c>
       <c r="I43" s="3">
-        <v>1740600</v>
+        <v>1635100</v>
       </c>
       <c r="J43" s="3">
+        <v>1760600</v>
+      </c>
+      <c r="K43" s="3">
         <v>873700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1436700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1965500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1656100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2023500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1239100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1637300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1637100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1755400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>833400</v>
+        <v>833700</v>
       </c>
       <c r="E44" s="3">
-        <v>715400</v>
+        <v>843000</v>
       </c>
       <c r="F44" s="3">
-        <v>876800</v>
+        <v>723600</v>
       </c>
       <c r="G44" s="3">
-        <v>876000</v>
+        <v>886800</v>
       </c>
       <c r="H44" s="3">
-        <v>904900</v>
+        <v>886100</v>
       </c>
       <c r="I44" s="3">
-        <v>815900</v>
+        <v>915300</v>
       </c>
       <c r="J44" s="3">
+        <v>825200</v>
+      </c>
+      <c r="K44" s="3">
         <v>726800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>812400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>783700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>744500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>665300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>652700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>691400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>505500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>529300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>233700</v>
+        <v>445000</v>
       </c>
       <c r="E45" s="3">
-        <v>325000</v>
+        <v>236300</v>
       </c>
       <c r="F45" s="3">
-        <v>173500</v>
+        <v>328700</v>
       </c>
       <c r="G45" s="3">
-        <v>288500</v>
+        <v>175500</v>
       </c>
       <c r="H45" s="3">
-        <v>294500</v>
+        <v>291800</v>
       </c>
       <c r="I45" s="3">
-        <v>201700</v>
+        <v>297900</v>
       </c>
       <c r="J45" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K45" s="3">
         <v>222200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>258700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>297400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>198700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>189000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>282100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>266400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>398700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>331900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3095400</v>
+        <v>3106200</v>
       </c>
       <c r="E46" s="3">
-        <v>3184400</v>
+        <v>3130900</v>
       </c>
       <c r="F46" s="3">
-        <v>3415000</v>
+        <v>3220900</v>
       </c>
       <c r="G46" s="3">
-        <v>3560400</v>
+        <v>3454200</v>
       </c>
       <c r="H46" s="3">
-        <v>3535300</v>
+        <v>3601200</v>
       </c>
       <c r="I46" s="3">
-        <v>3244500</v>
+        <v>3575800</v>
       </c>
       <c r="J46" s="3">
+        <v>3281700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2298500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3201100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3744400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3301700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3644400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3066900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3251500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3182000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3331000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>519800</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>522700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>525800</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>496200</v>
-      </c>
       <c r="G47" s="3">
-        <v>539600</v>
+        <v>501900</v>
       </c>
       <c r="H47" s="3">
-        <v>595200</v>
+        <v>545800</v>
       </c>
       <c r="I47" s="3">
-        <v>634000</v>
+        <v>602000</v>
       </c>
       <c r="J47" s="3">
+        <v>641300</v>
+      </c>
+      <c r="K47" s="3">
         <v>668200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>627900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>641400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>627800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>596900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>557400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>519500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>504700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>496300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52862300</v>
+        <v>52852000</v>
       </c>
       <c r="E48" s="3">
-        <v>53755800</v>
+        <v>53468600</v>
       </c>
       <c r="F48" s="3">
-        <v>55111300</v>
+        <v>54372400</v>
       </c>
       <c r="G48" s="3">
-        <v>55211800</v>
+        <v>55743400</v>
       </c>
       <c r="H48" s="3">
-        <v>55542100</v>
+        <v>55845100</v>
       </c>
       <c r="I48" s="3">
-        <v>52029600</v>
+        <v>56179200</v>
       </c>
       <c r="J48" s="3">
+        <v>52626400</v>
+      </c>
+      <c r="K48" s="3">
         <v>51142200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49193300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50788500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50896900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50458900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50437300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49826300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40562500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40940500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>410200</v>
+        <v>277900</v>
       </c>
       <c r="E52" s="3">
-        <v>962800</v>
+        <v>414900</v>
       </c>
       <c r="F52" s="3">
-        <v>434600</v>
+        <v>973800</v>
       </c>
       <c r="G52" s="3">
-        <v>458200</v>
+        <v>439600</v>
       </c>
       <c r="H52" s="3">
-        <v>419400</v>
+        <v>463400</v>
       </c>
       <c r="I52" s="3">
-        <v>388200</v>
+        <v>424200</v>
       </c>
       <c r="J52" s="3">
+        <v>392600</v>
+      </c>
+      <c r="K52" s="3">
         <v>353900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>276100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>290600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>288300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>272400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>256800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>276100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>262000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>287300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56887700</v>
+        <v>56758800</v>
       </c>
       <c r="E54" s="3">
-        <v>57903000</v>
+        <v>57540200</v>
       </c>
       <c r="F54" s="3">
-        <v>59457100</v>
+        <v>58567100</v>
       </c>
       <c r="G54" s="3">
-        <v>59769900</v>
+        <v>60139100</v>
       </c>
       <c r="H54" s="3">
-        <v>60091900</v>
+        <v>60455500</v>
       </c>
       <c r="I54" s="3">
-        <v>56296300</v>
+        <v>60781100</v>
       </c>
       <c r="J54" s="3">
+        <v>56942000</v>
+      </c>
+      <c r="K54" s="3">
         <v>54462800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53298400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55464800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55114800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54972600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54318400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53873400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44511200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45055200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>461200</v>
+        <v>635100</v>
       </c>
       <c r="E57" s="3">
-        <v>610400</v>
+        <v>466500</v>
       </c>
       <c r="F57" s="3">
-        <v>621000</v>
+        <v>617400</v>
       </c>
       <c r="G57" s="3">
-        <v>503800</v>
+        <v>628200</v>
       </c>
       <c r="H57" s="3">
-        <v>703200</v>
+        <v>509600</v>
       </c>
       <c r="I57" s="3">
+        <v>711300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>599700</v>
+      </c>
+      <c r="K57" s="3">
         <v>592900</v>
       </c>
-      <c r="J57" s="3">
-        <v>592900</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>732500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>730200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>705400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>576800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>590900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>488200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>415600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>457100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1556400</v>
+        <v>782900</v>
       </c>
       <c r="E58" s="3">
-        <v>2301500</v>
+        <v>1574300</v>
       </c>
       <c r="F58" s="3">
-        <v>1997100</v>
+        <v>2327900</v>
       </c>
       <c r="G58" s="3">
-        <v>3257500</v>
+        <v>2020000</v>
       </c>
       <c r="H58" s="3">
-        <v>3196600</v>
+        <v>3294800</v>
       </c>
       <c r="I58" s="3">
-        <v>1429300</v>
+        <v>3233200</v>
       </c>
       <c r="J58" s="3">
+        <v>1445700</v>
+      </c>
+      <c r="K58" s="3">
         <v>868400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>363300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>621800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>484800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1396900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1395400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1448200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2403800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1392000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1724600</v>
+        <v>1781400</v>
       </c>
       <c r="E59" s="3">
-        <v>1886000</v>
+        <v>1744400</v>
       </c>
       <c r="F59" s="3">
-        <v>2433200</v>
+        <v>1907600</v>
       </c>
       <c r="G59" s="3">
-        <v>2217100</v>
+        <v>2461100</v>
       </c>
       <c r="H59" s="3">
-        <v>2112800</v>
+        <v>2242500</v>
       </c>
       <c r="I59" s="3">
-        <v>2248300</v>
+        <v>2137000</v>
       </c>
       <c r="J59" s="3">
+        <v>2274000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2163000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2387900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2305000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2067900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2685900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2323400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2111300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1827600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2062700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3742300</v>
+        <v>3199400</v>
       </c>
       <c r="E60" s="3">
-        <v>4797900</v>
+        <v>3785200</v>
       </c>
       <c r="F60" s="3">
-        <v>5051400</v>
+        <v>4852900</v>
       </c>
       <c r="G60" s="3">
-        <v>5978400</v>
+        <v>5109300</v>
       </c>
       <c r="H60" s="3">
-        <v>6012600</v>
+        <v>6046900</v>
       </c>
       <c r="I60" s="3">
-        <v>4270500</v>
+        <v>6081600</v>
       </c>
       <c r="J60" s="3">
+        <v>4319500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3624300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3483800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3657100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3258100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4659500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4309700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4047800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4647000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3911800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17247800</v>
+        <v>17315600</v>
       </c>
       <c r="E61" s="3">
-        <v>16294200</v>
+        <v>17445700</v>
       </c>
       <c r="F61" s="3">
-        <v>15526200</v>
+        <v>16481100</v>
       </c>
       <c r="G61" s="3">
-        <v>15270500</v>
+        <v>15704300</v>
       </c>
       <c r="H61" s="3">
-        <v>16121400</v>
+        <v>15445700</v>
       </c>
       <c r="I61" s="3">
-        <v>15755300</v>
+        <v>16306300</v>
       </c>
       <c r="J61" s="3">
+        <v>15936000</v>
+      </c>
+      <c r="K61" s="3">
         <v>14827600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13976400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15485600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16060000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15316600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15662600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15874000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10121400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11518100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11289200</v>
+        <v>11481900</v>
       </c>
       <c r="E62" s="3">
-        <v>11495500</v>
+        <v>11418700</v>
       </c>
       <c r="F62" s="3">
-        <v>12248200</v>
+        <v>11627400</v>
       </c>
       <c r="G62" s="3">
-        <v>12039700</v>
+        <v>12388700</v>
       </c>
       <c r="H62" s="3">
-        <v>11872200</v>
+        <v>12177800</v>
       </c>
       <c r="I62" s="3">
-        <v>11711700</v>
+        <v>12008400</v>
       </c>
       <c r="J62" s="3">
+        <v>11846000</v>
+      </c>
+      <c r="K62" s="3">
         <v>11675900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11571800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11923400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11687800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11440000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11023200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10891500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9479200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9446200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32279300</v>
+        <v>31996800</v>
       </c>
       <c r="E66" s="3">
-        <v>32587600</v>
+        <v>32649600</v>
       </c>
       <c r="F66" s="3">
-        <v>32825800</v>
+        <v>32961400</v>
       </c>
       <c r="G66" s="3">
-        <v>33288600</v>
+        <v>33202300</v>
       </c>
       <c r="H66" s="3">
-        <v>34006300</v>
+        <v>33670400</v>
       </c>
       <c r="I66" s="3">
-        <v>31737500</v>
+        <v>34396300</v>
       </c>
       <c r="J66" s="3">
+        <v>32101500</v>
+      </c>
+      <c r="K66" s="3">
         <v>30127700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29032000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31066100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31005900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31416100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30995600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30813300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24247600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24876100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17211300</v>
+        <v>17336300</v>
       </c>
       <c r="E72" s="3">
-        <v>17828500</v>
+        <v>17408700</v>
       </c>
       <c r="F72" s="3">
-        <v>19350000</v>
+        <v>18033000</v>
       </c>
       <c r="G72" s="3">
-        <v>19318000</v>
+        <v>19571900</v>
       </c>
       <c r="H72" s="3">
-        <v>18971700</v>
+        <v>19539600</v>
       </c>
       <c r="I72" s="3">
-        <v>17392400</v>
+        <v>19189300</v>
       </c>
       <c r="J72" s="3">
+        <v>17591900</v>
+      </c>
+      <c r="K72" s="3">
         <v>17146600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17464500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17309700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17152300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16828100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16783400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16523700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16490100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16536900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24608300</v>
+        <v>24762000</v>
       </c>
       <c r="E76" s="3">
-        <v>25315400</v>
+        <v>24890600</v>
       </c>
       <c r="F76" s="3">
-        <v>26631300</v>
+        <v>25605800</v>
       </c>
       <c r="G76" s="3">
-        <v>26481400</v>
+        <v>26936800</v>
       </c>
       <c r="H76" s="3">
-        <v>26085600</v>
+        <v>26785100</v>
       </c>
       <c r="I76" s="3">
-        <v>24558900</v>
+        <v>26384800</v>
       </c>
       <c r="J76" s="3">
+        <v>24840600</v>
+      </c>
+      <c r="K76" s="3">
         <v>24335100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24266400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24398700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24108900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23556500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23322800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23060100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20263600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20179100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-235900</v>
+        <v>314100</v>
       </c>
       <c r="E81" s="3">
-        <v>-975700</v>
+        <v>-238600</v>
       </c>
       <c r="F81" s="3">
-        <v>454400</v>
+        <v>-986900</v>
       </c>
       <c r="G81" s="3">
-        <v>781600</v>
+        <v>459600</v>
       </c>
       <c r="H81" s="3">
-        <v>2154600</v>
+        <v>790600</v>
       </c>
       <c r="I81" s="3">
-        <v>731400</v>
+        <v>2179400</v>
       </c>
       <c r="J81" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-590600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1309500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>739200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>438900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>294700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>509000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>797800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>188200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>434800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1067800</v>
+        <v>1127000</v>
       </c>
       <c r="E83" s="3">
-        <v>1190300</v>
+        <v>1080100</v>
       </c>
       <c r="F83" s="3">
-        <v>1179700</v>
+        <v>1204000</v>
       </c>
       <c r="G83" s="3">
-        <v>1085300</v>
+        <v>1193200</v>
       </c>
       <c r="H83" s="3">
-        <v>994700</v>
+        <v>1097800</v>
       </c>
       <c r="I83" s="3">
-        <v>961300</v>
+        <v>1006200</v>
       </c>
       <c r="J83" s="3">
+        <v>972300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1010700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>949100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>956000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>946300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1046400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>945900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>997900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>959500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-267100</v>
+        <v>1593500</v>
       </c>
       <c r="E89" s="3">
-        <v>1312900</v>
+        <v>-270200</v>
       </c>
       <c r="F89" s="3">
-        <v>1867700</v>
+        <v>1327900</v>
       </c>
       <c r="G89" s="3">
-        <v>1916400</v>
+        <v>1889100</v>
       </c>
       <c r="H89" s="3">
-        <v>2177500</v>
+        <v>1938400</v>
       </c>
       <c r="I89" s="3">
-        <v>758000</v>
+        <v>2202500</v>
       </c>
       <c r="J89" s="3">
+        <v>766700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1063200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2646600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1967000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1858600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1070200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1876900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1213800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1283700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>964100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1407200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-28200</v>
-      </c>
       <c r="I91" s="3">
-        <v>-25100</v>
+        <v>-28500</v>
       </c>
       <c r="J91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="K91" s="3">
         <v>72300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-215800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-618400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-493200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-527400</v>
+        <v>-495000</v>
       </c>
       <c r="E94" s="3">
-        <v>-653800</v>
+        <v>-533500</v>
       </c>
       <c r="F94" s="3">
-        <v>-650000</v>
+        <v>-661300</v>
       </c>
       <c r="G94" s="3">
-        <v>-691100</v>
+        <v>-657400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3397500</v>
+        <v>-699000</v>
       </c>
       <c r="I94" s="3">
-        <v>-783200</v>
+        <v>-3436500</v>
       </c>
       <c r="J94" s="3">
+        <v>-792100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-793100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-919300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-856700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-799300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-863500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-411000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-382100</v>
+        <v>-386400</v>
       </c>
       <c r="E96" s="3">
-        <v>-337900</v>
+        <v>-386400</v>
       </c>
       <c r="F96" s="3">
-        <v>-337900</v>
+        <v>-341800</v>
       </c>
       <c r="G96" s="3">
-        <v>-340200</v>
+        <v>-341800</v>
       </c>
       <c r="H96" s="3">
-        <v>-341700</v>
+        <v>-344100</v>
       </c>
       <c r="I96" s="3">
-        <v>-306700</v>
+        <v>-345600</v>
       </c>
       <c r="J96" s="3">
+        <v>-310200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-309000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-297200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-309400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-252900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-249300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-248600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-227700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-212800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-195100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>156800</v>
+        <v>-1143200</v>
       </c>
       <c r="E100" s="3">
-        <v>50200</v>
+        <v>158600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1245900</v>
+        <v>50800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1394300</v>
+        <v>-1260200</v>
       </c>
       <c r="H100" s="3">
-        <v>1454400</v>
+        <v>-1410300</v>
       </c>
       <c r="I100" s="3">
-        <v>16700</v>
+        <v>1471100</v>
       </c>
       <c r="J100" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-418600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-816800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-401100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-223300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5465500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-418700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-554700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-637800</v>
+        <v>-44600</v>
       </c>
       <c r="E102" s="3">
-        <v>709300</v>
+        <v>-645100</v>
       </c>
       <c r="F102" s="3">
-        <v>-28200</v>
+        <v>717500</v>
       </c>
       <c r="G102" s="3">
-        <v>-169000</v>
+        <v>-28500</v>
       </c>
       <c r="H102" s="3">
-        <v>234400</v>
+        <v>-170900</v>
       </c>
       <c r="I102" s="3">
-        <v>-8400</v>
+        <v>237100</v>
       </c>
       <c r="J102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-148400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>82800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-130200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>195000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3467300</v>
+        <v>3979400</v>
       </c>
       <c r="E8" s="3">
-        <v>2210200</v>
+        <v>3571800</v>
       </c>
       <c r="F8" s="3">
-        <v>3464200</v>
+        <v>2276800</v>
       </c>
       <c r="G8" s="3">
-        <v>4542700</v>
+        <v>3568600</v>
       </c>
       <c r="H8" s="3">
-        <v>4742100</v>
+        <v>4679600</v>
       </c>
       <c r="I8" s="3">
-        <v>4281700</v>
+        <v>4885000</v>
       </c>
       <c r="J8" s="3">
+        <v>4410800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4040000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2817600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4286700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4480600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4120800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3872100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3323600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2910600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2797900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2656500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1959200</v>
+        <v>2338600</v>
       </c>
       <c r="E9" s="3">
-        <v>1669000</v>
+        <v>2018200</v>
       </c>
       <c r="F9" s="3">
-        <v>2398800</v>
+        <v>1719300</v>
       </c>
       <c r="G9" s="3">
-        <v>2358700</v>
+        <v>2471100</v>
       </c>
       <c r="H9" s="3">
-        <v>2166300</v>
+        <v>2429800</v>
       </c>
       <c r="I9" s="3">
-        <v>1946900</v>
+        <v>2231600</v>
       </c>
       <c r="J9" s="3">
+        <v>2005500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1977700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1895900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1901000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2080700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2094300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2102400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1830800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1529400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1339800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1267600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1508100</v>
+        <v>1640800</v>
       </c>
       <c r="E10" s="3">
-        <v>541200</v>
+        <v>1553500</v>
       </c>
       <c r="F10" s="3">
-        <v>1065400</v>
+        <v>557500</v>
       </c>
       <c r="G10" s="3">
-        <v>2184000</v>
+        <v>1097500</v>
       </c>
       <c r="H10" s="3">
-        <v>2575800</v>
+        <v>2249800</v>
       </c>
       <c r="I10" s="3">
-        <v>2334900</v>
+        <v>2653400</v>
       </c>
       <c r="J10" s="3">
+        <v>2405200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2062300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>921700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2385700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2399900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2026500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1769700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1492900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1381300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1458100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1389000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1127000</v>
+        <v>1280700</v>
       </c>
       <c r="E15" s="3">
-        <v>1080100</v>
+        <v>1161000</v>
       </c>
       <c r="F15" s="3">
-        <v>1204000</v>
+        <v>1112600</v>
       </c>
       <c r="G15" s="3">
-        <v>1193200</v>
+        <v>1240300</v>
       </c>
       <c r="H15" s="3">
-        <v>1097800</v>
+        <v>1229200</v>
       </c>
       <c r="I15" s="3">
-        <v>1006200</v>
+        <v>1130800</v>
       </c>
       <c r="J15" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K15" s="3">
         <v>972300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1010700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>949100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>956000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>946300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1046400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>945900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>900500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>997900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>959500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3189400</v>
+        <v>3842200</v>
       </c>
       <c r="E17" s="3">
-        <v>2873700</v>
+        <v>3285500</v>
       </c>
       <c r="F17" s="3">
-        <v>3554300</v>
+        <v>2960300</v>
       </c>
       <c r="G17" s="3">
-        <v>3787500</v>
+        <v>3661400</v>
       </c>
       <c r="H17" s="3">
-        <v>3381000</v>
+        <v>3901700</v>
       </c>
       <c r="I17" s="3">
-        <v>3047700</v>
+        <v>3482900</v>
       </c>
       <c r="J17" s="3">
+        <v>3139600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3085400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2898200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2878400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3261100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3069900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3316900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2948600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2437300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2453000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2352300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277900</v>
+        <v>137200</v>
       </c>
       <c r="E18" s="3">
-        <v>-663600</v>
+        <v>286300</v>
       </c>
       <c r="F18" s="3">
-        <v>-90100</v>
+        <v>-683600</v>
       </c>
       <c r="G18" s="3">
-        <v>755200</v>
+        <v>-92800</v>
       </c>
       <c r="H18" s="3">
-        <v>1361000</v>
+        <v>778000</v>
       </c>
       <c r="I18" s="3">
-        <v>1234000</v>
+        <v>1402100</v>
       </c>
       <c r="J18" s="3">
+        <v>1271200</v>
+      </c>
+      <c r="K18" s="3">
         <v>954600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-80700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1408300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1219500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1050900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>555200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>375100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>473300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>344900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>304200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>177100</v>
+        <v>662200</v>
       </c>
       <c r="E20" s="3">
-        <v>348700</v>
+        <v>182400</v>
       </c>
       <c r="F20" s="3">
-        <v>-860700</v>
+        <v>359200</v>
       </c>
       <c r="G20" s="3">
-        <v>103200</v>
+        <v>-886600</v>
       </c>
       <c r="H20" s="3">
-        <v>-133200</v>
+        <v>106300</v>
       </c>
       <c r="I20" s="3">
-        <v>110900</v>
+        <v>-137200</v>
       </c>
       <c r="J20" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K20" s="3">
         <v>131600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-422400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>281200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-249900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>90800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>343100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>494200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>57600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1582000</v>
+        <v>2080100</v>
       </c>
       <c r="E21" s="3">
-        <v>765200</v>
+        <v>1629700</v>
       </c>
       <c r="F21" s="3">
-        <v>253300</v>
+        <v>788300</v>
       </c>
       <c r="G21" s="3">
-        <v>2051600</v>
+        <v>260900</v>
       </c>
       <c r="H21" s="3">
-        <v>2325600</v>
+        <v>2113400</v>
       </c>
       <c r="I21" s="3">
-        <v>2351000</v>
+        <v>2395700</v>
       </c>
       <c r="J21" s="3">
+        <v>2421900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2058500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>507600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2638600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2154500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1747200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1692300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1664100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1868000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1357500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1321400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>133900</v>
+        <v>197500</v>
       </c>
       <c r="E22" s="3">
-        <v>153200</v>
+        <v>138000</v>
       </c>
       <c r="F22" s="3">
-        <v>158600</v>
+        <v>157800</v>
       </c>
       <c r="G22" s="3">
-        <v>225600</v>
+        <v>163400</v>
       </c>
       <c r="H22" s="3">
-        <v>177800</v>
+        <v>232400</v>
       </c>
       <c r="I22" s="3">
-        <v>151700</v>
+        <v>183200</v>
       </c>
       <c r="J22" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K22" s="3">
         <v>147000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>181100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>130800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>143000</v>
       </c>
       <c r="N22" s="3">
         <v>143000</v>
       </c>
       <c r="O22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="P22" s="3">
         <v>198000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>136200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>107900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>102900</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>321000</v>
+        <v>601900</v>
       </c>
       <c r="E23" s="3">
-        <v>-468100</v>
+        <v>330700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1109300</v>
+        <v>-482200</v>
       </c>
       <c r="G23" s="3">
-        <v>632800</v>
+        <v>-1142700</v>
       </c>
       <c r="H23" s="3">
-        <v>1050000</v>
+        <v>651900</v>
       </c>
       <c r="I23" s="3">
-        <v>1193200</v>
+        <v>1081700</v>
       </c>
       <c r="J23" s="3">
+        <v>1229200</v>
+      </c>
+      <c r="K23" s="3">
         <v>939200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-684200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1558800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1055400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>657900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>448000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>582000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>859600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>256600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>361800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
-        <v>-229400</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>-122400</v>
+        <v>-236300</v>
       </c>
       <c r="G24" s="3">
-        <v>173200</v>
+        <v>-126100</v>
       </c>
       <c r="H24" s="3">
-        <v>259400</v>
+        <v>178400</v>
       </c>
       <c r="I24" s="3">
-        <v>-986100</v>
+        <v>267200</v>
       </c>
       <c r="J24" s="3">
+        <v>-1015900</v>
+      </c>
+      <c r="K24" s="3">
         <v>199400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-93600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>249300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>316200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>219100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>153300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>72900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-73000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>314100</v>
+        <v>594000</v>
       </c>
       <c r="E26" s="3">
-        <v>-238600</v>
+        <v>323600</v>
       </c>
       <c r="F26" s="3">
-        <v>-986900</v>
+        <v>-245800</v>
       </c>
       <c r="G26" s="3">
-        <v>459600</v>
+        <v>-1016700</v>
       </c>
       <c r="H26" s="3">
-        <v>790600</v>
+        <v>473400</v>
       </c>
       <c r="I26" s="3">
-        <v>2179400</v>
+        <v>814400</v>
       </c>
       <c r="J26" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="K26" s="3">
         <v>739800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-590600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1309500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>739200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>438900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>294700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>509000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>797800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>188200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>434800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>314100</v>
+        <v>594000</v>
       </c>
       <c r="E27" s="3">
-        <v>-238600</v>
+        <v>323600</v>
       </c>
       <c r="F27" s="3">
-        <v>-986900</v>
+        <v>-245800</v>
       </c>
       <c r="G27" s="3">
-        <v>459600</v>
+        <v>-1016700</v>
       </c>
       <c r="H27" s="3">
-        <v>790600</v>
+        <v>473400</v>
       </c>
       <c r="I27" s="3">
-        <v>2179400</v>
+        <v>814400</v>
       </c>
       <c r="J27" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="K27" s="3">
         <v>739800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-590600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1309500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>739200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>438900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>294700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>509000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>797800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>188200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>434800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177100</v>
+        <v>-662200</v>
       </c>
       <c r="E32" s="3">
-        <v>-348700</v>
+        <v>-182400</v>
       </c>
       <c r="F32" s="3">
-        <v>860700</v>
+        <v>-359200</v>
       </c>
       <c r="G32" s="3">
-        <v>-103200</v>
+        <v>886600</v>
       </c>
       <c r="H32" s="3">
-        <v>133200</v>
+        <v>-106300</v>
       </c>
       <c r="I32" s="3">
-        <v>-110900</v>
+        <v>137200</v>
       </c>
       <c r="J32" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-131600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>422400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-281200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>249900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-90800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-343100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-494200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-57600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>314100</v>
+        <v>594000</v>
       </c>
       <c r="E33" s="3">
-        <v>-238600</v>
+        <v>323600</v>
       </c>
       <c r="F33" s="3">
-        <v>-986900</v>
+        <v>-245800</v>
       </c>
       <c r="G33" s="3">
-        <v>459600</v>
+        <v>-1016700</v>
       </c>
       <c r="H33" s="3">
-        <v>790600</v>
+        <v>473400</v>
       </c>
       <c r="I33" s="3">
-        <v>2179400</v>
+        <v>814400</v>
       </c>
       <c r="J33" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="K33" s="3">
         <v>739800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-590600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1309500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>739200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>438900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>294700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>509000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>797800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>188200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>434800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>314100</v>
+        <v>594000</v>
       </c>
       <c r="E35" s="3">
-        <v>-238600</v>
+        <v>323600</v>
       </c>
       <c r="F35" s="3">
-        <v>-986900</v>
+        <v>-245800</v>
       </c>
       <c r="G35" s="3">
-        <v>459600</v>
+        <v>-1016700</v>
       </c>
       <c r="H35" s="3">
-        <v>790600</v>
+        <v>473400</v>
       </c>
       <c r="I35" s="3">
-        <v>2179400</v>
+        <v>814400</v>
       </c>
       <c r="J35" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="K35" s="3">
         <v>739800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-590600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1309500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>739200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>438900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>294700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>509000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>797800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>188200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>434800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,456 +2399,481 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134700</v>
+        <v>145900</v>
       </c>
       <c r="E41" s="3">
-        <v>179400</v>
+        <v>138800</v>
       </c>
       <c r="F41" s="3">
-        <v>824500</v>
+        <v>184800</v>
       </c>
       <c r="G41" s="3">
-        <v>107000</v>
+        <v>849300</v>
       </c>
       <c r="H41" s="3">
-        <v>135500</v>
+        <v>110200</v>
       </c>
       <c r="I41" s="3">
-        <v>306400</v>
+        <v>139600</v>
       </c>
       <c r="J41" s="3">
+        <v>315600</v>
+      </c>
+      <c r="K41" s="3">
         <v>69300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>215100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>114400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>102000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>232200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209400</v>
+        <v>241900</v>
       </c>
       <c r="E42" s="3">
-        <v>211700</v>
+        <v>215700</v>
       </c>
       <c r="F42" s="3">
-        <v>170900</v>
+        <v>218100</v>
       </c>
       <c r="G42" s="3">
-        <v>377200</v>
+        <v>176100</v>
       </c>
       <c r="H42" s="3">
-        <v>436500</v>
+        <v>388600</v>
       </c>
       <c r="I42" s="3">
-        <v>421100</v>
+        <v>449600</v>
       </c>
       <c r="J42" s="3">
+        <v>433800</v>
+      </c>
+      <c r="K42" s="3">
         <v>422600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>398800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>478200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>560800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>587900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>664600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>660900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>619200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>626100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>701400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1483400</v>
+        <v>1981800</v>
       </c>
       <c r="E43" s="3">
-        <v>1660500</v>
+        <v>1528100</v>
       </c>
       <c r="F43" s="3">
-        <v>1173200</v>
+        <v>1710500</v>
       </c>
       <c r="G43" s="3">
-        <v>1907600</v>
+        <v>1208600</v>
       </c>
       <c r="H43" s="3">
-        <v>1851400</v>
+        <v>1965100</v>
       </c>
       <c r="I43" s="3">
-        <v>1635100</v>
+        <v>1907200</v>
       </c>
       <c r="J43" s="3">
+        <v>1684400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1760600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>873700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1436700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1965500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1656100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2023500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1239100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1637300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1637100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1755400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>833700</v>
+        <v>840600</v>
       </c>
       <c r="E44" s="3">
-        <v>843000</v>
+        <v>858800</v>
       </c>
       <c r="F44" s="3">
-        <v>723600</v>
+        <v>868400</v>
       </c>
       <c r="G44" s="3">
-        <v>886800</v>
+        <v>745400</v>
       </c>
       <c r="H44" s="3">
-        <v>886100</v>
+        <v>913600</v>
       </c>
       <c r="I44" s="3">
-        <v>915300</v>
+        <v>912800</v>
       </c>
       <c r="J44" s="3">
+        <v>942900</v>
+      </c>
+      <c r="K44" s="3">
         <v>825200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>726800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>812400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>783700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>744500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>665300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>652700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>691400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>505500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>529300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>445000</v>
+        <v>248200</v>
       </c>
       <c r="E45" s="3">
-        <v>236300</v>
+        <v>458400</v>
       </c>
       <c r="F45" s="3">
-        <v>328700</v>
+        <v>243500</v>
       </c>
       <c r="G45" s="3">
-        <v>175500</v>
+        <v>338600</v>
       </c>
       <c r="H45" s="3">
-        <v>291800</v>
+        <v>180800</v>
       </c>
       <c r="I45" s="3">
-        <v>297900</v>
+        <v>300600</v>
       </c>
       <c r="J45" s="3">
+        <v>306900</v>
+      </c>
+      <c r="K45" s="3">
         <v>204000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>222200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>258700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>297400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>198700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>189000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>282100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>266400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>398700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>331900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3106200</v>
+        <v>3458400</v>
       </c>
       <c r="E46" s="3">
-        <v>3130900</v>
+        <v>3199800</v>
       </c>
       <c r="F46" s="3">
-        <v>3220900</v>
+        <v>3225200</v>
       </c>
       <c r="G46" s="3">
-        <v>3454200</v>
+        <v>3318000</v>
       </c>
       <c r="H46" s="3">
-        <v>3601200</v>
+        <v>3558300</v>
       </c>
       <c r="I46" s="3">
-        <v>3575800</v>
+        <v>3709700</v>
       </c>
       <c r="J46" s="3">
+        <v>3683600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3281700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2298500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3201100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3744400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3301700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3644400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3066900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3251500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3182000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3331000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>522700</v>
+        <v>440100</v>
       </c>
       <c r="E47" s="3">
-        <v>525800</v>
-      </c>
-      <c r="F47" s="3" t="s">
+        <v>538500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>541600</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>501900</v>
-      </c>
       <c r="H47" s="3">
-        <v>545800</v>
+        <v>517000</v>
       </c>
       <c r="I47" s="3">
-        <v>602000</v>
+        <v>562300</v>
       </c>
       <c r="J47" s="3">
+        <v>620100</v>
+      </c>
+      <c r="K47" s="3">
         <v>641300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>668200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>627900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>641400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>627800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>596900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>557400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>519500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>504700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>496300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52852000</v>
+        <v>55379000</v>
       </c>
       <c r="E48" s="3">
-        <v>53468600</v>
+        <v>54444800</v>
       </c>
       <c r="F48" s="3">
-        <v>54372400</v>
+        <v>55080000</v>
       </c>
       <c r="G48" s="3">
-        <v>55743400</v>
+        <v>56011000</v>
       </c>
       <c r="H48" s="3">
-        <v>55845100</v>
+        <v>57423400</v>
       </c>
       <c r="I48" s="3">
-        <v>56179200</v>
+        <v>57528000</v>
       </c>
       <c r="J48" s="3">
+        <v>57872200</v>
+      </c>
+      <c r="K48" s="3">
         <v>52626400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51142200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49193300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50788500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50896900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50458900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50437300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49826300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40562500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40940500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>277900</v>
+        <v>417900</v>
       </c>
       <c r="E52" s="3">
-        <v>414900</v>
+        <v>286300</v>
       </c>
       <c r="F52" s="3">
-        <v>973800</v>
+        <v>427400</v>
       </c>
       <c r="G52" s="3">
-        <v>439600</v>
+        <v>1003200</v>
       </c>
       <c r="H52" s="3">
-        <v>463400</v>
+        <v>452800</v>
       </c>
       <c r="I52" s="3">
-        <v>424200</v>
+        <v>477400</v>
       </c>
       <c r="J52" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K52" s="3">
         <v>392600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>353900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>276100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>290600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>288300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>272400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>256800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>276100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>262000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>287300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56758800</v>
+        <v>59695400</v>
       </c>
       <c r="E54" s="3">
-        <v>57540200</v>
+        <v>58469400</v>
       </c>
       <c r="F54" s="3">
-        <v>58567100</v>
+        <v>59274300</v>
       </c>
       <c r="G54" s="3">
-        <v>60139100</v>
+        <v>60332200</v>
       </c>
       <c r="H54" s="3">
-        <v>60455500</v>
+        <v>61951500</v>
       </c>
       <c r="I54" s="3">
-        <v>60781100</v>
+        <v>62277400</v>
       </c>
       <c r="J54" s="3">
+        <v>62612900</v>
+      </c>
+      <c r="K54" s="3">
         <v>56942000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54462800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53298400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55464800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55114800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54972600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54318400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53873400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44511200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45055200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>635100</v>
+        <v>528900</v>
       </c>
       <c r="E57" s="3">
-        <v>466500</v>
+        <v>654200</v>
       </c>
       <c r="F57" s="3">
-        <v>617400</v>
+        <v>480600</v>
       </c>
       <c r="G57" s="3">
-        <v>628200</v>
+        <v>636000</v>
       </c>
       <c r="H57" s="3">
-        <v>509600</v>
+        <v>647100</v>
       </c>
       <c r="I57" s="3">
-        <v>711300</v>
+        <v>525000</v>
       </c>
       <c r="J57" s="3">
+        <v>732800</v>
+      </c>
+      <c r="K57" s="3">
         <v>599700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>592900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>732500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>730200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>705400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>576800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>590900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>488200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>415600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>457100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>782900</v>
+        <v>1214900</v>
       </c>
       <c r="E58" s="3">
-        <v>1574300</v>
+        <v>806500</v>
       </c>
       <c r="F58" s="3">
-        <v>2327900</v>
+        <v>1621700</v>
       </c>
       <c r="G58" s="3">
-        <v>2020000</v>
+        <v>2398100</v>
       </c>
       <c r="H58" s="3">
-        <v>3294800</v>
+        <v>2080900</v>
       </c>
       <c r="I58" s="3">
-        <v>3233200</v>
+        <v>3394100</v>
       </c>
       <c r="J58" s="3">
+        <v>3330700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1445700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>868400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>363300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>621800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>484800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1396900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1395400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1448200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2403800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1392000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1781400</v>
+        <v>2283100</v>
       </c>
       <c r="E59" s="3">
-        <v>1744400</v>
+        <v>1835000</v>
       </c>
       <c r="F59" s="3">
-        <v>1907600</v>
+        <v>1797000</v>
       </c>
       <c r="G59" s="3">
-        <v>2461100</v>
+        <v>1965100</v>
       </c>
       <c r="H59" s="3">
-        <v>2242500</v>
+        <v>2535300</v>
       </c>
       <c r="I59" s="3">
-        <v>2137000</v>
+        <v>2310100</v>
       </c>
       <c r="J59" s="3">
+        <v>2201400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2163000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2387900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2305000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2067900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2685900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2323400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2111300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1827600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2062700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3199400</v>
+        <v>4027000</v>
       </c>
       <c r="E60" s="3">
-        <v>3785200</v>
+        <v>3295800</v>
       </c>
       <c r="F60" s="3">
-        <v>4852900</v>
+        <v>3899300</v>
       </c>
       <c r="G60" s="3">
-        <v>5109300</v>
+        <v>4999200</v>
       </c>
       <c r="H60" s="3">
-        <v>6046900</v>
+        <v>5263300</v>
       </c>
       <c r="I60" s="3">
-        <v>6081600</v>
+        <v>6229200</v>
       </c>
       <c r="J60" s="3">
+        <v>6264900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4319500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3624300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3483800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3657100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3258100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4659500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4309700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4047800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4647000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3911800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17315600</v>
+        <v>17138000</v>
       </c>
       <c r="E61" s="3">
-        <v>17445700</v>
+        <v>17837400</v>
       </c>
       <c r="F61" s="3">
-        <v>16481100</v>
+        <v>17971400</v>
       </c>
       <c r="G61" s="3">
-        <v>15704300</v>
+        <v>16977800</v>
       </c>
       <c r="H61" s="3">
-        <v>15445700</v>
+        <v>16177600</v>
       </c>
       <c r="I61" s="3">
-        <v>16306300</v>
+        <v>15911200</v>
       </c>
       <c r="J61" s="3">
+        <v>16797700</v>
+      </c>
+      <c r="K61" s="3">
         <v>15936000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14827600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13976400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15485600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16060000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15316600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15662600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15874000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10121400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11518100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11481900</v>
+        <v>12852500</v>
       </c>
       <c r="E62" s="3">
-        <v>11418700</v>
+        <v>11827900</v>
       </c>
       <c r="F62" s="3">
-        <v>11627400</v>
+        <v>11762900</v>
       </c>
       <c r="G62" s="3">
-        <v>12388700</v>
+        <v>11977800</v>
       </c>
       <c r="H62" s="3">
-        <v>12177800</v>
+        <v>12762100</v>
       </c>
       <c r="I62" s="3">
-        <v>12008400</v>
+        <v>12544800</v>
       </c>
       <c r="J62" s="3">
+        <v>12370300</v>
+      </c>
+      <c r="K62" s="3">
         <v>11846000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11675900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11571800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11923400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11687800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11440000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11023200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10891500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9479200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9446200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31996800</v>
+        <v>34017400</v>
       </c>
       <c r="E66" s="3">
-        <v>32649600</v>
+        <v>32961100</v>
       </c>
       <c r="F66" s="3">
-        <v>32961400</v>
+        <v>33633600</v>
       </c>
       <c r="G66" s="3">
-        <v>33202300</v>
+        <v>33954700</v>
       </c>
       <c r="H66" s="3">
-        <v>33670400</v>
+        <v>34203000</v>
       </c>
       <c r="I66" s="3">
-        <v>34396300</v>
+        <v>34685100</v>
       </c>
       <c r="J66" s="3">
+        <v>35432900</v>
+      </c>
+      <c r="K66" s="3">
         <v>32101500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30127700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29032000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31066100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31005900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31416100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30995600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30813300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24247600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24876100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17336300</v>
+        <v>18053900</v>
       </c>
       <c r="E72" s="3">
-        <v>17408700</v>
+        <v>17858800</v>
       </c>
       <c r="F72" s="3">
-        <v>18033000</v>
+        <v>17933400</v>
       </c>
       <c r="G72" s="3">
-        <v>19571900</v>
+        <v>18576500</v>
       </c>
       <c r="H72" s="3">
-        <v>19539600</v>
+        <v>20161700</v>
       </c>
       <c r="I72" s="3">
-        <v>19189300</v>
+        <v>20128400</v>
       </c>
       <c r="J72" s="3">
+        <v>19767600</v>
+      </c>
+      <c r="K72" s="3">
         <v>17591900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17146600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17464500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17309700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17152300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16828100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16783400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16523700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16490100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16536900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24762000</v>
+        <v>25678000</v>
       </c>
       <c r="E76" s="3">
-        <v>24890600</v>
+        <v>25508300</v>
       </c>
       <c r="F76" s="3">
-        <v>25605800</v>
+        <v>25640700</v>
       </c>
       <c r="G76" s="3">
-        <v>26936800</v>
+        <v>26377400</v>
       </c>
       <c r="H76" s="3">
-        <v>26785100</v>
+        <v>27748600</v>
       </c>
       <c r="I76" s="3">
-        <v>26384800</v>
+        <v>27592300</v>
       </c>
       <c r="J76" s="3">
+        <v>27180000</v>
+      </c>
+      <c r="K76" s="3">
         <v>24840600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24335100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24266400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24398700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24108900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23556500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23322800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23060100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20263600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20179100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>314100</v>
+        <v>594000</v>
       </c>
       <c r="E81" s="3">
-        <v>-238600</v>
+        <v>323600</v>
       </c>
       <c r="F81" s="3">
-        <v>-986900</v>
+        <v>-245800</v>
       </c>
       <c r="G81" s="3">
-        <v>459600</v>
+        <v>-1016700</v>
       </c>
       <c r="H81" s="3">
-        <v>790600</v>
+        <v>473400</v>
       </c>
       <c r="I81" s="3">
-        <v>2179400</v>
+        <v>814400</v>
       </c>
       <c r="J81" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="K81" s="3">
         <v>739800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-590600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1309500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>739200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>438900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>294700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>509000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>797800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>188200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>434800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1127000</v>
+        <v>1280700</v>
       </c>
       <c r="E83" s="3">
-        <v>1080100</v>
+        <v>1161000</v>
       </c>
       <c r="F83" s="3">
-        <v>1204000</v>
+        <v>1112600</v>
       </c>
       <c r="G83" s="3">
-        <v>1193200</v>
+        <v>1240300</v>
       </c>
       <c r="H83" s="3">
-        <v>1097800</v>
+        <v>1229200</v>
       </c>
       <c r="I83" s="3">
-        <v>1006200</v>
+        <v>1130800</v>
       </c>
       <c r="J83" s="3">
+        <v>1036500</v>
+      </c>
+      <c r="K83" s="3">
         <v>972300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1010700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>949100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>956000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>946300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1046400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>945900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>900500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>997900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>959500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1593500</v>
+        <v>1007100</v>
       </c>
       <c r="E89" s="3">
-        <v>-270200</v>
+        <v>1641600</v>
       </c>
       <c r="F89" s="3">
-        <v>1327900</v>
+        <v>-278400</v>
       </c>
       <c r="G89" s="3">
-        <v>1889100</v>
+        <v>1368000</v>
       </c>
       <c r="H89" s="3">
-        <v>1938400</v>
+        <v>1946100</v>
       </c>
       <c r="I89" s="3">
-        <v>2202500</v>
+        <v>1996800</v>
       </c>
       <c r="J89" s="3">
+        <v>2268800</v>
+      </c>
+      <c r="K89" s="3">
         <v>766700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1063200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2646600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1967000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1858600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1070200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1876900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1213800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1283700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>964100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1407200</v>
+        <v>1452000</v>
       </c>
       <c r="E91" s="3">
+        <v>-1449600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5400</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-28500</v>
+        <v>-2400</v>
       </c>
       <c r="J91" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>72300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-215800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-618400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-493200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495000</v>
+        <v>-494800</v>
       </c>
       <c r="E94" s="3">
-        <v>-533500</v>
+        <v>-509900</v>
       </c>
       <c r="F94" s="3">
-        <v>-661300</v>
+        <v>-549600</v>
       </c>
       <c r="G94" s="3">
-        <v>-657400</v>
+        <v>-681200</v>
       </c>
       <c r="H94" s="3">
-        <v>-699000</v>
+        <v>-677200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3436500</v>
+        <v>-720100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3540000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-792100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-793100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-919300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-856700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-799300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-863500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-411000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-386400</v>
+        <v>-398100</v>
       </c>
       <c r="E96" s="3">
-        <v>-386400</v>
+        <v>-398100</v>
       </c>
       <c r="F96" s="3">
-        <v>-341800</v>
+        <v>-398100</v>
       </c>
       <c r="G96" s="3">
-        <v>-341800</v>
+        <v>-352100</v>
       </c>
       <c r="H96" s="3">
-        <v>-344100</v>
+        <v>-352100</v>
       </c>
       <c r="I96" s="3">
-        <v>-345600</v>
+        <v>-354500</v>
       </c>
       <c r="J96" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-310200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-309000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-297200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-309400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-252900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-249300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-248600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-227700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-212800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-195100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1143200</v>
+        <v>-505200</v>
       </c>
       <c r="E100" s="3">
-        <v>158600</v>
+        <v>-1177600</v>
       </c>
       <c r="F100" s="3">
-        <v>50800</v>
+        <v>163400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1260200</v>
+        <v>52300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1410300</v>
+        <v>-1298200</v>
       </c>
       <c r="I100" s="3">
-        <v>1471100</v>
+        <v>-1452800</v>
       </c>
       <c r="J100" s="3">
+        <v>1515500</v>
+      </c>
+      <c r="K100" s="3">
         <v>16900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-418600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-816800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-401100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-223300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5465500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-418700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-554700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44600</v>
+        <v>7100</v>
       </c>
       <c r="E102" s="3">
-        <v>-645100</v>
+        <v>-46000</v>
       </c>
       <c r="F102" s="3">
-        <v>717500</v>
+        <v>-664600</v>
       </c>
       <c r="G102" s="3">
-        <v>-28500</v>
+        <v>739100</v>
       </c>
       <c r="H102" s="3">
-        <v>-170900</v>
+        <v>-29300</v>
       </c>
       <c r="I102" s="3">
-        <v>237100</v>
+        <v>-176100</v>
       </c>
       <c r="J102" s="3">
+        <v>244300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-148400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>82800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-130200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>195000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3979400</v>
+        <v>5478400</v>
       </c>
       <c r="E8" s="3">
-        <v>3571800</v>
+        <v>4160200</v>
       </c>
       <c r="F8" s="3">
-        <v>2276800</v>
+        <v>3734000</v>
       </c>
       <c r="G8" s="3">
-        <v>3568600</v>
+        <v>2380200</v>
       </c>
       <c r="H8" s="3">
-        <v>4679600</v>
+        <v>3730700</v>
       </c>
       <c r="I8" s="3">
-        <v>4885000</v>
+        <v>4892200</v>
       </c>
       <c r="J8" s="3">
+        <v>5106900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4410800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4040000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2817600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4286700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4480600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4120800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3872100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3323600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2910600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2797900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2656500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2338600</v>
+        <v>2726700</v>
       </c>
       <c r="E9" s="3">
-        <v>2018200</v>
+        <v>2444900</v>
       </c>
       <c r="F9" s="3">
-        <v>1719300</v>
+        <v>2109900</v>
       </c>
       <c r="G9" s="3">
-        <v>2471100</v>
+        <v>1797400</v>
       </c>
       <c r="H9" s="3">
-        <v>2429800</v>
+        <v>2583300</v>
       </c>
       <c r="I9" s="3">
-        <v>2231600</v>
+        <v>2540200</v>
       </c>
       <c r="J9" s="3">
+        <v>2332900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2005500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1977700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1895900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1901000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2080700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2094300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2102400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1830800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1529400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1339800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1267600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1640800</v>
+        <v>2751600</v>
       </c>
       <c r="E10" s="3">
-        <v>1553500</v>
+        <v>1715300</v>
       </c>
       <c r="F10" s="3">
-        <v>557500</v>
+        <v>1624100</v>
       </c>
       <c r="G10" s="3">
-        <v>1097500</v>
+        <v>582800</v>
       </c>
       <c r="H10" s="3">
-        <v>2249800</v>
+        <v>1147400</v>
       </c>
       <c r="I10" s="3">
-        <v>2653400</v>
+        <v>2352000</v>
       </c>
       <c r="J10" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2405200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2062300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>921700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2385700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2399900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2026500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1769700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1492900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1381300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1458100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1389000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-179900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1280700</v>
+        <v>1178100</v>
       </c>
       <c r="E15" s="3">
-        <v>1161000</v>
+        <v>1338900</v>
       </c>
       <c r="F15" s="3">
-        <v>1112600</v>
+        <v>1213700</v>
       </c>
       <c r="G15" s="3">
-        <v>1240300</v>
+        <v>1163200</v>
       </c>
       <c r="H15" s="3">
-        <v>1229200</v>
+        <v>1296600</v>
       </c>
       <c r="I15" s="3">
-        <v>1130800</v>
+        <v>1285000</v>
       </c>
       <c r="J15" s="3">
+        <v>1182200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1036500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>972300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1010700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>949100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>956000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>946300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1046400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>945900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>900500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>997900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>959500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3842200</v>
+        <v>4128700</v>
       </c>
       <c r="E17" s="3">
-        <v>3285500</v>
+        <v>3836800</v>
       </c>
       <c r="F17" s="3">
-        <v>2960300</v>
+        <v>3434800</v>
       </c>
       <c r="G17" s="3">
-        <v>3661400</v>
+        <v>3094800</v>
       </c>
       <c r="H17" s="3">
-        <v>3901700</v>
+        <v>3827700</v>
       </c>
       <c r="I17" s="3">
-        <v>3482900</v>
+        <v>4078900</v>
       </c>
       <c r="J17" s="3">
+        <v>3641200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3139600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3085400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2898200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2878400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3261100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3069900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3316900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2948600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2437300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2453000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2352300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>137200</v>
+        <v>1349700</v>
       </c>
       <c r="E18" s="3">
-        <v>286300</v>
+        <v>323300</v>
       </c>
       <c r="F18" s="3">
-        <v>-683600</v>
+        <v>299300</v>
       </c>
       <c r="G18" s="3">
-        <v>-92800</v>
+        <v>-714600</v>
       </c>
       <c r="H18" s="3">
-        <v>778000</v>
+        <v>-97000</v>
       </c>
       <c r="I18" s="3">
-        <v>1402100</v>
+        <v>813300</v>
       </c>
       <c r="J18" s="3">
+        <v>1465800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1271200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>954600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-80700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1408300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1219500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1050900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>555200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>375100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>473300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>344900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>304200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>662200</v>
+        <v>208900</v>
       </c>
       <c r="E20" s="3">
-        <v>182400</v>
+        <v>512400</v>
       </c>
       <c r="F20" s="3">
-        <v>359200</v>
+        <v>190700</v>
       </c>
       <c r="G20" s="3">
-        <v>-886600</v>
+        <v>375600</v>
       </c>
       <c r="H20" s="3">
-        <v>106300</v>
+        <v>-926900</v>
       </c>
       <c r="I20" s="3">
-        <v>-137200</v>
+        <v>111100</v>
       </c>
       <c r="J20" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="K20" s="3">
         <v>114200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>131600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-422400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>281200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-249900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>90800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>343100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>494200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>57600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2080100</v>
+        <v>2736700</v>
       </c>
       <c r="E21" s="3">
-        <v>1629700</v>
+        <v>2174600</v>
       </c>
       <c r="F21" s="3">
-        <v>788300</v>
+        <v>1703700</v>
       </c>
       <c r="G21" s="3">
-        <v>260900</v>
+        <v>824100</v>
       </c>
       <c r="H21" s="3">
-        <v>2113400</v>
+        <v>272800</v>
       </c>
       <c r="I21" s="3">
-        <v>2395700</v>
+        <v>2209400</v>
       </c>
       <c r="J21" s="3">
+        <v>2504600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2421900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2058500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2638600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2154500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1747200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1692300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1664100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1868000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1357500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1321400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>197500</v>
+        <v>153400</v>
       </c>
       <c r="E22" s="3">
-        <v>138000</v>
+        <v>206400</v>
       </c>
       <c r="F22" s="3">
-        <v>157800</v>
+        <v>144300</v>
       </c>
       <c r="G22" s="3">
-        <v>163400</v>
+        <v>165000</v>
       </c>
       <c r="H22" s="3">
-        <v>232400</v>
+        <v>170800</v>
       </c>
       <c r="I22" s="3">
-        <v>183200</v>
+        <v>242900</v>
       </c>
       <c r="J22" s="3">
+        <v>191500</v>
+      </c>
+      <c r="K22" s="3">
         <v>156200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>147000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>181100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>130800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>143000</v>
       </c>
       <c r="O22" s="3">
         <v>143000</v>
       </c>
       <c r="P22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>198000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>136200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>107900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>102900</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>601900</v>
+        <v>1405200</v>
       </c>
       <c r="E23" s="3">
-        <v>330700</v>
+        <v>629200</v>
       </c>
       <c r="F23" s="3">
-        <v>-482200</v>
+        <v>345700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1142700</v>
+        <v>-504100</v>
       </c>
       <c r="H23" s="3">
-        <v>651900</v>
+        <v>-1194700</v>
       </c>
       <c r="I23" s="3">
-        <v>1081700</v>
+        <v>681500</v>
       </c>
       <c r="J23" s="3">
+        <v>1130800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1229200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>939200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-684200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1558800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1055400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>657900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>448000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>582000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>859600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>256600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>361800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>263600</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
-        <v>-236300</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>-126100</v>
+        <v>-247100</v>
       </c>
       <c r="H24" s="3">
-        <v>178400</v>
+        <v>-131800</v>
       </c>
       <c r="I24" s="3">
-        <v>267200</v>
+        <v>186500</v>
       </c>
       <c r="J24" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>199400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-93600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>249300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>316200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>219100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>153300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>72900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>61800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>68400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-73000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>594000</v>
+        <v>1141600</v>
       </c>
       <c r="E26" s="3">
-        <v>323600</v>
+        <v>621000</v>
       </c>
       <c r="F26" s="3">
-        <v>-245800</v>
+        <v>338300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1016700</v>
+        <v>-257000</v>
       </c>
       <c r="H26" s="3">
-        <v>473400</v>
+        <v>-1062800</v>
       </c>
       <c r="I26" s="3">
-        <v>814400</v>
+        <v>494900</v>
       </c>
       <c r="J26" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2245000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>739800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-590600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1309500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>739200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>438900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>294700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>509000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>797800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>188200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>434800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>594000</v>
+        <v>1141600</v>
       </c>
       <c r="E27" s="3">
-        <v>323600</v>
+        <v>621000</v>
       </c>
       <c r="F27" s="3">
-        <v>-245800</v>
+        <v>338300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1016700</v>
+        <v>-257000</v>
       </c>
       <c r="H27" s="3">
-        <v>473400</v>
+        <v>-1062800</v>
       </c>
       <c r="I27" s="3">
-        <v>814400</v>
+        <v>494900</v>
       </c>
       <c r="J27" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2245000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>739800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-590600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1309500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>739200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>438900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>294700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>509000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>797800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>188200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>434800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-662200</v>
+        <v>-208900</v>
       </c>
       <c r="E32" s="3">
-        <v>-182400</v>
+        <v>-512400</v>
       </c>
       <c r="F32" s="3">
-        <v>-359200</v>
+        <v>-190700</v>
       </c>
       <c r="G32" s="3">
-        <v>886600</v>
+        <v>-375600</v>
       </c>
       <c r="H32" s="3">
-        <v>-106300</v>
+        <v>926900</v>
       </c>
       <c r="I32" s="3">
-        <v>137200</v>
+        <v>-111100</v>
       </c>
       <c r="J32" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-114200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-131600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>422400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-281200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>249900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-90800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-343100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-494200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-57600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>594000</v>
+        <v>1141600</v>
       </c>
       <c r="E33" s="3">
-        <v>323600</v>
+        <v>621000</v>
       </c>
       <c r="F33" s="3">
-        <v>-245800</v>
+        <v>338300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1016700</v>
+        <v>-257000</v>
       </c>
       <c r="H33" s="3">
-        <v>473400</v>
+        <v>-1062800</v>
       </c>
       <c r="I33" s="3">
-        <v>814400</v>
+        <v>494900</v>
       </c>
       <c r="J33" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2245000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>739800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-590600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1309500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>739200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>438900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>294700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>509000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>797800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>188200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>434800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>594000</v>
+        <v>1141600</v>
       </c>
       <c r="E35" s="3">
-        <v>323600</v>
+        <v>621000</v>
       </c>
       <c r="F35" s="3">
-        <v>-245800</v>
+        <v>338300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1016700</v>
+        <v>-257000</v>
       </c>
       <c r="H35" s="3">
-        <v>473400</v>
+        <v>-1062800</v>
       </c>
       <c r="I35" s="3">
-        <v>814400</v>
+        <v>494900</v>
       </c>
       <c r="J35" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2245000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>739800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-590600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1309500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>739200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>438900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>294700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>509000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>797800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>188200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>434800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,480 +2486,505 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>152500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>145100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>193200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>887900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>115200</v>
+      </c>
+      <c r="J41" s="3">
         <v>145900</v>
       </c>
-      <c r="E41" s="3">
-        <v>138800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>184800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>849300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>110200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>139600</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>315600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>215100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>114400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>102000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>232200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241900</v>
+        <v>349900</v>
       </c>
       <c r="E42" s="3">
-        <v>215700</v>
+        <v>252900</v>
       </c>
       <c r="F42" s="3">
-        <v>218100</v>
+        <v>225500</v>
       </c>
       <c r="G42" s="3">
-        <v>176100</v>
+        <v>228000</v>
       </c>
       <c r="H42" s="3">
-        <v>388600</v>
+        <v>184000</v>
       </c>
       <c r="I42" s="3">
-        <v>449600</v>
+        <v>406200</v>
       </c>
       <c r="J42" s="3">
+        <v>470100</v>
+      </c>
+      <c r="K42" s="3">
         <v>433800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>422600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>398800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>478200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>560800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>587900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>664600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>660900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>619200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>626100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>701400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1981800</v>
+        <v>2307200</v>
       </c>
       <c r="E43" s="3">
-        <v>1528100</v>
+        <v>2071800</v>
       </c>
       <c r="F43" s="3">
-        <v>1710500</v>
+        <v>1597600</v>
       </c>
       <c r="G43" s="3">
-        <v>1208600</v>
+        <v>1788300</v>
       </c>
       <c r="H43" s="3">
-        <v>1965100</v>
+        <v>1263500</v>
       </c>
       <c r="I43" s="3">
-        <v>1907200</v>
+        <v>2054400</v>
       </c>
       <c r="J43" s="3">
+        <v>1993900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1684400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1760600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>873700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1436700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1965500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1656100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2023500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1239100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1637300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1637100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1755400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>840600</v>
+        <v>902000</v>
       </c>
       <c r="E44" s="3">
-        <v>858800</v>
+        <v>878800</v>
       </c>
       <c r="F44" s="3">
-        <v>868400</v>
+        <v>897900</v>
       </c>
       <c r="G44" s="3">
-        <v>745400</v>
+        <v>907800</v>
       </c>
       <c r="H44" s="3">
-        <v>913600</v>
+        <v>779300</v>
       </c>
       <c r="I44" s="3">
-        <v>912800</v>
+        <v>955100</v>
       </c>
       <c r="J44" s="3">
+        <v>954200</v>
+      </c>
+      <c r="K44" s="3">
         <v>942900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>825200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>726800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>812400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>783700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>744500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>665300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>652700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>691400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>505500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>529300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>248200</v>
+        <v>326600</v>
       </c>
       <c r="E45" s="3">
-        <v>458400</v>
+        <v>259500</v>
       </c>
       <c r="F45" s="3">
-        <v>243500</v>
+        <v>479200</v>
       </c>
       <c r="G45" s="3">
-        <v>338600</v>
+        <v>254500</v>
       </c>
       <c r="H45" s="3">
-        <v>180800</v>
+        <v>354000</v>
       </c>
       <c r="I45" s="3">
-        <v>300600</v>
+        <v>189000</v>
       </c>
       <c r="J45" s="3">
+        <v>314200</v>
+      </c>
+      <c r="K45" s="3">
         <v>306900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>204000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>222200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>258700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>297400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>189000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>282100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>266400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>398700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>331900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3458400</v>
+        <v>4023400</v>
       </c>
       <c r="E46" s="3">
-        <v>3199800</v>
+        <v>3615500</v>
       </c>
       <c r="F46" s="3">
-        <v>3225200</v>
+        <v>3345200</v>
       </c>
       <c r="G46" s="3">
-        <v>3318000</v>
+        <v>3371700</v>
       </c>
       <c r="H46" s="3">
-        <v>3558300</v>
+        <v>3468700</v>
       </c>
       <c r="I46" s="3">
-        <v>3709700</v>
+        <v>3719900</v>
       </c>
       <c r="J46" s="3">
+        <v>3878300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3683600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3281700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2298500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3201100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3744400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3301700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3644400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3066900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3251500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3182000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3331000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>440100</v>
+        <v>460100</v>
       </c>
       <c r="E47" s="3">
-        <v>538500</v>
+        <v>460100</v>
       </c>
       <c r="F47" s="3">
-        <v>541600</v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>562900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>566200</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>517000</v>
-      </c>
       <c r="I47" s="3">
-        <v>562300</v>
+        <v>540500</v>
       </c>
       <c r="J47" s="3">
+        <v>587800</v>
+      </c>
+      <c r="K47" s="3">
         <v>620100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>641300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>668200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>627900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>641400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>627800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>596900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>557400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>519500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>504700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>496300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55379000</v>
+        <v>57328000</v>
       </c>
       <c r="E48" s="3">
-        <v>54444800</v>
+        <v>57895000</v>
       </c>
       <c r="F48" s="3">
-        <v>55080000</v>
+        <v>56918400</v>
       </c>
       <c r="G48" s="3">
-        <v>56011000</v>
+        <v>57582500</v>
       </c>
       <c r="H48" s="3">
-        <v>57423400</v>
+        <v>58555800</v>
       </c>
       <c r="I48" s="3">
-        <v>57528000</v>
+        <v>60032300</v>
       </c>
       <c r="J48" s="3">
+        <v>60141800</v>
+      </c>
+      <c r="K48" s="3">
         <v>57872200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52626400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51142200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49193300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50788500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50896900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50458900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50437300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49826300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40562500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40940500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>417900</v>
+        <v>472600</v>
       </c>
       <c r="E52" s="3">
-        <v>286300</v>
+        <v>436900</v>
       </c>
       <c r="F52" s="3">
-        <v>427400</v>
+        <v>299300</v>
       </c>
       <c r="G52" s="3">
-        <v>1003200</v>
+        <v>446900</v>
       </c>
       <c r="H52" s="3">
-        <v>452800</v>
+        <v>1048700</v>
       </c>
       <c r="I52" s="3">
-        <v>477400</v>
+        <v>473400</v>
       </c>
       <c r="J52" s="3">
+        <v>499100</v>
+      </c>
+      <c r="K52" s="3">
         <v>437000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>392600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>353900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>276100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>290600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>288300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>272400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>256800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>276100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>262000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>287300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59695400</v>
+        <v>62284000</v>
       </c>
       <c r="E54" s="3">
-        <v>58469400</v>
+        <v>62407600</v>
       </c>
       <c r="F54" s="3">
-        <v>59274300</v>
+        <v>61125900</v>
       </c>
       <c r="G54" s="3">
-        <v>60332200</v>
+        <v>61967300</v>
       </c>
       <c r="H54" s="3">
-        <v>61951500</v>
+        <v>63073300</v>
       </c>
       <c r="I54" s="3">
-        <v>62277400</v>
+        <v>64766200</v>
       </c>
       <c r="J54" s="3">
+        <v>65107000</v>
+      </c>
+      <c r="K54" s="3">
         <v>62612900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56942000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54462800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53298400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55464800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55114800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54972600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54318400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53873400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44511200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45055200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>528900</v>
+        <v>629200</v>
       </c>
       <c r="E57" s="3">
-        <v>654200</v>
+        <v>553000</v>
       </c>
       <c r="F57" s="3">
-        <v>480600</v>
+        <v>684000</v>
       </c>
       <c r="G57" s="3">
-        <v>636000</v>
+        <v>502400</v>
       </c>
       <c r="H57" s="3">
-        <v>647100</v>
+        <v>664900</v>
       </c>
       <c r="I57" s="3">
-        <v>525000</v>
+        <v>676500</v>
       </c>
       <c r="J57" s="3">
+        <v>548800</v>
+      </c>
+      <c r="K57" s="3">
         <v>732800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>599700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>592900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>732500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>730200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>705400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>576800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>590900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>488200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>415600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>457100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1214900</v>
+        <v>1623300</v>
       </c>
       <c r="E58" s="3">
-        <v>806500</v>
+        <v>1270100</v>
       </c>
       <c r="F58" s="3">
-        <v>1621700</v>
+        <v>843100</v>
       </c>
       <c r="G58" s="3">
-        <v>2398100</v>
+        <v>1695400</v>
       </c>
       <c r="H58" s="3">
-        <v>2080900</v>
+        <v>2507000</v>
       </c>
       <c r="I58" s="3">
-        <v>3394100</v>
+        <v>2175400</v>
       </c>
       <c r="J58" s="3">
+        <v>3548300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3330700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1445700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>868400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>363300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>621800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>484800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1396900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1395400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1448200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2403800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1392000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2283100</v>
+        <v>2720900</v>
       </c>
       <c r="E59" s="3">
-        <v>1835000</v>
+        <v>2386800</v>
       </c>
       <c r="F59" s="3">
-        <v>1797000</v>
+        <v>1918400</v>
       </c>
       <c r="G59" s="3">
-        <v>1965100</v>
+        <v>1878600</v>
       </c>
       <c r="H59" s="3">
-        <v>2535300</v>
+        <v>2054400</v>
       </c>
       <c r="I59" s="3">
-        <v>2310100</v>
+        <v>2650500</v>
       </c>
       <c r="J59" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2201400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2163000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2387900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2305000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2067900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2685900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2323400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2111300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1827600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2062700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4027000</v>
+        <v>4973500</v>
       </c>
       <c r="E60" s="3">
-        <v>3295800</v>
+        <v>4209900</v>
       </c>
       <c r="F60" s="3">
-        <v>3899300</v>
+        <v>3445500</v>
       </c>
       <c r="G60" s="3">
-        <v>4999200</v>
+        <v>4076400</v>
       </c>
       <c r="H60" s="3">
-        <v>5263300</v>
+        <v>5226300</v>
       </c>
       <c r="I60" s="3">
-        <v>6229200</v>
+        <v>5502400</v>
       </c>
       <c r="J60" s="3">
+        <v>6512200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6264900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4319500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3624300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3483800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3657100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3258100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4659500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4309700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4047800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4647000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3911800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17138000</v>
+        <v>16333100</v>
       </c>
       <c r="E61" s="3">
-        <v>17837400</v>
+        <v>17916600</v>
       </c>
       <c r="F61" s="3">
-        <v>17971400</v>
+        <v>18647800</v>
       </c>
       <c r="G61" s="3">
-        <v>16977800</v>
+        <v>18787900</v>
       </c>
       <c r="H61" s="3">
-        <v>16177600</v>
+        <v>17749100</v>
       </c>
       <c r="I61" s="3">
-        <v>15911200</v>
+        <v>16912600</v>
       </c>
       <c r="J61" s="3">
+        <v>16634100</v>
+      </c>
+      <c r="K61" s="3">
         <v>16797700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15936000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14827600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13976400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15485600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16060000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15316600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15662600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15874000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10121400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11518100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12852500</v>
+        <v>13427300</v>
       </c>
       <c r="E62" s="3">
-        <v>11827900</v>
+        <v>13436400</v>
       </c>
       <c r="F62" s="3">
-        <v>11762900</v>
+        <v>12365300</v>
       </c>
       <c r="G62" s="3">
-        <v>11977800</v>
+        <v>12297300</v>
       </c>
       <c r="H62" s="3">
-        <v>12762100</v>
+        <v>12522000</v>
       </c>
       <c r="I62" s="3">
-        <v>12544800</v>
+        <v>13341900</v>
       </c>
       <c r="J62" s="3">
+        <v>13114700</v>
+      </c>
+      <c r="K62" s="3">
         <v>12370300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11846000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11675900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11571800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11923400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11687800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11440000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11023200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10891500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9479200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9446200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34017400</v>
+        <v>34733900</v>
       </c>
       <c r="E66" s="3">
-        <v>32961100</v>
+        <v>35562900</v>
       </c>
       <c r="F66" s="3">
-        <v>33633600</v>
+        <v>34458600</v>
       </c>
       <c r="G66" s="3">
-        <v>33954700</v>
+        <v>35161700</v>
       </c>
       <c r="H66" s="3">
-        <v>34203000</v>
+        <v>35497400</v>
       </c>
       <c r="I66" s="3">
-        <v>34685100</v>
+        <v>35756900</v>
       </c>
       <c r="J66" s="3">
+        <v>36261000</v>
+      </c>
+      <c r="K66" s="3">
         <v>35432900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32101500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30127700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29032000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31066100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31005900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31416100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30995600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30813300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24247600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24876100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18053900</v>
+        <v>19538200</v>
       </c>
       <c r="E72" s="3">
-        <v>17858800</v>
+        <v>18874200</v>
       </c>
       <c r="F72" s="3">
-        <v>17933400</v>
+        <v>18670200</v>
       </c>
       <c r="G72" s="3">
-        <v>18576500</v>
+        <v>18748100</v>
       </c>
       <c r="H72" s="3">
-        <v>20161700</v>
+        <v>19420500</v>
       </c>
       <c r="I72" s="3">
-        <v>20128400</v>
+        <v>21077800</v>
       </c>
       <c r="J72" s="3">
+        <v>21042900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19767600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17591900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17146600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17464500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17309700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17152300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16828100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16783400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16523700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16490100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16536900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25678000</v>
+        <v>27550200</v>
       </c>
       <c r="E76" s="3">
-        <v>25508300</v>
+        <v>26844600</v>
       </c>
       <c r="F76" s="3">
-        <v>25640700</v>
+        <v>26667200</v>
       </c>
       <c r="G76" s="3">
-        <v>26377400</v>
+        <v>26805700</v>
       </c>
       <c r="H76" s="3">
-        <v>27748600</v>
+        <v>27575900</v>
       </c>
       <c r="I76" s="3">
-        <v>27592300</v>
+        <v>29009300</v>
       </c>
       <c r="J76" s="3">
+        <v>28846000</v>
+      </c>
+      <c r="K76" s="3">
         <v>27180000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24840600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24335100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24266400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24398700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24108900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23556500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23322800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23060100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20263600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20179100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>594000</v>
+        <v>1141600</v>
       </c>
       <c r="E81" s="3">
-        <v>323600</v>
+        <v>621000</v>
       </c>
       <c r="F81" s="3">
-        <v>-245800</v>
+        <v>338300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1016700</v>
+        <v>-257000</v>
       </c>
       <c r="H81" s="3">
-        <v>473400</v>
+        <v>-1062800</v>
       </c>
       <c r="I81" s="3">
-        <v>814400</v>
+        <v>494900</v>
       </c>
       <c r="J81" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2245000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>739800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-590600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1309500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>739200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>438900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>294700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>509000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>797800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>188200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>434800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1280700</v>
+        <v>1178100</v>
       </c>
       <c r="E83" s="3">
-        <v>1161000</v>
+        <v>1338900</v>
       </c>
       <c r="F83" s="3">
-        <v>1112600</v>
+        <v>1213700</v>
       </c>
       <c r="G83" s="3">
-        <v>1240300</v>
+        <v>1163200</v>
       </c>
       <c r="H83" s="3">
-        <v>1229200</v>
+        <v>1296600</v>
       </c>
       <c r="I83" s="3">
-        <v>1130800</v>
+        <v>1285000</v>
       </c>
       <c r="J83" s="3">
+        <v>1182200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1036500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>972300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1010700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>949100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>956000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>946300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1046400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>945900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>900500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>997900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>959500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1007100</v>
+        <v>2102500</v>
       </c>
       <c r="E89" s="3">
-        <v>1641600</v>
+        <v>1052900</v>
       </c>
       <c r="F89" s="3">
-        <v>-278400</v>
+        <v>1716100</v>
       </c>
       <c r="G89" s="3">
-        <v>1368000</v>
+        <v>-291000</v>
       </c>
       <c r="H89" s="3">
-        <v>1946100</v>
+        <v>1430100</v>
       </c>
       <c r="I89" s="3">
-        <v>1996800</v>
+        <v>2034500</v>
       </c>
       <c r="J89" s="3">
+        <v>2087500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2268800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>766700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1063200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2646600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1967000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1858600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1070200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1876900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1213800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1283700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>964100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>1452000</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1449600</v>
+        <v>1518000</v>
       </c>
       <c r="F91" s="3">
+        <v>-1515500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-5800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>72300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-215800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-618400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-493200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-494800</v>
+        <v>-537200</v>
       </c>
       <c r="E94" s="3">
-        <v>-509900</v>
+        <v>-517300</v>
       </c>
       <c r="F94" s="3">
-        <v>-549600</v>
+        <v>-533100</v>
       </c>
       <c r="G94" s="3">
-        <v>-681200</v>
+        <v>-574500</v>
       </c>
       <c r="H94" s="3">
-        <v>-677200</v>
+        <v>-712200</v>
       </c>
       <c r="I94" s="3">
-        <v>-720100</v>
+        <v>-708000</v>
       </c>
       <c r="J94" s="3">
+        <v>-752800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-792100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-793100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-919300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-856700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-799300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-863500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-411000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-398100</v>
+        <v>-417000</v>
       </c>
       <c r="E96" s="3">
-        <v>-398100</v>
+        <v>-416200</v>
       </c>
       <c r="F96" s="3">
-        <v>-398100</v>
+        <v>-416200</v>
       </c>
       <c r="G96" s="3">
-        <v>-352100</v>
+        <v>-416200</v>
       </c>
       <c r="H96" s="3">
-        <v>-352100</v>
+        <v>-368100</v>
       </c>
       <c r="I96" s="3">
-        <v>-354500</v>
+        <v>-368100</v>
       </c>
       <c r="J96" s="3">
+        <v>-370600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-356100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-310200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-309000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-297200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-309400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-252900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-249300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-248600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-227700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-212800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-195100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505200</v>
+        <v>-1580200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1177600</v>
+        <v>-528100</v>
       </c>
       <c r="F100" s="3">
-        <v>163400</v>
+        <v>-1231100</v>
       </c>
       <c r="G100" s="3">
-        <v>52300</v>
+        <v>170800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1298200</v>
+        <v>54700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1452800</v>
+        <v>-1357200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1518800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1515500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-418600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-816800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-401100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-223300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5465500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-418700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-554700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7100</v>
+        <v>-14900</v>
       </c>
       <c r="E102" s="3">
-        <v>-46000</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>-664600</v>
+        <v>-48100</v>
       </c>
       <c r="G102" s="3">
-        <v>739100</v>
+        <v>-694700</v>
       </c>
       <c r="H102" s="3">
-        <v>-29300</v>
+        <v>772700</v>
       </c>
       <c r="I102" s="3">
-        <v>-176100</v>
+        <v>-30700</v>
       </c>
       <c r="J102" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="K102" s="3">
         <v>244300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-148400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>82800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-130200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>195000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5478400</v>
+        <v>5087300</v>
       </c>
       <c r="E8" s="3">
-        <v>4160200</v>
+        <v>5152100</v>
       </c>
       <c r="F8" s="3">
-        <v>3734000</v>
+        <v>3912400</v>
       </c>
       <c r="G8" s="3">
-        <v>2380200</v>
+        <v>3511600</v>
       </c>
       <c r="H8" s="3">
-        <v>3730700</v>
+        <v>2238400</v>
       </c>
       <c r="I8" s="3">
-        <v>4892200</v>
+        <v>3508500</v>
       </c>
       <c r="J8" s="3">
+        <v>4600800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5106900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4410800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4040000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2817600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4286700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4480600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4120800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3872100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3323600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2910600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2797900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2656500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2726700</v>
+        <v>2537800</v>
       </c>
       <c r="E9" s="3">
-        <v>2444900</v>
+        <v>2564300</v>
       </c>
       <c r="F9" s="3">
-        <v>2109900</v>
+        <v>2299200</v>
       </c>
       <c r="G9" s="3">
-        <v>1797400</v>
+        <v>1984300</v>
       </c>
       <c r="H9" s="3">
-        <v>2583300</v>
+        <v>1690300</v>
       </c>
       <c r="I9" s="3">
-        <v>2540200</v>
+        <v>2429500</v>
       </c>
       <c r="J9" s="3">
+        <v>2388900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2332900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2005500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1977700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1895900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1901000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2080700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2094300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2102400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1830800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1529400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1339800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1267600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2751600</v>
+        <v>2549500</v>
       </c>
       <c r="E10" s="3">
-        <v>1715300</v>
+        <v>2587700</v>
       </c>
       <c r="F10" s="3">
-        <v>1624100</v>
+        <v>1613100</v>
       </c>
       <c r="G10" s="3">
-        <v>582800</v>
+        <v>1527400</v>
       </c>
       <c r="H10" s="3">
-        <v>1147400</v>
+        <v>548100</v>
       </c>
       <c r="I10" s="3">
-        <v>2352000</v>
+        <v>1079100</v>
       </c>
       <c r="J10" s="3">
+        <v>2211900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2774000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2405200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2062300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>921700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2385700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2399900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2026500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1769700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1492900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1381300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1458100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1389000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-311900</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-179900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-169200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1178100</v>
+        <v>1082200</v>
       </c>
       <c r="E15" s="3">
-        <v>1338900</v>
+        <v>1107900</v>
       </c>
       <c r="F15" s="3">
-        <v>1213700</v>
+        <v>1259200</v>
       </c>
       <c r="G15" s="3">
-        <v>1163200</v>
+        <v>1141400</v>
       </c>
       <c r="H15" s="3">
-        <v>1296600</v>
+        <v>1093900</v>
       </c>
       <c r="I15" s="3">
-        <v>1285000</v>
+        <v>1219400</v>
       </c>
       <c r="J15" s="3">
+        <v>1208500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1182200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1036500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>972300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1010700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>949100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>956000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>946300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1046400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>945900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>900500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>997900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>959500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4128700</v>
+        <v>3518700</v>
       </c>
       <c r="E17" s="3">
-        <v>3836800</v>
+        <v>3882800</v>
       </c>
       <c r="F17" s="3">
-        <v>3434800</v>
+        <v>3608300</v>
       </c>
       <c r="G17" s="3">
-        <v>3094800</v>
+        <v>3230200</v>
       </c>
       <c r="H17" s="3">
-        <v>3827700</v>
+        <v>2910500</v>
       </c>
       <c r="I17" s="3">
-        <v>4078900</v>
+        <v>3599700</v>
       </c>
       <c r="J17" s="3">
+        <v>3836000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3641200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3139600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3085400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2898200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2878400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3261100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3069900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3316900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2948600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2437300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2453000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2352300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1349700</v>
+        <v>1568700</v>
       </c>
       <c r="E18" s="3">
-        <v>323300</v>
+        <v>1269300</v>
       </c>
       <c r="F18" s="3">
-        <v>299300</v>
+        <v>304100</v>
       </c>
       <c r="G18" s="3">
-        <v>-714600</v>
+        <v>281500</v>
       </c>
       <c r="H18" s="3">
-        <v>-97000</v>
+        <v>-672100</v>
       </c>
       <c r="I18" s="3">
-        <v>813300</v>
+        <v>-91200</v>
       </c>
       <c r="J18" s="3">
+        <v>764900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1465800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1271200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>954600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-80700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1408300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1219500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1050900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>555200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>375100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>473300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>344900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>304200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>208900</v>
+        <v>126300</v>
       </c>
       <c r="E20" s="3">
-        <v>512400</v>
+        <v>196500</v>
       </c>
       <c r="F20" s="3">
-        <v>190700</v>
+        <v>481800</v>
       </c>
       <c r="G20" s="3">
-        <v>375600</v>
+        <v>179300</v>
       </c>
       <c r="H20" s="3">
-        <v>-926900</v>
+        <v>353200</v>
       </c>
       <c r="I20" s="3">
-        <v>111100</v>
+        <v>-871700</v>
       </c>
       <c r="J20" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-143400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>114200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>131600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-422400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>281200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-249900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>90800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>343100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>494200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>57600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2736700</v>
+        <v>2777200</v>
       </c>
       <c r="E21" s="3">
-        <v>2174600</v>
+        <v>2573700</v>
       </c>
       <c r="F21" s="3">
-        <v>1703700</v>
+        <v>2045100</v>
       </c>
       <c r="G21" s="3">
-        <v>824100</v>
+        <v>1602200</v>
       </c>
       <c r="H21" s="3">
-        <v>272800</v>
+        <v>775000</v>
       </c>
       <c r="I21" s="3">
-        <v>2209400</v>
+        <v>256500</v>
       </c>
       <c r="J21" s="3">
+        <v>2077800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2504600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2421900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2058500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2638600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2154500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1747200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1692300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1664100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1868000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1357500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1321400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>153400</v>
+        <v>138000</v>
       </c>
       <c r="E22" s="3">
-        <v>206400</v>
+        <v>144200</v>
       </c>
       <c r="F22" s="3">
-        <v>144300</v>
+        <v>194100</v>
       </c>
       <c r="G22" s="3">
-        <v>165000</v>
+        <v>135700</v>
       </c>
       <c r="H22" s="3">
-        <v>170800</v>
+        <v>155200</v>
       </c>
       <c r="I22" s="3">
-        <v>242900</v>
+        <v>160600</v>
       </c>
       <c r="J22" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K22" s="3">
         <v>191500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>156200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>147000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>181100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>130800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>143000</v>
       </c>
       <c r="P22" s="3">
         <v>143000</v>
       </c>
       <c r="Q22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="R22" s="3">
         <v>198000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>136200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>107900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>102900</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1405200</v>
+        <v>1557000</v>
       </c>
       <c r="E23" s="3">
-        <v>629200</v>
+        <v>1321500</v>
       </c>
       <c r="F23" s="3">
-        <v>345700</v>
+        <v>591800</v>
       </c>
       <c r="G23" s="3">
-        <v>-504100</v>
+        <v>325100</v>
       </c>
       <c r="H23" s="3">
-        <v>-1194700</v>
+        <v>-474000</v>
       </c>
       <c r="I23" s="3">
-        <v>681500</v>
+        <v>-1123500</v>
       </c>
       <c r="J23" s="3">
+        <v>640900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1130800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1229200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>939200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-684200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1558800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1055400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>657900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>448000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>582000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>859600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>256600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>361800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>263600</v>
+        <v>347700</v>
       </c>
       <c r="E24" s="3">
-        <v>8300</v>
+        <v>247900</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="G24" s="3">
-        <v>-247100</v>
+        <v>7000</v>
       </c>
       <c r="H24" s="3">
-        <v>-131800</v>
+        <v>-232300</v>
       </c>
       <c r="I24" s="3">
-        <v>186500</v>
+        <v>-124000</v>
       </c>
       <c r="J24" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K24" s="3">
         <v>279400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>199400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-93600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>249300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>316200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>219100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>61800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-73000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1141600</v>
+        <v>1209300</v>
       </c>
       <c r="E26" s="3">
-        <v>621000</v>
+        <v>1073600</v>
       </c>
       <c r="F26" s="3">
-        <v>338300</v>
+        <v>584000</v>
       </c>
       <c r="G26" s="3">
-        <v>-257000</v>
+        <v>318100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1062800</v>
+        <v>-241700</v>
       </c>
       <c r="I26" s="3">
-        <v>494900</v>
+        <v>-999500</v>
       </c>
       <c r="J26" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K26" s="3">
         <v>851400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2245000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>739800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-590600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1309500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>739200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>438900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>294700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>509000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>797800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>188200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>434800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1141600</v>
+        <v>1209300</v>
       </c>
       <c r="E27" s="3">
-        <v>621000</v>
+        <v>1073600</v>
       </c>
       <c r="F27" s="3">
-        <v>338300</v>
+        <v>584000</v>
       </c>
       <c r="G27" s="3">
-        <v>-257000</v>
+        <v>318100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1062800</v>
+        <v>-241700</v>
       </c>
       <c r="I27" s="3">
-        <v>494900</v>
+        <v>-999500</v>
       </c>
       <c r="J27" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K27" s="3">
         <v>851400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2245000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>739800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-590600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1309500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>739200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>438900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>294700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>509000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>797800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>188200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>434800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-208900</v>
+        <v>-126300</v>
       </c>
       <c r="E32" s="3">
-        <v>-512400</v>
+        <v>-196500</v>
       </c>
       <c r="F32" s="3">
-        <v>-190700</v>
+        <v>-481800</v>
       </c>
       <c r="G32" s="3">
-        <v>-375600</v>
+        <v>-179300</v>
       </c>
       <c r="H32" s="3">
-        <v>926900</v>
+        <v>-353200</v>
       </c>
       <c r="I32" s="3">
-        <v>-111100</v>
+        <v>871700</v>
       </c>
       <c r="J32" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="K32" s="3">
         <v>143400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-114200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-131600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>422400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-281200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>249900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-90800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-343100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-494200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-57600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1141600</v>
+        <v>1209300</v>
       </c>
       <c r="E33" s="3">
-        <v>621000</v>
+        <v>1073600</v>
       </c>
       <c r="F33" s="3">
-        <v>338300</v>
+        <v>584000</v>
       </c>
       <c r="G33" s="3">
-        <v>-257000</v>
+        <v>318100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1062800</v>
+        <v>-241700</v>
       </c>
       <c r="I33" s="3">
-        <v>494900</v>
+        <v>-999500</v>
       </c>
       <c r="J33" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K33" s="3">
         <v>851400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2245000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>739800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-590600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1309500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>739200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>438900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>294700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>509000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>797800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>188200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>434800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1141600</v>
+        <v>1209300</v>
       </c>
       <c r="E35" s="3">
-        <v>621000</v>
+        <v>1073600</v>
       </c>
       <c r="F35" s="3">
-        <v>338300</v>
+        <v>584000</v>
       </c>
       <c r="G35" s="3">
-        <v>-257000</v>
+        <v>318100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1062800</v>
+        <v>-241700</v>
       </c>
       <c r="I35" s="3">
-        <v>494900</v>
+        <v>-999500</v>
       </c>
       <c r="J35" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K35" s="3">
         <v>851400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2245000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>739800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-590600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1309500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>739200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>438900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>294700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>509000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>797800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>188200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>434800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,504 +2573,529 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>137600</v>
+        <v>131000</v>
       </c>
       <c r="E41" s="3">
-        <v>152500</v>
+        <v>129400</v>
       </c>
       <c r="F41" s="3">
-        <v>145100</v>
+        <v>143500</v>
       </c>
       <c r="G41" s="3">
-        <v>193200</v>
+        <v>136400</v>
       </c>
       <c r="H41" s="3">
-        <v>887900</v>
+        <v>181700</v>
       </c>
       <c r="I41" s="3">
-        <v>115200</v>
+        <v>835000</v>
       </c>
       <c r="J41" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K41" s="3">
         <v>145900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>315600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>215100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>137000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>114400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>102000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>232200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>349900</v>
+        <v>365700</v>
       </c>
       <c r="E42" s="3">
-        <v>252900</v>
+        <v>329000</v>
       </c>
       <c r="F42" s="3">
-        <v>225500</v>
+        <v>237800</v>
       </c>
       <c r="G42" s="3">
-        <v>228000</v>
+        <v>212100</v>
       </c>
       <c r="H42" s="3">
-        <v>184000</v>
+        <v>214400</v>
       </c>
       <c r="I42" s="3">
-        <v>406200</v>
+        <v>173100</v>
       </c>
       <c r="J42" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K42" s="3">
         <v>470100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>433800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>422600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>398800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>478200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>560800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>587900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>664600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>660900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>619200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>626100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>701400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2307200</v>
+        <v>2482500</v>
       </c>
       <c r="E43" s="3">
-        <v>2071800</v>
+        <v>2169800</v>
       </c>
       <c r="F43" s="3">
-        <v>1597600</v>
+        <v>1948400</v>
       </c>
       <c r="G43" s="3">
-        <v>1788300</v>
+        <v>1502400</v>
       </c>
       <c r="H43" s="3">
-        <v>1263500</v>
+        <v>1681700</v>
       </c>
       <c r="I43" s="3">
-        <v>2054400</v>
+        <v>1188200</v>
       </c>
       <c r="J43" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1993900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1684400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1760600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>873700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1436700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1965500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1656100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2023500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1239100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1637300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1637100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1755400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>902000</v>
+        <v>946500</v>
       </c>
       <c r="E44" s="3">
-        <v>878800</v>
+        <v>848300</v>
       </c>
       <c r="F44" s="3">
-        <v>897900</v>
+        <v>826500</v>
       </c>
       <c r="G44" s="3">
-        <v>907800</v>
+        <v>844400</v>
       </c>
       <c r="H44" s="3">
-        <v>779300</v>
+        <v>853700</v>
       </c>
       <c r="I44" s="3">
-        <v>955100</v>
+        <v>732900</v>
       </c>
       <c r="J44" s="3">
+        <v>898200</v>
+      </c>
+      <c r="K44" s="3">
         <v>954200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>942900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>825200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>726800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>812400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>783700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>744500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>665300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>652700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>691400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>505500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>529300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>326600</v>
+        <v>350100</v>
       </c>
       <c r="E45" s="3">
-        <v>259500</v>
+        <v>307200</v>
       </c>
       <c r="F45" s="3">
-        <v>479200</v>
+        <v>244000</v>
       </c>
       <c r="G45" s="3">
-        <v>254500</v>
+        <v>450600</v>
       </c>
       <c r="H45" s="3">
-        <v>354000</v>
+        <v>239400</v>
       </c>
       <c r="I45" s="3">
+        <v>332900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>177800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>314200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>306900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>204000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>222200</v>
+      </c>
+      <c r="O45" s="3">
+        <v>258700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>297400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>198700</v>
+      </c>
+      <c r="R45" s="3">
         <v>189000</v>
       </c>
-      <c r="J45" s="3">
-        <v>314200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>306900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>204000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>222200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>258700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>297400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>198700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>189000</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>282100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>266400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>398700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>331900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4023400</v>
+        <v>4275700</v>
       </c>
       <c r="E46" s="3">
-        <v>3615500</v>
+        <v>3783700</v>
       </c>
       <c r="F46" s="3">
-        <v>3345200</v>
+        <v>3400100</v>
       </c>
       <c r="G46" s="3">
-        <v>3371700</v>
+        <v>3146000</v>
       </c>
       <c r="H46" s="3">
-        <v>3468700</v>
+        <v>3170900</v>
       </c>
       <c r="I46" s="3">
-        <v>3719900</v>
+        <v>3262100</v>
       </c>
       <c r="J46" s="3">
+        <v>3498400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3878300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3683600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3281700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2298500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3201100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3744400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3301700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3644400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3066900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3251500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3182000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3331000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>460100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>460100</v>
+        <v>432700</v>
       </c>
       <c r="F47" s="3">
-        <v>562900</v>
+        <v>432700</v>
       </c>
       <c r="G47" s="3">
-        <v>566200</v>
-      </c>
-      <c r="H47" s="3" t="s">
+        <v>529400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>532500</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>540500</v>
-      </c>
       <c r="J47" s="3">
+        <v>508300</v>
+      </c>
+      <c r="K47" s="3">
         <v>587800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>620100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>641300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>668200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>627900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>641400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>627800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>596900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>557400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>519500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>504700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>496300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57328000</v>
+        <v>53769200</v>
       </c>
       <c r="E48" s="3">
-        <v>57895000</v>
+        <v>53913400</v>
       </c>
       <c r="F48" s="3">
-        <v>56918400</v>
+        <v>54446700</v>
       </c>
       <c r="G48" s="3">
-        <v>57582500</v>
+        <v>53528200</v>
       </c>
       <c r="H48" s="3">
-        <v>58555800</v>
+        <v>54152800</v>
       </c>
       <c r="I48" s="3">
-        <v>60032300</v>
+        <v>55068100</v>
       </c>
       <c r="J48" s="3">
+        <v>56456700</v>
+      </c>
+      <c r="K48" s="3">
         <v>60141800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57872200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52626400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>51142200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49193300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50788500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50896900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50458900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50437300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49826300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40562500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40940500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>472600</v>
+        <v>451400</v>
       </c>
       <c r="E52" s="3">
-        <v>436900</v>
+        <v>444400</v>
       </c>
       <c r="F52" s="3">
-        <v>299300</v>
+        <v>410900</v>
       </c>
       <c r="G52" s="3">
-        <v>446900</v>
+        <v>281500</v>
       </c>
       <c r="H52" s="3">
-        <v>1048700</v>
+        <v>420200</v>
       </c>
       <c r="I52" s="3">
-        <v>473400</v>
+        <v>986300</v>
       </c>
       <c r="J52" s="3">
+        <v>445200</v>
+      </c>
+      <c r="K52" s="3">
         <v>499100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>437000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>392600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>353900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>276100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>290600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>288300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>272400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>256800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>276100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>262000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>287300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62284000</v>
+        <v>58496300</v>
       </c>
       <c r="E54" s="3">
-        <v>62407600</v>
+        <v>58574300</v>
       </c>
       <c r="F54" s="3">
-        <v>61125900</v>
+        <v>58690400</v>
       </c>
       <c r="G54" s="3">
-        <v>61967300</v>
+        <v>57485100</v>
       </c>
       <c r="H54" s="3">
-        <v>63073300</v>
+        <v>58276400</v>
       </c>
       <c r="I54" s="3">
-        <v>64766200</v>
+        <v>59316500</v>
       </c>
       <c r="J54" s="3">
+        <v>60908600</v>
+      </c>
+      <c r="K54" s="3">
         <v>65107000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62612900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56942000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54462800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>53298400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55464800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55114800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54972600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54318400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53873400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44511200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45055200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>629200</v>
+        <v>610500</v>
       </c>
       <c r="E57" s="3">
-        <v>553000</v>
+        <v>591800</v>
       </c>
       <c r="F57" s="3">
-        <v>684000</v>
+        <v>520000</v>
       </c>
       <c r="G57" s="3">
-        <v>502400</v>
+        <v>643200</v>
       </c>
       <c r="H57" s="3">
-        <v>664900</v>
+        <v>472500</v>
       </c>
       <c r="I57" s="3">
-        <v>676500</v>
+        <v>625300</v>
       </c>
       <c r="J57" s="3">
+        <v>636200</v>
+      </c>
+      <c r="K57" s="3">
         <v>548800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>732800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>599700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>592900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>732500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>730200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>705400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>576800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>590900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>488200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>415600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>457100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1623300</v>
+        <v>1938300</v>
       </c>
       <c r="E58" s="3">
-        <v>1270100</v>
+        <v>1526600</v>
       </c>
       <c r="F58" s="3">
-        <v>843100</v>
+        <v>1194500</v>
       </c>
       <c r="G58" s="3">
-        <v>1695400</v>
+        <v>792900</v>
       </c>
       <c r="H58" s="3">
-        <v>2507000</v>
+        <v>1594400</v>
       </c>
       <c r="I58" s="3">
-        <v>2175400</v>
+        <v>2357700</v>
       </c>
       <c r="J58" s="3">
+        <v>2045900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3548300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3330700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1445700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>868400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>363300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>621800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>484800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1396900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1395400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1448200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2403800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1392000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2720900</v>
+        <v>2956500</v>
       </c>
       <c r="E59" s="3">
-        <v>2386800</v>
+        <v>2558900</v>
       </c>
       <c r="F59" s="3">
-        <v>1918400</v>
+        <v>2244700</v>
       </c>
       <c r="G59" s="3">
-        <v>1878600</v>
+        <v>1804200</v>
       </c>
       <c r="H59" s="3">
-        <v>2054400</v>
+        <v>1766700</v>
       </c>
       <c r="I59" s="3">
-        <v>2650500</v>
+        <v>1932000</v>
       </c>
       <c r="J59" s="3">
+        <v>2492600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2415000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2201400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2163000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2387900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2305000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2067900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2685900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2323400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2111300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1827600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2062700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4973500</v>
+        <v>5505200</v>
       </c>
       <c r="E60" s="3">
-        <v>4209900</v>
+        <v>4677200</v>
       </c>
       <c r="F60" s="3">
-        <v>3445500</v>
+        <v>3959200</v>
       </c>
       <c r="G60" s="3">
-        <v>4076400</v>
+        <v>3240300</v>
       </c>
       <c r="H60" s="3">
-        <v>5226300</v>
+        <v>3833600</v>
       </c>
       <c r="I60" s="3">
-        <v>5502400</v>
+        <v>4915000</v>
       </c>
       <c r="J60" s="3">
+        <v>5174700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6512200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6264900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4319500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3624300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3483800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3657100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3258100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4659500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4309700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4047800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4647000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3911800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16333100</v>
+        <v>13616200</v>
       </c>
       <c r="E61" s="3">
-        <v>17916600</v>
+        <v>15360300</v>
       </c>
       <c r="F61" s="3">
-        <v>18647800</v>
+        <v>16849400</v>
       </c>
       <c r="G61" s="3">
-        <v>18787900</v>
+        <v>17537100</v>
       </c>
       <c r="H61" s="3">
-        <v>17749100</v>
+        <v>17668900</v>
       </c>
       <c r="I61" s="3">
-        <v>16912600</v>
+        <v>16692000</v>
       </c>
       <c r="J61" s="3">
+        <v>15905300</v>
+      </c>
+      <c r="K61" s="3">
         <v>16634100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16797700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15936000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14827600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13976400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15485600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16060000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15316600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15662600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15874000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10121400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11518100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13427300</v>
+        <v>12704700</v>
       </c>
       <c r="E62" s="3">
-        <v>13436400</v>
+        <v>12627500</v>
       </c>
       <c r="F62" s="3">
-        <v>12365300</v>
+        <v>12636100</v>
       </c>
       <c r="G62" s="3">
-        <v>12297300</v>
+        <v>11628800</v>
       </c>
       <c r="H62" s="3">
-        <v>12522000</v>
+        <v>11564800</v>
       </c>
       <c r="I62" s="3">
-        <v>13341900</v>
+        <v>11776100</v>
       </c>
       <c r="J62" s="3">
+        <v>12547200</v>
+      </c>
+      <c r="K62" s="3">
         <v>13114700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12370300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11846000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11675900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11571800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11923400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11687800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11440000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11023200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10891500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9479200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9446200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34733900</v>
+        <v>31826100</v>
       </c>
       <c r="E66" s="3">
-        <v>35562900</v>
+        <v>32665100</v>
       </c>
       <c r="F66" s="3">
-        <v>34458600</v>
+        <v>33444700</v>
       </c>
       <c r="G66" s="3">
-        <v>35161700</v>
+        <v>32406200</v>
       </c>
       <c r="H66" s="3">
-        <v>35497400</v>
+        <v>33067400</v>
       </c>
       <c r="I66" s="3">
-        <v>35756900</v>
+        <v>33383100</v>
       </c>
       <c r="J66" s="3">
+        <v>33627200</v>
+      </c>
+      <c r="K66" s="3">
         <v>36261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35432900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32101500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30127700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29032000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31066100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31005900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31416100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30995600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30813300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24247600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24876100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19538200</v>
+        <v>19016200</v>
       </c>
       <c r="E72" s="3">
-        <v>18874200</v>
+        <v>18374500</v>
       </c>
       <c r="F72" s="3">
-        <v>18670200</v>
+        <v>17750000</v>
       </c>
       <c r="G72" s="3">
-        <v>18748100</v>
+        <v>17558200</v>
       </c>
       <c r="H72" s="3">
-        <v>19420500</v>
+        <v>17631500</v>
       </c>
       <c r="I72" s="3">
-        <v>21077800</v>
+        <v>18263800</v>
       </c>
       <c r="J72" s="3">
+        <v>19822300</v>
+      </c>
+      <c r="K72" s="3">
         <v>21042900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19767600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17591900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17146600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17464500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17309700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17152300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16828100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16783400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16523700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16490100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16536900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27550200</v>
+        <v>26670200</v>
       </c>
       <c r="E76" s="3">
-        <v>26844600</v>
+        <v>25909200</v>
       </c>
       <c r="F76" s="3">
-        <v>26667200</v>
+        <v>25245700</v>
       </c>
       <c r="G76" s="3">
-        <v>26805700</v>
+        <v>25078900</v>
       </c>
       <c r="H76" s="3">
-        <v>27575900</v>
+        <v>25209100</v>
       </c>
       <c r="I76" s="3">
-        <v>29009300</v>
+        <v>25933400</v>
       </c>
       <c r="J76" s="3">
+        <v>27281400</v>
+      </c>
+      <c r="K76" s="3">
         <v>28846000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27180000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24840600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24335100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24266400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24398700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24108900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23556500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23322800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23060100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20263600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20179100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1141600</v>
+        <v>1209300</v>
       </c>
       <c r="E81" s="3">
-        <v>621000</v>
+        <v>1073600</v>
       </c>
       <c r="F81" s="3">
-        <v>338300</v>
+        <v>584000</v>
       </c>
       <c r="G81" s="3">
-        <v>-257000</v>
+        <v>318100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1062800</v>
+        <v>-241700</v>
       </c>
       <c r="I81" s="3">
-        <v>494900</v>
+        <v>-999500</v>
       </c>
       <c r="J81" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K81" s="3">
         <v>851400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2245000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>739800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-590600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1309500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>739200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>438900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>294700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>509000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>797800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>188200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>434800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1178100</v>
+        <v>1082200</v>
       </c>
       <c r="E83" s="3">
-        <v>1338900</v>
+        <v>1107900</v>
       </c>
       <c r="F83" s="3">
-        <v>1213700</v>
+        <v>1259200</v>
       </c>
       <c r="G83" s="3">
-        <v>1163200</v>
+        <v>1141400</v>
       </c>
       <c r="H83" s="3">
-        <v>1296600</v>
+        <v>1093900</v>
       </c>
       <c r="I83" s="3">
-        <v>1285000</v>
+        <v>1219400</v>
       </c>
       <c r="J83" s="3">
+        <v>1208500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1182200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1036500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>972300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1010700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>949100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>956000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>946300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1046400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>945900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>997900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>959500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2102500</v>
+        <v>2292200</v>
       </c>
       <c r="E89" s="3">
-        <v>1052900</v>
+        <v>1977200</v>
       </c>
       <c r="F89" s="3">
-        <v>1716100</v>
+        <v>990200</v>
       </c>
       <c r="G89" s="3">
-        <v>-291000</v>
+        <v>1613900</v>
       </c>
       <c r="H89" s="3">
-        <v>1430100</v>
+        <v>-273700</v>
       </c>
       <c r="I89" s="3">
-        <v>2034500</v>
+        <v>1344900</v>
       </c>
       <c r="J89" s="3">
+        <v>1913300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2087500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2268800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>766700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1063200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2646600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1967000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1858600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1070200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1876900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1213800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1283700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>964100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3300</v>
+        <v>2300</v>
       </c>
       <c r="E91" s="3">
-        <v>1518000</v>
+        <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1515500</v>
+        <v>1427600</v>
       </c>
       <c r="G91" s="3">
+        <v>-1425200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>72300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-215800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-618400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-493200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537200</v>
+        <v>-560600</v>
       </c>
       <c r="E94" s="3">
-        <v>-517300</v>
+        <v>-505200</v>
       </c>
       <c r="F94" s="3">
-        <v>-533100</v>
+        <v>-486500</v>
       </c>
       <c r="G94" s="3">
-        <v>-574500</v>
+        <v>-501300</v>
       </c>
       <c r="H94" s="3">
-        <v>-712200</v>
+        <v>-540300</v>
       </c>
       <c r="I94" s="3">
-        <v>-708000</v>
+        <v>-669700</v>
       </c>
       <c r="J94" s="3">
+        <v>-665800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-752800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-792100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-793100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-919300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-856700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-799300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-863500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-411000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-417000</v>
+        <v>-434300</v>
       </c>
       <c r="E96" s="3">
-        <v>-416200</v>
+        <v>-392200</v>
       </c>
       <c r="F96" s="3">
-        <v>-416200</v>
+        <v>-391400</v>
       </c>
       <c r="G96" s="3">
-        <v>-416200</v>
+        <v>-391400</v>
       </c>
       <c r="H96" s="3">
-        <v>-368100</v>
+        <v>-391400</v>
       </c>
       <c r="I96" s="3">
-        <v>-368100</v>
+        <v>-346200</v>
       </c>
       <c r="J96" s="3">
+        <v>-346200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-370600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-356100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-310200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-309000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-297200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-309400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-252900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-249300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-248600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-227700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-212800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-195100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1580200</v>
+        <v>-1730100</v>
       </c>
       <c r="E100" s="3">
-        <v>-528100</v>
+        <v>-1486100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1231100</v>
+        <v>-496600</v>
       </c>
       <c r="G100" s="3">
-        <v>170800</v>
+        <v>-1157800</v>
       </c>
       <c r="H100" s="3">
-        <v>54700</v>
+        <v>160600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1357200</v>
+        <v>51500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1276300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1515500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-418600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-816800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-401100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-223300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5465500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-418700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-554700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14900</v>
+        <v>1600</v>
       </c>
       <c r="E102" s="3">
-        <v>7500</v>
+        <v>-14000</v>
       </c>
       <c r="F102" s="3">
-        <v>-48100</v>
+        <v>7000</v>
       </c>
       <c r="G102" s="3">
-        <v>-694700</v>
+        <v>-45200</v>
       </c>
       <c r="H102" s="3">
-        <v>772700</v>
+        <v>-653400</v>
       </c>
       <c r="I102" s="3">
-        <v>-30700</v>
+        <v>726700</v>
       </c>
       <c r="J102" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-184000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>244300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-148400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>82800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-130200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>195000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5087300</v>
+        <v>6053500</v>
       </c>
       <c r="E8" s="3">
-        <v>5152100</v>
+        <v>5122500</v>
       </c>
       <c r="F8" s="3">
-        <v>3912400</v>
+        <v>5187600</v>
       </c>
       <c r="G8" s="3">
-        <v>3511600</v>
+        <v>3939400</v>
       </c>
       <c r="H8" s="3">
-        <v>2238400</v>
+        <v>3535900</v>
       </c>
       <c r="I8" s="3">
-        <v>3508500</v>
+        <v>2253900</v>
       </c>
       <c r="J8" s="3">
+        <v>3532700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4600800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5106900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4410800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4040000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2817600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4286700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4480600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4120800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3872100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3323600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2910600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2797900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2656500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2537800</v>
+        <v>2573400</v>
       </c>
       <c r="E9" s="3">
-        <v>2564300</v>
+        <v>2555300</v>
       </c>
       <c r="F9" s="3">
-        <v>2299200</v>
+        <v>2582000</v>
       </c>
       <c r="G9" s="3">
-        <v>1984300</v>
+        <v>2315100</v>
       </c>
       <c r="H9" s="3">
-        <v>1690300</v>
+        <v>1998000</v>
       </c>
       <c r="I9" s="3">
-        <v>2429500</v>
+        <v>1702000</v>
       </c>
       <c r="J9" s="3">
+        <v>2446200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2388900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2332900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2005500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1977700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1895900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1901000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2080700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2094300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2102400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1830800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1529400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1339800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1267600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2549500</v>
+        <v>3480100</v>
       </c>
       <c r="E10" s="3">
-        <v>2587700</v>
+        <v>2567100</v>
       </c>
       <c r="F10" s="3">
-        <v>1613100</v>
+        <v>2605600</v>
       </c>
       <c r="G10" s="3">
-        <v>1527400</v>
+        <v>1624300</v>
       </c>
       <c r="H10" s="3">
-        <v>548100</v>
+        <v>1537900</v>
       </c>
       <c r="I10" s="3">
-        <v>1079100</v>
+        <v>551900</v>
       </c>
       <c r="J10" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2211900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2774000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2405200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2062300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>921700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2385700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2399900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2026500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1769700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1492900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1381300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1458100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1389000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-311900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>-375300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-169200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-170400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1082200</v>
+        <v>1132000</v>
       </c>
       <c r="E15" s="3">
-        <v>1107900</v>
+        <v>1089600</v>
       </c>
       <c r="F15" s="3">
-        <v>1259200</v>
+        <v>1115600</v>
       </c>
       <c r="G15" s="3">
-        <v>1141400</v>
+        <v>1267900</v>
       </c>
       <c r="H15" s="3">
-        <v>1093900</v>
+        <v>1149300</v>
       </c>
       <c r="I15" s="3">
-        <v>1219400</v>
+        <v>1101400</v>
       </c>
       <c r="J15" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1208500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1182200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1036500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>972300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1010700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>949100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>956000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>946300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1046400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>945900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>900500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>997900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>959500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3518700</v>
+        <v>3480100</v>
       </c>
       <c r="E17" s="3">
-        <v>3882800</v>
+        <v>3542900</v>
       </c>
       <c r="F17" s="3">
-        <v>3608300</v>
+        <v>3909500</v>
       </c>
       <c r="G17" s="3">
-        <v>3230200</v>
+        <v>3633200</v>
       </c>
       <c r="H17" s="3">
-        <v>2910500</v>
+        <v>3252500</v>
       </c>
       <c r="I17" s="3">
-        <v>3599700</v>
+        <v>2930600</v>
       </c>
       <c r="J17" s="3">
+        <v>3624600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3836000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3641200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3139600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3085400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2898200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2878400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3261100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3069900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3316900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2948600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2437300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2453000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2352300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1568700</v>
+        <v>2573400</v>
       </c>
       <c r="E18" s="3">
-        <v>1269300</v>
+        <v>1579500</v>
       </c>
       <c r="F18" s="3">
-        <v>304100</v>
+        <v>1278100</v>
       </c>
       <c r="G18" s="3">
-        <v>281500</v>
+        <v>306200</v>
       </c>
       <c r="H18" s="3">
-        <v>-672100</v>
+        <v>283400</v>
       </c>
       <c r="I18" s="3">
-        <v>-91200</v>
+        <v>-676700</v>
       </c>
       <c r="J18" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="K18" s="3">
         <v>764900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1465800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1271200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>954600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-80700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1408300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1219500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1050900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>555200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>375100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>473300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>344900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>304200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>126300</v>
+        <v>-228400</v>
       </c>
       <c r="E20" s="3">
-        <v>196500</v>
+        <v>127200</v>
       </c>
       <c r="F20" s="3">
-        <v>481800</v>
+        <v>197800</v>
       </c>
       <c r="G20" s="3">
-        <v>179300</v>
+        <v>485200</v>
       </c>
       <c r="H20" s="3">
-        <v>353200</v>
+        <v>180600</v>
       </c>
       <c r="I20" s="3">
-        <v>-871700</v>
+        <v>355600</v>
       </c>
       <c r="J20" s="3">
+        <v>-877700</v>
+      </c>
+      <c r="K20" s="3">
         <v>104500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-143400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>114200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>131600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-422400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>281200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-249900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>90800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>343100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>494200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>57600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2777200</v>
+        <v>3477000</v>
       </c>
       <c r="E21" s="3">
-        <v>2573700</v>
+        <v>2796300</v>
       </c>
       <c r="F21" s="3">
-        <v>2045100</v>
+        <v>2591500</v>
       </c>
       <c r="G21" s="3">
-        <v>1602200</v>
+        <v>2059200</v>
       </c>
       <c r="H21" s="3">
-        <v>775000</v>
+        <v>1613300</v>
       </c>
       <c r="I21" s="3">
-        <v>256500</v>
+        <v>780300</v>
       </c>
       <c r="J21" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2077800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2504600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2421900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2058500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>507600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2638600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2154500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1747200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1692300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1664100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1868000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1357500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1321400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>138000</v>
+        <v>139700</v>
       </c>
       <c r="E22" s="3">
-        <v>144200</v>
+        <v>139000</v>
       </c>
       <c r="F22" s="3">
-        <v>194100</v>
+        <v>145200</v>
       </c>
       <c r="G22" s="3">
-        <v>135700</v>
+        <v>195500</v>
       </c>
       <c r="H22" s="3">
-        <v>155200</v>
+        <v>136600</v>
       </c>
       <c r="I22" s="3">
-        <v>160600</v>
+        <v>156200</v>
       </c>
       <c r="J22" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K22" s="3">
         <v>228400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>191500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>156200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>181100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>130800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>143000</v>
       </c>
       <c r="Q22" s="3">
         <v>143000</v>
       </c>
       <c r="R22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="S22" s="3">
         <v>198000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>136200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>107900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>102900</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1557000</v>
+        <v>2205200</v>
       </c>
       <c r="E23" s="3">
-        <v>1321500</v>
+        <v>1567700</v>
       </c>
       <c r="F23" s="3">
-        <v>591800</v>
+        <v>1330700</v>
       </c>
       <c r="G23" s="3">
-        <v>325100</v>
+        <v>595900</v>
       </c>
       <c r="H23" s="3">
-        <v>-474000</v>
+        <v>327400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1123500</v>
+        <v>-477300</v>
       </c>
       <c r="J23" s="3">
+        <v>-1131300</v>
+      </c>
+      <c r="K23" s="3">
         <v>640900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1130800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1229200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>939200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-684200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1558800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1055400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>657900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>448000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>582000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>859600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>256600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>361800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>347700</v>
+        <v>476500</v>
       </c>
       <c r="E24" s="3">
-        <v>247900</v>
+        <v>350100</v>
       </c>
       <c r="F24" s="3">
-        <v>7800</v>
+        <v>249600</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="H24" s="3">
-        <v>-232300</v>
+        <v>7100</v>
       </c>
       <c r="I24" s="3">
-        <v>-124000</v>
+        <v>-233900</v>
       </c>
       <c r="J24" s="3">
+        <v>-124800</v>
+      </c>
+      <c r="K24" s="3">
         <v>175400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>279400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>199400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-93600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>249300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>316200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>219100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>153300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>72900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>61800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-73000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1209300</v>
+        <v>1728700</v>
       </c>
       <c r="E26" s="3">
-        <v>1073600</v>
+        <v>1217600</v>
       </c>
       <c r="F26" s="3">
-        <v>584000</v>
+        <v>1081000</v>
       </c>
       <c r="G26" s="3">
-        <v>318100</v>
+        <v>588000</v>
       </c>
       <c r="H26" s="3">
-        <v>-241700</v>
+        <v>320300</v>
       </c>
       <c r="I26" s="3">
-        <v>-999500</v>
+        <v>-243400</v>
       </c>
       <c r="J26" s="3">
+        <v>-1006400</v>
+      </c>
+      <c r="K26" s="3">
         <v>465500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>851400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2245000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>739800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-590600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1309500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>739200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>438900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>294700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>509000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>797800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>188200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>434800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1209300</v>
+        <v>1728700</v>
       </c>
       <c r="E27" s="3">
-        <v>1073600</v>
+        <v>1217600</v>
       </c>
       <c r="F27" s="3">
-        <v>584000</v>
+        <v>1081000</v>
       </c>
       <c r="G27" s="3">
-        <v>318100</v>
+        <v>588000</v>
       </c>
       <c r="H27" s="3">
-        <v>-241700</v>
+        <v>320300</v>
       </c>
       <c r="I27" s="3">
-        <v>-999500</v>
+        <v>-243400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1006400</v>
+      </c>
+      <c r="K27" s="3">
         <v>465500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>851400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2245000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>739800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-590600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1309500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>739200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>438900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>294700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>509000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>797800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>188200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>434800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-126300</v>
+        <v>228400</v>
       </c>
       <c r="E32" s="3">
-        <v>-196500</v>
+        <v>-127200</v>
       </c>
       <c r="F32" s="3">
-        <v>-481800</v>
+        <v>-197800</v>
       </c>
       <c r="G32" s="3">
-        <v>-179300</v>
+        <v>-485200</v>
       </c>
       <c r="H32" s="3">
-        <v>-353200</v>
+        <v>-180600</v>
       </c>
       <c r="I32" s="3">
-        <v>871700</v>
+        <v>-355600</v>
       </c>
       <c r="J32" s="3">
+        <v>877700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>143400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-114200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-131600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>422400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-281200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>21100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>249900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-90800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-343100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-494200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-57600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1209300</v>
+        <v>1728700</v>
       </c>
       <c r="E33" s="3">
-        <v>1073600</v>
+        <v>1217600</v>
       </c>
       <c r="F33" s="3">
-        <v>584000</v>
+        <v>1081000</v>
       </c>
       <c r="G33" s="3">
-        <v>318100</v>
+        <v>588000</v>
       </c>
       <c r="H33" s="3">
-        <v>-241700</v>
+        <v>320300</v>
       </c>
       <c r="I33" s="3">
-        <v>-999500</v>
+        <v>-243400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1006400</v>
+      </c>
+      <c r="K33" s="3">
         <v>465500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>851400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2245000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>739800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-590600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1309500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>739200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>438900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>294700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>509000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>797800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>188200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>434800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1209300</v>
+        <v>1728700</v>
       </c>
       <c r="E35" s="3">
-        <v>1073600</v>
+        <v>1217600</v>
       </c>
       <c r="F35" s="3">
-        <v>584000</v>
+        <v>1081000</v>
       </c>
       <c r="G35" s="3">
-        <v>318100</v>
+        <v>588000</v>
       </c>
       <c r="H35" s="3">
-        <v>-241700</v>
+        <v>320300</v>
       </c>
       <c r="I35" s="3">
-        <v>-999500</v>
+        <v>-243400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1006400</v>
+      </c>
+      <c r="K35" s="3">
         <v>465500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>851400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2245000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>739800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-590600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1309500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>739200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>438900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>294700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>509000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>797800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>188200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>434800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,398 +2660,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131000</v>
+        <v>701800</v>
       </c>
       <c r="E41" s="3">
-        <v>129400</v>
+        <v>131900</v>
       </c>
       <c r="F41" s="3">
-        <v>143500</v>
+        <v>130300</v>
       </c>
       <c r="G41" s="3">
-        <v>136400</v>
+        <v>144400</v>
       </c>
       <c r="H41" s="3">
-        <v>181700</v>
+        <v>137400</v>
       </c>
       <c r="I41" s="3">
-        <v>835000</v>
+        <v>182900</v>
       </c>
       <c r="J41" s="3">
+        <v>840800</v>
+      </c>
+      <c r="K41" s="3">
         <v>108400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>315600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>215100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>137000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>114400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>102000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>232200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>365700</v>
+        <v>240200</v>
       </c>
       <c r="E42" s="3">
-        <v>329000</v>
+        <v>368200</v>
       </c>
       <c r="F42" s="3">
-        <v>237800</v>
+        <v>331300</v>
       </c>
       <c r="G42" s="3">
-        <v>212100</v>
+        <v>239400</v>
       </c>
       <c r="H42" s="3">
-        <v>214400</v>
+        <v>213500</v>
       </c>
       <c r="I42" s="3">
-        <v>173100</v>
+        <v>215900</v>
       </c>
       <c r="J42" s="3">
+        <v>174300</v>
+      </c>
+      <c r="K42" s="3">
         <v>382000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>470100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>433800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>422600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>398800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>478200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>560800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>587900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>664600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>660900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>619200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>626100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>701400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2482500</v>
+        <v>2493300</v>
       </c>
       <c r="E43" s="3">
-        <v>2169800</v>
+        <v>2499600</v>
       </c>
       <c r="F43" s="3">
-        <v>1948400</v>
+        <v>2184800</v>
       </c>
       <c r="G43" s="3">
-        <v>1502400</v>
+        <v>1961800</v>
       </c>
       <c r="H43" s="3">
-        <v>1681700</v>
+        <v>1512800</v>
       </c>
       <c r="I43" s="3">
-        <v>1188200</v>
+        <v>1693400</v>
       </c>
       <c r="J43" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1932000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1993900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1684400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1760600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>873700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1436700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1965500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1656100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2023500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1239100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1637300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1637100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1755400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>946500</v>
+        <v>969500</v>
       </c>
       <c r="E44" s="3">
-        <v>848300</v>
+        <v>953100</v>
       </c>
       <c r="F44" s="3">
-        <v>826500</v>
+        <v>854100</v>
       </c>
       <c r="G44" s="3">
-        <v>844400</v>
+        <v>832200</v>
       </c>
       <c r="H44" s="3">
-        <v>853700</v>
+        <v>850200</v>
       </c>
       <c r="I44" s="3">
-        <v>732900</v>
+        <v>859600</v>
       </c>
       <c r="J44" s="3">
+        <v>737900</v>
+      </c>
+      <c r="K44" s="3">
         <v>898200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>954200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>942900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>825200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>726800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>812400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>783700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>744500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>665300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>652700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>691400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>505500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>529300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>350100</v>
+        <v>272400</v>
       </c>
       <c r="E45" s="3">
-        <v>307200</v>
+        <v>352500</v>
       </c>
       <c r="F45" s="3">
-        <v>244000</v>
+        <v>309300</v>
       </c>
       <c r="G45" s="3">
-        <v>450600</v>
+        <v>245700</v>
       </c>
       <c r="H45" s="3">
-        <v>239400</v>
+        <v>453800</v>
       </c>
       <c r="I45" s="3">
-        <v>332900</v>
+        <v>241000</v>
       </c>
       <c r="J45" s="3">
+        <v>335200</v>
+      </c>
+      <c r="K45" s="3">
         <v>177800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>314200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>306900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>204000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>222200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>258700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>297400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>189000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>282100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>266400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>398700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>331900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4275700</v>
+        <v>4677300</v>
       </c>
       <c r="E46" s="3">
-        <v>3783700</v>
+        <v>4305200</v>
       </c>
       <c r="F46" s="3">
-        <v>3400100</v>
+        <v>3809800</v>
       </c>
       <c r="G46" s="3">
-        <v>3146000</v>
+        <v>3423600</v>
       </c>
       <c r="H46" s="3">
-        <v>3170900</v>
+        <v>3167700</v>
       </c>
       <c r="I46" s="3">
-        <v>3262100</v>
+        <v>3192800</v>
       </c>
       <c r="J46" s="3">
+        <v>3284600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3498400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3878300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3683600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3281700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2298500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3201100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3744400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3301700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3644400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3066900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3251500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3182000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3331000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,129 +3078,135 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>432700</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>432700</v>
+        <v>435700</v>
       </c>
       <c r="G47" s="3">
-        <v>529400</v>
+        <v>435700</v>
       </c>
       <c r="H47" s="3">
-        <v>532500</v>
-      </c>
-      <c r="I47" s="3" t="s">
+        <v>533000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>536200</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>508300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>587800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>620100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>641300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>668200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>627900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>641400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>627800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>596900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>557400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>519500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>504700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>496300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53769200</v>
+        <v>53957300</v>
       </c>
       <c r="E48" s="3">
-        <v>53913400</v>
+        <v>54140200</v>
       </c>
       <c r="F48" s="3">
-        <v>54446700</v>
+        <v>54285400</v>
       </c>
       <c r="G48" s="3">
-        <v>53528200</v>
+        <v>54822400</v>
       </c>
       <c r="H48" s="3">
-        <v>54152800</v>
+        <v>53897600</v>
       </c>
       <c r="I48" s="3">
-        <v>55068100</v>
+        <v>54526400</v>
       </c>
       <c r="J48" s="3">
+        <v>55448100</v>
+      </c>
+      <c r="K48" s="3">
         <v>56456700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60141800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57872200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52626400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51142200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49193300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50788500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50896900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50458900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50437300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49826300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40562500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>40940500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>451400</v>
+        <v>472600</v>
       </c>
       <c r="E52" s="3">
-        <v>444400</v>
+        <v>454500</v>
       </c>
       <c r="F52" s="3">
-        <v>410900</v>
+        <v>447500</v>
       </c>
       <c r="G52" s="3">
-        <v>281500</v>
+        <v>413700</v>
       </c>
       <c r="H52" s="3">
-        <v>420200</v>
+        <v>283400</v>
       </c>
       <c r="I52" s="3">
-        <v>986300</v>
+        <v>423100</v>
       </c>
       <c r="J52" s="3">
+        <v>993100</v>
+      </c>
+      <c r="K52" s="3">
         <v>445200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>499100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>437000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>392600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>353900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>276100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>290600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>288300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>272400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>256800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>276100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>262000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>287300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58496300</v>
+        <v>59107200</v>
       </c>
       <c r="E54" s="3">
-        <v>58574300</v>
+        <v>58899900</v>
       </c>
       <c r="F54" s="3">
-        <v>58690400</v>
+        <v>58978500</v>
       </c>
       <c r="G54" s="3">
-        <v>57485100</v>
+        <v>59095400</v>
       </c>
       <c r="H54" s="3">
-        <v>58276400</v>
+        <v>57881700</v>
       </c>
       <c r="I54" s="3">
-        <v>59316500</v>
+        <v>58678600</v>
       </c>
       <c r="J54" s="3">
+        <v>59725800</v>
+      </c>
+      <c r="K54" s="3">
         <v>60908600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65107000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>62612900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56942000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54462800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53298400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55464800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55114800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54972600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54318400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>53873400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>44511200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45055200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>610500</v>
+        <v>776400</v>
       </c>
       <c r="E57" s="3">
-        <v>591800</v>
+        <v>614700</v>
       </c>
       <c r="F57" s="3">
-        <v>520000</v>
+        <v>595900</v>
       </c>
       <c r="G57" s="3">
-        <v>643200</v>
+        <v>523600</v>
       </c>
       <c r="H57" s="3">
-        <v>472500</v>
+        <v>647700</v>
       </c>
       <c r="I57" s="3">
-        <v>625300</v>
+        <v>475700</v>
       </c>
       <c r="J57" s="3">
+        <v>629600</v>
+      </c>
+      <c r="K57" s="3">
         <v>636200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>548800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>732800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>599700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>592900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>732500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>730200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>705400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>576800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>590900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>488200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>415600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>457100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1938300</v>
+        <v>931100</v>
       </c>
       <c r="E58" s="3">
-        <v>1526600</v>
+        <v>1951600</v>
       </c>
       <c r="F58" s="3">
-        <v>1194500</v>
+        <v>1537100</v>
       </c>
       <c r="G58" s="3">
-        <v>792900</v>
+        <v>1202700</v>
       </c>
       <c r="H58" s="3">
-        <v>1594400</v>
+        <v>798400</v>
       </c>
       <c r="I58" s="3">
-        <v>2357700</v>
+        <v>1605400</v>
       </c>
       <c r="J58" s="3">
+        <v>2374000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2045900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3548300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3330700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1445700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>868400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>363300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>621800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>484800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1396900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1395400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1448200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2403800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1392000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2956500</v>
+        <v>3422800</v>
       </c>
       <c r="E59" s="3">
-        <v>2558900</v>
+        <v>2976900</v>
       </c>
       <c r="F59" s="3">
-        <v>2244700</v>
+        <v>2576500</v>
       </c>
       <c r="G59" s="3">
-        <v>1804200</v>
+        <v>2260200</v>
       </c>
       <c r="H59" s="3">
-        <v>1766700</v>
+        <v>1816600</v>
       </c>
       <c r="I59" s="3">
-        <v>1932000</v>
+        <v>1778900</v>
       </c>
       <c r="J59" s="3">
+        <v>1945400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2492600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2415000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2201400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2274000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2163000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2387900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2305000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2067900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2685900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2323400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2111300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1827600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2062700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5505200</v>
+        <v>5130300</v>
       </c>
       <c r="E60" s="3">
-        <v>4677200</v>
+        <v>5543200</v>
       </c>
       <c r="F60" s="3">
-        <v>3959200</v>
+        <v>4709500</v>
       </c>
       <c r="G60" s="3">
-        <v>3240300</v>
+        <v>3986500</v>
       </c>
       <c r="H60" s="3">
-        <v>3833600</v>
+        <v>3262700</v>
       </c>
       <c r="I60" s="3">
-        <v>4915000</v>
+        <v>3860100</v>
       </c>
       <c r="J60" s="3">
+        <v>4949000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5174700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6512200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6264900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4319500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3624300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3483800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3657100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3258100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4659500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4309700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4047800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4647000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3911800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13616200</v>
+        <v>13498100</v>
       </c>
       <c r="E61" s="3">
-        <v>15360300</v>
+        <v>13710100</v>
       </c>
       <c r="F61" s="3">
-        <v>16849400</v>
+        <v>15466300</v>
       </c>
       <c r="G61" s="3">
-        <v>17537100</v>
+        <v>16965700</v>
       </c>
       <c r="H61" s="3">
-        <v>17668900</v>
+        <v>17658100</v>
       </c>
       <c r="I61" s="3">
-        <v>16692000</v>
+        <v>17790800</v>
       </c>
       <c r="J61" s="3">
+        <v>16807100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15905300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16634100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16797700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15936000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14827600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13976400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15485600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16060000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15316600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15662600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15874000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10121400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11518100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12704700</v>
+        <v>12589100</v>
       </c>
       <c r="E62" s="3">
-        <v>12627500</v>
+        <v>12792400</v>
       </c>
       <c r="F62" s="3">
-        <v>12636100</v>
+        <v>12714700</v>
       </c>
       <c r="G62" s="3">
-        <v>11628800</v>
+        <v>12723300</v>
       </c>
       <c r="H62" s="3">
-        <v>11564800</v>
+        <v>11709000</v>
       </c>
       <c r="I62" s="3">
-        <v>11776100</v>
+        <v>11644600</v>
       </c>
       <c r="J62" s="3">
+        <v>11857400</v>
+      </c>
+      <c r="K62" s="3">
         <v>12547200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13114700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12370300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11846000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11675900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11571800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11923400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11687800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11440000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11023200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10891500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9479200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9446200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31826100</v>
+        <v>31217500</v>
       </c>
       <c r="E66" s="3">
-        <v>32665100</v>
+        <v>32045700</v>
       </c>
       <c r="F66" s="3">
-        <v>33444700</v>
+        <v>32890500</v>
       </c>
       <c r="G66" s="3">
-        <v>32406200</v>
+        <v>33675500</v>
       </c>
       <c r="H66" s="3">
-        <v>33067400</v>
+        <v>32629800</v>
       </c>
       <c r="I66" s="3">
-        <v>33383100</v>
+        <v>33295500</v>
       </c>
       <c r="J66" s="3">
+        <v>33613500</v>
+      </c>
+      <c r="K66" s="3">
         <v>33627200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36261000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35432900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32101500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30127700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29032000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31066100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31005900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31416100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30995600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30813300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24247600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24876100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19016200</v>
+        <v>20122400</v>
       </c>
       <c r="E72" s="3">
-        <v>18374500</v>
+        <v>19147400</v>
       </c>
       <c r="F72" s="3">
-        <v>17750000</v>
+        <v>18501300</v>
       </c>
       <c r="G72" s="3">
-        <v>17558200</v>
+        <v>17872400</v>
       </c>
       <c r="H72" s="3">
-        <v>17631500</v>
+        <v>17679300</v>
       </c>
       <c r="I72" s="3">
-        <v>18263800</v>
+        <v>17753100</v>
       </c>
       <c r="J72" s="3">
+        <v>18389800</v>
+      </c>
+      <c r="K72" s="3">
         <v>19822300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21042900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19767600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17591900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17146600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17464500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17309700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17152300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16828100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16783400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16523700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16490100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16536900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26670200</v>
+        <v>27889700</v>
       </c>
       <c r="E76" s="3">
-        <v>25909200</v>
+        <v>26854200</v>
       </c>
       <c r="F76" s="3">
-        <v>25245700</v>
+        <v>26088000</v>
       </c>
       <c r="G76" s="3">
-        <v>25078900</v>
+        <v>25419900</v>
       </c>
       <c r="H76" s="3">
-        <v>25209100</v>
+        <v>25251900</v>
       </c>
       <c r="I76" s="3">
-        <v>25933400</v>
+        <v>25383000</v>
       </c>
       <c r="J76" s="3">
+        <v>26112300</v>
+      </c>
+      <c r="K76" s="3">
         <v>27281400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28846000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27180000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24840600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24335100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24266400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24398700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24108900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23556500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23322800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23060100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20263600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20179100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1209300</v>
+        <v>1728700</v>
       </c>
       <c r="E81" s="3">
-        <v>1073600</v>
+        <v>1217600</v>
       </c>
       <c r="F81" s="3">
-        <v>584000</v>
+        <v>1081000</v>
       </c>
       <c r="G81" s="3">
-        <v>318100</v>
+        <v>588000</v>
       </c>
       <c r="H81" s="3">
-        <v>-241700</v>
+        <v>320300</v>
       </c>
       <c r="I81" s="3">
-        <v>-999500</v>
+        <v>-243400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1006400</v>
+      </c>
+      <c r="K81" s="3">
         <v>465500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>851400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2245000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>739800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-590600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1309500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>739200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>438900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>294700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>509000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>797800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>188200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>434800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1082200</v>
+        <v>1132000</v>
       </c>
       <c r="E83" s="3">
-        <v>1107900</v>
+        <v>1089600</v>
       </c>
       <c r="F83" s="3">
-        <v>1259200</v>
+        <v>1115600</v>
       </c>
       <c r="G83" s="3">
-        <v>1141400</v>
+        <v>1267900</v>
       </c>
       <c r="H83" s="3">
-        <v>1093900</v>
+        <v>1149300</v>
       </c>
       <c r="I83" s="3">
-        <v>1219400</v>
+        <v>1101400</v>
       </c>
       <c r="J83" s="3">
+        <v>1227800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1208500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1182200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1036500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>972300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1010700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>949100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>956000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>946300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1046400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>945900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>997900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>959500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2292200</v>
+        <v>3367900</v>
       </c>
       <c r="E89" s="3">
-        <v>1977200</v>
+        <v>2308000</v>
       </c>
       <c r="F89" s="3">
-        <v>990200</v>
+        <v>1990900</v>
       </c>
       <c r="G89" s="3">
-        <v>1613900</v>
+        <v>997000</v>
       </c>
       <c r="H89" s="3">
-        <v>-273700</v>
+        <v>1625100</v>
       </c>
       <c r="I89" s="3">
-        <v>1344900</v>
+        <v>-275600</v>
       </c>
       <c r="J89" s="3">
+        <v>1354200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1913300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2087500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2268800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>766700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1063200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2646600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1967000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1858600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1070200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1876900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1213800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1283700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>964100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>2300</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
-        <v>1427600</v>
-      </c>
       <c r="G91" s="3">
-        <v>-1425200</v>
+        <v>1437400</v>
       </c>
       <c r="H91" s="3">
+        <v>-1435100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>72300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-215800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-618400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-493200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-560600</v>
+        <v>-566000</v>
       </c>
       <c r="E94" s="3">
-        <v>-505200</v>
+        <v>-564500</v>
       </c>
       <c r="F94" s="3">
-        <v>-486500</v>
+        <v>-508700</v>
       </c>
       <c r="G94" s="3">
-        <v>-501300</v>
+        <v>-489900</v>
       </c>
       <c r="H94" s="3">
-        <v>-540300</v>
+        <v>-504800</v>
       </c>
       <c r="I94" s="3">
-        <v>-669700</v>
+        <v>-544000</v>
       </c>
       <c r="J94" s="3">
+        <v>-674400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-665800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-752800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-792100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-793100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-919300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-856700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-799300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-863500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-411000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-434300</v>
+        <v>-438100</v>
       </c>
       <c r="E96" s="3">
-        <v>-392200</v>
+        <v>-437300</v>
       </c>
       <c r="F96" s="3">
-        <v>-391400</v>
+        <v>-394900</v>
       </c>
       <c r="G96" s="3">
-        <v>-391400</v>
+        <v>-394100</v>
       </c>
       <c r="H96" s="3">
-        <v>-391400</v>
+        <v>-394100</v>
       </c>
       <c r="I96" s="3">
+        <v>-394100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-348600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-346200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-346200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-370600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-356100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-310200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-309000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-297200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-309400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-252900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-249300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-248600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-227700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-212800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-195100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1730100</v>
+        <v>-1245900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1486100</v>
+        <v>-1742000</v>
       </c>
       <c r="F100" s="3">
-        <v>-496600</v>
+        <v>-1496300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1157800</v>
+        <v>-500100</v>
       </c>
       <c r="H100" s="3">
-        <v>160600</v>
+        <v>-1165800</v>
       </c>
       <c r="I100" s="3">
-        <v>51500</v>
+        <v>161700</v>
       </c>
       <c r="J100" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1515500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-418600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-816800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-401100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-223300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5465500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-418700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-554700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>569900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F102" s="3">
-        <v>7000</v>
+        <v>-14100</v>
       </c>
       <c r="G102" s="3">
-        <v>-45200</v>
+        <v>7100</v>
       </c>
       <c r="H102" s="3">
-        <v>-653400</v>
+        <v>-45500</v>
       </c>
       <c r="I102" s="3">
-        <v>726700</v>
+        <v>-657900</v>
       </c>
       <c r="J102" s="3">
+        <v>731700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-28800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-184000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>244300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-148400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>82800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-130200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>195000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6053500</v>
+        <v>6051100</v>
       </c>
       <c r="E8" s="3">
-        <v>5122500</v>
+        <v>5120400</v>
       </c>
       <c r="F8" s="3">
-        <v>5187600</v>
+        <v>5185600</v>
       </c>
       <c r="G8" s="3">
-        <v>3939400</v>
+        <v>3937800</v>
       </c>
       <c r="H8" s="3">
-        <v>3535900</v>
+        <v>3534500</v>
       </c>
       <c r="I8" s="3">
-        <v>2253900</v>
+        <v>2253000</v>
       </c>
       <c r="J8" s="3">
-        <v>3532700</v>
+        <v>3531300</v>
       </c>
       <c r="K8" s="3">
         <v>4600800</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2573400</v>
+        <v>2572400</v>
       </c>
       <c r="E9" s="3">
-        <v>2555300</v>
+        <v>2554300</v>
       </c>
       <c r="F9" s="3">
-        <v>2582000</v>
+        <v>2581000</v>
       </c>
       <c r="G9" s="3">
-        <v>2315100</v>
+        <v>2314200</v>
       </c>
       <c r="H9" s="3">
-        <v>1998000</v>
+        <v>1997200</v>
       </c>
       <c r="I9" s="3">
-        <v>1702000</v>
+        <v>1701300</v>
       </c>
       <c r="J9" s="3">
-        <v>2446200</v>
+        <v>2445200</v>
       </c>
       <c r="K9" s="3">
         <v>2388900</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3480100</v>
+        <v>3478800</v>
       </c>
       <c r="E10" s="3">
-        <v>2567100</v>
+        <v>2566100</v>
       </c>
       <c r="F10" s="3">
-        <v>2605600</v>
+        <v>2604600</v>
       </c>
       <c r="G10" s="3">
-        <v>1624300</v>
+        <v>1623600</v>
       </c>
       <c r="H10" s="3">
-        <v>1537900</v>
+        <v>1537300</v>
       </c>
       <c r="I10" s="3">
-        <v>551900</v>
+        <v>551700</v>
       </c>
       <c r="J10" s="3">
-        <v>1086500</v>
+        <v>1086100</v>
       </c>
       <c r="K10" s="3">
         <v>2211900</v>
@@ -1133,16 +1133,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-375300</v>
+        <v>-375100</v>
       </c>
       <c r="E14" s="3">
-        <v>-314000</v>
+        <v>-313900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-170400</v>
+        <v>-170300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1132000</v>
+        <v>1131600</v>
       </c>
       <c r="E15" s="3">
-        <v>1089600</v>
+        <v>1089200</v>
       </c>
       <c r="F15" s="3">
-        <v>1115600</v>
+        <v>1115100</v>
       </c>
       <c r="G15" s="3">
-        <v>1267900</v>
+        <v>1267400</v>
       </c>
       <c r="H15" s="3">
-        <v>1149300</v>
+        <v>1148900</v>
       </c>
       <c r="I15" s="3">
-        <v>1101400</v>
+        <v>1101000</v>
       </c>
       <c r="J15" s="3">
-        <v>1227800</v>
+        <v>1227300</v>
       </c>
       <c r="K15" s="3">
         <v>1208500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3480100</v>
+        <v>3478800</v>
       </c>
       <c r="E17" s="3">
-        <v>3542900</v>
+        <v>3541500</v>
       </c>
       <c r="F17" s="3">
-        <v>3909500</v>
+        <v>3908000</v>
       </c>
       <c r="G17" s="3">
-        <v>3633200</v>
+        <v>3631800</v>
       </c>
       <c r="H17" s="3">
-        <v>3252500</v>
+        <v>3251200</v>
       </c>
       <c r="I17" s="3">
-        <v>2930600</v>
+        <v>2929400</v>
       </c>
       <c r="J17" s="3">
-        <v>3624600</v>
+        <v>3623100</v>
       </c>
       <c r="K17" s="3">
         <v>3836000</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2573400</v>
+        <v>2572400</v>
       </c>
       <c r="E18" s="3">
-        <v>1579500</v>
+        <v>1578900</v>
       </c>
       <c r="F18" s="3">
-        <v>1278100</v>
+        <v>1277600</v>
       </c>
       <c r="G18" s="3">
-        <v>306200</v>
+        <v>306000</v>
       </c>
       <c r="H18" s="3">
-        <v>283400</v>
+        <v>283300</v>
       </c>
       <c r="I18" s="3">
-        <v>-676700</v>
+        <v>-676400</v>
       </c>
       <c r="J18" s="3">
-        <v>-91900</v>
+        <v>-91800</v>
       </c>
       <c r="K18" s="3">
         <v>764900</v>
@@ -1457,22 +1457,22 @@
         <v>-228400</v>
       </c>
       <c r="E20" s="3">
-        <v>127200</v>
+        <v>127100</v>
       </c>
       <c r="F20" s="3">
         <v>197800</v>
       </c>
       <c r="G20" s="3">
-        <v>485200</v>
+        <v>485000</v>
       </c>
       <c r="H20" s="3">
-        <v>180600</v>
+        <v>180500</v>
       </c>
       <c r="I20" s="3">
-        <v>355600</v>
+        <v>355500</v>
       </c>
       <c r="J20" s="3">
-        <v>-877700</v>
+        <v>-877300</v>
       </c>
       <c r="K20" s="3">
         <v>104500</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3477000</v>
+        <v>3475600</v>
       </c>
       <c r="E21" s="3">
-        <v>2796300</v>
+        <v>2795200</v>
       </c>
       <c r="F21" s="3">
-        <v>2591500</v>
+        <v>2590400</v>
       </c>
       <c r="G21" s="3">
-        <v>2059200</v>
+        <v>2058400</v>
       </c>
       <c r="H21" s="3">
-        <v>1613300</v>
+        <v>1612600</v>
       </c>
       <c r="I21" s="3">
-        <v>780300</v>
+        <v>780000</v>
       </c>
       <c r="J21" s="3">
-        <v>258300</v>
+        <v>258200</v>
       </c>
       <c r="K21" s="3">
         <v>2077800</v>
@@ -1593,16 +1593,16 @@
         <v>139700</v>
       </c>
       <c r="E22" s="3">
-        <v>139000</v>
+        <v>138900</v>
       </c>
       <c r="F22" s="3">
         <v>145200</v>
       </c>
       <c r="G22" s="3">
-        <v>195500</v>
+        <v>195400</v>
       </c>
       <c r="H22" s="3">
-        <v>136600</v>
+        <v>136500</v>
       </c>
       <c r="I22" s="3">
         <v>156200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2205200</v>
+        <v>2204300</v>
       </c>
       <c r="E23" s="3">
-        <v>1567700</v>
+        <v>1567100</v>
       </c>
       <c r="F23" s="3">
-        <v>1330700</v>
+        <v>1330100</v>
       </c>
       <c r="G23" s="3">
-        <v>595900</v>
+        <v>595600</v>
       </c>
       <c r="H23" s="3">
-        <v>327400</v>
+        <v>327200</v>
       </c>
       <c r="I23" s="3">
-        <v>-477300</v>
+        <v>-477100</v>
       </c>
       <c r="J23" s="3">
-        <v>-1131300</v>
+        <v>-1130800</v>
       </c>
       <c r="K23" s="3">
         <v>640900</v>
@@ -1726,16 +1726,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>476500</v>
+        <v>476300</v>
       </c>
       <c r="E24" s="3">
-        <v>350100</v>
+        <v>350000</v>
       </c>
       <c r="F24" s="3">
-        <v>249600</v>
+        <v>249500</v>
       </c>
       <c r="G24" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
         <v>7100</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1728700</v>
+        <v>1728000</v>
       </c>
       <c r="E26" s="3">
-        <v>1217600</v>
+        <v>1217100</v>
       </c>
       <c r="F26" s="3">
-        <v>1081000</v>
+        <v>1080600</v>
       </c>
       <c r="G26" s="3">
-        <v>588000</v>
+        <v>587800</v>
       </c>
       <c r="H26" s="3">
-        <v>320300</v>
+        <v>320200</v>
       </c>
       <c r="I26" s="3">
-        <v>-243400</v>
+        <v>-243300</v>
       </c>
       <c r="J26" s="3">
-        <v>-1006400</v>
+        <v>-1006000</v>
       </c>
       <c r="K26" s="3">
         <v>465500</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1728700</v>
+        <v>1728000</v>
       </c>
       <c r="E27" s="3">
-        <v>1217600</v>
+        <v>1217100</v>
       </c>
       <c r="F27" s="3">
-        <v>1081000</v>
+        <v>1080600</v>
       </c>
       <c r="G27" s="3">
-        <v>588000</v>
+        <v>587800</v>
       </c>
       <c r="H27" s="3">
-        <v>320300</v>
+        <v>320200</v>
       </c>
       <c r="I27" s="3">
-        <v>-243400</v>
+        <v>-243300</v>
       </c>
       <c r="J27" s="3">
-        <v>-1006400</v>
+        <v>-1006000</v>
       </c>
       <c r="K27" s="3">
         <v>465500</v>
@@ -2273,22 +2273,22 @@
         <v>228400</v>
       </c>
       <c r="E32" s="3">
-        <v>-127200</v>
+        <v>-127100</v>
       </c>
       <c r="F32" s="3">
         <v>-197800</v>
       </c>
       <c r="G32" s="3">
-        <v>-485200</v>
+        <v>-485000</v>
       </c>
       <c r="H32" s="3">
-        <v>-180600</v>
+        <v>-180500</v>
       </c>
       <c r="I32" s="3">
-        <v>-355600</v>
+        <v>-355500</v>
       </c>
       <c r="J32" s="3">
-        <v>877700</v>
+        <v>877300</v>
       </c>
       <c r="K32" s="3">
         <v>-104500</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1728700</v>
+        <v>1728000</v>
       </c>
       <c r="E33" s="3">
-        <v>1217600</v>
+        <v>1217100</v>
       </c>
       <c r="F33" s="3">
-        <v>1081000</v>
+        <v>1080600</v>
       </c>
       <c r="G33" s="3">
-        <v>588000</v>
+        <v>587800</v>
       </c>
       <c r="H33" s="3">
-        <v>320300</v>
+        <v>320200</v>
       </c>
       <c r="I33" s="3">
-        <v>-243400</v>
+        <v>-243300</v>
       </c>
       <c r="J33" s="3">
-        <v>-1006400</v>
+        <v>-1006000</v>
       </c>
       <c r="K33" s="3">
         <v>465500</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1728700</v>
+        <v>1728000</v>
       </c>
       <c r="E35" s="3">
-        <v>1217600</v>
+        <v>1217100</v>
       </c>
       <c r="F35" s="3">
-        <v>1081000</v>
+        <v>1080600</v>
       </c>
       <c r="G35" s="3">
-        <v>588000</v>
+        <v>587800</v>
       </c>
       <c r="H35" s="3">
-        <v>320300</v>
+        <v>320200</v>
       </c>
       <c r="I35" s="3">
-        <v>-243400</v>
+        <v>-243300</v>
       </c>
       <c r="J35" s="3">
-        <v>-1006400</v>
+        <v>-1006000</v>
       </c>
       <c r="K35" s="3">
         <v>465500</v>
@@ -2667,10 +2667,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>701800</v>
+        <v>701600</v>
       </c>
       <c r="E41" s="3">
-        <v>131900</v>
+        <v>131800</v>
       </c>
       <c r="F41" s="3">
         <v>130300</v>
@@ -2679,13 +2679,13 @@
         <v>144400</v>
       </c>
       <c r="H41" s="3">
-        <v>137400</v>
+        <v>137300</v>
       </c>
       <c r="I41" s="3">
-        <v>182900</v>
+        <v>182800</v>
       </c>
       <c r="J41" s="3">
-        <v>840800</v>
+        <v>840500</v>
       </c>
       <c r="K41" s="3">
         <v>108400</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>240200</v>
+        <v>240100</v>
       </c>
       <c r="E42" s="3">
-        <v>368200</v>
+        <v>368000</v>
       </c>
       <c r="F42" s="3">
-        <v>331300</v>
+        <v>331200</v>
       </c>
       <c r="G42" s="3">
-        <v>239400</v>
+        <v>239300</v>
       </c>
       <c r="H42" s="3">
-        <v>213500</v>
+        <v>213400</v>
       </c>
       <c r="I42" s="3">
-        <v>215900</v>
+        <v>215800</v>
       </c>
       <c r="J42" s="3">
-        <v>174300</v>
+        <v>174200</v>
       </c>
       <c r="K42" s="3">
         <v>382000</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2493300</v>
+        <v>2492300</v>
       </c>
       <c r="E43" s="3">
-        <v>2499600</v>
+        <v>2498600</v>
       </c>
       <c r="F43" s="3">
-        <v>2184800</v>
+        <v>2183900</v>
       </c>
       <c r="G43" s="3">
-        <v>1961800</v>
+        <v>1961100</v>
       </c>
       <c r="H43" s="3">
-        <v>1512800</v>
+        <v>1512200</v>
       </c>
       <c r="I43" s="3">
-        <v>1693400</v>
+        <v>1692700</v>
       </c>
       <c r="J43" s="3">
-        <v>1196400</v>
+        <v>1195900</v>
       </c>
       <c r="K43" s="3">
         <v>1932000</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>969500</v>
+        <v>969200</v>
       </c>
       <c r="E44" s="3">
-        <v>953100</v>
+        <v>952700</v>
       </c>
       <c r="F44" s="3">
-        <v>854100</v>
+        <v>853800</v>
       </c>
       <c r="G44" s="3">
-        <v>832200</v>
+        <v>831800</v>
       </c>
       <c r="H44" s="3">
-        <v>850200</v>
+        <v>849900</v>
       </c>
       <c r="I44" s="3">
-        <v>859600</v>
+        <v>859300</v>
       </c>
       <c r="J44" s="3">
-        <v>737900</v>
+        <v>737700</v>
       </c>
       <c r="K44" s="3">
         <v>898200</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>272400</v>
+        <v>272300</v>
       </c>
       <c r="E45" s="3">
-        <v>352500</v>
+        <v>352300</v>
       </c>
       <c r="F45" s="3">
-        <v>309300</v>
+        <v>309200</v>
       </c>
       <c r="G45" s="3">
-        <v>245700</v>
+        <v>245600</v>
       </c>
       <c r="H45" s="3">
-        <v>453800</v>
+        <v>453600</v>
       </c>
       <c r="I45" s="3">
-        <v>241000</v>
+        <v>240900</v>
       </c>
       <c r="J45" s="3">
-        <v>335200</v>
+        <v>335100</v>
       </c>
       <c r="K45" s="3">
         <v>177800</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4677300</v>
+        <v>4675500</v>
       </c>
       <c r="E46" s="3">
-        <v>4305200</v>
+        <v>4303500</v>
       </c>
       <c r="F46" s="3">
-        <v>3809800</v>
+        <v>3808300</v>
       </c>
       <c r="G46" s="3">
-        <v>3423600</v>
+        <v>3422300</v>
       </c>
       <c r="H46" s="3">
-        <v>3167700</v>
+        <v>3166400</v>
       </c>
       <c r="I46" s="3">
-        <v>3192800</v>
+        <v>3191500</v>
       </c>
       <c r="J46" s="3">
-        <v>3284600</v>
+        <v>3283400</v>
       </c>
       <c r="K46" s="3">
         <v>3498400</v>
@@ -3081,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>435700</v>
+        <v>435500</v>
       </c>
       <c r="G47" s="3">
-        <v>435700</v>
+        <v>435500</v>
       </c>
       <c r="H47" s="3">
-        <v>533000</v>
+        <v>532800</v>
       </c>
       <c r="I47" s="3">
-        <v>536200</v>
+        <v>536000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53957300</v>
+        <v>53936000</v>
       </c>
       <c r="E48" s="3">
-        <v>54140200</v>
+        <v>54118800</v>
       </c>
       <c r="F48" s="3">
-        <v>54285400</v>
+        <v>54264000</v>
       </c>
       <c r="G48" s="3">
-        <v>54822400</v>
+        <v>54800700</v>
       </c>
       <c r="H48" s="3">
-        <v>53897600</v>
+        <v>53876300</v>
       </c>
       <c r="I48" s="3">
-        <v>54526400</v>
+        <v>54504900</v>
       </c>
       <c r="J48" s="3">
-        <v>55448100</v>
+        <v>55426200</v>
       </c>
       <c r="K48" s="3">
         <v>56456700</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>472600</v>
+        <v>472400</v>
       </c>
       <c r="E52" s="3">
-        <v>454500</v>
+        <v>454400</v>
       </c>
       <c r="F52" s="3">
-        <v>447500</v>
+        <v>447300</v>
       </c>
       <c r="G52" s="3">
-        <v>413700</v>
+        <v>413600</v>
       </c>
       <c r="H52" s="3">
-        <v>283400</v>
+        <v>283300</v>
       </c>
       <c r="I52" s="3">
-        <v>423100</v>
+        <v>423000</v>
       </c>
       <c r="J52" s="3">
-        <v>993100</v>
+        <v>992700</v>
       </c>
       <c r="K52" s="3">
         <v>445200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59107200</v>
+        <v>59083900</v>
       </c>
       <c r="E54" s="3">
-        <v>58899900</v>
+        <v>58876700</v>
       </c>
       <c r="F54" s="3">
-        <v>58978500</v>
+        <v>58955200</v>
       </c>
       <c r="G54" s="3">
-        <v>59095400</v>
+        <v>59072100</v>
       </c>
       <c r="H54" s="3">
-        <v>57881700</v>
+        <v>57858900</v>
       </c>
       <c r="I54" s="3">
-        <v>58678600</v>
+        <v>58655400</v>
       </c>
       <c r="J54" s="3">
-        <v>59725800</v>
+        <v>59702200</v>
       </c>
       <c r="K54" s="3">
         <v>60908600</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>776400</v>
+        <v>776100</v>
       </c>
       <c r="E57" s="3">
-        <v>614700</v>
+        <v>614500</v>
       </c>
       <c r="F57" s="3">
-        <v>595900</v>
+        <v>595600</v>
       </c>
       <c r="G57" s="3">
-        <v>523600</v>
+        <v>523400</v>
       </c>
       <c r="H57" s="3">
-        <v>647700</v>
+        <v>647400</v>
       </c>
       <c r="I57" s="3">
-        <v>475700</v>
+        <v>475600</v>
       </c>
       <c r="J57" s="3">
-        <v>629600</v>
+        <v>629400</v>
       </c>
       <c r="K57" s="3">
         <v>636200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>931100</v>
+        <v>930700</v>
       </c>
       <c r="E58" s="3">
-        <v>1951600</v>
+        <v>1950900</v>
       </c>
       <c r="F58" s="3">
-        <v>1537100</v>
+        <v>1536500</v>
       </c>
       <c r="G58" s="3">
-        <v>1202700</v>
+        <v>1202200</v>
       </c>
       <c r="H58" s="3">
-        <v>798400</v>
+        <v>798100</v>
       </c>
       <c r="I58" s="3">
-        <v>1605400</v>
+        <v>1604800</v>
       </c>
       <c r="J58" s="3">
-        <v>2374000</v>
+        <v>2373100</v>
       </c>
       <c r="K58" s="3">
         <v>2045900</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3422800</v>
+        <v>3421500</v>
       </c>
       <c r="E59" s="3">
-        <v>2976900</v>
+        <v>2975700</v>
       </c>
       <c r="F59" s="3">
-        <v>2576500</v>
+        <v>2575500</v>
       </c>
       <c r="G59" s="3">
-        <v>2260200</v>
+        <v>2259300</v>
       </c>
       <c r="H59" s="3">
-        <v>1816600</v>
+        <v>1815900</v>
       </c>
       <c r="I59" s="3">
-        <v>1778900</v>
+        <v>1778200</v>
       </c>
       <c r="J59" s="3">
-        <v>1945400</v>
+        <v>1944600</v>
       </c>
       <c r="K59" s="3">
         <v>2492600</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5130300</v>
+        <v>5128300</v>
       </c>
       <c r="E60" s="3">
-        <v>5543200</v>
+        <v>5541000</v>
       </c>
       <c r="F60" s="3">
-        <v>4709500</v>
+        <v>4707700</v>
       </c>
       <c r="G60" s="3">
-        <v>3986500</v>
+        <v>3984900</v>
       </c>
       <c r="H60" s="3">
-        <v>3262700</v>
+        <v>3261400</v>
       </c>
       <c r="I60" s="3">
-        <v>3860100</v>
+        <v>3858600</v>
       </c>
       <c r="J60" s="3">
-        <v>4949000</v>
+        <v>4947000</v>
       </c>
       <c r="K60" s="3">
         <v>5174700</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13498100</v>
+        <v>13492800</v>
       </c>
       <c r="E61" s="3">
-        <v>13710100</v>
+        <v>13704700</v>
       </c>
       <c r="F61" s="3">
-        <v>15466300</v>
+        <v>15460200</v>
       </c>
       <c r="G61" s="3">
-        <v>16965700</v>
+        <v>16959000</v>
       </c>
       <c r="H61" s="3">
-        <v>17658100</v>
+        <v>17651200</v>
       </c>
       <c r="I61" s="3">
-        <v>17790800</v>
+        <v>17783800</v>
       </c>
       <c r="J61" s="3">
-        <v>16807100</v>
+        <v>16800500</v>
       </c>
       <c r="K61" s="3">
         <v>15905300</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12589100</v>
+        <v>12584100</v>
       </c>
       <c r="E62" s="3">
-        <v>12792400</v>
+        <v>12787300</v>
       </c>
       <c r="F62" s="3">
-        <v>12714700</v>
+        <v>12709600</v>
       </c>
       <c r="G62" s="3">
-        <v>12723300</v>
+        <v>12718300</v>
       </c>
       <c r="H62" s="3">
-        <v>11709000</v>
+        <v>11704400</v>
       </c>
       <c r="I62" s="3">
-        <v>11644600</v>
+        <v>11640000</v>
       </c>
       <c r="J62" s="3">
-        <v>11857400</v>
+        <v>11852700</v>
       </c>
       <c r="K62" s="3">
         <v>12547200</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31217500</v>
+        <v>31205200</v>
       </c>
       <c r="E66" s="3">
-        <v>32045700</v>
+        <v>32033100</v>
       </c>
       <c r="F66" s="3">
-        <v>32890500</v>
+        <v>32877500</v>
       </c>
       <c r="G66" s="3">
-        <v>33675500</v>
+        <v>33662200</v>
       </c>
       <c r="H66" s="3">
-        <v>32629800</v>
+        <v>32616900</v>
       </c>
       <c r="I66" s="3">
-        <v>33295500</v>
+        <v>33282400</v>
       </c>
       <c r="J66" s="3">
-        <v>33613500</v>
+        <v>33600200</v>
       </c>
       <c r="K66" s="3">
         <v>33627200</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20122400</v>
+        <v>20114500</v>
       </c>
       <c r="E72" s="3">
-        <v>19147400</v>
+        <v>19139800</v>
       </c>
       <c r="F72" s="3">
-        <v>18501300</v>
+        <v>18494000</v>
       </c>
       <c r="G72" s="3">
-        <v>17872400</v>
+        <v>17865400</v>
       </c>
       <c r="H72" s="3">
-        <v>17679300</v>
+        <v>17672300</v>
       </c>
       <c r="I72" s="3">
-        <v>17753100</v>
+        <v>17746100</v>
       </c>
       <c r="J72" s="3">
-        <v>18389800</v>
+        <v>18382500</v>
       </c>
       <c r="K72" s="3">
         <v>19822300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27889700</v>
+        <v>27878700</v>
       </c>
       <c r="E76" s="3">
-        <v>26854200</v>
+        <v>26843600</v>
       </c>
       <c r="F76" s="3">
-        <v>26088000</v>
+        <v>26077700</v>
       </c>
       <c r="G76" s="3">
-        <v>25419900</v>
+        <v>25409900</v>
       </c>
       <c r="H76" s="3">
-        <v>25251900</v>
+        <v>25241900</v>
       </c>
       <c r="I76" s="3">
-        <v>25383000</v>
+        <v>25373000</v>
       </c>
       <c r="J76" s="3">
-        <v>26112300</v>
+        <v>26102000</v>
       </c>
       <c r="K76" s="3">
         <v>27281400</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1728700</v>
+        <v>1728000</v>
       </c>
       <c r="E81" s="3">
-        <v>1217600</v>
+        <v>1217100</v>
       </c>
       <c r="F81" s="3">
-        <v>1081000</v>
+        <v>1080600</v>
       </c>
       <c r="G81" s="3">
-        <v>588000</v>
+        <v>587800</v>
       </c>
       <c r="H81" s="3">
-        <v>320300</v>
+        <v>320200</v>
       </c>
       <c r="I81" s="3">
-        <v>-243400</v>
+        <v>-243300</v>
       </c>
       <c r="J81" s="3">
-        <v>-1006400</v>
+        <v>-1006000</v>
       </c>
       <c r="K81" s="3">
         <v>465500</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1132000</v>
+        <v>1131600</v>
       </c>
       <c r="E83" s="3">
-        <v>1089600</v>
+        <v>1089200</v>
       </c>
       <c r="F83" s="3">
-        <v>1115600</v>
+        <v>1115100</v>
       </c>
       <c r="G83" s="3">
-        <v>1267900</v>
+        <v>1267400</v>
       </c>
       <c r="H83" s="3">
-        <v>1149300</v>
+        <v>1148900</v>
       </c>
       <c r="I83" s="3">
-        <v>1101400</v>
+        <v>1101000</v>
       </c>
       <c r="J83" s="3">
-        <v>1227800</v>
+        <v>1227300</v>
       </c>
       <c r="K83" s="3">
         <v>1208500</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3367900</v>
+        <v>3366500</v>
       </c>
       <c r="E89" s="3">
-        <v>2308000</v>
+        <v>2307100</v>
       </c>
       <c r="F89" s="3">
-        <v>1990900</v>
+        <v>1990100</v>
       </c>
       <c r="G89" s="3">
-        <v>997000</v>
+        <v>996600</v>
       </c>
       <c r="H89" s="3">
-        <v>1625100</v>
+        <v>1624400</v>
       </c>
       <c r="I89" s="3">
-        <v>-275600</v>
+        <v>-275400</v>
       </c>
       <c r="J89" s="3">
-        <v>1354200</v>
+        <v>1353700</v>
       </c>
       <c r="K89" s="3">
         <v>1913300</v>
@@ -5735,10 +5735,10 @@
         <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>1437400</v>
+        <v>1436900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1435100</v>
+        <v>-1434500</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-566000</v>
+        <v>-565800</v>
       </c>
       <c r="E94" s="3">
-        <v>-564500</v>
+        <v>-564200</v>
       </c>
       <c r="F94" s="3">
-        <v>-508700</v>
+        <v>-508500</v>
       </c>
       <c r="G94" s="3">
-        <v>-489900</v>
+        <v>-489700</v>
       </c>
       <c r="H94" s="3">
-        <v>-504800</v>
+        <v>-504600</v>
       </c>
       <c r="I94" s="3">
-        <v>-544000</v>
+        <v>-543800</v>
       </c>
       <c r="J94" s="3">
-        <v>-674400</v>
+        <v>-674100</v>
       </c>
       <c r="K94" s="3">
         <v>-665800</v>
@@ -6024,25 +6024,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-438100</v>
+        <v>-437900</v>
       </c>
       <c r="E96" s="3">
-        <v>-437300</v>
+        <v>-437100</v>
       </c>
       <c r="F96" s="3">
-        <v>-394900</v>
+        <v>-394700</v>
       </c>
       <c r="G96" s="3">
-        <v>-394100</v>
+        <v>-393900</v>
       </c>
       <c r="H96" s="3">
-        <v>-394100</v>
+        <v>-393900</v>
       </c>
       <c r="I96" s="3">
-        <v>-394100</v>
+        <v>-393900</v>
       </c>
       <c r="J96" s="3">
-        <v>-348600</v>
+        <v>-348400</v>
       </c>
       <c r="K96" s="3">
         <v>-346200</v>
@@ -6296,19 +6296,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1245900</v>
+        <v>-2231000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1742000</v>
+        <v>-1741300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1496300</v>
+        <v>-1495700</v>
       </c>
       <c r="G100" s="3">
-        <v>-500100</v>
+        <v>-499900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1165800</v>
+        <v>-1165300</v>
       </c>
       <c r="I100" s="3">
         <v>161700</v>
@@ -6432,7 +6432,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>569900</v>
+        <v>569700</v>
       </c>
       <c r="E102" s="3">
         <v>1600</v>
@@ -6447,10 +6447,10 @@
         <v>-45500</v>
       </c>
       <c r="I102" s="3">
-        <v>-657900</v>
+        <v>-657600</v>
       </c>
       <c r="J102" s="3">
-        <v>731700</v>
+        <v>731400</v>
       </c>
       <c r="K102" s="3">
         <v>-28800</v>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6051100</v>
+        <v>8185400</v>
       </c>
       <c r="E8" s="3">
-        <v>5120400</v>
+        <v>7063100</v>
       </c>
       <c r="F8" s="3">
-        <v>5185600</v>
+        <v>5911600</v>
       </c>
       <c r="G8" s="3">
-        <v>3937800</v>
+        <v>5002300</v>
       </c>
       <c r="H8" s="3">
-        <v>3534500</v>
+        <v>5066000</v>
       </c>
       <c r="I8" s="3">
+        <v>3847000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3452900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2253000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3531300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4600800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5106900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4410800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4040000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2817600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4286700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4480600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4120800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3872100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3323600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2910600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2797900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2656500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2572400</v>
+        <v>3446000</v>
       </c>
       <c r="E9" s="3">
-        <v>2554300</v>
+        <v>3016000</v>
       </c>
       <c r="F9" s="3">
-        <v>2581000</v>
+        <v>2513000</v>
       </c>
       <c r="G9" s="3">
-        <v>2314200</v>
+        <v>2495400</v>
       </c>
       <c r="H9" s="3">
-        <v>1997200</v>
+        <v>2521500</v>
       </c>
       <c r="I9" s="3">
+        <v>2260800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1951100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1701300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2445200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2388900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2332900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2005500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1977700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1895900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2080700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2094300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2102400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1830800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1529400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1339800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1267600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3478800</v>
+        <v>4739400</v>
       </c>
       <c r="E10" s="3">
-        <v>2566100</v>
+        <v>4047100</v>
       </c>
       <c r="F10" s="3">
-        <v>2604600</v>
+        <v>3398500</v>
       </c>
       <c r="G10" s="3">
-        <v>1623600</v>
+        <v>2506900</v>
       </c>
       <c r="H10" s="3">
-        <v>1537300</v>
+        <v>2544500</v>
       </c>
       <c r="I10" s="3">
+        <v>1586200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1501800</v>
+      </c>
+      <c r="K10" s="3">
         <v>551700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1086100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2211900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2774000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2405200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2062300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>921700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2385700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2399900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2026500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1769700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1492900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1381300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1458100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1389000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,28 +1160,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-375100</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-313900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-366500</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-170300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>-166400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1159,11 +1198,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,76 +1234,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1131600</v>
+        <v>1078700</v>
       </c>
       <c r="E15" s="3">
-        <v>1089200</v>
+        <v>1129300</v>
       </c>
       <c r="F15" s="3">
-        <v>1115100</v>
+        <v>1105500</v>
       </c>
       <c r="G15" s="3">
-        <v>1267400</v>
+        <v>1064100</v>
       </c>
       <c r="H15" s="3">
-        <v>1148900</v>
+        <v>1089400</v>
       </c>
       <c r="I15" s="3">
+        <v>1238100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1101000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1227300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1208500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1182200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1036500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>972300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1010700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>949100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>956000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>946300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1046400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>945900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>900500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>997900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>959500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3478800</v>
+        <v>5068300</v>
       </c>
       <c r="E17" s="3">
-        <v>3541500</v>
+        <v>4401300</v>
       </c>
       <c r="F17" s="3">
-        <v>3908000</v>
+        <v>3398500</v>
       </c>
       <c r="G17" s="3">
-        <v>3631800</v>
+        <v>3766500</v>
       </c>
       <c r="H17" s="3">
-        <v>3251200</v>
+        <v>3817900</v>
       </c>
       <c r="I17" s="3">
+        <v>3548000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3176200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2929400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3623100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3836000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3641200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3139600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3085400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2898200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2878400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3261100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3069900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3316900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2948600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2437300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2453000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2352300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2572400</v>
+        <v>3117200</v>
       </c>
       <c r="E18" s="3">
-        <v>1578900</v>
+        <v>2661800</v>
       </c>
       <c r="F18" s="3">
-        <v>1277600</v>
+        <v>2513000</v>
       </c>
       <c r="G18" s="3">
-        <v>306000</v>
+        <v>1235800</v>
       </c>
       <c r="H18" s="3">
-        <v>283300</v>
+        <v>1248100</v>
       </c>
       <c r="I18" s="3">
+        <v>299000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-676400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-91800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>764900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1465800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1271200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>954600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-80700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1408300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1219500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1050900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>555200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>375100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>473300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>344900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>304200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-228400</v>
+        <v>133400</v>
       </c>
       <c r="E20" s="3">
-        <v>127100</v>
+        <v>108100</v>
       </c>
       <c r="F20" s="3">
-        <v>197800</v>
+        <v>-223100</v>
       </c>
       <c r="G20" s="3">
-        <v>485000</v>
+        <v>430900</v>
       </c>
       <c r="H20" s="3">
-        <v>180500</v>
+        <v>193200</v>
       </c>
       <c r="I20" s="3">
+        <v>473800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K20" s="3">
         <v>355500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-877300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>104500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-143400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>114200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>131600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-422400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>281200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-21100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-249900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>90800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>343100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>494200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>14600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>57600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3475600</v>
+        <v>4329200</v>
       </c>
       <c r="E21" s="3">
-        <v>2795200</v>
+        <v>3899100</v>
       </c>
       <c r="F21" s="3">
-        <v>2590400</v>
+        <v>3395400</v>
       </c>
       <c r="G21" s="3">
-        <v>2058400</v>
+        <v>2730800</v>
       </c>
       <c r="H21" s="3">
-        <v>1612600</v>
+        <v>2530700</v>
       </c>
       <c r="I21" s="3">
+        <v>2010900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1575400</v>
+      </c>
+      <c r="K21" s="3">
         <v>780000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>258200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2077800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2504600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2421900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2058500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>507600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2638600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2154500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1747200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1692300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1664100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1868000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1357500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1321400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139700</v>
+        <v>125000</v>
       </c>
       <c r="E22" s="3">
-        <v>138900</v>
+        <v>155600</v>
       </c>
       <c r="F22" s="3">
-        <v>145200</v>
+        <v>136500</v>
       </c>
       <c r="G22" s="3">
-        <v>195400</v>
+        <v>135700</v>
       </c>
       <c r="H22" s="3">
-        <v>136500</v>
+        <v>141800</v>
       </c>
       <c r="I22" s="3">
+        <v>190900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>133400</v>
+      </c>
+      <c r="K22" s="3">
         <v>156200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>161700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>228400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>191500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>156200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>147000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>181100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>130800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>143000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>143000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>198000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>136200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>107900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>102900</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2204300</v>
+        <v>3125600</v>
       </c>
       <c r="E23" s="3">
-        <v>1567100</v>
+        <v>2614200</v>
       </c>
       <c r="F23" s="3">
-        <v>1330100</v>
+        <v>2153500</v>
       </c>
       <c r="G23" s="3">
-        <v>595600</v>
+        <v>1531000</v>
       </c>
       <c r="H23" s="3">
-        <v>327200</v>
+        <v>1299500</v>
       </c>
       <c r="I23" s="3">
+        <v>581900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-477100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>640900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1130800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1229200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>939200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-684200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1558800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1055400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>657900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>448000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>582000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>859600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>256600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>361800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>476300</v>
+        <v>748200</v>
       </c>
       <c r="E24" s="3">
-        <v>350000</v>
+        <v>671600</v>
       </c>
       <c r="F24" s="3">
-        <v>249500</v>
+        <v>465400</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>341900</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>243800</v>
       </c>
       <c r="I24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-233900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-124800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>175400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>279400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>199400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-93600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>249300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>316200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>219100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>153300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>72900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>61800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>68400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-73000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1728000</v>
+        <v>2377400</v>
       </c>
       <c r="E26" s="3">
-        <v>1217100</v>
+        <v>1942700</v>
       </c>
       <c r="F26" s="3">
-        <v>1080600</v>
+        <v>1688100</v>
       </c>
       <c r="G26" s="3">
-        <v>587800</v>
+        <v>1189100</v>
       </c>
       <c r="H26" s="3">
-        <v>320200</v>
+        <v>1055700</v>
       </c>
       <c r="I26" s="3">
+        <v>574200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-243300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>465500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>851400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2245000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>739800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-590600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1309500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>739200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>438900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>294700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>509000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>797800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>188200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>434800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1728000</v>
+        <v>2377400</v>
       </c>
       <c r="E27" s="3">
-        <v>1217100</v>
+        <v>1942700</v>
       </c>
       <c r="F27" s="3">
-        <v>1080600</v>
+        <v>1688100</v>
       </c>
       <c r="G27" s="3">
-        <v>587800</v>
+        <v>1189100</v>
       </c>
       <c r="H27" s="3">
-        <v>320200</v>
+        <v>1055700</v>
       </c>
       <c r="I27" s="3">
+        <v>574200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-243300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>465500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>851400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2245000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>739800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-590600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1309500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>739200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>438900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>294700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>509000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>797800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>188200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>434800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>228400</v>
+        <v>-133400</v>
       </c>
       <c r="E32" s="3">
-        <v>-127100</v>
+        <v>-108100</v>
       </c>
       <c r="F32" s="3">
-        <v>-197800</v>
+        <v>223100</v>
       </c>
       <c r="G32" s="3">
-        <v>-485000</v>
+        <v>-430900</v>
       </c>
       <c r="H32" s="3">
-        <v>-180500</v>
+        <v>-193200</v>
       </c>
       <c r="I32" s="3">
+        <v>-473800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-355500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>877300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-104500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>143400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-114200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-131600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>422400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-281200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>21100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>249900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-90800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-343100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-494200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-14600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-57600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1728000</v>
+        <v>2377400</v>
       </c>
       <c r="E33" s="3">
-        <v>1217100</v>
+        <v>1942700</v>
       </c>
       <c r="F33" s="3">
-        <v>1080600</v>
+        <v>1688100</v>
       </c>
       <c r="G33" s="3">
-        <v>587800</v>
+        <v>1189100</v>
       </c>
       <c r="H33" s="3">
-        <v>320200</v>
+        <v>1055700</v>
       </c>
       <c r="I33" s="3">
+        <v>574200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-243300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>465500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>851400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2245000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>739800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-590600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1309500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>739200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>438900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>294700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>509000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>797800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>188200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>434800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1728000</v>
+        <v>2377400</v>
       </c>
       <c r="E35" s="3">
-        <v>1217100</v>
+        <v>1942700</v>
       </c>
       <c r="F35" s="3">
-        <v>1080600</v>
+        <v>1688100</v>
       </c>
       <c r="G35" s="3">
-        <v>587800</v>
+        <v>1189100</v>
       </c>
       <c r="H35" s="3">
-        <v>320200</v>
+        <v>1055700</v>
       </c>
       <c r="I35" s="3">
+        <v>574200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-243300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>465500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>851400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2245000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>739800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-590600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1309500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>739200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>438900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>294700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>509000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>797800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>188200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>434800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,552 +2832,602 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>701600</v>
+        <v>95800</v>
       </c>
       <c r="E41" s="3">
-        <v>131800</v>
+        <v>570400</v>
       </c>
       <c r="F41" s="3">
-        <v>130300</v>
+        <v>685400</v>
       </c>
       <c r="G41" s="3">
-        <v>144400</v>
+        <v>128800</v>
       </c>
       <c r="H41" s="3">
-        <v>137300</v>
+        <v>127300</v>
       </c>
       <c r="I41" s="3">
+        <v>141100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K41" s="3">
         <v>182800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>840500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>108400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>145900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>315600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>69300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>76900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>215100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>137000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>114400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>102000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>232200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>37200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>14600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>13100</v>
       </c>
       <c r="X41" s="3">
         <v>14600</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>240100</v>
+        <v>300500</v>
       </c>
       <c r="E42" s="3">
-        <v>368000</v>
+        <v>236900</v>
       </c>
       <c r="F42" s="3">
-        <v>331200</v>
+        <v>234600</v>
       </c>
       <c r="G42" s="3">
-        <v>239300</v>
+        <v>359600</v>
       </c>
       <c r="H42" s="3">
-        <v>213400</v>
+        <v>323500</v>
       </c>
       <c r="I42" s="3">
+        <v>233800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K42" s="3">
         <v>215800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>174200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>382000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>470100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>433800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>422600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>398800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>478200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>560800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>587900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>664600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>660900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>619200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>626100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>701400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2492300</v>
+        <v>3608600</v>
       </c>
       <c r="E43" s="3">
-        <v>2498600</v>
+        <v>2385000</v>
       </c>
       <c r="F43" s="3">
-        <v>2183900</v>
+        <v>2434800</v>
       </c>
       <c r="G43" s="3">
-        <v>1961100</v>
+        <v>2441000</v>
       </c>
       <c r="H43" s="3">
-        <v>1512200</v>
+        <v>2133600</v>
       </c>
       <c r="I43" s="3">
+        <v>1915800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1692700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1195900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1932000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1993900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1684400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1760600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>873700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1436700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1965500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1656100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2023500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1239100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1637300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1637100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1755400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>969200</v>
+        <v>1300200</v>
       </c>
       <c r="E44" s="3">
-        <v>952700</v>
+        <v>1186800</v>
       </c>
       <c r="F44" s="3">
-        <v>853800</v>
+        <v>946800</v>
       </c>
       <c r="G44" s="3">
-        <v>831800</v>
+        <v>930700</v>
       </c>
       <c r="H44" s="3">
-        <v>849900</v>
+        <v>834100</v>
       </c>
       <c r="I44" s="3">
+        <v>812600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>830300</v>
+      </c>
+      <c r="K44" s="3">
         <v>859300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>737700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>898200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>954200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>942900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>825200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>726800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>812400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>783700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>744500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>665300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>652700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>691400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>505500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>529300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>272300</v>
+        <v>226900</v>
       </c>
       <c r="E45" s="3">
-        <v>352300</v>
+        <v>176300</v>
       </c>
       <c r="F45" s="3">
-        <v>309200</v>
+        <v>266000</v>
       </c>
       <c r="G45" s="3">
-        <v>245600</v>
+        <v>344200</v>
       </c>
       <c r="H45" s="3">
-        <v>453600</v>
+        <v>302100</v>
       </c>
       <c r="I45" s="3">
+        <v>240000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>443100</v>
+      </c>
+      <c r="K45" s="3">
         <v>240900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>335100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>177800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>314200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>306900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>204000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>222200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>258700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>297400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>198700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>189000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>282100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>266400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>398700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>331900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4675500</v>
+        <v>5532100</v>
       </c>
       <c r="E46" s="3">
-        <v>4303500</v>
+        <v>4555400</v>
       </c>
       <c r="F46" s="3">
-        <v>3808300</v>
+        <v>4567600</v>
       </c>
       <c r="G46" s="3">
-        <v>3422300</v>
+        <v>4204300</v>
       </c>
       <c r="H46" s="3">
-        <v>3166400</v>
+        <v>3720500</v>
       </c>
       <c r="I46" s="3">
+        <v>3343300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3191500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3283400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3498400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3878300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3683600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3281700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2298500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3201100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3744400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3301700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3644400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3066900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3251500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3182000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3331000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>435500</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>435500</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>532800</v>
+        <v>425500</v>
       </c>
       <c r="I47" s="3">
+        <v>425500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K47" s="3">
         <v>536000</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>508300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>587800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>620100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>641300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>668200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>627900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>641400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>627800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>596900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>557400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>519500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>504700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>496300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53936000</v>
+        <v>53793600</v>
       </c>
       <c r="E48" s="3">
-        <v>54118800</v>
+        <v>53785900</v>
       </c>
       <c r="F48" s="3">
-        <v>54264000</v>
+        <v>52691900</v>
       </c>
       <c r="G48" s="3">
-        <v>54800700</v>
+        <v>52870600</v>
       </c>
       <c r="H48" s="3">
-        <v>53876300</v>
+        <v>53012400</v>
       </c>
       <c r="I48" s="3">
+        <v>53536800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>52633700</v>
+      </c>
+      <c r="K48" s="3">
         <v>54504900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>55426200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>56456700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>60141800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>57872200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>52626400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>51142200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>49193300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>50788500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>50896900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>50458900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>50437300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>49826300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>40562500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>40940500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>472400</v>
+        <v>481400</v>
       </c>
       <c r="E52" s="3">
-        <v>454400</v>
+        <v>433200</v>
       </c>
       <c r="F52" s="3">
-        <v>447300</v>
+        <v>461500</v>
       </c>
       <c r="G52" s="3">
-        <v>413600</v>
+        <v>443900</v>
       </c>
       <c r="H52" s="3">
-        <v>283300</v>
+        <v>437000</v>
       </c>
       <c r="I52" s="3">
+        <v>404000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K52" s="3">
         <v>423000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>992700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>445200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>499100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>437000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>392600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>353900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>276100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>290600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>288300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>272400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>256800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>276100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>262000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>287300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59083900</v>
+        <v>59807100</v>
       </c>
       <c r="E54" s="3">
-        <v>58876700</v>
+        <v>58774500</v>
       </c>
       <c r="F54" s="3">
-        <v>58955200</v>
+        <v>57721100</v>
       </c>
       <c r="G54" s="3">
-        <v>59072100</v>
+        <v>57518700</v>
       </c>
       <c r="H54" s="3">
-        <v>57858900</v>
+        <v>57595400</v>
       </c>
       <c r="I54" s="3">
+        <v>57709600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>56524400</v>
+      </c>
+      <c r="K54" s="3">
         <v>58655400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>59702200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>60908600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>65107000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>62612900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>56942000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>54462800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>53298400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>55464800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>55114800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>54972600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>54318400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>53873400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>44511200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>45055200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>776100</v>
+        <v>739000</v>
       </c>
       <c r="E57" s="3">
-        <v>614500</v>
+        <v>615600</v>
       </c>
       <c r="F57" s="3">
-        <v>595600</v>
+        <v>758200</v>
       </c>
       <c r="G57" s="3">
-        <v>523400</v>
+        <v>600300</v>
       </c>
       <c r="H57" s="3">
-        <v>647400</v>
+        <v>581900</v>
       </c>
       <c r="I57" s="3">
+        <v>511300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>632500</v>
+      </c>
+      <c r="K57" s="3">
         <v>475600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>629400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>636200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>548800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>732800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>599700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>592900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>732500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>730200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>705400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>576800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>590900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>488200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>415600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>457100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>930700</v>
+        <v>2243200</v>
       </c>
       <c r="E58" s="3">
-        <v>1950900</v>
+        <v>908500</v>
       </c>
       <c r="F58" s="3">
-        <v>1536500</v>
+        <v>909200</v>
       </c>
       <c r="G58" s="3">
-        <v>1202200</v>
+        <v>1905900</v>
       </c>
       <c r="H58" s="3">
-        <v>798100</v>
+        <v>1501100</v>
       </c>
       <c r="I58" s="3">
+        <v>1174500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>779700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1604800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2373100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2045900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3548300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3330700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1445700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>868400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>363300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>621800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>484800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1396900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1395400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1448200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2403800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1392000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3421500</v>
+        <v>4431900</v>
       </c>
       <c r="E59" s="3">
-        <v>2975700</v>
+        <v>4165900</v>
       </c>
       <c r="F59" s="3">
-        <v>2575500</v>
+        <v>3342600</v>
       </c>
       <c r="G59" s="3">
-        <v>2259300</v>
+        <v>2907100</v>
       </c>
       <c r="H59" s="3">
-        <v>1815900</v>
+        <v>2516100</v>
       </c>
       <c r="I59" s="3">
+        <v>2207200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1778200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1944600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2492600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2415000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2201400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2274000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2163000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2387900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2305000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2067900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2685900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2323400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2111300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1827600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2062700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5128300</v>
+        <v>7414200</v>
       </c>
       <c r="E60" s="3">
-        <v>5541000</v>
+        <v>5690000</v>
       </c>
       <c r="F60" s="3">
-        <v>4707700</v>
+        <v>5010000</v>
       </c>
       <c r="G60" s="3">
-        <v>3984900</v>
+        <v>5413200</v>
       </c>
       <c r="H60" s="3">
-        <v>3261400</v>
+        <v>4599100</v>
       </c>
       <c r="I60" s="3">
+        <v>3893000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3186200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3858600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4947000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5174700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6512200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6264900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4319500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3624300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3483800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3657100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3258100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4659500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4309700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4047800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4647000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3911800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13492800</v>
+        <v>9611400</v>
       </c>
       <c r="E61" s="3">
-        <v>13704700</v>
+        <v>11570900</v>
       </c>
       <c r="F61" s="3">
-        <v>15460200</v>
+        <v>13181600</v>
       </c>
       <c r="G61" s="3">
-        <v>16959000</v>
+        <v>13388600</v>
       </c>
       <c r="H61" s="3">
-        <v>17651200</v>
+        <v>15103600</v>
       </c>
       <c r="I61" s="3">
+        <v>16567900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>17244000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17783800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16800500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15905300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16634100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16797700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15936000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>14827600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>13976400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>15485600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>16060000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>15316600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>15662600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>15874000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>10121400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>11518100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12584100</v>
+        <v>13273600</v>
       </c>
       <c r="E62" s="3">
-        <v>12787300</v>
+        <v>13190000</v>
       </c>
       <c r="F62" s="3">
-        <v>12709600</v>
+        <v>12293800</v>
       </c>
       <c r="G62" s="3">
-        <v>12718300</v>
+        <v>12492400</v>
       </c>
       <c r="H62" s="3">
-        <v>11704400</v>
+        <v>12416500</v>
       </c>
       <c r="I62" s="3">
+        <v>12424900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11434400</v>
+      </c>
+      <c r="K62" s="3">
         <v>11640000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11852700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12547200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13114700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>12370300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11846000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11675900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>11571800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>11923400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11687800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>11440000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>11023200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>10891500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9479200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>9446200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31205200</v>
+        <v>30299100</v>
       </c>
       <c r="E66" s="3">
-        <v>32033100</v>
+        <v>30450900</v>
       </c>
       <c r="F66" s="3">
-        <v>32877500</v>
+        <v>30485400</v>
       </c>
       <c r="G66" s="3">
-        <v>33662200</v>
+        <v>31294200</v>
       </c>
       <c r="H66" s="3">
-        <v>32616900</v>
+        <v>32119100</v>
       </c>
       <c r="I66" s="3">
+        <v>32885800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>31864600</v>
+      </c>
+      <c r="K66" s="3">
         <v>33282400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33600200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33627200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>36261000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>35432900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32101500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>30127700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>29032000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>31066100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31005900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>31416100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>30995600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>30813300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>24247600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>24876100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20114500</v>
+        <v>21515000</v>
       </c>
       <c r="E72" s="3">
-        <v>19139800</v>
+        <v>20529100</v>
       </c>
       <c r="F72" s="3">
-        <v>18494000</v>
+        <v>19650500</v>
       </c>
       <c r="G72" s="3">
-        <v>17865400</v>
+        <v>18698300</v>
       </c>
       <c r="H72" s="3">
-        <v>17672300</v>
+        <v>18067400</v>
       </c>
       <c r="I72" s="3">
+        <v>17453300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17264700</v>
+      </c>
+      <c r="K72" s="3">
         <v>17746100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18382500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>19822300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>21042900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>19767600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>17591900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>17146600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>17464500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>17309700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>17152300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>16828100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>16783400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>16523700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>16490100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>16536900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27878700</v>
+        <v>29508000</v>
       </c>
       <c r="E76" s="3">
-        <v>26843600</v>
+        <v>28323500</v>
       </c>
       <c r="F76" s="3">
-        <v>26077700</v>
+        <v>27235700</v>
       </c>
       <c r="G76" s="3">
-        <v>25409900</v>
+        <v>26224500</v>
       </c>
       <c r="H76" s="3">
-        <v>25241900</v>
+        <v>25476200</v>
       </c>
       <c r="I76" s="3">
+        <v>24823800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24659700</v>
+      </c>
+      <c r="K76" s="3">
         <v>25373000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26102000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27281400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28846000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27180000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24840600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>24335100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24266400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>24398700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24108900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23556500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>23322800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>23060100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>20263600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>20179100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1728000</v>
+        <v>2377400</v>
       </c>
       <c r="E81" s="3">
-        <v>1217100</v>
+        <v>1942700</v>
       </c>
       <c r="F81" s="3">
-        <v>1080600</v>
+        <v>1688100</v>
       </c>
       <c r="G81" s="3">
-        <v>587800</v>
+        <v>1189100</v>
       </c>
       <c r="H81" s="3">
-        <v>320200</v>
+        <v>1055700</v>
       </c>
       <c r="I81" s="3">
+        <v>574200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-243300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>465500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>851400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2245000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>739800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-590600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1309500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>739200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>438900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>294700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>509000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>797800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>188200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>434800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1131600</v>
+        <v>1078700</v>
       </c>
       <c r="E83" s="3">
-        <v>1089200</v>
+        <v>1129300</v>
       </c>
       <c r="F83" s="3">
-        <v>1115100</v>
+        <v>1105500</v>
       </c>
       <c r="G83" s="3">
-        <v>1267400</v>
+        <v>1064100</v>
       </c>
       <c r="H83" s="3">
-        <v>1148900</v>
+        <v>1089400</v>
       </c>
       <c r="I83" s="3">
+        <v>1238100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1122400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1101000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1227300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1208500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1182200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1036500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>972300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1010700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>949100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>956000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>946300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1046400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>945900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>900500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>997900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>959500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3366500</v>
+        <v>2187200</v>
       </c>
       <c r="E89" s="3">
-        <v>2307100</v>
+        <v>3612400</v>
       </c>
       <c r="F89" s="3">
-        <v>1990100</v>
+        <v>3288900</v>
       </c>
       <c r="G89" s="3">
-        <v>996600</v>
+        <v>2253900</v>
       </c>
       <c r="H89" s="3">
-        <v>1624400</v>
+        <v>1944200</v>
       </c>
       <c r="I89" s="3">
+        <v>973600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1586900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-275400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1353700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1913300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2087500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2268800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>766700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1063200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2646600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1967000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1858600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1070200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1876900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1213800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1283700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>964100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3100</v>
+        <v>-14600</v>
       </c>
       <c r="E91" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="F91" s="3">
         <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>1436900</v>
+        <v>2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1434500</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
+        <v>1403700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1401400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-29300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>72300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-215800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-42200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-49900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-618400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-493200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-565800</v>
+        <v>-959100</v>
       </c>
       <c r="E94" s="3">
-        <v>-564200</v>
+        <v>-1238100</v>
       </c>
       <c r="F94" s="3">
-        <v>-508500</v>
+        <v>-552700</v>
       </c>
       <c r="G94" s="3">
-        <v>-489700</v>
+        <v>-551200</v>
       </c>
       <c r="H94" s="3">
-        <v>-504600</v>
+        <v>-496800</v>
       </c>
       <c r="I94" s="3">
+        <v>-478400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-492900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-543800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-674100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-665800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-752800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-792100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-793100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-919300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-856700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-799300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-863500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-411000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-437900</v>
+        <v>-528200</v>
       </c>
       <c r="E96" s="3">
-        <v>-437100</v>
+        <v>-423200</v>
       </c>
       <c r="F96" s="3">
-        <v>-394700</v>
+        <v>-427800</v>
       </c>
       <c r="G96" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-385600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-384900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-384900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-393900</v>
       </c>
-      <c r="H96" s="3">
-        <v>-393900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-393900</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-348400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-346200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-370600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-356100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-310200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-309000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-297200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-309400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-252900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-249300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-248600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-227700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-212800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-195100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2231000</v>
+        <v>-1702700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1741300</v>
+        <v>-2489300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1495700</v>
+        <v>-2179600</v>
       </c>
       <c r="G100" s="3">
-        <v>-499900</v>
+        <v>-1701200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1165300</v>
+        <v>-1461200</v>
       </c>
       <c r="I100" s="3">
+        <v>-488300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1138500</v>
+      </c>
+      <c r="K100" s="3">
         <v>161700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>51800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1515500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-418600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-816800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-401100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-223300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>5465500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-418700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-554700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>569700</v>
+        <v>-474600</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
+        <v>-115000</v>
       </c>
       <c r="F102" s="3">
-        <v>-14100</v>
+        <v>556600</v>
       </c>
       <c r="G102" s="3">
-        <v>7100</v>
+        <v>1500</v>
       </c>
       <c r="H102" s="3">
-        <v>-45500</v>
+        <v>-13800</v>
       </c>
       <c r="I102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-657600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>731400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-28800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-184000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>244300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-148400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>82800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>22600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-130200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>195000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>23100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8185400</v>
+        <v>8878800</v>
       </c>
       <c r="E8" s="3">
-        <v>7063100</v>
+        <v>8261300</v>
       </c>
       <c r="F8" s="3">
-        <v>5911600</v>
+        <v>7128600</v>
       </c>
       <c r="G8" s="3">
-        <v>5002300</v>
+        <v>5966400</v>
       </c>
       <c r="H8" s="3">
-        <v>5066000</v>
+        <v>5048700</v>
       </c>
       <c r="I8" s="3">
-        <v>3847000</v>
+        <v>5112900</v>
       </c>
       <c r="J8" s="3">
+        <v>3882700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3452900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2253000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3531300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5106900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4410800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4040000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2817600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4286700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4480600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4120800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3872100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3323600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2910600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2797900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2656500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3446000</v>
+        <v>3844800</v>
       </c>
       <c r="E9" s="3">
-        <v>3016000</v>
+        <v>3478000</v>
       </c>
       <c r="F9" s="3">
-        <v>2513000</v>
+        <v>3043900</v>
       </c>
       <c r="G9" s="3">
-        <v>2495400</v>
+        <v>2536400</v>
       </c>
       <c r="H9" s="3">
-        <v>2521500</v>
+        <v>2518600</v>
       </c>
       <c r="I9" s="3">
-        <v>2260800</v>
+        <v>2544900</v>
       </c>
       <c r="J9" s="3">
+        <v>2281800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1951100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1701300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2445200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2388900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2332900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2005500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1977700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1895900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1901000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2080700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2094300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2102400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1830800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1529400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1339800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1267600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4739400</v>
+        <v>5034000</v>
       </c>
       <c r="E10" s="3">
-        <v>4047100</v>
+        <v>4783300</v>
       </c>
       <c r="F10" s="3">
-        <v>3398500</v>
+        <v>4084600</v>
       </c>
       <c r="G10" s="3">
-        <v>2506900</v>
+        <v>3430000</v>
       </c>
       <c r="H10" s="3">
-        <v>2544500</v>
+        <v>2530200</v>
       </c>
       <c r="I10" s="3">
-        <v>1586200</v>
+        <v>2568100</v>
       </c>
       <c r="J10" s="3">
+        <v>1600900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1501800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>551700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1086100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2211900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2774000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2405200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2062300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>921700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2385700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2399900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2026500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1769700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1492900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1381300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1458100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1389000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-366500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-369900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-166400</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-167900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1078700</v>
+        <v>1054600</v>
       </c>
       <c r="E15" s="3">
-        <v>1129300</v>
+        <v>1088700</v>
       </c>
       <c r="F15" s="3">
-        <v>1105500</v>
+        <v>1139700</v>
       </c>
       <c r="G15" s="3">
-        <v>1064100</v>
+        <v>1115700</v>
       </c>
       <c r="H15" s="3">
-        <v>1089400</v>
+        <v>1074000</v>
       </c>
       <c r="I15" s="3">
-        <v>1238100</v>
+        <v>1099500</v>
       </c>
       <c r="J15" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1122400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1101000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1227300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1208500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1182200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1036500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>972300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1010700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>949100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>956000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>946300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1046400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>945900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>900500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>997900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>959500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5068300</v>
+        <v>4984500</v>
       </c>
       <c r="E17" s="3">
-        <v>4401300</v>
+        <v>5115300</v>
       </c>
       <c r="F17" s="3">
-        <v>3398500</v>
+        <v>4442100</v>
       </c>
       <c r="G17" s="3">
-        <v>3766500</v>
+        <v>3430000</v>
       </c>
       <c r="H17" s="3">
-        <v>3817900</v>
+        <v>3801400</v>
       </c>
       <c r="I17" s="3">
-        <v>3548000</v>
+        <v>3853300</v>
       </c>
       <c r="J17" s="3">
+        <v>3580900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3176200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2929400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3623100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3836000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3641200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3139600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3085400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2898200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2878400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3261100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3069900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3316900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2948600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2437300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2453000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2352300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3117200</v>
+        <v>3894300</v>
       </c>
       <c r="E18" s="3">
-        <v>2661800</v>
+        <v>3146100</v>
       </c>
       <c r="F18" s="3">
-        <v>2513000</v>
+        <v>2686500</v>
       </c>
       <c r="G18" s="3">
-        <v>1235800</v>
+        <v>2536400</v>
       </c>
       <c r="H18" s="3">
-        <v>1248100</v>
+        <v>1247300</v>
       </c>
       <c r="I18" s="3">
-        <v>299000</v>
+        <v>1259700</v>
       </c>
       <c r="J18" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K18" s="3">
         <v>276800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-676400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-91800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>764900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1465800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1271200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>954600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-80700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1408300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1219500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1050900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>555200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>375100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>473300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>344900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>304200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>133400</v>
+        <v>-263800</v>
       </c>
       <c r="E20" s="3">
-        <v>108100</v>
+        <v>134600</v>
       </c>
       <c r="F20" s="3">
-        <v>-223100</v>
+        <v>109100</v>
       </c>
       <c r="G20" s="3">
-        <v>430900</v>
+        <v>-225200</v>
       </c>
       <c r="H20" s="3">
-        <v>193200</v>
+        <v>434800</v>
       </c>
       <c r="I20" s="3">
-        <v>473800</v>
+        <v>195000</v>
       </c>
       <c r="J20" s="3">
+        <v>478200</v>
+      </c>
+      <c r="K20" s="3">
         <v>176300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>355500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-877300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>104500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-143400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>114200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>131600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-422400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>281200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-21100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-249900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>90800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>343100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>494200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>57600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4329200</v>
+        <v>4685100</v>
       </c>
       <c r="E21" s="3">
-        <v>3899100</v>
+        <v>4369400</v>
       </c>
       <c r="F21" s="3">
-        <v>3395400</v>
+        <v>3935300</v>
       </c>
       <c r="G21" s="3">
-        <v>2730800</v>
+        <v>3426900</v>
       </c>
       <c r="H21" s="3">
-        <v>2530700</v>
+        <v>2756100</v>
       </c>
       <c r="I21" s="3">
-        <v>2010900</v>
+        <v>2554100</v>
       </c>
       <c r="J21" s="3">
+        <v>2029500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1575400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>780000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>258200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2077800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2504600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2421900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2058500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2638600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2154500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1747200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1692300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1664100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1868000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1357500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1321400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>125000</v>
+        <v>123800</v>
       </c>
       <c r="E22" s="3">
-        <v>155600</v>
+        <v>126100</v>
       </c>
       <c r="F22" s="3">
-        <v>136500</v>
+        <v>157100</v>
       </c>
       <c r="G22" s="3">
-        <v>135700</v>
+        <v>137700</v>
       </c>
       <c r="H22" s="3">
-        <v>141800</v>
+        <v>137000</v>
       </c>
       <c r="I22" s="3">
-        <v>190900</v>
+        <v>143100</v>
       </c>
       <c r="J22" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K22" s="3">
         <v>133400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>156200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>161700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>228400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>191500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>156200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>147000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>181100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>130800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>143000</v>
       </c>
       <c r="T22" s="3">
         <v>143000</v>
       </c>
       <c r="U22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="V22" s="3">
         <v>198000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>136200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>107900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>102900</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3125600</v>
+        <v>3506600</v>
       </c>
       <c r="E23" s="3">
-        <v>2614200</v>
+        <v>3154600</v>
       </c>
       <c r="F23" s="3">
-        <v>2153500</v>
+        <v>2638500</v>
       </c>
       <c r="G23" s="3">
-        <v>1531000</v>
+        <v>2173500</v>
       </c>
       <c r="H23" s="3">
-        <v>1299500</v>
+        <v>1545200</v>
       </c>
       <c r="I23" s="3">
-        <v>581900</v>
+        <v>1311500</v>
       </c>
       <c r="J23" s="3">
+        <v>587300</v>
+      </c>
+      <c r="K23" s="3">
         <v>319700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-477100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>640900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1130800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1229200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>939200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-684200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1558800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1055400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>657900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>448000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>582000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>859600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>256600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>361800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>748200</v>
+        <v>797000</v>
       </c>
       <c r="E24" s="3">
-        <v>671600</v>
+        <v>755200</v>
       </c>
       <c r="F24" s="3">
-        <v>465400</v>
+        <v>677800</v>
       </c>
       <c r="G24" s="3">
-        <v>341900</v>
+        <v>469700</v>
       </c>
       <c r="H24" s="3">
-        <v>243800</v>
+        <v>345100</v>
       </c>
       <c r="I24" s="3">
+        <v>246100</v>
+      </c>
+      <c r="J24" s="3">
         <v>7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-233900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-124800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>175400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>279400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>199400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-93600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>249300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>316200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>219100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>153300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>72900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>61800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>68400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-73000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2377400</v>
+        <v>2709700</v>
       </c>
       <c r="E26" s="3">
-        <v>1942700</v>
+        <v>2399400</v>
       </c>
       <c r="F26" s="3">
-        <v>1688100</v>
+        <v>1960700</v>
       </c>
       <c r="G26" s="3">
-        <v>1189100</v>
+        <v>1703800</v>
       </c>
       <c r="H26" s="3">
-        <v>1055700</v>
+        <v>1200100</v>
       </c>
       <c r="I26" s="3">
-        <v>574200</v>
+        <v>1065500</v>
       </c>
       <c r="J26" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K26" s="3">
         <v>312800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-243300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>465500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>851400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2245000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>739800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-590600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1309500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>739200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>438900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>294700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>509000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>797800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>188200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>434800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2377400</v>
+        <v>2709700</v>
       </c>
       <c r="E27" s="3">
-        <v>1942700</v>
+        <v>2399400</v>
       </c>
       <c r="F27" s="3">
-        <v>1688100</v>
+        <v>1960700</v>
       </c>
       <c r="G27" s="3">
-        <v>1189100</v>
+        <v>1703800</v>
       </c>
       <c r="H27" s="3">
-        <v>1055700</v>
+        <v>1200100</v>
       </c>
       <c r="I27" s="3">
-        <v>574200</v>
+        <v>1065500</v>
       </c>
       <c r="J27" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K27" s="3">
         <v>312800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-243300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>465500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>851400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2245000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>739800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-590600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1309500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>739200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>438900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>294700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>509000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>797800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>188200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>434800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-133400</v>
+        <v>263800</v>
       </c>
       <c r="E32" s="3">
-        <v>-108100</v>
+        <v>-134600</v>
       </c>
       <c r="F32" s="3">
-        <v>223100</v>
+        <v>-109100</v>
       </c>
       <c r="G32" s="3">
-        <v>-430900</v>
+        <v>225200</v>
       </c>
       <c r="H32" s="3">
-        <v>-193200</v>
+        <v>-434800</v>
       </c>
       <c r="I32" s="3">
-        <v>-473800</v>
+        <v>-195000</v>
       </c>
       <c r="J32" s="3">
+        <v>-478200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-176300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-355500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>877300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-104500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>143400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-114200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-131600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>422400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-281200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>21100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>249900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-90800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-343100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-494200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-57600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2377400</v>
+        <v>2709700</v>
       </c>
       <c r="E33" s="3">
-        <v>1942700</v>
+        <v>2399400</v>
       </c>
       <c r="F33" s="3">
-        <v>1688100</v>
+        <v>1960700</v>
       </c>
       <c r="G33" s="3">
-        <v>1189100</v>
+        <v>1703800</v>
       </c>
       <c r="H33" s="3">
-        <v>1055700</v>
+        <v>1200100</v>
       </c>
       <c r="I33" s="3">
-        <v>574200</v>
+        <v>1065500</v>
       </c>
       <c r="J33" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K33" s="3">
         <v>312800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-243300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>465500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>851400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2245000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>739800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-590600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1309500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>739200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>438900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>294700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>509000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>797800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>188200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>434800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2377400</v>
+        <v>2709700</v>
       </c>
       <c r="E35" s="3">
-        <v>1942700</v>
+        <v>2399400</v>
       </c>
       <c r="F35" s="3">
-        <v>1688100</v>
+        <v>1960700</v>
       </c>
       <c r="G35" s="3">
-        <v>1189100</v>
+        <v>1703800</v>
       </c>
       <c r="H35" s="3">
-        <v>1055700</v>
+        <v>1200100</v>
       </c>
       <c r="I35" s="3">
-        <v>574200</v>
+        <v>1065500</v>
       </c>
       <c r="J35" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K35" s="3">
         <v>312800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-243300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>465500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>851400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2245000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>739800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-590600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1309500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>739200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>438900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>294700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>509000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>797800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>188200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>434800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,460 +2920,479 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95800</v>
+        <v>180300</v>
       </c>
       <c r="E41" s="3">
-        <v>570400</v>
+        <v>96700</v>
       </c>
       <c r="F41" s="3">
-        <v>685400</v>
+        <v>575700</v>
       </c>
       <c r="G41" s="3">
-        <v>128800</v>
+        <v>691700</v>
       </c>
       <c r="H41" s="3">
-        <v>127300</v>
+        <v>130000</v>
       </c>
       <c r="I41" s="3">
-        <v>141100</v>
+        <v>128400</v>
       </c>
       <c r="J41" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K41" s="3">
         <v>134200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>840500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>108400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>145900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>315600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>76900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>215100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>137000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>114400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>102000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>232200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300500</v>
+        <v>284000</v>
       </c>
       <c r="E42" s="3">
-        <v>236900</v>
+        <v>303300</v>
       </c>
       <c r="F42" s="3">
-        <v>234600</v>
+        <v>239100</v>
       </c>
       <c r="G42" s="3">
-        <v>359600</v>
+        <v>236800</v>
       </c>
       <c r="H42" s="3">
-        <v>323500</v>
+        <v>362900</v>
       </c>
       <c r="I42" s="3">
-        <v>233800</v>
+        <v>326500</v>
       </c>
       <c r="J42" s="3">
+        <v>236000</v>
+      </c>
+      <c r="K42" s="3">
         <v>208500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>215800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>174200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>382000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>470100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>433800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>422600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>398800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>478200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>560800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>587900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>664600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>660900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>619200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>626100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>701400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3608600</v>
+        <v>3880400</v>
       </c>
       <c r="E43" s="3">
-        <v>2385000</v>
+        <v>3642000</v>
       </c>
       <c r="F43" s="3">
-        <v>2434800</v>
+        <v>2407100</v>
       </c>
       <c r="G43" s="3">
-        <v>2441000</v>
+        <v>2457400</v>
       </c>
       <c r="H43" s="3">
-        <v>2133600</v>
+        <v>2463600</v>
       </c>
       <c r="I43" s="3">
-        <v>1915800</v>
+        <v>2153300</v>
       </c>
       <c r="J43" s="3">
+        <v>1933600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1477300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1692700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1195900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1932000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1993900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1684400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1760600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>873700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1436700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1965500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1656100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2023500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1239100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1637300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1637100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1755400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300200</v>
+        <v>1483300</v>
       </c>
       <c r="E44" s="3">
-        <v>1186800</v>
+        <v>1312300</v>
       </c>
       <c r="F44" s="3">
-        <v>946800</v>
+        <v>1197800</v>
       </c>
       <c r="G44" s="3">
-        <v>930700</v>
+        <v>955600</v>
       </c>
       <c r="H44" s="3">
-        <v>834100</v>
+        <v>939300</v>
       </c>
       <c r="I44" s="3">
-        <v>812600</v>
+        <v>841800</v>
       </c>
       <c r="J44" s="3">
+        <v>820200</v>
+      </c>
+      <c r="K44" s="3">
         <v>830300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>859300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>737700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>898200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>954200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>942900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>825200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>726800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>812400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>783700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>744500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>665300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>652700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>691400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>505500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>529300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>226900</v>
+        <v>310300</v>
       </c>
       <c r="E45" s="3">
-        <v>176300</v>
+        <v>229000</v>
       </c>
       <c r="F45" s="3">
-        <v>266000</v>
+        <v>178000</v>
       </c>
       <c r="G45" s="3">
-        <v>344200</v>
+        <v>268500</v>
       </c>
       <c r="H45" s="3">
-        <v>302100</v>
+        <v>347400</v>
       </c>
       <c r="I45" s="3">
-        <v>240000</v>
+        <v>304900</v>
       </c>
       <c r="J45" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K45" s="3">
         <v>443100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>240900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>335100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>314200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>306900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>204000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>222200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>258700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>297400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>198700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>189000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>282100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>266400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>398700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>331900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5532100</v>
+        <v>6138200</v>
       </c>
       <c r="E46" s="3">
-        <v>4555400</v>
+        <v>5583400</v>
       </c>
       <c r="F46" s="3">
-        <v>4567600</v>
+        <v>4597600</v>
       </c>
       <c r="G46" s="3">
-        <v>4204300</v>
+        <v>4610000</v>
       </c>
       <c r="H46" s="3">
-        <v>3720500</v>
+        <v>4243200</v>
       </c>
       <c r="I46" s="3">
-        <v>3343300</v>
+        <v>3755000</v>
       </c>
       <c r="J46" s="3">
+        <v>3374300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3093400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3191500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3283400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3498400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3878300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3683600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3281700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2298500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3201100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3744400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3301700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3644400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3066900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3251500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3182000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3331000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3296,138 +3401,144 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>425500</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>425500</v>
+        <v>429400</v>
       </c>
       <c r="J47" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K47" s="3">
         <v>520500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>536000</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>508300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>587800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>620100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>641300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>668200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>627900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>641400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>627800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>596900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>557400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>519500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>504700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>496300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53793600</v>
+        <v>53986100</v>
       </c>
       <c r="E48" s="3">
-        <v>53785900</v>
+        <v>54292500</v>
       </c>
       <c r="F48" s="3">
-        <v>52691900</v>
+        <v>54284800</v>
       </c>
       <c r="G48" s="3">
-        <v>52870600</v>
+        <v>53180600</v>
       </c>
       <c r="H48" s="3">
-        <v>53012400</v>
+        <v>53360900</v>
       </c>
       <c r="I48" s="3">
-        <v>53536800</v>
+        <v>53504000</v>
       </c>
       <c r="J48" s="3">
+        <v>54033300</v>
+      </c>
+      <c r="K48" s="3">
         <v>52633700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54504900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55426200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56456700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60141800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57872200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>52626400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51142200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49193300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>50788500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50896900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50458900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50437300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49826300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>40562500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>40940500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>481400</v>
+        <v>356700</v>
       </c>
       <c r="E52" s="3">
-        <v>433200</v>
+        <v>485900</v>
       </c>
       <c r="F52" s="3">
-        <v>461500</v>
+        <v>437200</v>
       </c>
       <c r="G52" s="3">
-        <v>443900</v>
+        <v>465800</v>
       </c>
       <c r="H52" s="3">
+        <v>448000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>441000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>407800</v>
+      </c>
+      <c r="K52" s="3">
+        <v>276800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>423000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>992700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>445200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>499100</v>
+      </c>
+      <c r="P52" s="3">
         <v>437000</v>
       </c>
-      <c r="I52" s="3">
-        <v>404000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>276800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>423000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>992700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>445200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>499100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>437000</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>392600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>353900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>276100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>290600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>288300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>272400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>256800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>276100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>262000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>287300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59807100</v>
+        <v>60480900</v>
       </c>
       <c r="E54" s="3">
-        <v>58774500</v>
+        <v>60361800</v>
       </c>
       <c r="F54" s="3">
-        <v>57721100</v>
+        <v>59319500</v>
       </c>
       <c r="G54" s="3">
-        <v>57518700</v>
+        <v>58256400</v>
       </c>
       <c r="H54" s="3">
-        <v>57595400</v>
+        <v>58052100</v>
       </c>
       <c r="I54" s="3">
-        <v>57709600</v>
+        <v>58129500</v>
       </c>
       <c r="J54" s="3">
+        <v>58244800</v>
+      </c>
+      <c r="K54" s="3">
         <v>56524400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58655400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59702200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60908600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65107000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>62612900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56942000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54462800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53298400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55464800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55114800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54972600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54318400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53873400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>44511200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>45055200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>739000</v>
+        <v>889800</v>
       </c>
       <c r="E57" s="3">
-        <v>615600</v>
+        <v>745900</v>
       </c>
       <c r="F57" s="3">
-        <v>758200</v>
+        <v>621300</v>
       </c>
       <c r="G57" s="3">
-        <v>600300</v>
+        <v>765200</v>
       </c>
       <c r="H57" s="3">
-        <v>581900</v>
+        <v>605800</v>
       </c>
       <c r="I57" s="3">
-        <v>511300</v>
+        <v>587300</v>
       </c>
       <c r="J57" s="3">
+        <v>516100</v>
+      </c>
+      <c r="K57" s="3">
         <v>632500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>475600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>629400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>636200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>548800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>732800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>599700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>592900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>732500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>730200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>705400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>576800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>590900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>488200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>415600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>457100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2243200</v>
+        <v>1145900</v>
       </c>
       <c r="E58" s="3">
-        <v>908500</v>
+        <v>2264000</v>
       </c>
       <c r="F58" s="3">
-        <v>909200</v>
+        <v>916900</v>
       </c>
       <c r="G58" s="3">
-        <v>1905900</v>
+        <v>917700</v>
       </c>
       <c r="H58" s="3">
-        <v>1501100</v>
+        <v>1923500</v>
       </c>
       <c r="I58" s="3">
-        <v>1174500</v>
+        <v>1515000</v>
       </c>
       <c r="J58" s="3">
+        <v>1185400</v>
+      </c>
+      <c r="K58" s="3">
         <v>779700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1604800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2373100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2045900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3548300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3330700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1445700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>868400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>363300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>621800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>484800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1396900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1395400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1448200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2403800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1392000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4431900</v>
+        <v>5173300</v>
       </c>
       <c r="E59" s="3">
-        <v>4165900</v>
+        <v>4473000</v>
       </c>
       <c r="F59" s="3">
-        <v>3342600</v>
+        <v>4204600</v>
       </c>
       <c r="G59" s="3">
-        <v>2907100</v>
+        <v>3373600</v>
       </c>
       <c r="H59" s="3">
-        <v>2516100</v>
+        <v>2934100</v>
       </c>
       <c r="I59" s="3">
-        <v>2207200</v>
+        <v>2539400</v>
       </c>
       <c r="J59" s="3">
+        <v>2227600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1774000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1778200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1944600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2492600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2415000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2201400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2274000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2163000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2387900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2305000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2067900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2685900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2323400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2111300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1827600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2062700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7414200</v>
+        <v>7209000</v>
       </c>
       <c r="E60" s="3">
-        <v>5690000</v>
+        <v>7482900</v>
       </c>
       <c r="F60" s="3">
-        <v>5010000</v>
+        <v>5742800</v>
       </c>
       <c r="G60" s="3">
-        <v>5413200</v>
+        <v>5056500</v>
       </c>
       <c r="H60" s="3">
-        <v>4599100</v>
+        <v>5463400</v>
       </c>
       <c r="I60" s="3">
-        <v>3893000</v>
+        <v>4641700</v>
       </c>
       <c r="J60" s="3">
+        <v>3929100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3186200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3858600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4947000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5174700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6512200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6264900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4319500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3624300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3483800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3657100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3258100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4659500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4309700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4047800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4647000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3911800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9611400</v>
+        <v>9817300</v>
       </c>
       <c r="E61" s="3">
-        <v>11570900</v>
+        <v>9700500</v>
       </c>
       <c r="F61" s="3">
-        <v>13181600</v>
+        <v>11678200</v>
       </c>
       <c r="G61" s="3">
-        <v>13388600</v>
+        <v>13303900</v>
       </c>
       <c r="H61" s="3">
-        <v>15103600</v>
+        <v>13512800</v>
       </c>
       <c r="I61" s="3">
-        <v>16567900</v>
+        <v>15243600</v>
       </c>
       <c r="J61" s="3">
+        <v>16721500</v>
+      </c>
+      <c r="K61" s="3">
         <v>17244000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17783800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16800500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15905300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16634100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16797700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15936000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14827600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13976400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15485600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16060000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15316600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15662600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15874000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10121400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11518100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13273600</v>
+        <v>13015200</v>
       </c>
       <c r="E62" s="3">
-        <v>13190000</v>
+        <v>13396700</v>
       </c>
       <c r="F62" s="3">
-        <v>12293800</v>
+        <v>13312400</v>
       </c>
       <c r="G62" s="3">
-        <v>12492400</v>
+        <v>12407900</v>
       </c>
       <c r="H62" s="3">
-        <v>12416500</v>
+        <v>12608300</v>
       </c>
       <c r="I62" s="3">
-        <v>12424900</v>
+        <v>12531700</v>
       </c>
       <c r="J62" s="3">
+        <v>12540200</v>
+      </c>
+      <c r="K62" s="3">
         <v>11434400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11640000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11852700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12547200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13114700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12370300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11846000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11675900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11571800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11923400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11687800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11440000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11023200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10891500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9479200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9446200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30299100</v>
+        <v>30041600</v>
       </c>
       <c r="E66" s="3">
-        <v>30450900</v>
+        <v>30580100</v>
       </c>
       <c r="F66" s="3">
-        <v>30485400</v>
+        <v>30733400</v>
       </c>
       <c r="G66" s="3">
-        <v>31294200</v>
+        <v>30768200</v>
       </c>
       <c r="H66" s="3">
-        <v>32119100</v>
+        <v>31584500</v>
       </c>
       <c r="I66" s="3">
-        <v>32885800</v>
+        <v>32417000</v>
       </c>
       <c r="J66" s="3">
+        <v>33190800</v>
+      </c>
+      <c r="K66" s="3">
         <v>31864600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33282400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33600200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33627200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36261000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35432900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32101500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30127700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29032000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31066100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31005900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31416100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30995600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30813300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24247600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24876100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21515000</v>
+        <v>22394600</v>
       </c>
       <c r="E72" s="3">
-        <v>20529100</v>
+        <v>21714500</v>
       </c>
       <c r="F72" s="3">
-        <v>19650500</v>
+        <v>20719500</v>
       </c>
       <c r="G72" s="3">
-        <v>18698300</v>
+        <v>19832800</v>
       </c>
       <c r="H72" s="3">
-        <v>18067400</v>
+        <v>18871800</v>
       </c>
       <c r="I72" s="3">
-        <v>17453300</v>
+        <v>18235000</v>
       </c>
       <c r="J72" s="3">
+        <v>17615200</v>
+      </c>
+      <c r="K72" s="3">
         <v>17264700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17746100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18382500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19822300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21042900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19767600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17591900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17146600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17464500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17309700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17152300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16828100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16783400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16523700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16490100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16536900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29508000</v>
+        <v>30439300</v>
       </c>
       <c r="E76" s="3">
-        <v>28323500</v>
+        <v>29781600</v>
       </c>
       <c r="F76" s="3">
-        <v>27235700</v>
+        <v>28586200</v>
       </c>
       <c r="G76" s="3">
-        <v>26224500</v>
+        <v>27488200</v>
       </c>
       <c r="H76" s="3">
-        <v>25476200</v>
+        <v>26467700</v>
       </c>
       <c r="I76" s="3">
-        <v>24823800</v>
+        <v>25712500</v>
       </c>
       <c r="J76" s="3">
+        <v>25054000</v>
+      </c>
+      <c r="K76" s="3">
         <v>24659700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25373000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26102000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27281400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28846000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27180000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24840600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24335100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24266400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24398700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24108900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23556500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23322800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23060100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20263600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20179100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2377400</v>
+        <v>2709700</v>
       </c>
       <c r="E81" s="3">
-        <v>1942700</v>
+        <v>2399400</v>
       </c>
       <c r="F81" s="3">
-        <v>1688100</v>
+        <v>1960700</v>
       </c>
       <c r="G81" s="3">
-        <v>1189100</v>
+        <v>1703800</v>
       </c>
       <c r="H81" s="3">
-        <v>1055700</v>
+        <v>1200100</v>
       </c>
       <c r="I81" s="3">
-        <v>574200</v>
+        <v>1065500</v>
       </c>
       <c r="J81" s="3">
+        <v>579500</v>
+      </c>
+      <c r="K81" s="3">
         <v>312800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-243300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>465500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>851400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2245000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>739800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-590600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1309500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>739200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>438900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>294700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>509000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>797800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>188200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>434800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1078700</v>
+        <v>1054600</v>
       </c>
       <c r="E83" s="3">
-        <v>1129300</v>
+        <v>1088700</v>
       </c>
       <c r="F83" s="3">
-        <v>1105500</v>
+        <v>1139700</v>
       </c>
       <c r="G83" s="3">
-        <v>1064100</v>
+        <v>1115700</v>
       </c>
       <c r="H83" s="3">
-        <v>1089400</v>
+        <v>1074000</v>
       </c>
       <c r="I83" s="3">
-        <v>1238100</v>
+        <v>1099500</v>
       </c>
       <c r="J83" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1122400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1101000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1227300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1208500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1182200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1036500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>972300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1010700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>949100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>956000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>946300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1046400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>945900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>997900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>959500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2187200</v>
+        <v>4562000</v>
       </c>
       <c r="E89" s="3">
-        <v>3612400</v>
+        <v>2207500</v>
       </c>
       <c r="F89" s="3">
-        <v>3288900</v>
+        <v>3645900</v>
       </c>
       <c r="G89" s="3">
-        <v>2253900</v>
+        <v>3319400</v>
       </c>
       <c r="H89" s="3">
-        <v>1944200</v>
+        <v>2274800</v>
       </c>
       <c r="I89" s="3">
-        <v>973600</v>
+        <v>1962200</v>
       </c>
       <c r="J89" s="3">
+        <v>982700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1586900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-275400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1353700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1913300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2087500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2268800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>766700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1063200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2646600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1967000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1858600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1070200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1876900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1213800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1283700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>964100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14600</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F91" s="3">
         <v>3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
-        <v>1403700</v>
-      </c>
       <c r="J91" s="3">
+        <v>1416700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1401400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>72300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-215800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-49900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-618400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-493200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-959100</v>
+        <v>-1040700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1238100</v>
+        <v>-968000</v>
       </c>
       <c r="F94" s="3">
-        <v>-552700</v>
+        <v>-1249600</v>
       </c>
       <c r="G94" s="3">
-        <v>-551200</v>
+        <v>-557900</v>
       </c>
       <c r="H94" s="3">
-        <v>-496800</v>
+        <v>-556300</v>
       </c>
       <c r="I94" s="3">
-        <v>-478400</v>
+        <v>-501400</v>
       </c>
       <c r="J94" s="3">
+        <v>-482800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-492900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-543800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-674100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-665800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-752800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-792100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-793100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-919300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-856700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-799300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-863500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-411000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-528200</v>
+        <v>-673900</v>
       </c>
       <c r="E96" s="3">
-        <v>-423200</v>
+        <v>-533100</v>
       </c>
       <c r="F96" s="3">
-        <v>-427800</v>
+        <v>-427100</v>
       </c>
       <c r="G96" s="3">
-        <v>-427000</v>
+        <v>-431800</v>
       </c>
       <c r="H96" s="3">
-        <v>-385600</v>
+        <v>-431000</v>
       </c>
       <c r="I96" s="3">
+        <v>-389200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-384900</v>
       </c>
-      <c r="J96" s="3">
-        <v>-384900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-393900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-348400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-346200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-370600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-356100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-310200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-309000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-297200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-309400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-252900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-249300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-248600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-227700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-212800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-195100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1702700</v>
+        <v>-3437800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2489300</v>
+        <v>-1718500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2179600</v>
+        <v>-2512400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1701200</v>
+        <v>-2199800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1461200</v>
+        <v>-1717000</v>
       </c>
       <c r="I100" s="3">
-        <v>-488300</v>
+        <v>-1474800</v>
       </c>
       <c r="J100" s="3">
+        <v>-492900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>161700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>51800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1515500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-418600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-816800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-401100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-223300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5465500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-418700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-554700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-474600</v>
+        <v>83600</v>
       </c>
       <c r="E102" s="3">
-        <v>-115000</v>
+        <v>-479000</v>
       </c>
       <c r="F102" s="3">
-        <v>556600</v>
+        <v>-116100</v>
       </c>
       <c r="G102" s="3">
+        <v>561700</v>
+      </c>
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-13800</v>
-      </c>
       <c r="I102" s="3">
-        <v>6900</v>
+        <v>-13900</v>
       </c>
       <c r="J102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-657600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>731400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-184000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>244300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-148400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>82800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-130200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>195000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8878800</v>
+        <v>7851700</v>
       </c>
       <c r="E8" s="3">
-        <v>8261300</v>
+        <v>8616100</v>
       </c>
       <c r="F8" s="3">
-        <v>7128600</v>
+        <v>8016900</v>
       </c>
       <c r="G8" s="3">
-        <v>5966400</v>
+        <v>6917700</v>
       </c>
       <c r="H8" s="3">
-        <v>5048700</v>
+        <v>5789900</v>
       </c>
       <c r="I8" s="3">
-        <v>5112900</v>
+        <v>4899400</v>
       </c>
       <c r="J8" s="3">
+        <v>4961700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3882700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3452900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2253000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3531300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5106900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4410800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4040000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2817600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4286700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4480600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4120800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3872100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3323600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2910600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2797900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2656500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3844800</v>
+        <v>3237000</v>
       </c>
       <c r="E9" s="3">
-        <v>3478000</v>
+        <v>3731000</v>
       </c>
       <c r="F9" s="3">
-        <v>3043900</v>
+        <v>3375100</v>
       </c>
       <c r="G9" s="3">
-        <v>2536400</v>
+        <v>2953900</v>
       </c>
       <c r="H9" s="3">
-        <v>2518600</v>
+        <v>2461300</v>
       </c>
       <c r="I9" s="3">
-        <v>2544900</v>
+        <v>2444000</v>
       </c>
       <c r="J9" s="3">
+        <v>2469600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2281800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1951100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1701300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2445200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2388900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2332900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2005500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1977700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1895900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1901000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2080700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2094300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2102400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1830800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1529400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1339800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1267600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5034000</v>
+        <v>4614800</v>
       </c>
       <c r="E10" s="3">
-        <v>4783300</v>
+        <v>4885100</v>
       </c>
       <c r="F10" s="3">
-        <v>4084600</v>
+        <v>4641800</v>
       </c>
       <c r="G10" s="3">
-        <v>3430000</v>
+        <v>3963800</v>
       </c>
       <c r="H10" s="3">
-        <v>2530200</v>
+        <v>3328600</v>
       </c>
       <c r="I10" s="3">
-        <v>2568100</v>
+        <v>2455300</v>
       </c>
       <c r="J10" s="3">
+        <v>2492100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1600900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1501800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>551700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1086100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2211900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2774000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2405200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2062300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>921700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2385700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2399900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2026500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1769700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1492900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1381300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1458100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1389000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-369900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-358900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-167900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1054600</v>
+        <v>1091800</v>
       </c>
       <c r="E15" s="3">
-        <v>1088700</v>
+        <v>1023400</v>
       </c>
       <c r="F15" s="3">
-        <v>1139700</v>
+        <v>1056500</v>
       </c>
       <c r="G15" s="3">
-        <v>1115700</v>
+        <v>1106000</v>
       </c>
       <c r="H15" s="3">
-        <v>1074000</v>
+        <v>1082700</v>
       </c>
       <c r="I15" s="3">
-        <v>1099500</v>
+        <v>1042200</v>
       </c>
       <c r="J15" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1249600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1122400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1101000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1227300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1208500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1182200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>972300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1010700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>949100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>956000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>946300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1046400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>945900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>900500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>997900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>959500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4984500</v>
+        <v>4457900</v>
       </c>
       <c r="E17" s="3">
-        <v>5115300</v>
+        <v>4837000</v>
       </c>
       <c r="F17" s="3">
-        <v>4442100</v>
+        <v>4963900</v>
       </c>
       <c r="G17" s="3">
-        <v>3430000</v>
+        <v>4310700</v>
       </c>
       <c r="H17" s="3">
-        <v>3801400</v>
+        <v>3328600</v>
       </c>
       <c r="I17" s="3">
-        <v>3853300</v>
+        <v>3689000</v>
       </c>
       <c r="J17" s="3">
+        <v>3739300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3580900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3176200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2929400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3623100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3836000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3641200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3139600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3085400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2898200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2878400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3261100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3069900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3316900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2948600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2437300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2453000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2352300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3894300</v>
+        <v>3393900</v>
       </c>
       <c r="E18" s="3">
-        <v>3146100</v>
+        <v>3779100</v>
       </c>
       <c r="F18" s="3">
-        <v>2686500</v>
+        <v>3053000</v>
       </c>
       <c r="G18" s="3">
-        <v>2536400</v>
+        <v>2607000</v>
       </c>
       <c r="H18" s="3">
-        <v>1247300</v>
+        <v>2461300</v>
       </c>
       <c r="I18" s="3">
-        <v>1259700</v>
+        <v>1210400</v>
       </c>
       <c r="J18" s="3">
+        <v>1222400</v>
+      </c>
+      <c r="K18" s="3">
         <v>301800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>276800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-676400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-91800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>764900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1465800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1271200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>954600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-80700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1408300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1219500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1050900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>555200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>375100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>473300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>344900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>304200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-263800</v>
+        <v>-454300</v>
       </c>
       <c r="E20" s="3">
-        <v>134600</v>
+        <v>-256000</v>
       </c>
       <c r="F20" s="3">
-        <v>109100</v>
+        <v>130600</v>
       </c>
       <c r="G20" s="3">
-        <v>-225200</v>
+        <v>105900</v>
       </c>
       <c r="H20" s="3">
-        <v>434800</v>
+        <v>-218500</v>
       </c>
       <c r="I20" s="3">
-        <v>195000</v>
+        <v>422000</v>
       </c>
       <c r="J20" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K20" s="3">
         <v>478200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>176300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>355500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-877300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>104500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-143400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>114200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>131600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-422400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>281200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-21100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-249900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>90800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>343100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>494200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>57600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4685100</v>
+        <v>4031400</v>
       </c>
       <c r="E21" s="3">
-        <v>4369400</v>
+        <v>4546500</v>
       </c>
       <c r="F21" s="3">
-        <v>3935300</v>
+        <v>4240100</v>
       </c>
       <c r="G21" s="3">
-        <v>3426900</v>
+        <v>3818900</v>
       </c>
       <c r="H21" s="3">
-        <v>2756100</v>
+        <v>3325600</v>
       </c>
       <c r="I21" s="3">
-        <v>2554100</v>
+        <v>2674600</v>
       </c>
       <c r="J21" s="3">
+        <v>2478600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2029500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1575400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>780000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>258200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2077800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2504600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2421900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2058500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>507600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2638600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2154500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1747200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1692300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1664100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1868000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1357500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1321400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>123800</v>
+        <v>112600</v>
       </c>
       <c r="E22" s="3">
-        <v>126100</v>
+        <v>120100</v>
       </c>
       <c r="F22" s="3">
-        <v>157100</v>
+        <v>122400</v>
       </c>
       <c r="G22" s="3">
-        <v>137700</v>
+        <v>152400</v>
       </c>
       <c r="H22" s="3">
-        <v>137000</v>
+        <v>133700</v>
       </c>
       <c r="I22" s="3">
-        <v>143100</v>
+        <v>132900</v>
       </c>
       <c r="J22" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K22" s="3">
         <v>192700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>133400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>156200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>228400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>191500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>156200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>147000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>181100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>130800</v>
-      </c>
-      <c r="T22" s="3">
-        <v>143000</v>
       </c>
       <c r="U22" s="3">
         <v>143000</v>
       </c>
       <c r="V22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="W22" s="3">
         <v>198000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>136200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>107900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>102900</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3506600</v>
+        <v>2827000</v>
       </c>
       <c r="E23" s="3">
-        <v>3154600</v>
+        <v>3402900</v>
       </c>
       <c r="F23" s="3">
-        <v>2638500</v>
+        <v>3061300</v>
       </c>
       <c r="G23" s="3">
-        <v>2173500</v>
+        <v>2560400</v>
       </c>
       <c r="H23" s="3">
-        <v>1545200</v>
+        <v>2109200</v>
       </c>
       <c r="I23" s="3">
-        <v>1311500</v>
+        <v>1499500</v>
       </c>
       <c r="J23" s="3">
+        <v>1272700</v>
+      </c>
+      <c r="K23" s="3">
         <v>587300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>319700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-477100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>640900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1130800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1229200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>939200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-684200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1558800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1055400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>657900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>448000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>582000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>859600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>256600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>361800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>797000</v>
+        <v>714100</v>
       </c>
       <c r="E24" s="3">
-        <v>755200</v>
+        <v>773400</v>
       </c>
       <c r="F24" s="3">
-        <v>677800</v>
+        <v>732800</v>
       </c>
       <c r="G24" s="3">
-        <v>469700</v>
+        <v>657800</v>
       </c>
       <c r="H24" s="3">
-        <v>345100</v>
+        <v>455800</v>
       </c>
       <c r="I24" s="3">
-        <v>246100</v>
+        <v>334900</v>
       </c>
       <c r="J24" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-233900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-124800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>175400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>279400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>199400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-93600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>249300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>316200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>219100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>153300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>72900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>61800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>68400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-73000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2709700</v>
+        <v>2112900</v>
       </c>
       <c r="E26" s="3">
-        <v>2399400</v>
+        <v>2629500</v>
       </c>
       <c r="F26" s="3">
-        <v>1960700</v>
+        <v>2328400</v>
       </c>
       <c r="G26" s="3">
-        <v>1703800</v>
+        <v>1902700</v>
       </c>
       <c r="H26" s="3">
-        <v>1200100</v>
+        <v>1653400</v>
       </c>
       <c r="I26" s="3">
-        <v>1065500</v>
+        <v>1164600</v>
       </c>
       <c r="J26" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K26" s="3">
         <v>579500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>312800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-243300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>465500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>851400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>739800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-590600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1309500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>739200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>438900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>294700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>509000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>797800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>188200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>434800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2709700</v>
+        <v>2112900</v>
       </c>
       <c r="E27" s="3">
-        <v>2399400</v>
+        <v>2629500</v>
       </c>
       <c r="F27" s="3">
-        <v>1960700</v>
+        <v>2328400</v>
       </c>
       <c r="G27" s="3">
-        <v>1703800</v>
+        <v>1902700</v>
       </c>
       <c r="H27" s="3">
-        <v>1200100</v>
+        <v>1653400</v>
       </c>
       <c r="I27" s="3">
-        <v>1065500</v>
+        <v>1164600</v>
       </c>
       <c r="J27" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K27" s="3">
         <v>579500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>312800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-243300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>465500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>851400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>739800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-590600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1309500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>739200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>438900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>294700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>509000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>797800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>188200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>434800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>263800</v>
+        <v>454300</v>
       </c>
       <c r="E32" s="3">
-        <v>-134600</v>
+        <v>256000</v>
       </c>
       <c r="F32" s="3">
-        <v>-109100</v>
+        <v>-130600</v>
       </c>
       <c r="G32" s="3">
-        <v>225200</v>
+        <v>-105900</v>
       </c>
       <c r="H32" s="3">
-        <v>-434800</v>
+        <v>218500</v>
       </c>
       <c r="I32" s="3">
-        <v>-195000</v>
+        <v>-422000</v>
       </c>
       <c r="J32" s="3">
+        <v>-189200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-478200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-176300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-355500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>877300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-104500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>143400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-114200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-131600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>422400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-281200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>21100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>249900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-90800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-343100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-494200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-57600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2709700</v>
+        <v>2112900</v>
       </c>
       <c r="E33" s="3">
-        <v>2399400</v>
+        <v>2629500</v>
       </c>
       <c r="F33" s="3">
-        <v>1960700</v>
+        <v>2328400</v>
       </c>
       <c r="G33" s="3">
-        <v>1703800</v>
+        <v>1902700</v>
       </c>
       <c r="H33" s="3">
-        <v>1200100</v>
+        <v>1653400</v>
       </c>
       <c r="I33" s="3">
-        <v>1065500</v>
+        <v>1164600</v>
       </c>
       <c r="J33" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K33" s="3">
         <v>579500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>312800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-243300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>465500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>851400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>739800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-590600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1309500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>739200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>438900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>294700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>509000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>797800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>188200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>434800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2709700</v>
+        <v>2112900</v>
       </c>
       <c r="E35" s="3">
-        <v>2399400</v>
+        <v>2629500</v>
       </c>
       <c r="F35" s="3">
-        <v>1960700</v>
+        <v>2328400</v>
       </c>
       <c r="G35" s="3">
-        <v>1703800</v>
+        <v>1902700</v>
       </c>
       <c r="H35" s="3">
-        <v>1200100</v>
+        <v>1653400</v>
       </c>
       <c r="I35" s="3">
-        <v>1065500</v>
+        <v>1164600</v>
       </c>
       <c r="J35" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K35" s="3">
         <v>579500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>312800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-243300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>465500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>851400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>739800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-590600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1309500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>739200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>438900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>294700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>509000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>797800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>188200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>434800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,470 +3007,489 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180300</v>
+        <v>424200</v>
       </c>
       <c r="E41" s="3">
-        <v>96700</v>
+        <v>175000</v>
       </c>
       <c r="F41" s="3">
-        <v>575700</v>
+        <v>93900</v>
       </c>
       <c r="G41" s="3">
-        <v>691700</v>
+        <v>558600</v>
       </c>
       <c r="H41" s="3">
-        <v>130000</v>
+        <v>671300</v>
       </c>
       <c r="I41" s="3">
-        <v>128400</v>
+        <v>126100</v>
       </c>
       <c r="J41" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K41" s="3">
         <v>142400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>840500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>108400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>315600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>76900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>215100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>137000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>114400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>102000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>232200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>284000</v>
+        <v>302600</v>
       </c>
       <c r="E42" s="3">
-        <v>303300</v>
+        <v>275600</v>
       </c>
       <c r="F42" s="3">
-        <v>239100</v>
+        <v>294300</v>
       </c>
       <c r="G42" s="3">
-        <v>236800</v>
+        <v>232000</v>
       </c>
       <c r="H42" s="3">
-        <v>362900</v>
+        <v>229800</v>
       </c>
       <c r="I42" s="3">
-        <v>326500</v>
+        <v>352200</v>
       </c>
       <c r="J42" s="3">
+        <v>316900</v>
+      </c>
+      <c r="K42" s="3">
         <v>236000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>208500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>215800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>174200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>382000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>470100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>433800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>422600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>398800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>478200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>560800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>587900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>664600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>660900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>619200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>626100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>701400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3880400</v>
+        <v>2937400</v>
       </c>
       <c r="E43" s="3">
-        <v>3642000</v>
+        <v>3765600</v>
       </c>
       <c r="F43" s="3">
-        <v>2407100</v>
+        <v>3534300</v>
       </c>
       <c r="G43" s="3">
-        <v>2457400</v>
+        <v>2335900</v>
       </c>
       <c r="H43" s="3">
-        <v>2463600</v>
+        <v>2384700</v>
       </c>
       <c r="I43" s="3">
-        <v>2153300</v>
+        <v>2390700</v>
       </c>
       <c r="J43" s="3">
+        <v>2089600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1933600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1477300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1692700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1195900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1932000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1993900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1684400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1760600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>873700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1436700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1965500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1656100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2023500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1239100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1637300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1637100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1755400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1483300</v>
+        <v>1378600</v>
       </c>
       <c r="E44" s="3">
-        <v>1312300</v>
+        <v>1439400</v>
       </c>
       <c r="F44" s="3">
-        <v>1197800</v>
+        <v>1273500</v>
       </c>
       <c r="G44" s="3">
-        <v>955600</v>
+        <v>1162300</v>
       </c>
       <c r="H44" s="3">
-        <v>939300</v>
+        <v>927300</v>
       </c>
       <c r="I44" s="3">
-        <v>841800</v>
+        <v>911500</v>
       </c>
       <c r="J44" s="3">
+        <v>816900</v>
+      </c>
+      <c r="K44" s="3">
         <v>820200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>830300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>859300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>737700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>898200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>954200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>942900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>825200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>726800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>812400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>783700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>744500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>665300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>652700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>691400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>505500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>529300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310300</v>
+        <v>325900</v>
       </c>
       <c r="E45" s="3">
-        <v>229000</v>
+        <v>301100</v>
       </c>
       <c r="F45" s="3">
-        <v>178000</v>
+        <v>222300</v>
       </c>
       <c r="G45" s="3">
-        <v>268500</v>
+        <v>172700</v>
       </c>
       <c r="H45" s="3">
-        <v>347400</v>
+        <v>260500</v>
       </c>
       <c r="I45" s="3">
-        <v>304900</v>
+        <v>337100</v>
       </c>
       <c r="J45" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K45" s="3">
         <v>242200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>443100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>240900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>335100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>314200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>306900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>204000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>222200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>258700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>297400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>198700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>189000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>282100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>266400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>398700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>331900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6138200</v>
+        <v>5368600</v>
       </c>
       <c r="E46" s="3">
-        <v>5583400</v>
+        <v>5956600</v>
       </c>
       <c r="F46" s="3">
-        <v>4597600</v>
+        <v>5418200</v>
       </c>
       <c r="G46" s="3">
-        <v>4610000</v>
+        <v>4461600</v>
       </c>
       <c r="H46" s="3">
-        <v>4243200</v>
+        <v>4473600</v>
       </c>
       <c r="I46" s="3">
-        <v>3755000</v>
+        <v>4117700</v>
       </c>
       <c r="J46" s="3">
+        <v>3643900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3374300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3093400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3191500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3283400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3498400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3878300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3683600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3281700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2298500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3201100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3744400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3301700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3644400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3066900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3251500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3182000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3331000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3394,8 +3499,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3404,141 +3509,147 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>416700</v>
+      </c>
+      <c r="K47" s="3">
         <v>429400</v>
       </c>
-      <c r="J47" s="3">
-        <v>429400</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>520500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>536000</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>508300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>587800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>620100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>641300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>668200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>627900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>641400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>627800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>596900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>557400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>519500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>504700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>496300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53986100</v>
+        <v>52442300</v>
       </c>
       <c r="E48" s="3">
-        <v>54292500</v>
+        <v>52389000</v>
       </c>
       <c r="F48" s="3">
-        <v>54284800</v>
+        <v>52686300</v>
       </c>
       <c r="G48" s="3">
-        <v>53180600</v>
+        <v>52678800</v>
       </c>
       <c r="H48" s="3">
-        <v>53360900</v>
+        <v>51607400</v>
       </c>
       <c r="I48" s="3">
-        <v>53504000</v>
+        <v>51782300</v>
       </c>
       <c r="J48" s="3">
+        <v>51921200</v>
+      </c>
+      <c r="K48" s="3">
         <v>54033300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52633700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54504900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55426200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56456700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60141800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57872200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>52626400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51142200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49193300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>50788500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>50896900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>50458900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50437300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49826300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>40562500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>40940500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>356700</v>
+        <v>364900</v>
       </c>
       <c r="E52" s="3">
-        <v>485900</v>
+        <v>346100</v>
       </c>
       <c r="F52" s="3">
-        <v>437200</v>
+        <v>471500</v>
       </c>
       <c r="G52" s="3">
-        <v>465800</v>
+        <v>424200</v>
       </c>
       <c r="H52" s="3">
-        <v>448000</v>
+        <v>452000</v>
       </c>
       <c r="I52" s="3">
-        <v>441000</v>
+        <v>434700</v>
       </c>
       <c r="J52" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K52" s="3">
         <v>407800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>276800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>423000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>992700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>445200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>499100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>437000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>392600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>353900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>276100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>290600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>288300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>272400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>256800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>276100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>262000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>287300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60480900</v>
+        <v>58175900</v>
       </c>
       <c r="E54" s="3">
-        <v>60361800</v>
+        <v>58691700</v>
       </c>
       <c r="F54" s="3">
-        <v>59319500</v>
+        <v>58576100</v>
       </c>
       <c r="G54" s="3">
-        <v>58256400</v>
+        <v>57564700</v>
       </c>
       <c r="H54" s="3">
-        <v>58052100</v>
+        <v>56533000</v>
       </c>
       <c r="I54" s="3">
-        <v>58129500</v>
+        <v>56334800</v>
       </c>
       <c r="J54" s="3">
+        <v>56409900</v>
+      </c>
+      <c r="K54" s="3">
         <v>58244800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56524400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58655400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59702200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60908600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65107000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62612900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56942000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54462800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53298400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55464800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55114800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54972600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54318400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>53873400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>44511200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>45055200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>889800</v>
+        <v>949800</v>
       </c>
       <c r="E57" s="3">
-        <v>745900</v>
+        <v>863500</v>
       </c>
       <c r="F57" s="3">
-        <v>621300</v>
+        <v>723800</v>
       </c>
       <c r="G57" s="3">
-        <v>765200</v>
+        <v>602900</v>
       </c>
       <c r="H57" s="3">
-        <v>605800</v>
+        <v>742600</v>
       </c>
       <c r="I57" s="3">
-        <v>587300</v>
+        <v>587900</v>
       </c>
       <c r="J57" s="3">
+        <v>569900</v>
+      </c>
+      <c r="K57" s="3">
         <v>516100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>632500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>475600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>629400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>636200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>548800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>732800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>599700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>592900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>732500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>730200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>705400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>576800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>590900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>488200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>415600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>457100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1145900</v>
+        <v>1172800</v>
       </c>
       <c r="E58" s="3">
-        <v>2264000</v>
+        <v>1112000</v>
       </c>
       <c r="F58" s="3">
-        <v>916900</v>
+        <v>2197000</v>
       </c>
       <c r="G58" s="3">
-        <v>917700</v>
+        <v>889800</v>
       </c>
       <c r="H58" s="3">
-        <v>1923500</v>
+        <v>890500</v>
       </c>
       <c r="I58" s="3">
-        <v>1515000</v>
+        <v>1866600</v>
       </c>
       <c r="J58" s="3">
+        <v>1470200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1185400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>779700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1604800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2373100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2045900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3548300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3330700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1445700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>868400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>363300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>621800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>484800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1396900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1395400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1448200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2403800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1392000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5173300</v>
+        <v>4728900</v>
       </c>
       <c r="E59" s="3">
-        <v>4473000</v>
+        <v>5020200</v>
       </c>
       <c r="F59" s="3">
-        <v>4204600</v>
+        <v>4340700</v>
       </c>
       <c r="G59" s="3">
-        <v>3373600</v>
+        <v>4080200</v>
       </c>
       <c r="H59" s="3">
-        <v>2934100</v>
+        <v>3273700</v>
       </c>
       <c r="I59" s="3">
-        <v>2539400</v>
+        <v>2847300</v>
       </c>
       <c r="J59" s="3">
+        <v>2464300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2227600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1774000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1778200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1944600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2492600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2415000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2201400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2274000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2163000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2387900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2305000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2067900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2685900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2323400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2111300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1827600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2062700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7209000</v>
+        <v>6851600</v>
       </c>
       <c r="E60" s="3">
-        <v>7482900</v>
+        <v>6995800</v>
       </c>
       <c r="F60" s="3">
-        <v>5742800</v>
+        <v>7261600</v>
       </c>
       <c r="G60" s="3">
-        <v>5056500</v>
+        <v>5572900</v>
       </c>
       <c r="H60" s="3">
-        <v>5463400</v>
+        <v>4906900</v>
       </c>
       <c r="I60" s="3">
-        <v>4641700</v>
+        <v>5301800</v>
       </c>
       <c r="J60" s="3">
+        <v>4504400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3929100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3186200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3858600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4947000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5174700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6512200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6264900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4319500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3624300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3483800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3657100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3258100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4659500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4309700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4047800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4647000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3911800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9817300</v>
+        <v>9698900</v>
       </c>
       <c r="E61" s="3">
-        <v>9700500</v>
+        <v>9526900</v>
       </c>
       <c r="F61" s="3">
-        <v>11678200</v>
+        <v>9413500</v>
       </c>
       <c r="G61" s="3">
-        <v>13303900</v>
+        <v>11332700</v>
       </c>
       <c r="H61" s="3">
-        <v>13512800</v>
+        <v>12910300</v>
       </c>
       <c r="I61" s="3">
-        <v>15243600</v>
+        <v>13113000</v>
       </c>
       <c r="J61" s="3">
+        <v>14792700</v>
+      </c>
+      <c r="K61" s="3">
         <v>16721500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17244000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17783800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16800500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15905300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16634100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16797700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15936000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14827600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13976400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15485600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16060000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15316600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15662600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15874000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10121400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11518100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13015200</v>
+        <v>12988400</v>
       </c>
       <c r="E62" s="3">
-        <v>13396700</v>
+        <v>12630200</v>
       </c>
       <c r="F62" s="3">
-        <v>13312400</v>
+        <v>13000400</v>
       </c>
       <c r="G62" s="3">
-        <v>12407900</v>
+        <v>12918500</v>
       </c>
       <c r="H62" s="3">
-        <v>12608300</v>
+        <v>12040800</v>
       </c>
       <c r="I62" s="3">
-        <v>12531700</v>
+        <v>12235300</v>
       </c>
       <c r="J62" s="3">
+        <v>12160900</v>
+      </c>
+      <c r="K62" s="3">
         <v>12540200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11434400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11640000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11852700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12547200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13114700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12370300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11846000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11675900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11571800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11923400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11687800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11440000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11023200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10891500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9479200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9446200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30041600</v>
+        <v>29538800</v>
       </c>
       <c r="E66" s="3">
-        <v>30580100</v>
+        <v>29152900</v>
       </c>
       <c r="F66" s="3">
-        <v>30733400</v>
+        <v>29675500</v>
       </c>
       <c r="G66" s="3">
-        <v>30768200</v>
+        <v>29824200</v>
       </c>
       <c r="H66" s="3">
-        <v>31584500</v>
+        <v>29857900</v>
       </c>
       <c r="I66" s="3">
-        <v>32417000</v>
+        <v>30650100</v>
       </c>
       <c r="J66" s="3">
+        <v>31458000</v>
+      </c>
+      <c r="K66" s="3">
         <v>33190800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31864600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33282400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33600200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33627200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36261000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35432900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32101500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30127700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29032000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31066100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31005900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31416100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30995600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>30813300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24247600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24876100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22394600</v>
+        <v>20834100</v>
       </c>
       <c r="E72" s="3">
-        <v>21714500</v>
+        <v>21732100</v>
       </c>
       <c r="F72" s="3">
-        <v>20719500</v>
+        <v>21072100</v>
       </c>
       <c r="G72" s="3">
-        <v>19832800</v>
+        <v>20106500</v>
       </c>
       <c r="H72" s="3">
-        <v>18871800</v>
+        <v>19246000</v>
       </c>
       <c r="I72" s="3">
-        <v>18235000</v>
+        <v>18313500</v>
       </c>
       <c r="J72" s="3">
+        <v>17695500</v>
+      </c>
+      <c r="K72" s="3">
         <v>17615200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17264700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17746100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18382500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19822300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21042900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19767600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17591900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17146600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17464500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17309700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17152300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16828100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16783400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16523700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16490100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16536900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30439300</v>
+        <v>28637000</v>
       </c>
       <c r="E76" s="3">
-        <v>29781600</v>
+        <v>29538800</v>
       </c>
       <c r="F76" s="3">
-        <v>28586200</v>
+        <v>28900600</v>
       </c>
       <c r="G76" s="3">
-        <v>27488200</v>
+        <v>27740500</v>
       </c>
       <c r="H76" s="3">
-        <v>26467700</v>
+        <v>26675100</v>
       </c>
       <c r="I76" s="3">
-        <v>25712500</v>
+        <v>25684700</v>
       </c>
       <c r="J76" s="3">
+        <v>24951800</v>
+      </c>
+      <c r="K76" s="3">
         <v>25054000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24659700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25373000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26102000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27281400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28846000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27180000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24840600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24335100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24266400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24398700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24108900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23556500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23322800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23060100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20263600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20179100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2709700</v>
+        <v>2112900</v>
       </c>
       <c r="E81" s="3">
-        <v>2399400</v>
+        <v>2629500</v>
       </c>
       <c r="F81" s="3">
-        <v>1960700</v>
+        <v>2328400</v>
       </c>
       <c r="G81" s="3">
-        <v>1703800</v>
+        <v>1902700</v>
       </c>
       <c r="H81" s="3">
-        <v>1200100</v>
+        <v>1653400</v>
       </c>
       <c r="I81" s="3">
-        <v>1065500</v>
+        <v>1164600</v>
       </c>
       <c r="J81" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K81" s="3">
         <v>579500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>312800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-243300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>465500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>851400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2245000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>739800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-590600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1309500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>739200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>438900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>294700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>509000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>797800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>188200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>434800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1054600</v>
+        <v>1091800</v>
       </c>
       <c r="E83" s="3">
-        <v>1088700</v>
+        <v>1023400</v>
       </c>
       <c r="F83" s="3">
-        <v>1139700</v>
+        <v>1056500</v>
       </c>
       <c r="G83" s="3">
-        <v>1115700</v>
+        <v>1106000</v>
       </c>
       <c r="H83" s="3">
-        <v>1074000</v>
+        <v>1082700</v>
       </c>
       <c r="I83" s="3">
-        <v>1099500</v>
+        <v>1042200</v>
       </c>
       <c r="J83" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1249600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1122400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1101000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1227300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1208500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1182200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>972300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1010700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>949100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>956000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>946300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1046400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>945900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>900500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>997900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>959500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4562000</v>
+        <v>4578700</v>
       </c>
       <c r="E89" s="3">
+        <v>4427100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2142200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3538100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3221200</v>
+      </c>
+      <c r="I89" s="3">
         <v>2207500</v>
       </c>
-      <c r="F89" s="3">
-        <v>3645900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>3319400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2274800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1962200</v>
-      </c>
       <c r="J89" s="3">
+        <v>1904200</v>
+      </c>
+      <c r="K89" s="3">
         <v>982700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1586900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-275400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1353700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1913300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2087500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2268800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>766700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1063200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2646600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1967000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1858600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1070200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1876900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1213800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1283700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>964100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-14700</v>
-      </c>
       <c r="F91" s="3">
-        <v>3100</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>3000</v>
       </c>
       <c r="H91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I91" s="3">
         <v>2300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K91" s="3">
         <v>1416700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1401400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>72300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-215800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-49900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-618400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-493200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1040700</v>
+        <v>-847700</v>
       </c>
       <c r="E94" s="3">
-        <v>-968000</v>
+        <v>-1009900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1249600</v>
+        <v>-939300</v>
       </c>
       <c r="G94" s="3">
-        <v>-557900</v>
+        <v>-1212600</v>
       </c>
       <c r="H94" s="3">
-        <v>-556300</v>
+        <v>-541400</v>
       </c>
       <c r="I94" s="3">
-        <v>-501400</v>
+        <v>-539900</v>
       </c>
       <c r="J94" s="3">
+        <v>-486600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-482800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-492900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-543800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-674100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-665800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-752800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-792100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-793100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-919300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-856700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-799300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-863500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-411000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-673900</v>
+        <v>-1901200</v>
       </c>
       <c r="E96" s="3">
-        <v>-533100</v>
+        <v>-654000</v>
       </c>
       <c r="F96" s="3">
-        <v>-427100</v>
+        <v>-517300</v>
       </c>
       <c r="G96" s="3">
-        <v>-431800</v>
+        <v>-414500</v>
       </c>
       <c r="H96" s="3">
-        <v>-431000</v>
+        <v>-419000</v>
       </c>
       <c r="I96" s="3">
-        <v>-389200</v>
+        <v>-418200</v>
       </c>
       <c r="J96" s="3">
+        <v>-377700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-388400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-384900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-393900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-348400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-346200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-370600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-310200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-309000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-297200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-309400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-252900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-249300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-248600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-227700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-212800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-195100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3437800</v>
+        <v>-3481700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1718500</v>
+        <v>-3336100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2512400</v>
+        <v>-1667700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2199800</v>
+        <v>-2438000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1717000</v>
+        <v>-2134700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1474800</v>
+        <v>-1666200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1431100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-492900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>161700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>51800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1515500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-418600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-816800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-401100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-223300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5465500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-418700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-554700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83600</v>
+        <v>249300</v>
       </c>
       <c r="E102" s="3">
-        <v>-479000</v>
+        <v>81100</v>
       </c>
       <c r="F102" s="3">
-        <v>-116100</v>
+        <v>-464800</v>
       </c>
       <c r="G102" s="3">
-        <v>561700</v>
+        <v>-112600</v>
       </c>
       <c r="H102" s="3">
+        <v>545100</v>
+      </c>
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-13900</v>
-      </c>
       <c r="J102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-657600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>731400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-184000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>244300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-148400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>82800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>22600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-130200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>195000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7851700</v>
+        <v>7562700</v>
       </c>
       <c r="E8" s="3">
-        <v>8616100</v>
+        <v>8298900</v>
       </c>
       <c r="F8" s="3">
-        <v>8016900</v>
+        <v>7721800</v>
       </c>
       <c r="G8" s="3">
-        <v>6917700</v>
+        <v>6663000</v>
       </c>
       <c r="H8" s="3">
-        <v>5789900</v>
+        <v>5576700</v>
       </c>
       <c r="I8" s="3">
-        <v>4899400</v>
+        <v>4719000</v>
       </c>
       <c r="J8" s="3">
-        <v>4961700</v>
+        <v>4779000</v>
       </c>
       <c r="K8" s="3">
         <v>3882700</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3237000</v>
+        <v>3117800</v>
       </c>
       <c r="E9" s="3">
-        <v>3731000</v>
+        <v>3593700</v>
       </c>
       <c r="F9" s="3">
-        <v>3375100</v>
+        <v>3250900</v>
       </c>
       <c r="G9" s="3">
-        <v>2953900</v>
+        <v>2845100</v>
       </c>
       <c r="H9" s="3">
-        <v>2461300</v>
+        <v>2370700</v>
       </c>
       <c r="I9" s="3">
-        <v>2444000</v>
+        <v>2354100</v>
       </c>
       <c r="J9" s="3">
-        <v>2469600</v>
+        <v>2378700</v>
       </c>
       <c r="K9" s="3">
         <v>2281800</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4614800</v>
+        <v>4444900</v>
       </c>
       <c r="E10" s="3">
-        <v>4885100</v>
+        <v>4705300</v>
       </c>
       <c r="F10" s="3">
-        <v>4641800</v>
+        <v>4470900</v>
       </c>
       <c r="G10" s="3">
-        <v>3963800</v>
+        <v>3817900</v>
       </c>
       <c r="H10" s="3">
-        <v>3328600</v>
+        <v>3206000</v>
       </c>
       <c r="I10" s="3">
-        <v>2455300</v>
+        <v>2364900</v>
       </c>
       <c r="J10" s="3">
-        <v>2492100</v>
+        <v>2400400</v>
       </c>
       <c r="K10" s="3">
         <v>1600900</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-358900</v>
+        <v>-345700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1091800</v>
+        <v>1051600</v>
       </c>
       <c r="E15" s="3">
-        <v>1023400</v>
+        <v>985700</v>
       </c>
       <c r="F15" s="3">
-        <v>1056500</v>
+        <v>1017600</v>
       </c>
       <c r="G15" s="3">
-        <v>1106000</v>
+        <v>1065300</v>
       </c>
       <c r="H15" s="3">
-        <v>1082700</v>
+        <v>1042900</v>
       </c>
       <c r="I15" s="3">
-        <v>1042200</v>
+        <v>1003800</v>
       </c>
       <c r="J15" s="3">
-        <v>1067000</v>
+        <v>1027700</v>
       </c>
       <c r="K15" s="3">
         <v>1249600</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4457900</v>
+        <v>4293800</v>
       </c>
       <c r="E17" s="3">
-        <v>4837000</v>
+        <v>4659000</v>
       </c>
       <c r="F17" s="3">
-        <v>4963900</v>
+        <v>4781200</v>
       </c>
       <c r="G17" s="3">
-        <v>4310700</v>
+        <v>4152000</v>
       </c>
       <c r="H17" s="3">
-        <v>3328600</v>
+        <v>3206000</v>
       </c>
       <c r="I17" s="3">
-        <v>3689000</v>
+        <v>3553200</v>
       </c>
       <c r="J17" s="3">
-        <v>3739300</v>
+        <v>3601600</v>
       </c>
       <c r="K17" s="3">
         <v>3580900</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3393900</v>
+        <v>3269000</v>
       </c>
       <c r="E18" s="3">
-        <v>3779100</v>
+        <v>3640000</v>
       </c>
       <c r="F18" s="3">
-        <v>3053000</v>
+        <v>2940600</v>
       </c>
       <c r="G18" s="3">
-        <v>2607000</v>
+        <v>2511000</v>
       </c>
       <c r="H18" s="3">
-        <v>2461300</v>
+        <v>2370700</v>
       </c>
       <c r="I18" s="3">
-        <v>1210400</v>
+        <v>1165800</v>
       </c>
       <c r="J18" s="3">
-        <v>1222400</v>
+        <v>1177400</v>
       </c>
       <c r="K18" s="3">
         <v>301800</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-454300</v>
+        <v>-437500</v>
       </c>
       <c r="E20" s="3">
-        <v>-256000</v>
+        <v>-246600</v>
       </c>
       <c r="F20" s="3">
-        <v>130600</v>
+        <v>125800</v>
       </c>
       <c r="G20" s="3">
-        <v>105900</v>
+        <v>102000</v>
       </c>
       <c r="H20" s="3">
-        <v>-218500</v>
+        <v>-210500</v>
       </c>
       <c r="I20" s="3">
-        <v>422000</v>
+        <v>406400</v>
       </c>
       <c r="J20" s="3">
-        <v>189200</v>
+        <v>182300</v>
       </c>
       <c r="K20" s="3">
         <v>478200</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4031400</v>
+        <v>3883000</v>
       </c>
       <c r="E21" s="3">
-        <v>4546500</v>
+        <v>4379100</v>
       </c>
       <c r="F21" s="3">
-        <v>4240100</v>
+        <v>4084000</v>
       </c>
       <c r="G21" s="3">
-        <v>3818900</v>
+        <v>3678300</v>
       </c>
       <c r="H21" s="3">
-        <v>3325600</v>
+        <v>3203100</v>
       </c>
       <c r="I21" s="3">
-        <v>2674600</v>
+        <v>2576100</v>
       </c>
       <c r="J21" s="3">
-        <v>2478600</v>
+        <v>2387300</v>
       </c>
       <c r="K21" s="3">
         <v>2029500</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112600</v>
+        <v>108500</v>
       </c>
       <c r="E22" s="3">
-        <v>120100</v>
+        <v>115700</v>
       </c>
       <c r="F22" s="3">
-        <v>122400</v>
+        <v>117900</v>
       </c>
       <c r="G22" s="3">
-        <v>152400</v>
+        <v>146800</v>
       </c>
       <c r="H22" s="3">
-        <v>133700</v>
+        <v>128700</v>
       </c>
       <c r="I22" s="3">
-        <v>132900</v>
+        <v>128000</v>
       </c>
       <c r="J22" s="3">
-        <v>138900</v>
+        <v>133800</v>
       </c>
       <c r="K22" s="3">
         <v>192700</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2827000</v>
+        <v>2722900</v>
       </c>
       <c r="E23" s="3">
-        <v>3402900</v>
+        <v>3277600</v>
       </c>
       <c r="F23" s="3">
-        <v>3061300</v>
+        <v>2948600</v>
       </c>
       <c r="G23" s="3">
-        <v>2560400</v>
+        <v>2466200</v>
       </c>
       <c r="H23" s="3">
-        <v>2109200</v>
+        <v>2031500</v>
       </c>
       <c r="I23" s="3">
-        <v>1499500</v>
+        <v>1444300</v>
       </c>
       <c r="J23" s="3">
-        <v>1272700</v>
+        <v>1225900</v>
       </c>
       <c r="K23" s="3">
         <v>587300</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>714100</v>
+        <v>687800</v>
       </c>
       <c r="E24" s="3">
-        <v>773400</v>
+        <v>744900</v>
       </c>
       <c r="F24" s="3">
-        <v>732800</v>
+        <v>705900</v>
       </c>
       <c r="G24" s="3">
-        <v>657800</v>
+        <v>633500</v>
       </c>
       <c r="H24" s="3">
-        <v>455800</v>
+        <v>439000</v>
       </c>
       <c r="I24" s="3">
-        <v>334900</v>
+        <v>322600</v>
       </c>
       <c r="J24" s="3">
-        <v>238800</v>
+        <v>230000</v>
       </c>
       <c r="K24" s="3">
         <v>7700</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2112900</v>
+        <v>2035100</v>
       </c>
       <c r="E26" s="3">
-        <v>2629500</v>
+        <v>2532700</v>
       </c>
       <c r="F26" s="3">
-        <v>2328400</v>
+        <v>2242700</v>
       </c>
       <c r="G26" s="3">
-        <v>1902700</v>
+        <v>1832600</v>
       </c>
       <c r="H26" s="3">
-        <v>1653400</v>
+        <v>1592500</v>
       </c>
       <c r="I26" s="3">
-        <v>1164600</v>
+        <v>1121700</v>
       </c>
       <c r="J26" s="3">
-        <v>1033900</v>
+        <v>995900</v>
       </c>
       <c r="K26" s="3">
         <v>579500</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2112900</v>
+        <v>2035100</v>
       </c>
       <c r="E27" s="3">
-        <v>2629500</v>
+        <v>2532700</v>
       </c>
       <c r="F27" s="3">
-        <v>2328400</v>
+        <v>2242700</v>
       </c>
       <c r="G27" s="3">
-        <v>1902700</v>
+        <v>1832600</v>
       </c>
       <c r="H27" s="3">
-        <v>1653400</v>
+        <v>1592500</v>
       </c>
       <c r="I27" s="3">
-        <v>1164600</v>
+        <v>1121700</v>
       </c>
       <c r="J27" s="3">
-        <v>1033900</v>
+        <v>995900</v>
       </c>
       <c r="K27" s="3">
         <v>579500</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>454300</v>
+        <v>437500</v>
       </c>
       <c r="E32" s="3">
-        <v>256000</v>
+        <v>246600</v>
       </c>
       <c r="F32" s="3">
-        <v>-130600</v>
+        <v>-125800</v>
       </c>
       <c r="G32" s="3">
-        <v>-105900</v>
+        <v>-102000</v>
       </c>
       <c r="H32" s="3">
-        <v>218500</v>
+        <v>210500</v>
       </c>
       <c r="I32" s="3">
-        <v>-422000</v>
+        <v>-406400</v>
       </c>
       <c r="J32" s="3">
-        <v>-189200</v>
+        <v>-182300</v>
       </c>
       <c r="K32" s="3">
         <v>-478200</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2112900</v>
+        <v>2035100</v>
       </c>
       <c r="E33" s="3">
-        <v>2629500</v>
+        <v>2532700</v>
       </c>
       <c r="F33" s="3">
-        <v>2328400</v>
+        <v>2242700</v>
       </c>
       <c r="G33" s="3">
-        <v>1902700</v>
+        <v>1832600</v>
       </c>
       <c r="H33" s="3">
-        <v>1653400</v>
+        <v>1592500</v>
       </c>
       <c r="I33" s="3">
-        <v>1164600</v>
+        <v>1121700</v>
       </c>
       <c r="J33" s="3">
-        <v>1033900</v>
+        <v>995900</v>
       </c>
       <c r="K33" s="3">
         <v>579500</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2112900</v>
+        <v>2035100</v>
       </c>
       <c r="E35" s="3">
-        <v>2629500</v>
+        <v>2532700</v>
       </c>
       <c r="F35" s="3">
-        <v>2328400</v>
+        <v>2242700</v>
       </c>
       <c r="G35" s="3">
-        <v>1902700</v>
+        <v>1832600</v>
       </c>
       <c r="H35" s="3">
-        <v>1653400</v>
+        <v>1592500</v>
       </c>
       <c r="I35" s="3">
-        <v>1164600</v>
+        <v>1121700</v>
       </c>
       <c r="J35" s="3">
-        <v>1033900</v>
+        <v>995900</v>
       </c>
       <c r="K35" s="3">
         <v>579500</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>424200</v>
+        <v>408600</v>
       </c>
       <c r="E41" s="3">
-        <v>175000</v>
+        <v>168500</v>
       </c>
       <c r="F41" s="3">
-        <v>93900</v>
+        <v>90400</v>
       </c>
       <c r="G41" s="3">
-        <v>558600</v>
+        <v>538100</v>
       </c>
       <c r="H41" s="3">
-        <v>671300</v>
+        <v>646600</v>
       </c>
       <c r="I41" s="3">
-        <v>126100</v>
+        <v>121500</v>
       </c>
       <c r="J41" s="3">
-        <v>124600</v>
+        <v>120100</v>
       </c>
       <c r="K41" s="3">
         <v>142400</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>302600</v>
+        <v>291500</v>
       </c>
       <c r="E42" s="3">
-        <v>275600</v>
+        <v>265400</v>
       </c>
       <c r="F42" s="3">
-        <v>294300</v>
+        <v>283500</v>
       </c>
       <c r="G42" s="3">
-        <v>232000</v>
+        <v>223500</v>
       </c>
       <c r="H42" s="3">
-        <v>229800</v>
+        <v>221300</v>
       </c>
       <c r="I42" s="3">
-        <v>352200</v>
+        <v>339200</v>
       </c>
       <c r="J42" s="3">
-        <v>316900</v>
+        <v>305200</v>
       </c>
       <c r="K42" s="3">
         <v>236000</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2937400</v>
+        <v>2829200</v>
       </c>
       <c r="E43" s="3">
-        <v>3765600</v>
+        <v>3626900</v>
       </c>
       <c r="F43" s="3">
-        <v>3534300</v>
+        <v>3404200</v>
       </c>
       <c r="G43" s="3">
-        <v>2335900</v>
+        <v>2249900</v>
       </c>
       <c r="H43" s="3">
-        <v>2384700</v>
+        <v>2296900</v>
       </c>
       <c r="I43" s="3">
-        <v>2390700</v>
+        <v>2302700</v>
       </c>
       <c r="J43" s="3">
-        <v>2089600</v>
+        <v>2012700</v>
       </c>
       <c r="K43" s="3">
         <v>1933600</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1378600</v>
+        <v>1327800</v>
       </c>
       <c r="E44" s="3">
-        <v>1439400</v>
+        <v>1386400</v>
       </c>
       <c r="F44" s="3">
-        <v>1273500</v>
+        <v>1226600</v>
       </c>
       <c r="G44" s="3">
-        <v>1162300</v>
+        <v>1119500</v>
       </c>
       <c r="H44" s="3">
-        <v>927300</v>
+        <v>893200</v>
       </c>
       <c r="I44" s="3">
-        <v>911500</v>
+        <v>878000</v>
       </c>
       <c r="J44" s="3">
-        <v>816900</v>
+        <v>786900</v>
       </c>
       <c r="K44" s="3">
         <v>820200</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>325900</v>
+        <v>313900</v>
       </c>
       <c r="E45" s="3">
-        <v>301100</v>
+        <v>290000</v>
       </c>
       <c r="F45" s="3">
-        <v>222300</v>
+        <v>214100</v>
       </c>
       <c r="G45" s="3">
-        <v>172700</v>
+        <v>166300</v>
       </c>
       <c r="H45" s="3">
-        <v>260500</v>
+        <v>251000</v>
       </c>
       <c r="I45" s="3">
-        <v>337100</v>
+        <v>324700</v>
       </c>
       <c r="J45" s="3">
-        <v>295800</v>
+        <v>284900</v>
       </c>
       <c r="K45" s="3">
         <v>242200</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5368600</v>
+        <v>5171000</v>
       </c>
       <c r="E46" s="3">
-        <v>5956600</v>
+        <v>5737300</v>
       </c>
       <c r="F46" s="3">
-        <v>5418200</v>
+        <v>5218800</v>
       </c>
       <c r="G46" s="3">
-        <v>4461600</v>
+        <v>4297400</v>
       </c>
       <c r="H46" s="3">
-        <v>4473600</v>
+        <v>4308900</v>
       </c>
       <c r="I46" s="3">
-        <v>4117700</v>
+        <v>3966100</v>
       </c>
       <c r="J46" s="3">
-        <v>3643900</v>
+        <v>3509800</v>
       </c>
       <c r="K46" s="3">
         <v>3374300</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>416700</v>
+        <v>401400</v>
       </c>
       <c r="K47" s="3">
         <v>429400</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52442300</v>
+        <v>50511900</v>
       </c>
       <c r="E48" s="3">
-        <v>52389000</v>
+        <v>50460500</v>
       </c>
       <c r="F48" s="3">
-        <v>52686300</v>
+        <v>50746900</v>
       </c>
       <c r="G48" s="3">
-        <v>52678800</v>
+        <v>50739700</v>
       </c>
       <c r="H48" s="3">
-        <v>51607400</v>
+        <v>49707600</v>
       </c>
       <c r="I48" s="3">
-        <v>51782300</v>
+        <v>49876100</v>
       </c>
       <c r="J48" s="3">
-        <v>51921200</v>
+        <v>50009900</v>
       </c>
       <c r="K48" s="3">
         <v>54033300</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>364900</v>
+        <v>351500</v>
       </c>
       <c r="E52" s="3">
-        <v>346100</v>
+        <v>333400</v>
       </c>
       <c r="F52" s="3">
-        <v>471500</v>
+        <v>454200</v>
       </c>
       <c r="G52" s="3">
-        <v>424200</v>
+        <v>408600</v>
       </c>
       <c r="H52" s="3">
-        <v>452000</v>
+        <v>435400</v>
       </c>
       <c r="I52" s="3">
-        <v>434700</v>
+        <v>418700</v>
       </c>
       <c r="J52" s="3">
-        <v>428000</v>
+        <v>412200</v>
       </c>
       <c r="K52" s="3">
         <v>407800</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58175900</v>
+        <v>56034400</v>
       </c>
       <c r="E54" s="3">
-        <v>58691700</v>
+        <v>56531200</v>
       </c>
       <c r="F54" s="3">
-        <v>58576100</v>
+        <v>56419800</v>
       </c>
       <c r="G54" s="3">
-        <v>57564700</v>
+        <v>55445700</v>
       </c>
       <c r="H54" s="3">
-        <v>56533000</v>
+        <v>54452000</v>
       </c>
       <c r="I54" s="3">
-        <v>56334800</v>
+        <v>54261000</v>
       </c>
       <c r="J54" s="3">
-        <v>56409900</v>
+        <v>54333300</v>
       </c>
       <c r="K54" s="3">
         <v>58244800</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>949800</v>
+        <v>914900</v>
       </c>
       <c r="E57" s="3">
-        <v>863500</v>
+        <v>831700</v>
       </c>
       <c r="F57" s="3">
-        <v>723800</v>
+        <v>697200</v>
       </c>
       <c r="G57" s="3">
-        <v>602900</v>
+        <v>580700</v>
       </c>
       <c r="H57" s="3">
-        <v>742600</v>
+        <v>715300</v>
       </c>
       <c r="I57" s="3">
-        <v>587900</v>
+        <v>566300</v>
       </c>
       <c r="J57" s="3">
-        <v>569900</v>
+        <v>548900</v>
       </c>
       <c r="K57" s="3">
         <v>516100</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1172800</v>
+        <v>1129700</v>
       </c>
       <c r="E58" s="3">
-        <v>1112000</v>
+        <v>1071100</v>
       </c>
       <c r="F58" s="3">
-        <v>2197000</v>
+        <v>2116100</v>
       </c>
       <c r="G58" s="3">
-        <v>889800</v>
+        <v>857000</v>
       </c>
       <c r="H58" s="3">
-        <v>890500</v>
+        <v>857700</v>
       </c>
       <c r="I58" s="3">
-        <v>1866600</v>
+        <v>1797900</v>
       </c>
       <c r="J58" s="3">
-        <v>1470200</v>
+        <v>1416100</v>
       </c>
       <c r="K58" s="3">
         <v>1185400</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4728900</v>
+        <v>4554800</v>
       </c>
       <c r="E59" s="3">
-        <v>5020200</v>
+        <v>4835400</v>
       </c>
       <c r="F59" s="3">
-        <v>4340700</v>
+        <v>4180900</v>
       </c>
       <c r="G59" s="3">
-        <v>4080200</v>
+        <v>3930000</v>
       </c>
       <c r="H59" s="3">
-        <v>3273700</v>
+        <v>3153200</v>
       </c>
       <c r="I59" s="3">
-        <v>2847300</v>
+        <v>2742500</v>
       </c>
       <c r="J59" s="3">
-        <v>2464300</v>
+        <v>2373600</v>
       </c>
       <c r="K59" s="3">
         <v>2227600</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6851600</v>
+        <v>6599400</v>
       </c>
       <c r="E60" s="3">
-        <v>6995800</v>
+        <v>6738200</v>
       </c>
       <c r="F60" s="3">
-        <v>7261600</v>
+        <v>6994300</v>
       </c>
       <c r="G60" s="3">
-        <v>5572900</v>
+        <v>5367700</v>
       </c>
       <c r="H60" s="3">
-        <v>4906900</v>
+        <v>4726200</v>
       </c>
       <c r="I60" s="3">
-        <v>5301800</v>
+        <v>5106700</v>
       </c>
       <c r="J60" s="3">
-        <v>4504400</v>
+        <v>4338600</v>
       </c>
       <c r="K60" s="3">
         <v>3929100</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9698900</v>
+        <v>9341800</v>
       </c>
       <c r="E61" s="3">
-        <v>9526900</v>
+        <v>9176200</v>
       </c>
       <c r="F61" s="3">
-        <v>9413500</v>
+        <v>9067000</v>
       </c>
       <c r="G61" s="3">
-        <v>11332700</v>
+        <v>10915600</v>
       </c>
       <c r="H61" s="3">
-        <v>12910300</v>
+        <v>12435000</v>
       </c>
       <c r="I61" s="3">
-        <v>13113000</v>
+        <v>12630300</v>
       </c>
       <c r="J61" s="3">
-        <v>14792700</v>
+        <v>14248200</v>
       </c>
       <c r="K61" s="3">
         <v>16721500</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12988400</v>
+        <v>12510300</v>
       </c>
       <c r="E62" s="3">
-        <v>12630200</v>
+        <v>12165300</v>
       </c>
       <c r="F62" s="3">
-        <v>13000400</v>
+        <v>12521800</v>
       </c>
       <c r="G62" s="3">
-        <v>12918500</v>
+        <v>12443000</v>
       </c>
       <c r="H62" s="3">
-        <v>12040800</v>
+        <v>11597600</v>
       </c>
       <c r="I62" s="3">
-        <v>12235300</v>
+        <v>11784900</v>
       </c>
       <c r="J62" s="3">
-        <v>12160900</v>
+        <v>11713300</v>
       </c>
       <c r="K62" s="3">
         <v>12540200</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29538800</v>
+        <v>28451500</v>
       </c>
       <c r="E66" s="3">
-        <v>29152900</v>
+        <v>28079700</v>
       </c>
       <c r="F66" s="3">
-        <v>29675500</v>
+        <v>28583100</v>
       </c>
       <c r="G66" s="3">
-        <v>29824200</v>
+        <v>28726300</v>
       </c>
       <c r="H66" s="3">
-        <v>29857900</v>
+        <v>28758800</v>
       </c>
       <c r="I66" s="3">
-        <v>30650100</v>
+        <v>29521800</v>
       </c>
       <c r="J66" s="3">
-        <v>31458000</v>
+        <v>30300000</v>
       </c>
       <c r="K66" s="3">
         <v>33190800</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20834100</v>
+        <v>20067200</v>
       </c>
       <c r="E72" s="3">
-        <v>21732100</v>
+        <v>20932200</v>
       </c>
       <c r="F72" s="3">
-        <v>21072100</v>
+        <v>20296400</v>
       </c>
       <c r="G72" s="3">
-        <v>20106500</v>
+        <v>19366400</v>
       </c>
       <c r="H72" s="3">
-        <v>19246000</v>
+        <v>18537600</v>
       </c>
       <c r="I72" s="3">
-        <v>18313500</v>
+        <v>17639300</v>
       </c>
       <c r="J72" s="3">
-        <v>17695500</v>
+        <v>17044100</v>
       </c>
       <c r="K72" s="3">
         <v>17615200</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28637000</v>
+        <v>27582900</v>
       </c>
       <c r="E76" s="3">
-        <v>29538800</v>
+        <v>28451500</v>
       </c>
       <c r="F76" s="3">
-        <v>28900600</v>
+        <v>27836700</v>
       </c>
       <c r="G76" s="3">
-        <v>27740500</v>
+        <v>26719400</v>
       </c>
       <c r="H76" s="3">
-        <v>26675100</v>
+        <v>25693100</v>
       </c>
       <c r="I76" s="3">
-        <v>25684700</v>
+        <v>24739200</v>
       </c>
       <c r="J76" s="3">
-        <v>24951800</v>
+        <v>24033300</v>
       </c>
       <c r="K76" s="3">
         <v>25054000</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2112900</v>
+        <v>2035100</v>
       </c>
       <c r="E81" s="3">
-        <v>2629500</v>
+        <v>2532700</v>
       </c>
       <c r="F81" s="3">
-        <v>2328400</v>
+        <v>2242700</v>
       </c>
       <c r="G81" s="3">
-        <v>1902700</v>
+        <v>1832600</v>
       </c>
       <c r="H81" s="3">
-        <v>1653400</v>
+        <v>1592500</v>
       </c>
       <c r="I81" s="3">
-        <v>1164600</v>
+        <v>1121700</v>
       </c>
       <c r="J81" s="3">
-        <v>1033900</v>
+        <v>995900</v>
       </c>
       <c r="K81" s="3">
         <v>579500</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1091800</v>
+        <v>1051600</v>
       </c>
       <c r="E83" s="3">
-        <v>1023400</v>
+        <v>985700</v>
       </c>
       <c r="F83" s="3">
-        <v>1056500</v>
+        <v>1017600</v>
       </c>
       <c r="G83" s="3">
-        <v>1106000</v>
+        <v>1065300</v>
       </c>
       <c r="H83" s="3">
-        <v>1082700</v>
+        <v>1042900</v>
       </c>
       <c r="I83" s="3">
-        <v>1042200</v>
+        <v>1003800</v>
       </c>
       <c r="J83" s="3">
-        <v>1067000</v>
+        <v>1027700</v>
       </c>
       <c r="K83" s="3">
         <v>1249600</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4578700</v>
+        <v>4410200</v>
       </c>
       <c r="E89" s="3">
-        <v>4427100</v>
+        <v>4264100</v>
       </c>
       <c r="F89" s="3">
-        <v>2142200</v>
+        <v>2063300</v>
       </c>
       <c r="G89" s="3">
-        <v>3538100</v>
+        <v>3407800</v>
       </c>
       <c r="H89" s="3">
-        <v>3221200</v>
+        <v>3102600</v>
       </c>
       <c r="I89" s="3">
-        <v>2207500</v>
+        <v>2126300</v>
       </c>
       <c r="J89" s="3">
-        <v>1904200</v>
+        <v>1834100</v>
       </c>
       <c r="K89" s="3">
         <v>982700</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K91" s="3">
         <v>1416700</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-847700</v>
+        <v>-816500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1009900</v>
+        <v>-972700</v>
       </c>
       <c r="F94" s="3">
-        <v>-939300</v>
+        <v>-904700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1212600</v>
+        <v>-1168000</v>
       </c>
       <c r="H94" s="3">
-        <v>-541400</v>
+        <v>-521400</v>
       </c>
       <c r="I94" s="3">
-        <v>-539900</v>
+        <v>-520000</v>
       </c>
       <c r="J94" s="3">
-        <v>-486600</v>
+        <v>-468600</v>
       </c>
       <c r="K94" s="3">
         <v>-482800</v>
@@ -6959,25 +6959,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1901200</v>
+        <v>-1831200</v>
       </c>
       <c r="E96" s="3">
-        <v>-654000</v>
+        <v>-629900</v>
       </c>
       <c r="F96" s="3">
-        <v>-517300</v>
+        <v>-498300</v>
       </c>
       <c r="G96" s="3">
-        <v>-414500</v>
+        <v>-399200</v>
       </c>
       <c r="H96" s="3">
-        <v>-419000</v>
+        <v>-403600</v>
       </c>
       <c r="I96" s="3">
-        <v>-418200</v>
+        <v>-402800</v>
       </c>
       <c r="J96" s="3">
-        <v>-377700</v>
+        <v>-363800</v>
       </c>
       <c r="K96" s="3">
         <v>-388400</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3481700</v>
+        <v>-3353600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3336100</v>
+        <v>-3213300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1667700</v>
+        <v>-1606300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2438000</v>
+        <v>-2348300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2134700</v>
+        <v>-2056100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1666200</v>
+        <v>-1604800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1431100</v>
+        <v>-1378500</v>
       </c>
       <c r="K100" s="3">
         <v>-492900</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>249300</v>
+        <v>240100</v>
       </c>
       <c r="E102" s="3">
-        <v>81100</v>
+        <v>78100</v>
       </c>
       <c r="F102" s="3">
-        <v>-464800</v>
+        <v>-447700</v>
       </c>
       <c r="G102" s="3">
-        <v>-112600</v>
+        <v>-108500</v>
       </c>
       <c r="H102" s="3">
-        <v>545100</v>
+        <v>525100</v>
       </c>
       <c r="I102" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J102" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="K102" s="3">
         <v>7000</v>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7562700</v>
+        <v>6392600</v>
       </c>
       <c r="E8" s="3">
-        <v>8298900</v>
+        <v>7177000</v>
       </c>
       <c r="F8" s="3">
-        <v>7721800</v>
+        <v>7745900</v>
       </c>
       <c r="G8" s="3">
-        <v>6663000</v>
+        <v>8500000</v>
       </c>
       <c r="H8" s="3">
-        <v>5576700</v>
+        <v>7908900</v>
       </c>
       <c r="I8" s="3">
+        <v>6824400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5711800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4719000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4779000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3882700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3452900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2253000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3531300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4600800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5106900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4410800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4040000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2817600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4286700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4480600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4120800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3872100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3323600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2910600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2797900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2656500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3117800</v>
+        <v>3331800</v>
       </c>
       <c r="E9" s="3">
-        <v>3593700</v>
+        <v>3637000</v>
       </c>
       <c r="F9" s="3">
-        <v>3250900</v>
+        <v>3193300</v>
       </c>
       <c r="G9" s="3">
-        <v>2845100</v>
+        <v>3680700</v>
       </c>
       <c r="H9" s="3">
-        <v>2370700</v>
+        <v>3329600</v>
       </c>
       <c r="I9" s="3">
+        <v>2914100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2428100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2354100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2378700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2281800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1951100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1701300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2445200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2388900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2332900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2005500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1977700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1895900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1901000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2080700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2094300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2102400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1830800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1529400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1339800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1267600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4444900</v>
+        <v>3060700</v>
       </c>
       <c r="E10" s="3">
-        <v>4705300</v>
+        <v>3540000</v>
       </c>
       <c r="F10" s="3">
-        <v>4470900</v>
+        <v>4552600</v>
       </c>
       <c r="G10" s="3">
-        <v>3817900</v>
+        <v>4819300</v>
       </c>
       <c r="H10" s="3">
-        <v>3206000</v>
+        <v>4579300</v>
       </c>
       <c r="I10" s="3">
+        <v>3910400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3283700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2364900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2400400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1600900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1501800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>551700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1086100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2211900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2774000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2405200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2062300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>921700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2385700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2399900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2026500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1769700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1492900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1381300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1458100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1389000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,40 +1239,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-345700</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-167900</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>-167900</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1250,11 +1289,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1286,88 +1325,100 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1051600</v>
+        <v>1050400</v>
       </c>
       <c r="E15" s="3">
-        <v>985700</v>
+        <v>2317800</v>
       </c>
       <c r="F15" s="3">
-        <v>1017600</v>
+        <v>1077000</v>
       </c>
       <c r="G15" s="3">
-        <v>1065300</v>
+        <v>1009600</v>
       </c>
       <c r="H15" s="3">
-        <v>1042900</v>
+        <v>1042200</v>
       </c>
       <c r="I15" s="3">
+        <v>1091100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1068100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1003800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1027700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1249600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1122400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1101000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1227300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1208500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1182200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1036500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>972300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1010700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>949100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>956000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>946300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>1046400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>945900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>900500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>997900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>959500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4293800</v>
+        <v>4577800</v>
       </c>
       <c r="E17" s="3">
-        <v>4659000</v>
+        <v>6331800</v>
       </c>
       <c r="F17" s="3">
-        <v>4781200</v>
+        <v>4397800</v>
       </c>
       <c r="G17" s="3">
-        <v>4152000</v>
+        <v>4771800</v>
       </c>
       <c r="H17" s="3">
-        <v>3206000</v>
+        <v>4897000</v>
       </c>
       <c r="I17" s="3">
+        <v>4252600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3283700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3553200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3601600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3580900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3176200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2929400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3623100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3836000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3641200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3139600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3085400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2898200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2878400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3261100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3069900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3316900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2948600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2437300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2453000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2352300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3269000</v>
+        <v>1814800</v>
       </c>
       <c r="E18" s="3">
-        <v>3640000</v>
+        <v>845200</v>
       </c>
       <c r="F18" s="3">
-        <v>2940600</v>
+        <v>3348100</v>
       </c>
       <c r="G18" s="3">
-        <v>2511000</v>
+        <v>3728100</v>
       </c>
       <c r="H18" s="3">
-        <v>2370700</v>
+        <v>3011800</v>
       </c>
       <c r="I18" s="3">
+        <v>2571800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2428100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1165800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1177400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>301800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>276800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-676400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-91800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>764900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1465800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1271200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>954600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-80700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1408300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1219500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1050900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>555200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>375100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>473300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>344900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>304200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-437500</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-246600</v>
+        <v>285900</v>
       </c>
       <c r="F20" s="3">
-        <v>125800</v>
+        <v>-448100</v>
       </c>
       <c r="G20" s="3">
-        <v>102000</v>
+        <v>-252600</v>
       </c>
       <c r="H20" s="3">
-        <v>-210500</v>
+        <v>128900</v>
       </c>
       <c r="I20" s="3">
+        <v>104400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-215600</v>
+      </c>
+      <c r="K20" s="3">
         <v>406400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>182300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>478200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>176300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>355500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-877300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>104500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-143400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>114200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>131600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-422400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>281200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-21100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-249900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>90800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>343100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>494200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>14600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>57600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3883000</v>
+        <v>2859300</v>
       </c>
       <c r="E21" s="3">
-        <v>4379100</v>
+        <v>3448900</v>
       </c>
       <c r="F21" s="3">
-        <v>4084000</v>
+        <v>3977000</v>
       </c>
       <c r="G21" s="3">
-        <v>3678300</v>
+        <v>4485200</v>
       </c>
       <c r="H21" s="3">
-        <v>3203100</v>
+        <v>4183000</v>
       </c>
       <c r="I21" s="3">
+        <v>3767400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3280700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2576100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2387300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2029500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1575400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>780000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>258200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2077800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2504600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2421900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2058500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>507600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2638600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2154500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1747200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1692300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1664100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1868000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1357500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1321400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108500</v>
+        <v>114100</v>
       </c>
       <c r="E22" s="3">
-        <v>115700</v>
+        <v>145900</v>
       </c>
       <c r="F22" s="3">
-        <v>117900</v>
+        <v>111100</v>
       </c>
       <c r="G22" s="3">
-        <v>146800</v>
+        <v>118500</v>
       </c>
       <c r="H22" s="3">
-        <v>128700</v>
+        <v>120700</v>
       </c>
       <c r="I22" s="3">
+        <v>150400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K22" s="3">
         <v>128000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>133800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>192700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>133400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>156200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>161700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>228400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>191500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>156200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>147000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>181100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>130800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>143000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>143000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>198000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>136200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>107900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>102900</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2722900</v>
+        <v>1694800</v>
       </c>
       <c r="E23" s="3">
-        <v>3277600</v>
+        <v>985200</v>
       </c>
       <c r="F23" s="3">
-        <v>2948600</v>
+        <v>2788900</v>
       </c>
       <c r="G23" s="3">
-        <v>2466200</v>
+        <v>3357000</v>
       </c>
       <c r="H23" s="3">
-        <v>2031500</v>
+        <v>3020000</v>
       </c>
       <c r="I23" s="3">
+        <v>2525900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2080700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1444300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1225900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>587300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>319700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-477100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>640900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1130800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1229200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>939200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-684200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1558800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1055400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>657900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>448000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>582000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>859600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>256600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>361800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>687800</v>
+        <v>362200</v>
       </c>
       <c r="E24" s="3">
-        <v>744900</v>
+        <v>-140700</v>
       </c>
       <c r="F24" s="3">
-        <v>705900</v>
+        <v>704400</v>
       </c>
       <c r="G24" s="3">
-        <v>633500</v>
+        <v>763000</v>
       </c>
       <c r="H24" s="3">
-        <v>439000</v>
+        <v>723000</v>
       </c>
       <c r="I24" s="3">
+        <v>648900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>449600</v>
+      </c>
+      <c r="K24" s="3">
         <v>322600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>230000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-233900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-124800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>175400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>279400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>199400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-93600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>249300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>316200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>219100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>153300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>72900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>61800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>68400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-73000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2035100</v>
+        <v>1332600</v>
       </c>
       <c r="E26" s="3">
-        <v>2532700</v>
+        <v>1125900</v>
       </c>
       <c r="F26" s="3">
-        <v>2242700</v>
+        <v>2084400</v>
       </c>
       <c r="G26" s="3">
-        <v>1832600</v>
+        <v>2594100</v>
       </c>
       <c r="H26" s="3">
-        <v>1592500</v>
+        <v>2297000</v>
       </c>
       <c r="I26" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1631100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1121700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>995900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>579500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>312800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-243300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>465500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>851400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2245000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>739800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-590600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1309500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>739200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>438900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>294700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>509000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>797800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>188200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>434800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2035100</v>
+        <v>1332600</v>
       </c>
       <c r="E27" s="3">
-        <v>2532700</v>
+        <v>1125900</v>
       </c>
       <c r="F27" s="3">
-        <v>2242700</v>
+        <v>2084400</v>
       </c>
       <c r="G27" s="3">
-        <v>1832600</v>
+        <v>2594100</v>
       </c>
       <c r="H27" s="3">
-        <v>1592500</v>
+        <v>2297000</v>
       </c>
       <c r="I27" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1631100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1121700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>995900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>579500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>312800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-243300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>465500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>851400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2245000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>739800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-590600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1309500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>739200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>438900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>294700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>509000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>797800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>188200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>434800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>437500</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>246600</v>
+        <v>-285900</v>
       </c>
       <c r="F32" s="3">
-        <v>-125800</v>
+        <v>448100</v>
       </c>
       <c r="G32" s="3">
-        <v>-102000</v>
+        <v>252600</v>
       </c>
       <c r="H32" s="3">
-        <v>210500</v>
+        <v>-128900</v>
       </c>
       <c r="I32" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-406400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-182300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-478200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-176300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-355500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>877300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-104500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>143400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-114200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-131600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>422400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-281200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>21100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>249900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-90800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-343100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-494200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-57600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2035100</v>
+        <v>1332600</v>
       </c>
       <c r="E33" s="3">
-        <v>2532700</v>
+        <v>1125900</v>
       </c>
       <c r="F33" s="3">
-        <v>2242700</v>
+        <v>2084400</v>
       </c>
       <c r="G33" s="3">
-        <v>1832600</v>
+        <v>2594100</v>
       </c>
       <c r="H33" s="3">
-        <v>1592500</v>
+        <v>2297000</v>
       </c>
       <c r="I33" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1631100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1121700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>995900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>579500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>312800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-243300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>465500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>851400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2245000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>739800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-590600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1309500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>739200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>438900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>294700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>509000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>797800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>188200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>434800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2035100</v>
+        <v>1332600</v>
       </c>
       <c r="E35" s="3">
-        <v>2532700</v>
+        <v>1125900</v>
       </c>
       <c r="F35" s="3">
-        <v>2242700</v>
+        <v>2084400</v>
       </c>
       <c r="G35" s="3">
-        <v>1832600</v>
+        <v>2594100</v>
       </c>
       <c r="H35" s="3">
-        <v>1592500</v>
+        <v>2297000</v>
       </c>
       <c r="I35" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1631100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1121700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>995900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>579500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>312800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-243300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>465500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>851400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2245000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>739800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-590600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1309500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>739200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>438900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>294700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>509000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>797800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>188200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>434800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,648 +3179,698 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>408600</v>
+        <v>68100</v>
       </c>
       <c r="E41" s="3">
-        <v>168500</v>
+        <v>681500</v>
       </c>
       <c r="F41" s="3">
-        <v>90400</v>
+        <v>418500</v>
       </c>
       <c r="G41" s="3">
-        <v>538100</v>
+        <v>172600</v>
       </c>
       <c r="H41" s="3">
-        <v>646600</v>
+        <v>92600</v>
       </c>
       <c r="I41" s="3">
+        <v>551100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>662200</v>
+      </c>
+      <c r="K41" s="3">
         <v>121500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>120100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>142400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>134200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>182800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>840500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>108400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>145900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>315600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>69300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>76900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>215100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>137000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>114400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>102000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>232200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>37200</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>14600</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>13100</v>
       </c>
       <c r="AB41" s="3">
         <v>14600</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>291500</v>
+        <v>358500</v>
       </c>
       <c r="E42" s="3">
-        <v>265400</v>
+        <v>363700</v>
       </c>
       <c r="F42" s="3">
-        <v>283500</v>
+        <v>298500</v>
       </c>
       <c r="G42" s="3">
-        <v>223500</v>
+        <v>271900</v>
       </c>
       <c r="H42" s="3">
-        <v>221300</v>
+        <v>290400</v>
       </c>
       <c r="I42" s="3">
+        <v>228900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K42" s="3">
         <v>339200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>305200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>236000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>208500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>215800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>174200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>382000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>470100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>433800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>422600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>398800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>478200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>560800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>587900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>664600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>660900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>619200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>626100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>701400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2829200</v>
+        <v>2520000</v>
       </c>
       <c r="E43" s="3">
-        <v>3626900</v>
+        <v>2633300</v>
       </c>
       <c r="F43" s="3">
-        <v>3404200</v>
+        <v>2897800</v>
       </c>
       <c r="G43" s="3">
-        <v>2249900</v>
+        <v>3714800</v>
       </c>
       <c r="H43" s="3">
-        <v>2296900</v>
+        <v>3486700</v>
       </c>
       <c r="I43" s="3">
+        <v>2304400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2352600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2302700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2012700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1933600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1477300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1692700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1195900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1932000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1993900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1684400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1760600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>873700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1436700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1965500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1656100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2023500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1239100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1637300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1637100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1755400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1327800</v>
+        <v>1422200</v>
       </c>
       <c r="E44" s="3">
-        <v>1386400</v>
+        <v>1344400</v>
       </c>
       <c r="F44" s="3">
-        <v>1226600</v>
+        <v>1360000</v>
       </c>
       <c r="G44" s="3">
-        <v>1119500</v>
+        <v>1420000</v>
       </c>
       <c r="H44" s="3">
-        <v>893200</v>
+        <v>1256300</v>
       </c>
       <c r="I44" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>914800</v>
+      </c>
+      <c r="K44" s="3">
         <v>878000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>786900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>820200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>830300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>859300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>737700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>898200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>954200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>942900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>825200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>726800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>812400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>783700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>744500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>665300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>652700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>691400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>505500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>529300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>313900</v>
+        <v>227400</v>
       </c>
       <c r="E45" s="3">
-        <v>290000</v>
+        <v>204400</v>
       </c>
       <c r="F45" s="3">
-        <v>214100</v>
+        <v>321500</v>
       </c>
       <c r="G45" s="3">
-        <v>166300</v>
+        <v>297000</v>
       </c>
       <c r="H45" s="3">
-        <v>251000</v>
+        <v>219300</v>
       </c>
       <c r="I45" s="3">
+        <v>170400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K45" s="3">
         <v>324700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>284900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>242200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>443100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>240900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>335100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>177800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>314200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>306900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>204000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>222200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>258700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>297400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>198700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>189000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>282100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>266400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>398700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>331900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5171000</v>
+        <v>4596300</v>
       </c>
       <c r="E46" s="3">
-        <v>5737300</v>
+        <v>5227400</v>
       </c>
       <c r="F46" s="3">
-        <v>5218800</v>
+        <v>5296300</v>
       </c>
       <c r="G46" s="3">
-        <v>4297400</v>
+        <v>5876300</v>
       </c>
       <c r="H46" s="3">
-        <v>4308900</v>
+        <v>5345200</v>
       </c>
       <c r="I46" s="3">
+        <v>4401500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4413300</v>
+      </c>
+      <c r="K46" s="3">
         <v>3966100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3509800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3374300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3093400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3191500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3283400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3498400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3878300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3683600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3281700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2298500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3201100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3744400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3301700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3644400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3066900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3251500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3182000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3331000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>401400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>429400</v>
+      </c>
+      <c r="N47" s="3">
+        <v>520500</v>
+      </c>
+      <c r="O47" s="3">
+        <v>536000</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>401400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>429400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>520500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>536000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>508300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>587800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>620100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>641300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>668200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>627900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>641400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>627800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>596900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>557400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>519500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>504700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>496300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50511900</v>
+        <v>50686600</v>
       </c>
       <c r="E48" s="3">
-        <v>50460500</v>
+        <v>50764400</v>
       </c>
       <c r="F48" s="3">
-        <v>50746900</v>
+        <v>51735500</v>
       </c>
       <c r="G48" s="3">
-        <v>50739700</v>
+        <v>51682900</v>
       </c>
       <c r="H48" s="3">
-        <v>49707600</v>
+        <v>51976200</v>
       </c>
       <c r="I48" s="3">
+        <v>51968800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>50911800</v>
+      </c>
+      <c r="K48" s="3">
         <v>49876100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>50009900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>54033300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>52633700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>54504900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>55426200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>56456700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>60141800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>57872200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>52626400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>51142200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>49193300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>50788500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>50896900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>50458900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>50437300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>49826300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>40562500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>40940500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>351500</v>
+        <v>465200</v>
       </c>
       <c r="E52" s="3">
-        <v>333400</v>
+        <v>409600</v>
       </c>
       <c r="F52" s="3">
-        <v>454200</v>
+        <v>360000</v>
       </c>
       <c r="G52" s="3">
-        <v>408600</v>
+        <v>341500</v>
       </c>
       <c r="H52" s="3">
-        <v>435400</v>
+        <v>465200</v>
       </c>
       <c r="I52" s="3">
+        <v>418500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>445900</v>
+      </c>
+      <c r="K52" s="3">
         <v>418700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>412200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>407800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>276800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>423000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>992700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>445200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>499100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>437000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>392600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>353900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>276100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>290600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>288300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>272400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>256800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>276100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>262000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>287300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56034400</v>
+        <v>55748100</v>
       </c>
       <c r="E54" s="3">
-        <v>56531200</v>
+        <v>56401400</v>
       </c>
       <c r="F54" s="3">
-        <v>56419800</v>
+        <v>57391800</v>
       </c>
       <c r="G54" s="3">
-        <v>55445700</v>
+        <v>57900700</v>
       </c>
       <c r="H54" s="3">
-        <v>54452000</v>
+        <v>57786600</v>
       </c>
       <c r="I54" s="3">
+        <v>56788800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>55771100</v>
+      </c>
+      <c r="K54" s="3">
         <v>54261000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54333300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58244800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>56524400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58655400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>59702200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>60908600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>65107000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>62612900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>56942000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>54462800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>53298400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>55464800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>55114800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>54972600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>54318400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>53873400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>44511200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>45055200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>914900</v>
+        <v>903700</v>
       </c>
       <c r="E57" s="3">
-        <v>831700</v>
+        <v>993300</v>
       </c>
       <c r="F57" s="3">
-        <v>697200</v>
+        <v>937000</v>
       </c>
       <c r="G57" s="3">
-        <v>580700</v>
+        <v>851900</v>
       </c>
       <c r="H57" s="3">
-        <v>715300</v>
+        <v>714100</v>
       </c>
       <c r="I57" s="3">
+        <v>594800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>732600</v>
+      </c>
+      <c r="K57" s="3">
         <v>566300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>548900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>516100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>632500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>475600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>629400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>636200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>548800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>732800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>599700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>592900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>732500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>730200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>705400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>576800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>590900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>488200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>415600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>457100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1129700</v>
+        <v>915600</v>
       </c>
       <c r="E58" s="3">
-        <v>1071100</v>
+        <v>480000</v>
       </c>
       <c r="F58" s="3">
-        <v>2116100</v>
+        <v>1157000</v>
       </c>
       <c r="G58" s="3">
-        <v>857000</v>
+        <v>1097000</v>
       </c>
       <c r="H58" s="3">
-        <v>857700</v>
+        <v>2167400</v>
       </c>
       <c r="I58" s="3">
+        <v>877800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>878500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1797900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1416100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1185400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>779700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1604800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2373100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2045900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3548300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3330700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1445700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>868400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>363300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>621800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>484800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1396900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1395400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1448200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>2403800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1392000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4554800</v>
+        <v>3739300</v>
       </c>
       <c r="E59" s="3">
-        <v>4835400</v>
+        <v>4934800</v>
       </c>
       <c r="F59" s="3">
-        <v>4180900</v>
+        <v>4665200</v>
       </c>
       <c r="G59" s="3">
-        <v>3930000</v>
+        <v>4952600</v>
       </c>
       <c r="H59" s="3">
-        <v>3153200</v>
+        <v>4282200</v>
       </c>
       <c r="I59" s="3">
+        <v>4025200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3229600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2742500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2373600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2227600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1774000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1778200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1944600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2492600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2415000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2201400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2274000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2163000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2387900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2305000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2067900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2685900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2323400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2111300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1827600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2062700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6599400</v>
+        <v>5558500</v>
       </c>
       <c r="E60" s="3">
-        <v>6738200</v>
+        <v>6408100</v>
       </c>
       <c r="F60" s="3">
-        <v>6994300</v>
+        <v>6759300</v>
       </c>
       <c r="G60" s="3">
-        <v>5367700</v>
+        <v>6901500</v>
       </c>
       <c r="H60" s="3">
-        <v>4726200</v>
+        <v>7163700</v>
       </c>
       <c r="I60" s="3">
+        <v>5497800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4840700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5106700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4338600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3929100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3186200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3858600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4947000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5174700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6512200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6264900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4319500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3624300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3483800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3657100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3258100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4659500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4309700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4047800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4647000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3911800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9341800</v>
+        <v>9128100</v>
       </c>
       <c r="E61" s="3">
-        <v>9176200</v>
+        <v>9138500</v>
       </c>
       <c r="F61" s="3">
-        <v>9067000</v>
+        <v>9568100</v>
       </c>
       <c r="G61" s="3">
-        <v>10915600</v>
+        <v>9398500</v>
       </c>
       <c r="H61" s="3">
-        <v>12435000</v>
+        <v>9286700</v>
       </c>
       <c r="I61" s="3">
+        <v>11180000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12736300</v>
+      </c>
+      <c r="K61" s="3">
         <v>12630300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14248200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16721500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17244000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17783800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16800500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>15905300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16634100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16797700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>15936000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>14827600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>13976400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>15485600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>16060000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>15316600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>15662600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>15874000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>10121400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>11518100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12510300</v>
+        <v>12480000</v>
       </c>
       <c r="E62" s="3">
-        <v>12165300</v>
+        <v>12577000</v>
       </c>
       <c r="F62" s="3">
-        <v>12521800</v>
+        <v>12813300</v>
       </c>
       <c r="G62" s="3">
-        <v>12443000</v>
+        <v>12460000</v>
       </c>
       <c r="H62" s="3">
-        <v>11597600</v>
+        <v>12825200</v>
       </c>
       <c r="I62" s="3">
+        <v>12744400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11878500</v>
+      </c>
+      <c r="K62" s="3">
         <v>11784900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11713300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12540200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11434400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11640000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11852700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12547200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>13114700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>12370300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11846000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>11675900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>11571800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11923400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>11687800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>11440000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>11023200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>10891500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>9479200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>9446200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28451500</v>
+        <v>27166600</v>
       </c>
       <c r="E66" s="3">
-        <v>28079700</v>
+        <v>28123700</v>
       </c>
       <c r="F66" s="3">
-        <v>28583100</v>
+        <v>29140700</v>
       </c>
       <c r="G66" s="3">
-        <v>28726300</v>
+        <v>28760000</v>
       </c>
       <c r="H66" s="3">
-        <v>28758800</v>
+        <v>29275500</v>
       </c>
       <c r="I66" s="3">
+        <v>29422200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>29455500</v>
+      </c>
+      <c r="K66" s="3">
         <v>29521800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30300000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33190800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31864600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33282400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>33600200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33627200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>36261000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>35432900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>32101500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>30127700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>29032000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>31066100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>31005900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>31416100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>30995600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>30813300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>24247600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>24876100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20067200</v>
+        <v>20653300</v>
       </c>
       <c r="E72" s="3">
-        <v>20932200</v>
+        <v>20497800</v>
       </c>
       <c r="F72" s="3">
-        <v>20296400</v>
+        <v>20553300</v>
       </c>
       <c r="G72" s="3">
-        <v>19366400</v>
+        <v>21439200</v>
       </c>
       <c r="H72" s="3">
-        <v>18537600</v>
+        <v>20788100</v>
       </c>
       <c r="I72" s="3">
+        <v>19835500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>18986600</v>
+      </c>
+      <c r="K72" s="3">
         <v>17639300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17044100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>17615200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>17264700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>17746100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>18382500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>19822300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>21042900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>19767600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>17591900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>17146600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>17464500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>17309700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>17152300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>16828100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>16783400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>16523700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>16490100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>16536900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27582900</v>
+        <v>28581500</v>
       </c>
       <c r="E76" s="3">
-        <v>28451500</v>
+        <v>28277700</v>
       </c>
       <c r="F76" s="3">
-        <v>27836700</v>
+        <v>28251100</v>
       </c>
       <c r="G76" s="3">
-        <v>26719400</v>
+        <v>29140700</v>
       </c>
       <c r="H76" s="3">
-        <v>25693100</v>
+        <v>28511100</v>
       </c>
       <c r="I76" s="3">
+        <v>27366600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>26315500</v>
+      </c>
+      <c r="K76" s="3">
         <v>24739200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24033300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>25054000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24659700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25373000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26102000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>27281400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>28846000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>27180000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24840600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>24335100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>24266400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>24398700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>24108900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>23556500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>23322800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>23060100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>20263600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>20179100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2035100</v>
+        <v>1332600</v>
       </c>
       <c r="E81" s="3">
-        <v>2532700</v>
+        <v>1125900</v>
       </c>
       <c r="F81" s="3">
-        <v>2242700</v>
+        <v>2084400</v>
       </c>
       <c r="G81" s="3">
-        <v>1832600</v>
+        <v>2594100</v>
       </c>
       <c r="H81" s="3">
-        <v>1592500</v>
+        <v>2297000</v>
       </c>
       <c r="I81" s="3">
+        <v>1877000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1631100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1121700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>995900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>579500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>312800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-243300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>465500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>851400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2245000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>739800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-590600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1309500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>739200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>438900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>294700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>509000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>797800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>188200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>434800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1051600</v>
+        <v>1050400</v>
       </c>
       <c r="E83" s="3">
-        <v>985700</v>
+        <v>2317800</v>
       </c>
       <c r="F83" s="3">
-        <v>1017600</v>
+        <v>1077000</v>
       </c>
       <c r="G83" s="3">
-        <v>1065300</v>
+        <v>1009600</v>
       </c>
       <c r="H83" s="3">
-        <v>1042900</v>
+        <v>1042200</v>
       </c>
       <c r="I83" s="3">
+        <v>1091100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1068100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1003800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1027700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1249600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1122400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1101000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1227300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1208500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1182200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1036500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>972300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1010700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>949100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>956000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>946300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1046400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>945900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>900500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>997900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>959500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4410200</v>
+        <v>959300</v>
       </c>
       <c r="E89" s="3">
-        <v>4264100</v>
+        <v>3365900</v>
       </c>
       <c r="F89" s="3">
-        <v>2063300</v>
+        <v>4517000</v>
       </c>
       <c r="G89" s="3">
-        <v>3407800</v>
+        <v>4367400</v>
       </c>
       <c r="H89" s="3">
-        <v>3102600</v>
+        <v>2113300</v>
       </c>
       <c r="I89" s="3">
+        <v>3490400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3177800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2126300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1834100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>982700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1586900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-275400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1353700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1913300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2087500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2268800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>766700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1063200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2646600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1967000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1858600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1070200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1876900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1213800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1283700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>964100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-1257000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-1233000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
+        <v>-1135000</v>
       </c>
       <c r="G91" s="3">
-        <v>2900</v>
+        <v>-1380000</v>
       </c>
       <c r="H91" s="3">
+        <v>-1388000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1554000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-957000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>1416700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1401400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-29300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-25400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>72300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-215800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-42200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-11900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-49900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-618400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-493200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-816500</v>
+        <v>-854100</v>
       </c>
       <c r="E94" s="3">
-        <v>-972700</v>
+        <v>-934800</v>
       </c>
       <c r="F94" s="3">
-        <v>-904700</v>
+        <v>-836300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1168000</v>
+        <v>-996300</v>
       </c>
       <c r="H94" s="3">
-        <v>-521400</v>
+        <v>-926700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1196300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-534100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-520000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-468600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-482800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-492900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-543800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-674100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-665800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-752800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-792100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-793100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-919300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-856700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-799300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-863500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-411000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7418,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1831200</v>
+        <v>-694800</v>
       </c>
       <c r="E96" s="3">
-        <v>-629900</v>
+        <v>-617800</v>
       </c>
       <c r="F96" s="3">
-        <v>-498300</v>
+        <v>-1875600</v>
       </c>
       <c r="G96" s="3">
-        <v>-399200</v>
+        <v>-645200</v>
       </c>
       <c r="H96" s="3">
-        <v>-403600</v>
+        <v>-510400</v>
       </c>
       <c r="I96" s="3">
+        <v>-408900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-413300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-402800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-363800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-388400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-384900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-393900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-348400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-346200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-370600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-356100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-310200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-309000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-297200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-309400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-252900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-249300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-248600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-227700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-195100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3353600</v>
+        <v>-718500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3213300</v>
+        <v>-2168100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1606300</v>
+        <v>-3434800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2348300</v>
+        <v>-3291100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2056100</v>
+        <v>-1645200</v>
       </c>
       <c r="I100" s="3">
+        <v>-2405200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2105900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1604800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1378500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-492900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>161700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>51800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1515500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>16900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-418600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-816800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-401100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-223300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>5465500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-418700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-554700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>240100</v>
+        <v>-613300</v>
       </c>
       <c r="E102" s="3">
-        <v>78100</v>
+        <v>263000</v>
       </c>
       <c r="F102" s="3">
-        <v>-447700</v>
+        <v>245900</v>
       </c>
       <c r="G102" s="3">
-        <v>-108500</v>
+        <v>80000</v>
       </c>
       <c r="H102" s="3">
-        <v>525100</v>
+        <v>-458500</v>
       </c>
       <c r="I102" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>537800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-44500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-657600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>731400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-184000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>244300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-148400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>82800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>22600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>11300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-130200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>195000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>23100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6392600</v>
+        <v>5841400</v>
       </c>
       <c r="E8" s="3">
-        <v>7177000</v>
+        <v>6389300</v>
       </c>
       <c r="F8" s="3">
-        <v>7745900</v>
+        <v>7173300</v>
       </c>
       <c r="G8" s="3">
-        <v>8500000</v>
+        <v>7741900</v>
       </c>
       <c r="H8" s="3">
-        <v>7908900</v>
+        <v>8495600</v>
       </c>
       <c r="I8" s="3">
-        <v>6824400</v>
+        <v>7904800</v>
       </c>
       <c r="J8" s="3">
+        <v>6820900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5711800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4719000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4779000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3882700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3452900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2253000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3531300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5106900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4410800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4040000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2817600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4286700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4480600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4120800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3872100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3323600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2910600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2797900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2656500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3331800</v>
+        <v>3362000</v>
       </c>
       <c r="E9" s="3">
-        <v>3637000</v>
+        <v>3330100</v>
       </c>
       <c r="F9" s="3">
-        <v>3193300</v>
+        <v>3635200</v>
       </c>
       <c r="G9" s="3">
-        <v>3680700</v>
+        <v>3191700</v>
       </c>
       <c r="H9" s="3">
-        <v>3329600</v>
+        <v>3678800</v>
       </c>
       <c r="I9" s="3">
-        <v>2914100</v>
+        <v>3327900</v>
       </c>
       <c r="J9" s="3">
+        <v>2912600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2428100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2354100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2378700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2281800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1951100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1701300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2445200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2388900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2332900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2005500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1977700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1895900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1901000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2080700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2094300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2102400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1830800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1529400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1339800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1267600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3060700</v>
+        <v>2479500</v>
       </c>
       <c r="E10" s="3">
-        <v>3540000</v>
+        <v>3059200</v>
       </c>
       <c r="F10" s="3">
-        <v>4552600</v>
+        <v>3538200</v>
       </c>
       <c r="G10" s="3">
-        <v>4819300</v>
+        <v>4550300</v>
       </c>
       <c r="H10" s="3">
-        <v>4579300</v>
+        <v>4816800</v>
       </c>
       <c r="I10" s="3">
-        <v>3910400</v>
+        <v>4576900</v>
       </c>
       <c r="J10" s="3">
+        <v>3908400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3283700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2364900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1501800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>551700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1086100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2211900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2774000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2405200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2062300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>921700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2385700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2399900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2026500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1769700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1492900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1381300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1458100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1389000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,43 +1262,46 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-354100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-167900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1050400</v>
+        <v>1034300</v>
       </c>
       <c r="E15" s="3">
-        <v>2317800</v>
+        <v>1049800</v>
       </c>
       <c r="F15" s="3">
-        <v>1077000</v>
+        <v>2316600</v>
       </c>
       <c r="G15" s="3">
-        <v>1009600</v>
+        <v>1076500</v>
       </c>
       <c r="H15" s="3">
-        <v>1042200</v>
+        <v>1009100</v>
       </c>
       <c r="I15" s="3">
-        <v>1091100</v>
+        <v>1041700</v>
       </c>
       <c r="J15" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1068100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1003800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1027700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1249600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1122400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1101000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1227300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1208500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1182200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1036500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>972300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1010700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>949100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>956000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>946300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1046400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>945900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>900500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>997900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>959500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4577800</v>
+        <v>4603600</v>
       </c>
       <c r="E17" s="3">
-        <v>6331800</v>
+        <v>4575400</v>
       </c>
       <c r="F17" s="3">
-        <v>4397800</v>
+        <v>6328600</v>
       </c>
       <c r="G17" s="3">
-        <v>4771800</v>
+        <v>4395500</v>
       </c>
       <c r="H17" s="3">
-        <v>4897000</v>
+        <v>4769400</v>
       </c>
       <c r="I17" s="3">
-        <v>4252600</v>
+        <v>4894500</v>
       </c>
       <c r="J17" s="3">
+        <v>4250400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3283700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3553200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3601600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3580900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3176200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2929400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3623100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3836000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3641200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3139600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3085400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2898200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2878400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3261100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3069900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3316900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2948600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2437300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2453000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2352300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1814800</v>
+        <v>1237900</v>
       </c>
       <c r="E18" s="3">
-        <v>845200</v>
+        <v>1813900</v>
       </c>
       <c r="F18" s="3">
-        <v>3348100</v>
+        <v>844800</v>
       </c>
       <c r="G18" s="3">
-        <v>3728100</v>
+        <v>3346400</v>
       </c>
       <c r="H18" s="3">
-        <v>3011800</v>
+        <v>3726200</v>
       </c>
       <c r="I18" s="3">
-        <v>2571800</v>
+        <v>3010300</v>
       </c>
       <c r="J18" s="3">
+        <v>2570500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2428100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1165800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1177400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>301800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>276800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-676400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>764900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1465800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1271200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>954600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-80700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1408300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1219500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1050900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>555200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>375100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>473300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>344900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>304200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5900</v>
       </c>
-      <c r="E20" s="3">
-        <v>285900</v>
-      </c>
       <c r="F20" s="3">
-        <v>-448100</v>
+        <v>285800</v>
       </c>
       <c r="G20" s="3">
-        <v>-252600</v>
+        <v>-447900</v>
       </c>
       <c r="H20" s="3">
-        <v>128900</v>
+        <v>-252500</v>
       </c>
       <c r="I20" s="3">
+        <v>128800</v>
+      </c>
+      <c r="J20" s="3">
         <v>104400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-215600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>406400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>182300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>478200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>176300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>355500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-877300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>104500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-143400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>114200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>131600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-422400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>281200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-21100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-249900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>90800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>343100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>494200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>14600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>57600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2859300</v>
+        <v>2478000</v>
       </c>
       <c r="E21" s="3">
-        <v>3448900</v>
+        <v>2857800</v>
       </c>
       <c r="F21" s="3">
-        <v>3977000</v>
+        <v>3447100</v>
       </c>
       <c r="G21" s="3">
-        <v>4485200</v>
+        <v>3975000</v>
       </c>
       <c r="H21" s="3">
-        <v>4183000</v>
+        <v>4482900</v>
       </c>
       <c r="I21" s="3">
-        <v>3767400</v>
+        <v>4180800</v>
       </c>
       <c r="J21" s="3">
+        <v>3765500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3280700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2576100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2387300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2029500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1575400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>780000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>258200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2077800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2504600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2421900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2058500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>507600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2638600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2154500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1747200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1692300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1664100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1868000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1357500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1321400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114100</v>
+        <v>131800</v>
       </c>
       <c r="E22" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F22" s="3">
         <v>145900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>111100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>118500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>120700</v>
       </c>
-      <c r="I22" s="3">
-        <v>150400</v>
-      </c>
       <c r="J22" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K22" s="3">
         <v>131900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>128000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>133800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>192700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>133400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>156200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>161700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>228400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>191500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>156200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>147000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>181100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>130800</v>
-      </c>
-      <c r="W22" s="3">
-        <v>143000</v>
       </c>
       <c r="X22" s="3">
         <v>143000</v>
       </c>
       <c r="Y22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>198000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>136200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>107900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>102900</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1694800</v>
+        <v>1311900</v>
       </c>
       <c r="E23" s="3">
-        <v>985200</v>
+        <v>1693900</v>
       </c>
       <c r="F23" s="3">
-        <v>2788900</v>
+        <v>984700</v>
       </c>
       <c r="G23" s="3">
-        <v>3357000</v>
+        <v>2787500</v>
       </c>
       <c r="H23" s="3">
-        <v>3020000</v>
+        <v>3355300</v>
       </c>
       <c r="I23" s="3">
-        <v>2525900</v>
+        <v>3018400</v>
       </c>
       <c r="J23" s="3">
+        <v>2524600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2080700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1444300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1225900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>587300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>319700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-477100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>640900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1130800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1229200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>939200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-684200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1558800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1055400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>657900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>448000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>582000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>859600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>256600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>361800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362200</v>
+        <v>228800</v>
       </c>
       <c r="E24" s="3">
+        <v>362000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-140700</v>
       </c>
-      <c r="F24" s="3">
-        <v>704400</v>
-      </c>
       <c r="G24" s="3">
-        <v>763000</v>
+        <v>704100</v>
       </c>
       <c r="H24" s="3">
-        <v>723000</v>
+        <v>762600</v>
       </c>
       <c r="I24" s="3">
-        <v>648900</v>
+        <v>722600</v>
       </c>
       <c r="J24" s="3">
+        <v>648600</v>
+      </c>
+      <c r="K24" s="3">
         <v>449600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>322600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>230000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-233900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-124800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>175400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>279400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>199400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-93600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>249300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>316200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>219100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>153300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>72900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>61800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>68400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-73000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1332600</v>
+        <v>1083100</v>
       </c>
       <c r="E26" s="3">
-        <v>1125900</v>
+        <v>1331900</v>
       </c>
       <c r="F26" s="3">
-        <v>2084400</v>
+        <v>1125300</v>
       </c>
       <c r="G26" s="3">
-        <v>2594100</v>
+        <v>2083400</v>
       </c>
       <c r="H26" s="3">
-        <v>2297000</v>
+        <v>2592700</v>
       </c>
       <c r="I26" s="3">
-        <v>1877000</v>
+        <v>2295900</v>
       </c>
       <c r="J26" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1631100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1121700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>995900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>579500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>312800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-243300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>465500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>851400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2245000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>739800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-590600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1309500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>739200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>438900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>294700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>509000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>797800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>188200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>434800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1332600</v>
+        <v>1083100</v>
       </c>
       <c r="E27" s="3">
-        <v>1125900</v>
+        <v>1331900</v>
       </c>
       <c r="F27" s="3">
-        <v>2084400</v>
+        <v>1125300</v>
       </c>
       <c r="G27" s="3">
-        <v>2594100</v>
+        <v>2083400</v>
       </c>
       <c r="H27" s="3">
-        <v>2297000</v>
+        <v>2592700</v>
       </c>
       <c r="I27" s="3">
-        <v>1877000</v>
+        <v>2295900</v>
       </c>
       <c r="J27" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1631100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1121700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>995900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>579500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>312800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-243300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>465500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>851400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2245000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>739800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-590600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1309500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>739200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>438900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>294700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>509000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>797800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>188200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>434800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-205800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-285900</v>
-      </c>
       <c r="F32" s="3">
-        <v>448100</v>
+        <v>-285800</v>
       </c>
       <c r="G32" s="3">
-        <v>252600</v>
+        <v>447900</v>
       </c>
       <c r="H32" s="3">
-        <v>-128900</v>
+        <v>252500</v>
       </c>
       <c r="I32" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-104400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>215600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-406400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-182300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-478200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-176300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-355500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>877300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-104500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>143400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-114200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-131600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>422400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-281200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>21100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>249900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-90800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-343100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-494200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-57600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1332600</v>
+        <v>1083100</v>
       </c>
       <c r="E33" s="3">
-        <v>1125900</v>
+        <v>1331900</v>
       </c>
       <c r="F33" s="3">
-        <v>2084400</v>
+        <v>1125300</v>
       </c>
       <c r="G33" s="3">
-        <v>2594100</v>
+        <v>2083400</v>
       </c>
       <c r="H33" s="3">
-        <v>2297000</v>
+        <v>2592700</v>
       </c>
       <c r="I33" s="3">
-        <v>1877000</v>
+        <v>2295900</v>
       </c>
       <c r="J33" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1631100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1121700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>995900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>579500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>312800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-243300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>465500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>851400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2245000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>739800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-590600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1309500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>739200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>438900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>294700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>509000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>797800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>188200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>434800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1332600</v>
+        <v>1083100</v>
       </c>
       <c r="E35" s="3">
-        <v>1125900</v>
+        <v>1331900</v>
       </c>
       <c r="F35" s="3">
-        <v>2084400</v>
+        <v>1125300</v>
       </c>
       <c r="G35" s="3">
-        <v>2594100</v>
+        <v>2083400</v>
       </c>
       <c r="H35" s="3">
-        <v>2297000</v>
+        <v>2592700</v>
       </c>
       <c r="I35" s="3">
-        <v>1877000</v>
+        <v>2295900</v>
       </c>
       <c r="J35" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1631100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1121700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>995900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>579500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>312800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-243300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>465500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>851400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2245000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>739800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-590600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1309500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>739200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>438900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>294700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>509000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>797800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>188200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>434800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,524 +3267,543 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E41" s="3">
         <v>68100</v>
       </c>
-      <c r="E41" s="3">
-        <v>681500</v>
-      </c>
       <c r="F41" s="3">
-        <v>418500</v>
+        <v>681100</v>
       </c>
       <c r="G41" s="3">
-        <v>172600</v>
+        <v>418300</v>
       </c>
       <c r="H41" s="3">
-        <v>92600</v>
+        <v>172500</v>
       </c>
       <c r="I41" s="3">
-        <v>551100</v>
+        <v>92500</v>
       </c>
       <c r="J41" s="3">
+        <v>550800</v>
+      </c>
+      <c r="K41" s="3">
         <v>662200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>182800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>840500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>108400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>315600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>76900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>215100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>137000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>114400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>102000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>232200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>37200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>14600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>358500</v>
+        <v>387900</v>
       </c>
       <c r="E42" s="3">
-        <v>363700</v>
+        <v>358300</v>
       </c>
       <c r="F42" s="3">
-        <v>298500</v>
+        <v>363500</v>
       </c>
       <c r="G42" s="3">
-        <v>271900</v>
+        <v>298400</v>
       </c>
       <c r="H42" s="3">
-        <v>290400</v>
+        <v>271700</v>
       </c>
       <c r="I42" s="3">
-        <v>228900</v>
+        <v>290200</v>
       </c>
       <c r="J42" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K42" s="3">
         <v>226700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>339200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>305200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>236000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>208500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>215800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>174200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>382000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>470100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>433800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>422600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>398800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>478200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>560800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>587900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>664600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>660900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>619200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>626100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>701400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2520000</v>
+        <v>2065600</v>
       </c>
       <c r="E43" s="3">
-        <v>2633300</v>
+        <v>2518700</v>
       </c>
       <c r="F43" s="3">
-        <v>2897800</v>
+        <v>2632000</v>
       </c>
       <c r="G43" s="3">
-        <v>3714800</v>
+        <v>2896300</v>
       </c>
       <c r="H43" s="3">
-        <v>3486700</v>
+        <v>3712900</v>
       </c>
       <c r="I43" s="3">
-        <v>2304400</v>
+        <v>3484900</v>
       </c>
       <c r="J43" s="3">
+        <v>2303300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2352600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2302700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2012700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1933600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1477300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1692700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1195900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1932000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1993900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1684400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1760600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>873700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1436700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1965500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1656100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2023500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1239100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1637300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1637100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1755400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1422200</v>
+        <v>1455500</v>
       </c>
       <c r="E44" s="3">
-        <v>1344400</v>
+        <v>1421500</v>
       </c>
       <c r="F44" s="3">
-        <v>1360000</v>
+        <v>1343800</v>
       </c>
       <c r="G44" s="3">
-        <v>1420000</v>
+        <v>1359300</v>
       </c>
       <c r="H44" s="3">
-        <v>1256300</v>
+        <v>1419300</v>
       </c>
       <c r="I44" s="3">
-        <v>1146700</v>
+        <v>1255700</v>
       </c>
       <c r="J44" s="3">
+        <v>1146100</v>
+      </c>
+      <c r="K44" s="3">
         <v>914800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>878000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>786900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>820200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>830300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>859300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>737700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>898200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>954200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>942900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>825200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>726800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>812400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>783700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>744500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>665300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>652700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>691400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>505500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>529300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227400</v>
+        <v>410900</v>
       </c>
       <c r="E45" s="3">
-        <v>204400</v>
+        <v>227300</v>
       </c>
       <c r="F45" s="3">
-        <v>321500</v>
+        <v>204300</v>
       </c>
       <c r="G45" s="3">
-        <v>297000</v>
+        <v>321300</v>
       </c>
       <c r="H45" s="3">
-        <v>219300</v>
+        <v>296900</v>
       </c>
       <c r="I45" s="3">
-        <v>170400</v>
+        <v>219100</v>
       </c>
       <c r="J45" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K45" s="3">
         <v>257000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>324700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>284900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>242200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>443100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>240900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>335100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>177800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>314200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>306900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>204000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>222200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>258700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>297400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>198700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>189000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>282100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>266400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>398700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>331900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4596300</v>
+        <v>4410300</v>
       </c>
       <c r="E46" s="3">
-        <v>5227400</v>
+        <v>4593900</v>
       </c>
       <c r="F46" s="3">
-        <v>5296300</v>
+        <v>5224700</v>
       </c>
       <c r="G46" s="3">
-        <v>5876300</v>
+        <v>5293600</v>
       </c>
       <c r="H46" s="3">
-        <v>5345200</v>
+        <v>5873300</v>
       </c>
       <c r="I46" s="3">
-        <v>4401500</v>
+        <v>5342400</v>
       </c>
       <c r="J46" s="3">
+        <v>4399200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4413300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3966100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3509800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3374300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3093400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3191500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3283400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3498400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3878300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3683600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3281700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2298500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3201100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3744400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3301700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3644400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3066900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3251500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3182000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3331000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3727,150 +3832,156 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>401400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>429400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>520500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>536000</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>508300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>587800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>620100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>641300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>668200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>627900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>641400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>627800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>596900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>557400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>519500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>504700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>496300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50686600</v>
+        <v>50817600</v>
       </c>
       <c r="E48" s="3">
-        <v>50764400</v>
+        <v>50660600</v>
       </c>
       <c r="F48" s="3">
-        <v>51735500</v>
+        <v>50738400</v>
       </c>
       <c r="G48" s="3">
-        <v>51682900</v>
+        <v>51709000</v>
       </c>
       <c r="H48" s="3">
-        <v>51976200</v>
+        <v>51656400</v>
       </c>
       <c r="I48" s="3">
-        <v>51968800</v>
+        <v>51949600</v>
       </c>
       <c r="J48" s="3">
+        <v>51942200</v>
+      </c>
+      <c r="K48" s="3">
         <v>50911800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49876100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50009900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54033300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52633700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>54504900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55426200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56456700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60141800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>57872200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>52626400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>51142200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49193300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>50788500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50896900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>50458900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>50437300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49826300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>40562500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>40940500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>465200</v>
+        <v>416800</v>
       </c>
       <c r="E52" s="3">
-        <v>409600</v>
+        <v>464900</v>
       </c>
       <c r="F52" s="3">
-        <v>360000</v>
+        <v>409400</v>
       </c>
       <c r="G52" s="3">
-        <v>341500</v>
+        <v>359800</v>
       </c>
       <c r="H52" s="3">
-        <v>465200</v>
+        <v>341300</v>
       </c>
       <c r="I52" s="3">
-        <v>418500</v>
+        <v>464900</v>
       </c>
       <c r="J52" s="3">
+        <v>418300</v>
+      </c>
+      <c r="K52" s="3">
         <v>445900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>418700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>412200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>407800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>276800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>423000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>992700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>445200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>499100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>437000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>392600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>353900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>276100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>290600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>288300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>272400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>256800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>276100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>262000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>287300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55748100</v>
+        <v>55644700</v>
       </c>
       <c r="E54" s="3">
-        <v>56401400</v>
+        <v>55719500</v>
       </c>
       <c r="F54" s="3">
-        <v>57391800</v>
+        <v>56372500</v>
       </c>
       <c r="G54" s="3">
-        <v>57900700</v>
+        <v>57362400</v>
       </c>
       <c r="H54" s="3">
-        <v>57786600</v>
+        <v>57871000</v>
       </c>
       <c r="I54" s="3">
-        <v>56788800</v>
+        <v>57757000</v>
       </c>
       <c r="J54" s="3">
+        <v>56759700</v>
+      </c>
+      <c r="K54" s="3">
         <v>55771100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54261000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54333300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58244800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56524400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58655400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59702200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60908600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65107000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62612900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56942000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54462800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>53298400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55464800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55114800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>54972600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>54318400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>53873400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>44511200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>45055200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>903700</v>
+        <v>829200</v>
       </c>
       <c r="E57" s="3">
-        <v>993300</v>
+        <v>903200</v>
       </c>
       <c r="F57" s="3">
-        <v>937000</v>
+        <v>992800</v>
       </c>
       <c r="G57" s="3">
-        <v>851900</v>
+        <v>936600</v>
       </c>
       <c r="H57" s="3">
-        <v>714100</v>
+        <v>851400</v>
       </c>
       <c r="I57" s="3">
-        <v>594800</v>
+        <v>713700</v>
       </c>
       <c r="J57" s="3">
+        <v>594500</v>
+      </c>
+      <c r="K57" s="3">
         <v>732600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>566300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>548900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>516100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>632500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>475600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>629400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>636200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>548800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>732800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>599700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>592900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>732500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>730200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>705400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>576800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>590900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>488200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>415600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>457100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>915600</v>
+        <v>1885000</v>
       </c>
       <c r="E58" s="3">
-        <v>480000</v>
+        <v>915100</v>
       </c>
       <c r="F58" s="3">
-        <v>1157000</v>
+        <v>479800</v>
       </c>
       <c r="G58" s="3">
-        <v>1097000</v>
+        <v>1156400</v>
       </c>
       <c r="H58" s="3">
-        <v>2167400</v>
+        <v>1096500</v>
       </c>
       <c r="I58" s="3">
-        <v>877800</v>
+        <v>2166300</v>
       </c>
       <c r="J58" s="3">
+        <v>877300</v>
+      </c>
+      <c r="K58" s="3">
         <v>878500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1797900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1416100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1185400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>779700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1604800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2373100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2045900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3548300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3330700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1445700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>868400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>363300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>621800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>484800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1396900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1395400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1448200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2403800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1392000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3739300</v>
+        <v>3630000</v>
       </c>
       <c r="E59" s="3">
-        <v>4934800</v>
+        <v>3737300</v>
       </c>
       <c r="F59" s="3">
-        <v>4665200</v>
+        <v>4932300</v>
       </c>
       <c r="G59" s="3">
-        <v>4952600</v>
+        <v>4662800</v>
       </c>
       <c r="H59" s="3">
-        <v>4282200</v>
+        <v>4950000</v>
       </c>
       <c r="I59" s="3">
-        <v>4025200</v>
+        <v>4280000</v>
       </c>
       <c r="J59" s="3">
+        <v>4023100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3229600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2742500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2373600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2227600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1774000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1778200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1944600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2492600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2415000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2201400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2274000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2163000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2387900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2305000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2067900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2685900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2323400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2111300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1827600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2062700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5558500</v>
+        <v>6344100</v>
       </c>
       <c r="E60" s="3">
-        <v>6408100</v>
+        <v>5555700</v>
       </c>
       <c r="F60" s="3">
-        <v>6759300</v>
+        <v>6404900</v>
       </c>
       <c r="G60" s="3">
-        <v>6901500</v>
+        <v>6755800</v>
       </c>
       <c r="H60" s="3">
-        <v>7163700</v>
+        <v>6897900</v>
       </c>
       <c r="I60" s="3">
-        <v>5497800</v>
+        <v>7160000</v>
       </c>
       <c r="J60" s="3">
+        <v>5495000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4840700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5106700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4338600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3929100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3186200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3858600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4947000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5174700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6512200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6264900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4319500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3624300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3483800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3657100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3258100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4659500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4309700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4047800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4647000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3911800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9128100</v>
+        <v>8242400</v>
       </c>
       <c r="E61" s="3">
-        <v>9138500</v>
+        <v>9123500</v>
       </c>
       <c r="F61" s="3">
-        <v>9568100</v>
+        <v>9133800</v>
       </c>
       <c r="G61" s="3">
-        <v>9398500</v>
+        <v>9563200</v>
       </c>
       <c r="H61" s="3">
-        <v>9286700</v>
+        <v>9393700</v>
       </c>
       <c r="I61" s="3">
-        <v>11180000</v>
+        <v>9281900</v>
       </c>
       <c r="J61" s="3">
+        <v>11174300</v>
+      </c>
+      <c r="K61" s="3">
         <v>12736300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12630300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14248200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16721500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17244000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17783800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16800500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15905300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16634100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16797700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15936000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14827600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13976400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15485600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16060000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15316600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15662600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15874000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10121400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11518100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12480000</v>
+        <v>12447700</v>
       </c>
       <c r="E62" s="3">
-        <v>12577000</v>
+        <v>12473600</v>
       </c>
       <c r="F62" s="3">
-        <v>12813300</v>
+        <v>12570600</v>
       </c>
       <c r="G62" s="3">
-        <v>12460000</v>
+        <v>12806700</v>
       </c>
       <c r="H62" s="3">
-        <v>12825200</v>
+        <v>12453600</v>
       </c>
       <c r="I62" s="3">
-        <v>12744400</v>
+        <v>12818600</v>
       </c>
       <c r="J62" s="3">
+        <v>12737900</v>
+      </c>
+      <c r="K62" s="3">
         <v>11878500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11784900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11713300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12540200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11434400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11640000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11852700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12547200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13114700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12370300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11846000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11675900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11571800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11923400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11687800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11440000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11023200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10891500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9479200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9446200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27166600</v>
+        <v>27034200</v>
       </c>
       <c r="E66" s="3">
-        <v>28123700</v>
+        <v>27152700</v>
       </c>
       <c r="F66" s="3">
-        <v>29140700</v>
+        <v>28109200</v>
       </c>
       <c r="G66" s="3">
-        <v>28760000</v>
+        <v>29125800</v>
       </c>
       <c r="H66" s="3">
-        <v>29275500</v>
+        <v>28745200</v>
       </c>
       <c r="I66" s="3">
-        <v>29422200</v>
+        <v>29260500</v>
       </c>
       <c r="J66" s="3">
+        <v>29407100</v>
+      </c>
+      <c r="K66" s="3">
         <v>29455500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29521800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30300000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33190800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31864600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33282400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33600200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33627200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36261000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35432900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32101500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30127700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29032000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31066100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31005900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31416100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>30995600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>30813300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24247600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24876100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20653300</v>
+        <v>20680500</v>
       </c>
       <c r="E72" s="3">
-        <v>20497800</v>
+        <v>20642700</v>
       </c>
       <c r="F72" s="3">
-        <v>20553300</v>
+        <v>20487200</v>
       </c>
       <c r="G72" s="3">
-        <v>21439200</v>
+        <v>20542800</v>
       </c>
       <c r="H72" s="3">
-        <v>20788100</v>
+        <v>21428200</v>
       </c>
       <c r="I72" s="3">
-        <v>19835500</v>
+        <v>20777500</v>
       </c>
       <c r="J72" s="3">
+        <v>19825400</v>
+      </c>
+      <c r="K72" s="3">
         <v>18986600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17639300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17044100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17615200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17264700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17746100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18382500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19822300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21042900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19767600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17591900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17146600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17464500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17309700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17152300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16828100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16783400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16523700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16490100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16536900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28581500</v>
+        <v>28610500</v>
       </c>
       <c r="E76" s="3">
-        <v>28277700</v>
+        <v>28566800</v>
       </c>
       <c r="F76" s="3">
-        <v>28251100</v>
+        <v>28263200</v>
       </c>
       <c r="G76" s="3">
-        <v>29140700</v>
+        <v>28236600</v>
       </c>
       <c r="H76" s="3">
-        <v>28511100</v>
+        <v>29125800</v>
       </c>
       <c r="I76" s="3">
-        <v>27366600</v>
+        <v>28496500</v>
       </c>
       <c r="J76" s="3">
+        <v>27352600</v>
+      </c>
+      <c r="K76" s="3">
         <v>26315500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24739200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24033300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25054000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24659700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25373000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26102000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27281400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28846000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27180000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24840600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24335100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24266400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24398700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24108900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23556500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23322800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23060100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>20263600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20179100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1332600</v>
+        <v>1083100</v>
       </c>
       <c r="E81" s="3">
-        <v>1125900</v>
+        <v>1331900</v>
       </c>
       <c r="F81" s="3">
-        <v>2084400</v>
+        <v>1125300</v>
       </c>
       <c r="G81" s="3">
-        <v>2594100</v>
+        <v>2083400</v>
       </c>
       <c r="H81" s="3">
-        <v>2297000</v>
+        <v>2592700</v>
       </c>
       <c r="I81" s="3">
-        <v>1877000</v>
+        <v>2295900</v>
       </c>
       <c r="J81" s="3">
+        <v>1876100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1631100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1121700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>995900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>579500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>312800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-243300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>465500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>851400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2245000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>739800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-590600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1309500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>739200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>438900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>294700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>509000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>797800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>188200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>434800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1050400</v>
+        <v>1034300</v>
       </c>
       <c r="E83" s="3">
-        <v>2317800</v>
+        <v>1049800</v>
       </c>
       <c r="F83" s="3">
-        <v>1077000</v>
+        <v>2316600</v>
       </c>
       <c r="G83" s="3">
-        <v>1009600</v>
+        <v>1076500</v>
       </c>
       <c r="H83" s="3">
-        <v>1042200</v>
+        <v>1009100</v>
       </c>
       <c r="I83" s="3">
-        <v>1091100</v>
+        <v>1041700</v>
       </c>
       <c r="J83" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1068100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1003800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1027700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1249600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1122400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1101000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1227300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1208500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1182200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1036500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>972300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1010700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>949100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>956000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>946300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1046400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>945900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>900500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>997900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>959500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>959300</v>
+        <v>2032300</v>
       </c>
       <c r="E89" s="3">
-        <v>3365900</v>
+        <v>958800</v>
       </c>
       <c r="F89" s="3">
-        <v>4517000</v>
+        <v>3364200</v>
       </c>
       <c r="G89" s="3">
-        <v>4367400</v>
+        <v>4514700</v>
       </c>
       <c r="H89" s="3">
-        <v>2113300</v>
+        <v>4365200</v>
       </c>
       <c r="I89" s="3">
-        <v>3490400</v>
+        <v>2112200</v>
       </c>
       <c r="J89" s="3">
+        <v>3488600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3177800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2126300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1834100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>982700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1586900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-275400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1353700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1913300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2087500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2268800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>766700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1063200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2646600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1967000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1858600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1070200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1876900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1213800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1283700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>964100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1569000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1257000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1233000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1135000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1380000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1388000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1554000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-957000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>1416700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1401400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>72300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-215800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-49900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-618400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-493200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-854100</v>
+        <v>-1155000</v>
       </c>
       <c r="E94" s="3">
-        <v>-934800</v>
+        <v>-853600</v>
       </c>
       <c r="F94" s="3">
-        <v>-836300</v>
+        <v>-934300</v>
       </c>
       <c r="G94" s="3">
-        <v>-996300</v>
+        <v>-835900</v>
       </c>
       <c r="H94" s="3">
-        <v>-926700</v>
+        <v>-995800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1196300</v>
+        <v>-926200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1195700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-534100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-520000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-468600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-482800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-492900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-543800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-674100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-665800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-752800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-792100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-793100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-919300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-856700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-799300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-863500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-411000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-694800</v>
+        <v>-732200</v>
       </c>
       <c r="E96" s="3">
-        <v>-617800</v>
+        <v>-694500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1875600</v>
+        <v>-617500</v>
       </c>
       <c r="G96" s="3">
-        <v>-645200</v>
+        <v>-1874600</v>
       </c>
       <c r="H96" s="3">
-        <v>-510400</v>
+        <v>-644900</v>
       </c>
       <c r="I96" s="3">
-        <v>-408900</v>
+        <v>-510100</v>
       </c>
       <c r="J96" s="3">
+        <v>-408700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-413300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-402800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-363800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-388400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-384900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-393900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-348400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-346200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-370600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-356100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-310200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-309000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-297200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-309400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-252900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-249300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-248600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-227700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-195100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-718500</v>
+        <v>-855100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2168100</v>
+        <v>-718100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3434800</v>
+        <v>-2167000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3291100</v>
+        <v>-3433000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1645200</v>
+        <v>-3289400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2405200</v>
+        <v>-1644300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2403900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2105900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1604800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1378500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-492900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>161700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>51800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1515500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-418600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-816800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-401100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-223300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5465500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-418700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-554700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-613300</v>
+        <v>22200</v>
       </c>
       <c r="E102" s="3">
-        <v>263000</v>
+        <v>-613000</v>
       </c>
       <c r="F102" s="3">
-        <v>245900</v>
+        <v>262800</v>
       </c>
       <c r="G102" s="3">
+        <v>245800</v>
+      </c>
+      <c r="H102" s="3">
         <v>80000</v>
       </c>
-      <c r="H102" s="3">
-        <v>-458500</v>
-      </c>
       <c r="I102" s="3">
+        <v>-458300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-111100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>537800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-657600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>731400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-184000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>244300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-148400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>82800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>22600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-130200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>195000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>23100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CNQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5841400</v>
+        <v>7193800</v>
       </c>
       <c r="E8" s="3">
-        <v>6389300</v>
+        <v>5736100</v>
       </c>
       <c r="F8" s="3">
-        <v>7173300</v>
+        <v>6274100</v>
       </c>
       <c r="G8" s="3">
-        <v>7741900</v>
+        <v>7044000</v>
       </c>
       <c r="H8" s="3">
-        <v>8495600</v>
+        <v>7602300</v>
       </c>
       <c r="I8" s="3">
-        <v>7904800</v>
+        <v>8342400</v>
       </c>
       <c r="J8" s="3">
+        <v>7762300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6820900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5711800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4719000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4779000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3882700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3452900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2253000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3531300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5106900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4410800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4040000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2817600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4286700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4480600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4120800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3872100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3323600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2910600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2797900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2656500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1793800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3362000</v>
+        <v>3153800</v>
       </c>
       <c r="E9" s="3">
-        <v>3330100</v>
+        <v>3301400</v>
       </c>
       <c r="F9" s="3">
-        <v>3635200</v>
+        <v>3270100</v>
       </c>
       <c r="G9" s="3">
-        <v>3191700</v>
+        <v>3569600</v>
       </c>
       <c r="H9" s="3">
-        <v>3678800</v>
+        <v>3134100</v>
       </c>
       <c r="I9" s="3">
-        <v>3327900</v>
+        <v>3612500</v>
       </c>
       <c r="J9" s="3">
+        <v>3267900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2912600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2428100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2354100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2378700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2281800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1951100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1701300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2445200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2388900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2332900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2005500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1977700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1895900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1901000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2080700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2094300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2102400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1830800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1529400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1339800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1267600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1104700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2479500</v>
+        <v>4040000</v>
       </c>
       <c r="E10" s="3">
-        <v>3059200</v>
+        <v>2434800</v>
       </c>
       <c r="F10" s="3">
-        <v>3538200</v>
+        <v>3004000</v>
       </c>
       <c r="G10" s="3">
-        <v>4550300</v>
+        <v>3474400</v>
       </c>
       <c r="H10" s="3">
-        <v>4816800</v>
+        <v>4468200</v>
       </c>
       <c r="I10" s="3">
-        <v>4576900</v>
+        <v>4729900</v>
       </c>
       <c r="J10" s="3">
+        <v>4494400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3908400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3283700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2364900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1501800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>551700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1086100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2211900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2774000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2405200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2062300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>921700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2385700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2399900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2026500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1769700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1492900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1381300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1458100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1389000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>689100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,35 +1296,35 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-354100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-167900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1354,97 +1374,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1034300</v>
+        <v>1117400</v>
       </c>
       <c r="E15" s="3">
-        <v>1049800</v>
+        <v>1015600</v>
       </c>
       <c r="F15" s="3">
-        <v>2316600</v>
+        <v>1030900</v>
       </c>
       <c r="G15" s="3">
-        <v>1076500</v>
+        <v>2274800</v>
       </c>
       <c r="H15" s="3">
-        <v>1009100</v>
+        <v>1057100</v>
       </c>
       <c r="I15" s="3">
-        <v>1041700</v>
+        <v>990900</v>
       </c>
       <c r="J15" s="3">
+        <v>1022900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1090600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1068100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1003800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1027700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1249600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1122400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1227300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1208500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1182200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1036500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>972300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1010700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>949100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>956000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>946300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1046400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>945900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>900500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>997900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>959500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4603600</v>
+        <v>4633200</v>
       </c>
       <c r="E17" s="3">
-        <v>4575400</v>
+        <v>4520500</v>
       </c>
       <c r="F17" s="3">
-        <v>6328600</v>
+        <v>4492900</v>
       </c>
       <c r="G17" s="3">
-        <v>4395500</v>
+        <v>6214500</v>
       </c>
       <c r="H17" s="3">
-        <v>4769400</v>
+        <v>4316300</v>
       </c>
       <c r="I17" s="3">
-        <v>4894500</v>
+        <v>4683400</v>
       </c>
       <c r="J17" s="3">
+        <v>4806300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4250400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3283700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3553200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3601600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3580900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3176200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2929400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3623100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3836000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3641200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3139600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3085400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2898200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2878400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3261100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3069900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3316900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2948600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2437300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2453000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2352300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2186400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1237900</v>
+        <v>2560500</v>
       </c>
       <c r="E18" s="3">
-        <v>1813900</v>
+        <v>1215600</v>
       </c>
       <c r="F18" s="3">
-        <v>844800</v>
+        <v>1781200</v>
       </c>
       <c r="G18" s="3">
-        <v>3346400</v>
+        <v>829500</v>
       </c>
       <c r="H18" s="3">
-        <v>3726200</v>
+        <v>3286100</v>
       </c>
       <c r="I18" s="3">
-        <v>3010300</v>
+        <v>3659000</v>
       </c>
       <c r="J18" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2570500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2428100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1165800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1177400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>301800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>276800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-676400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-91800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>764900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1465800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1271200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>954600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-80700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1408300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1219500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1050900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>555200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>375100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>473300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>344900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>304200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-392600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>205800</v>
+        <v>-136700</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>202100</v>
       </c>
       <c r="F20" s="3">
-        <v>285800</v>
+        <v>-5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-447900</v>
+        <v>280600</v>
       </c>
       <c r="H20" s="3">
-        <v>-252500</v>
+        <v>-439800</v>
       </c>
       <c r="I20" s="3">
-        <v>128800</v>
+        <v>-247900</v>
       </c>
       <c r="J20" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K20" s="3">
         <v>104400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-215600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>406400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>182300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>478200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>176300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>355500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-877300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>104500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-143400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>114200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>131600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-422400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>281200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-249900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>90800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>343100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>494200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>14600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>57600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-59900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2478000</v>
+        <v>3541300</v>
       </c>
       <c r="E21" s="3">
-        <v>2857800</v>
+        <v>2433300</v>
       </c>
       <c r="F21" s="3">
-        <v>3447100</v>
+        <v>2806300</v>
       </c>
       <c r="G21" s="3">
-        <v>3975000</v>
+        <v>3385000</v>
       </c>
       <c r="H21" s="3">
-        <v>4482900</v>
+        <v>3903300</v>
       </c>
       <c r="I21" s="3">
-        <v>4180800</v>
+        <v>4402000</v>
       </c>
       <c r="J21" s="3">
+        <v>4105400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3765500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3280700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2576100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2387300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2029500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1575400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>780000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>258200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2077800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2504600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2421900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2058500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>507600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2638600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2154500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1747200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1692300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1664100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1868000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1357500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1321400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>481700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>131800</v>
+        <v>136000</v>
       </c>
       <c r="E22" s="3">
-        <v>114000</v>
+        <v>129400</v>
       </c>
       <c r="F22" s="3">
-        <v>145900</v>
+        <v>112000</v>
       </c>
       <c r="G22" s="3">
-        <v>111100</v>
+        <v>143200</v>
       </c>
       <c r="H22" s="3">
+        <v>109100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>116300</v>
+      </c>
+      <c r="J22" s="3">
         <v>118500</v>
       </c>
-      <c r="I22" s="3">
-        <v>120700</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>150300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>131900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>128000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>133800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>192700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>133400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>156200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>161700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>228400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>191500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>156200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>147000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>181100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>130800</v>
-      </c>
-      <c r="X22" s="3">
-        <v>143000</v>
       </c>
       <c r="Y22" s="3">
         <v>143000</v>
       </c>
       <c r="Z22" s="3">
+        <v>143000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>198000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>136200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>107900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>102900</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1311900</v>
+        <v>2287900</v>
       </c>
       <c r="E23" s="3">
-        <v>1693900</v>
+        <v>1288300</v>
       </c>
       <c r="F23" s="3">
-        <v>984700</v>
+        <v>1663400</v>
       </c>
       <c r="G23" s="3">
-        <v>2787500</v>
+        <v>966900</v>
       </c>
       <c r="H23" s="3">
-        <v>3355300</v>
+        <v>2737200</v>
       </c>
       <c r="I23" s="3">
-        <v>3018400</v>
+        <v>3294800</v>
       </c>
       <c r="J23" s="3">
+        <v>2964000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2524600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2080700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1444300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1225900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>587300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>319700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-477100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1130800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>640900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1130800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1229200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>939200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-684200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1558800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1055400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>657900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>448000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>582000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>859600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>256600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>361800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-452500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>228800</v>
+        <v>583800</v>
       </c>
       <c r="E24" s="3">
-        <v>362000</v>
+        <v>224600</v>
       </c>
       <c r="F24" s="3">
-        <v>-140700</v>
+        <v>355500</v>
       </c>
       <c r="G24" s="3">
-        <v>704100</v>
+        <v>-138100</v>
       </c>
       <c r="H24" s="3">
-        <v>762600</v>
+        <v>691400</v>
       </c>
       <c r="I24" s="3">
-        <v>722600</v>
+        <v>748800</v>
       </c>
       <c r="J24" s="3">
+        <v>709600</v>
+      </c>
+      <c r="K24" s="3">
         <v>648600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>449600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>322600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>230000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-233900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-124800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>175400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>279400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1015900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>199400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-93600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>249300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>316200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>219100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>153300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>72900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>61800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>68400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-73000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-202000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1083100</v>
+        <v>1704100</v>
       </c>
       <c r="E26" s="3">
-        <v>1331900</v>
+        <v>1063600</v>
       </c>
       <c r="F26" s="3">
-        <v>1125300</v>
+        <v>1307900</v>
       </c>
       <c r="G26" s="3">
-        <v>2083400</v>
+        <v>1105100</v>
       </c>
       <c r="H26" s="3">
-        <v>2592700</v>
+        <v>2045800</v>
       </c>
       <c r="I26" s="3">
-        <v>2295900</v>
+        <v>2546000</v>
       </c>
       <c r="J26" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1876100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1631100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1121700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>995900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>579500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>312800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>465500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>851400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2245000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>739800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-590600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1309500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>739200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>438900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>294700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>509000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>797800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>188200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>434800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1083100</v>
+        <v>1704100</v>
       </c>
       <c r="E27" s="3">
-        <v>1331900</v>
+        <v>1063600</v>
       </c>
       <c r="F27" s="3">
-        <v>1125300</v>
+        <v>1307900</v>
       </c>
       <c r="G27" s="3">
-        <v>2083400</v>
+        <v>1105100</v>
       </c>
       <c r="H27" s="3">
-        <v>2592700</v>
+        <v>2045800</v>
       </c>
       <c r="I27" s="3">
-        <v>2295900</v>
+        <v>2546000</v>
       </c>
       <c r="J27" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1876100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1631100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1121700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>995900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>579500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>312800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>465500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>851400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2245000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>739800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-590600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1309500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>739200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>438900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>294700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>509000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>797800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>188200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>434800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-205800</v>
+        <v>136700</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>-202100</v>
       </c>
       <c r="F32" s="3">
-        <v>-285800</v>
+        <v>5800</v>
       </c>
       <c r="G32" s="3">
-        <v>447900</v>
+        <v>-280600</v>
       </c>
       <c r="H32" s="3">
-        <v>252500</v>
+        <v>439800</v>
       </c>
       <c r="I32" s="3">
-        <v>-128800</v>
+        <v>247900</v>
       </c>
       <c r="J32" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>215600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-406400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-182300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-478200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-176300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-355500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>877300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-104500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>143400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-114200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-131600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>422400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-281200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>21100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>249900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-90800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-343100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-494200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-57600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1083100</v>
+        <v>1704100</v>
       </c>
       <c r="E33" s="3">
-        <v>1331900</v>
+        <v>1063600</v>
       </c>
       <c r="F33" s="3">
-        <v>1125300</v>
+        <v>1307900</v>
       </c>
       <c r="G33" s="3">
-        <v>2083400</v>
+        <v>1105100</v>
       </c>
       <c r="H33" s="3">
-        <v>2592700</v>
+        <v>2045800</v>
       </c>
       <c r="I33" s="3">
-        <v>2295900</v>
+        <v>2546000</v>
       </c>
       <c r="J33" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1876100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1631100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1121700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>995900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>579500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>312800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>465500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>851400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2245000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>739800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-590600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1309500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>739200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>438900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>294700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>509000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>797800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>188200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>434800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1083100</v>
+        <v>1704100</v>
       </c>
       <c r="E35" s="3">
-        <v>1331900</v>
+        <v>1063600</v>
       </c>
       <c r="F35" s="3">
-        <v>1125300</v>
+        <v>1307900</v>
       </c>
       <c r="G35" s="3">
-        <v>2083400</v>
+        <v>1105100</v>
       </c>
       <c r="H35" s="3">
-        <v>2592700</v>
+        <v>2045800</v>
       </c>
       <c r="I35" s="3">
-        <v>2295900</v>
+        <v>2546000</v>
       </c>
       <c r="J35" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1876100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1631100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1121700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>995900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>579500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>312800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>465500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>851400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2245000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>739800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-590600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1309500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>739200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>438900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>294700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>509000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>797800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>188200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>434800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,542 +3354,561 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90300</v>
+        <v>90900</v>
       </c>
       <c r="E41" s="3">
-        <v>68100</v>
+        <v>88700</v>
       </c>
       <c r="F41" s="3">
-        <v>681100</v>
+        <v>66900</v>
       </c>
       <c r="G41" s="3">
-        <v>418300</v>
+        <v>668800</v>
       </c>
       <c r="H41" s="3">
-        <v>172500</v>
+        <v>410800</v>
       </c>
       <c r="I41" s="3">
-        <v>92500</v>
+        <v>169400</v>
       </c>
       <c r="J41" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K41" s="3">
         <v>550800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>662200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>182800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>840500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>108400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>145900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>315600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>69300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>76900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>215100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>137000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>114400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>102000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>232200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>37200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>14600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>387900</v>
+        <v>410800</v>
       </c>
       <c r="E42" s="3">
-        <v>358300</v>
+        <v>381000</v>
       </c>
       <c r="F42" s="3">
-        <v>363500</v>
+        <v>351900</v>
       </c>
       <c r="G42" s="3">
-        <v>298400</v>
+        <v>357000</v>
       </c>
       <c r="H42" s="3">
-        <v>271700</v>
+        <v>293000</v>
       </c>
       <c r="I42" s="3">
-        <v>290200</v>
+        <v>266800</v>
       </c>
       <c r="J42" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K42" s="3">
         <v>228800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>226700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>339200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>305200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>236000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>208500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>215800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>174200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>382000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>470100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>433800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>422600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>398800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>478200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>560800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>587900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>664600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>660900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>619200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>626100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>701400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>464800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2065600</v>
+        <v>3070900</v>
       </c>
       <c r="E43" s="3">
-        <v>2518700</v>
+        <v>2028400</v>
       </c>
       <c r="F43" s="3">
-        <v>2632000</v>
+        <v>2473300</v>
       </c>
       <c r="G43" s="3">
-        <v>2896300</v>
+        <v>2584500</v>
       </c>
       <c r="H43" s="3">
-        <v>3712900</v>
+        <v>2844100</v>
       </c>
       <c r="I43" s="3">
-        <v>3484900</v>
+        <v>3646000</v>
       </c>
       <c r="J43" s="3">
+        <v>3422000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2303300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2352600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2302700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2012700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1933600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1477300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1692700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1195900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1932000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1993900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1684400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1760600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>873700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1436700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1965500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1656100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2023500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1239100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1637300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1637100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1755400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1441200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1455500</v>
+        <v>1580500</v>
       </c>
       <c r="E44" s="3">
-        <v>1421500</v>
+        <v>1429300</v>
       </c>
       <c r="F44" s="3">
-        <v>1343800</v>
+        <v>1395900</v>
       </c>
       <c r="G44" s="3">
-        <v>1359300</v>
+        <v>1319500</v>
       </c>
       <c r="H44" s="3">
-        <v>1419300</v>
+        <v>1334800</v>
       </c>
       <c r="I44" s="3">
-        <v>1255700</v>
+        <v>1393700</v>
       </c>
       <c r="J44" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1146100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>914800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>878000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>786900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>820200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>830300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>859300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>737700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>898200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>954200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>942900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>825200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>726800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>812400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>783700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>744500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>665300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>652700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>691400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>505500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>529300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>473200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>410900</v>
+        <v>309000</v>
       </c>
       <c r="E45" s="3">
-        <v>227300</v>
+        <v>403500</v>
       </c>
       <c r="F45" s="3">
-        <v>204300</v>
+        <v>223200</v>
       </c>
       <c r="G45" s="3">
-        <v>321300</v>
+        <v>200700</v>
       </c>
       <c r="H45" s="3">
-        <v>296900</v>
+        <v>315500</v>
       </c>
       <c r="I45" s="3">
-        <v>219100</v>
+        <v>291500</v>
       </c>
       <c r="J45" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K45" s="3">
         <v>170300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>257000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>324700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>284900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>242200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>443100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>240900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>335100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>314200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>306900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>204000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>222200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>258700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>297400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>198700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>189000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>282100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>266400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>398700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>331900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>320400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4410300</v>
+        <v>5462000</v>
       </c>
       <c r="E46" s="3">
-        <v>4593900</v>
+        <v>4330800</v>
       </c>
       <c r="F46" s="3">
-        <v>5224700</v>
+        <v>4511100</v>
       </c>
       <c r="G46" s="3">
-        <v>5293600</v>
+        <v>5130500</v>
       </c>
       <c r="H46" s="3">
-        <v>5873300</v>
+        <v>5198100</v>
       </c>
       <c r="I46" s="3">
-        <v>5342400</v>
+        <v>5767400</v>
       </c>
       <c r="J46" s="3">
+        <v>5246100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4399200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4413300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3966100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3509800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3374300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3093400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3191500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3283400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3498400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3878300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3683600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3281700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2298500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3201100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3744400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3301700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3644400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3066900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3251500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3182000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3331000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2714200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3835,153 +3940,159 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>401400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>429400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>520500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>536000</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>508300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>587800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>620100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>641300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>668200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>627900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>641400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>627800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>596900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>557400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>519500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>504700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>496300</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>499300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50817600</v>
+        <v>49630100</v>
       </c>
       <c r="E48" s="3">
-        <v>50660600</v>
+        <v>49901200</v>
       </c>
       <c r="F48" s="3">
-        <v>50738400</v>
+        <v>49747100</v>
       </c>
       <c r="G48" s="3">
-        <v>51709000</v>
+        <v>49823400</v>
       </c>
       <c r="H48" s="3">
-        <v>51656400</v>
+        <v>50776600</v>
       </c>
       <c r="I48" s="3">
-        <v>51949600</v>
+        <v>50724900</v>
       </c>
       <c r="J48" s="3">
+        <v>51012800</v>
+      </c>
+      <c r="K48" s="3">
         <v>51942200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50911800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49876100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50009900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54033300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>52633700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54504900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55426200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56456700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60141800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>57872200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>52626400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>51142200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49193300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>50788500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>50896900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>50458900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>50437300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>49826300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>40562500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>40940500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>41054200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>416800</v>
+        <v>388200</v>
       </c>
       <c r="E52" s="3">
-        <v>464900</v>
+        <v>409300</v>
       </c>
       <c r="F52" s="3">
-        <v>409400</v>
+        <v>456600</v>
       </c>
       <c r="G52" s="3">
-        <v>359800</v>
+        <v>402000</v>
       </c>
       <c r="H52" s="3">
-        <v>341300</v>
+        <v>353300</v>
       </c>
       <c r="I52" s="3">
-        <v>464900</v>
+        <v>335200</v>
       </c>
       <c r="J52" s="3">
+        <v>456600</v>
+      </c>
+      <c r="K52" s="3">
         <v>418300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>445900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>418700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>412200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>407800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>276800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>423000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>992700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>445200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>499100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>437000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>392600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>353900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>276100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>290600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>288300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>272400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>256800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>276100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>262000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>287300</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>258900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55644700</v>
+        <v>55480300</v>
       </c>
       <c r="E54" s="3">
-        <v>55719500</v>
+        <v>54641300</v>
       </c>
       <c r="F54" s="3">
-        <v>56372500</v>
+        <v>54714800</v>
       </c>
       <c r="G54" s="3">
-        <v>57362400</v>
+        <v>55356000</v>
       </c>
       <c r="H54" s="3">
-        <v>57871000</v>
+        <v>56328000</v>
       </c>
       <c r="I54" s="3">
-        <v>57757000</v>
+        <v>56827500</v>
       </c>
       <c r="J54" s="3">
+        <v>56715500</v>
+      </c>
+      <c r="K54" s="3">
         <v>56759700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55771100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54261000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54333300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58244800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56524400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58655400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59702200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60908600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>65107000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62612900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56942000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54462800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53298400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55464800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>55114800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>54972600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>54318400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>53873400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>44511200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>45055200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>44526600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>829200</v>
+        <v>897900</v>
       </c>
       <c r="E57" s="3">
-        <v>903200</v>
+        <v>814300</v>
       </c>
       <c r="F57" s="3">
-        <v>992800</v>
+        <v>887000</v>
       </c>
       <c r="G57" s="3">
-        <v>936600</v>
+        <v>974900</v>
       </c>
       <c r="H57" s="3">
-        <v>851400</v>
+        <v>919700</v>
       </c>
       <c r="I57" s="3">
-        <v>713700</v>
+        <v>836100</v>
       </c>
       <c r="J57" s="3">
+        <v>700800</v>
+      </c>
+      <c r="K57" s="3">
         <v>594500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>732600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>566300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>548900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>516100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>632500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>475600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>629400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>636200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>548800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>732800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>599700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>592900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>732500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>730200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>705400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>576800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>590900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>488200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>415600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>457100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>480900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1885000</v>
+        <v>1323200</v>
       </c>
       <c r="E58" s="3">
-        <v>915100</v>
+        <v>1851000</v>
       </c>
       <c r="F58" s="3">
-        <v>479800</v>
+        <v>898600</v>
       </c>
       <c r="G58" s="3">
-        <v>1156400</v>
+        <v>471100</v>
       </c>
       <c r="H58" s="3">
-        <v>1096500</v>
+        <v>1135600</v>
       </c>
       <c r="I58" s="3">
-        <v>2166300</v>
+        <v>1076700</v>
       </c>
       <c r="J58" s="3">
+        <v>2127200</v>
+      </c>
+      <c r="K58" s="3">
         <v>877300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>878500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1797900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1416100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1185400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>779700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1604800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2373100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2045900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3548300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3330700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1445700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>868400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>363300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>621800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>484800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1396900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1395400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1448200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2403800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1392000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1611700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3630000</v>
+        <v>3777500</v>
       </c>
       <c r="E59" s="3">
-        <v>3737300</v>
+        <v>3564500</v>
       </c>
       <c r="F59" s="3">
-        <v>4932300</v>
+        <v>3669900</v>
       </c>
       <c r="G59" s="3">
-        <v>4662800</v>
+        <v>4843300</v>
       </c>
       <c r="H59" s="3">
-        <v>4950000</v>
+        <v>4578700</v>
       </c>
       <c r="I59" s="3">
-        <v>4280000</v>
+        <v>4860800</v>
       </c>
       <c r="J59" s="3">
+        <v>4202800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4023100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3229600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2742500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2373600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2227600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1774000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1778200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1944600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2492600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2415000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2201400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2274000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2163000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2387900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2305000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2067900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2685900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2323400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2111300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1827600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2062700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1857600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6344100</v>
+        <v>5998600</v>
       </c>
       <c r="E60" s="3">
-        <v>5555700</v>
+        <v>6229700</v>
       </c>
       <c r="F60" s="3">
-        <v>6404900</v>
+        <v>5455500</v>
       </c>
       <c r="G60" s="3">
-        <v>6755800</v>
+        <v>6289400</v>
       </c>
       <c r="H60" s="3">
-        <v>6897900</v>
+        <v>6634000</v>
       </c>
       <c r="I60" s="3">
-        <v>7160000</v>
+        <v>6773600</v>
       </c>
       <c r="J60" s="3">
+        <v>7030900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5495000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4840700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5106700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4338600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3929100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3186200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3858600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4947000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5174700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6512200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6264900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4319500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3624300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3483800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3657100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3258100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4659500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4309700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4047800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4647000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3911800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3950200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8242400</v>
+        <v>8221800</v>
       </c>
       <c r="E61" s="3">
-        <v>9123500</v>
+        <v>8093800</v>
       </c>
       <c r="F61" s="3">
-        <v>9133800</v>
+        <v>8958900</v>
       </c>
       <c r="G61" s="3">
-        <v>9563200</v>
+        <v>8969100</v>
       </c>
       <c r="H61" s="3">
-        <v>9393700</v>
+        <v>9390800</v>
       </c>
       <c r="I61" s="3">
-        <v>9281900</v>
+        <v>9224300</v>
       </c>
       <c r="J61" s="3">
+        <v>9114500</v>
+      </c>
+      <c r="K61" s="3">
         <v>11174300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12736300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12630300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14248200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16721500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17244000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17783800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16800500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15905300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16634100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16797700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15936000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14827600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13976400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15485600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16060000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15316600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15662600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15874000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10121400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>11518100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>11672500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12447700</v>
+        <v>12445700</v>
       </c>
       <c r="E62" s="3">
-        <v>12473600</v>
+        <v>12223200</v>
       </c>
       <c r="F62" s="3">
-        <v>12570600</v>
+        <v>12248700</v>
       </c>
       <c r="G62" s="3">
-        <v>12806700</v>
+        <v>12343900</v>
       </c>
       <c r="H62" s="3">
-        <v>12453600</v>
+        <v>12575800</v>
       </c>
       <c r="I62" s="3">
-        <v>12818600</v>
+        <v>12229000</v>
       </c>
       <c r="J62" s="3">
+        <v>12587500</v>
+      </c>
+      <c r="K62" s="3">
         <v>12737900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11878500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11784900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11713300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12540200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11434400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11640000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11852700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12547200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13114700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12370300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11846000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11675900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11571800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11923400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11687800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11440000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11023200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10891500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9479200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9446200</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9203400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27034200</v>
+        <v>26666000</v>
       </c>
       <c r="E66" s="3">
-        <v>27152700</v>
+        <v>26546800</v>
       </c>
       <c r="F66" s="3">
-        <v>28109200</v>
+        <v>26663100</v>
       </c>
       <c r="G66" s="3">
-        <v>29125800</v>
+        <v>27602400</v>
       </c>
       <c r="H66" s="3">
-        <v>28745200</v>
+        <v>28600600</v>
       </c>
       <c r="I66" s="3">
-        <v>29260500</v>
+        <v>28226900</v>
       </c>
       <c r="J66" s="3">
+        <v>28732900</v>
+      </c>
+      <c r="K66" s="3">
         <v>29407100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29455500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29521800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30300000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33190800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31864600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33282400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33600200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33627200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36261000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35432900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32101500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30127700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>29032000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31066100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31005900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>31416100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>30995600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>30813300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24247600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>24876100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>24826100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20680500</v>
+        <v>20917500</v>
       </c>
       <c r="E72" s="3">
-        <v>20642700</v>
+        <v>20307600</v>
       </c>
       <c r="F72" s="3">
-        <v>20487200</v>
+        <v>20270500</v>
       </c>
       <c r="G72" s="3">
-        <v>20542800</v>
+        <v>20117800</v>
       </c>
       <c r="H72" s="3">
-        <v>21428200</v>
+        <v>20172300</v>
       </c>
       <c r="I72" s="3">
-        <v>20777500</v>
+        <v>21041900</v>
       </c>
       <c r="J72" s="3">
+        <v>20402800</v>
+      </c>
+      <c r="K72" s="3">
         <v>19825400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18986600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17639300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17044100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17615200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17264700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17746100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18382500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19822300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21042900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19767600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17591900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17146600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17464500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17309700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17152300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16828100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16783400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16523700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16490100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>16536900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>16314900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28610500</v>
+        <v>28814300</v>
       </c>
       <c r="E76" s="3">
-        <v>28566800</v>
+        <v>28094600</v>
       </c>
       <c r="F76" s="3">
-        <v>28263200</v>
+        <v>28051700</v>
       </c>
       <c r="G76" s="3">
-        <v>28236600</v>
+        <v>27753600</v>
       </c>
       <c r="H76" s="3">
-        <v>29125800</v>
+        <v>27727400</v>
       </c>
       <c r="I76" s="3">
-        <v>28496500</v>
+        <v>28600600</v>
       </c>
       <c r="J76" s="3">
+        <v>27982600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27352600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26315500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24739200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24033300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25054000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24659700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25373000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26102000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27281400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28846000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27180000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24840600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24335100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24266400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24398700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24108900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23556500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23322800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>23060100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>20263600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>20179100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>19700500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1083100</v>
+        <v>1704100</v>
       </c>
       <c r="E81" s="3">
-        <v>1331900</v>
+        <v>1063600</v>
       </c>
       <c r="F81" s="3">
-        <v>1125300</v>
+        <v>1307900</v>
       </c>
       <c r="G81" s="3">
-        <v>2083400</v>
+        <v>1105100</v>
       </c>
       <c r="H81" s="3">
-        <v>2592700</v>
+        <v>2045800</v>
       </c>
       <c r="I81" s="3">
-        <v>2295900</v>
+        <v>2546000</v>
       </c>
       <c r="J81" s="3">
+        <v>2254500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1876100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1631100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1121700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>995900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>579500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>312800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-243300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>465500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>851400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2245000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>739800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-590600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1309500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>739200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>438900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>294700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>509000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>797800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>188200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>434800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-250400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1034300</v>
+        <v>1117400</v>
       </c>
       <c r="E83" s="3">
-        <v>1049800</v>
+        <v>1015600</v>
       </c>
       <c r="F83" s="3">
-        <v>2316600</v>
+        <v>1030900</v>
       </c>
       <c r="G83" s="3">
-        <v>1076500</v>
+        <v>2274800</v>
       </c>
       <c r="H83" s="3">
-        <v>1009100</v>
+        <v>1057100</v>
       </c>
       <c r="I83" s="3">
-        <v>1041700</v>
+        <v>990900</v>
       </c>
       <c r="J83" s="3">
+        <v>1022900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1090600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1068100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1003800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1027700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1249600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1122400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1227300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1208500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1182200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1036500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>972300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1010700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>949100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>956000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>946300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1046400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>945900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>900500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>997900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>959500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>934200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2032300</v>
+        <v>2543100</v>
       </c>
       <c r="E89" s="3">
-        <v>958800</v>
+        <v>1995600</v>
       </c>
       <c r="F89" s="3">
-        <v>3364200</v>
+        <v>941500</v>
       </c>
       <c r="G89" s="3">
-        <v>4514700</v>
+        <v>3303500</v>
       </c>
       <c r="H89" s="3">
-        <v>4365200</v>
+        <v>4433300</v>
       </c>
       <c r="I89" s="3">
-        <v>2112200</v>
+        <v>4286500</v>
       </c>
       <c r="J89" s="3">
+        <v>2074200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3488600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3177800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2126300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1834100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>982700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1586900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-275400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1353700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1913300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2087500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2268800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>766700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1063200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2646600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1967000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1858600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1070200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1876900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1213800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1283700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>964100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>690600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1108000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1569000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1257000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1233000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1135000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1380000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1388000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1554000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-957000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>1416700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1401400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>72300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-215800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-42200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-49900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-618400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-493200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-816600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1155000</v>
+        <v>-871700</v>
       </c>
       <c r="E94" s="3">
-        <v>-853600</v>
+        <v>-1134100</v>
       </c>
       <c r="F94" s="3">
-        <v>-934300</v>
+        <v>-838200</v>
       </c>
       <c r="G94" s="3">
-        <v>-835900</v>
+        <v>-917500</v>
       </c>
       <c r="H94" s="3">
-        <v>-995800</v>
+        <v>-820800</v>
       </c>
       <c r="I94" s="3">
-        <v>-926200</v>
+        <v>-977800</v>
       </c>
       <c r="J94" s="3">
+        <v>-909500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1195700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-534100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-520000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-468600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-482800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-492900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-543800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-674100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-665800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-752800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3540000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-792100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-793100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-919300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-856700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1030600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-799300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1458700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6656200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-863500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-411000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-658400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-732200</v>
+        <v>-715400</v>
       </c>
       <c r="E96" s="3">
-        <v>-694500</v>
+        <v>-719000</v>
       </c>
       <c r="F96" s="3">
-        <v>-617500</v>
+        <v>-681900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1874600</v>
+        <v>-606300</v>
       </c>
       <c r="H96" s="3">
-        <v>-644900</v>
+        <v>-1840800</v>
       </c>
       <c r="I96" s="3">
-        <v>-510100</v>
+        <v>-633200</v>
       </c>
       <c r="J96" s="3">
+        <v>-500900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-408700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-413300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-402800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-363800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-388400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-384900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-393900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-348400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-346200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-370600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-356100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-310200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-309000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-297200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-309400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-252900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-249300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-248600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-227700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-195100</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-193600</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-855100</v>
+        <v>-1669200</v>
       </c>
       <c r="E100" s="3">
-        <v>-718100</v>
+        <v>-839700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2167000</v>
+        <v>-705200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3433000</v>
+        <v>-2128000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3289400</v>
+        <v>-3371100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1644300</v>
+        <v>-3230100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1614700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2403900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2105900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1604800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1378500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-492900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>161700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>51800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1276300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1518800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1515500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-418600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1644500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1087800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-816800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-401100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-223300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5465500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-418700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-554700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-36100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22200</v>
+        <v>2200</v>
       </c>
       <c r="E102" s="3">
-        <v>-613000</v>
+        <v>21800</v>
       </c>
       <c r="F102" s="3">
-        <v>262800</v>
+        <v>-602000</v>
       </c>
       <c r="G102" s="3">
-        <v>245800</v>
+        <v>258100</v>
       </c>
       <c r="H102" s="3">
-        <v>80000</v>
+        <v>241400</v>
       </c>
       <c r="I102" s="3">
-        <v>-458300</v>
+        <v>78500</v>
       </c>
       <c r="J102" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-111100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>537800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-657600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>731400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-184000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>244300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-148400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>82800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>22600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-130200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>195000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>23100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-3800</v>
       </c>
     </row>
